--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -10,19 +10,46 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$3:$J$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$3:$K$48</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>gro on</t>
   </si>
   <si>
     <t>Sl.no</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Mrp.rate</t>
+  </si>
+  <si>
+    <t>Shal.rate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bisk Fram Googly </t>
+  </si>
+  <si>
+    <t>1 pkt.</t>
+  </si>
+  <si>
+    <t>1 pc.</t>
+  </si>
+  <si>
+    <t>kissam Mango jam</t>
+  </si>
+  <si>
+    <t>Nafice Rice</t>
   </si>
 </sst>
 </file>
@@ -53,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -165,16 +192,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,9 +260,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,297 +570,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J49"/>
+  <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" customHeight="1"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:10">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="2:11" ht="15" customHeight="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="I8" s="1">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="12"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="I10" s="1">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="12"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="6"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -788,10 +938,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="12"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -799,10 +950,11 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="12"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="6"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -810,10 +962,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="12"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="6"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -821,10 +974,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="12"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -832,10 +986,11 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="12"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -843,10 +998,11 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="12"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -854,10 +1010,11 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="12"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="6"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -865,10 +1022,11 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="12"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="6"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -876,10 +1034,11 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="12"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="6"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -887,10 +1046,11 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="12"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="6"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -898,10 +1058,11 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="12"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -909,10 +1070,11 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="12"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -920,10 +1082,11 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="12"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -931,10 +1094,11 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="12"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -942,10 +1106,11 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="12"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -953,10 +1118,11 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="12"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -964,10 +1130,11 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="12"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="6"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -975,10 +1142,11 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="12"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="6"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -986,10 +1154,11 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="12"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="6"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -997,38 +1166,29 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="12"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B49" s="13"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B48" s="7"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B3:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="49" min="1" max="9" man="1"/>
+    <brk id="48" min="1" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$3:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$B$3:$K$48</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="288">
   <si>
     <t>gro on</t>
   </si>
@@ -50,13 +51,844 @@
   </si>
   <si>
     <t>Nafice Rice</t>
+  </si>
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>U.O.M</t>
+  </si>
+  <si>
+    <t>Available  Stock</t>
+  </si>
+  <si>
+    <t>Tomato Ketchup ( Buttol)</t>
+  </si>
+  <si>
+    <t>pc.</t>
+  </si>
+  <si>
+    <t>Kissan pouch</t>
+  </si>
+  <si>
+    <t>Kissan Sachet</t>
+  </si>
+  <si>
+    <t>Soya Sauce</t>
+  </si>
+  <si>
+    <t>Chilli Sauce</t>
+  </si>
+  <si>
+    <t>Dabur Honey ( 50 gm. )</t>
+  </si>
+  <si>
+    <t>Dabur Honey ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Squeezy Buy 1- Get 1</t>
+  </si>
+  <si>
+    <t>Pantene Pro V ( botol sampo )</t>
+  </si>
+  <si>
+    <t>Head &amp; Shoulders(Anti Dandruff)</t>
+  </si>
+  <si>
+    <t>L'oreal Paris Total Repair 5</t>
+  </si>
+  <si>
+    <t>Dove Intense Repair(Conditioner)</t>
+  </si>
+  <si>
+    <t>Sunsilk thick&amp;Long Conditioner</t>
+  </si>
+  <si>
+    <t>Garnier Sachet</t>
+  </si>
+  <si>
+    <t>Clinic plus</t>
+  </si>
+  <si>
+    <t>Tresmme Sachet</t>
+  </si>
+  <si>
+    <t>Chilli Vinegar</t>
+  </si>
+  <si>
+    <t>Kissan Mix Fruit</t>
+  </si>
+  <si>
+    <t>Kissan Mango Jam</t>
+  </si>
+  <si>
+    <t>Jharna Ghee ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Annapurna Ghee ( 250 gm. )</t>
+  </si>
+  <si>
+    <t>Amulya ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>pkt.</t>
+  </si>
+  <si>
+    <t>1 pkt. 200 gm Lose</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Every Day</t>
+  </si>
+  <si>
+    <t>Shyam's Sooji</t>
+  </si>
+  <si>
+    <t>Ganesh Sooji</t>
+  </si>
+  <si>
+    <t>Dabur Babool Ayurvedic</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>Dabur Dant Rakshak</t>
+  </si>
+  <si>
+    <t>Dabur Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensodyne </t>
+  </si>
+  <si>
+    <t>Colgate Herbal ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Colgate Herbal ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Colgate Active Salt ( 46 gm. )</t>
+  </si>
+  <si>
+    <t>Colgate Strong Teeth ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Colgate Strong Teeth ( 46 gm. )</t>
+  </si>
+  <si>
+    <t>Colgate Active Salt ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Marvel Tea Premium</t>
+  </si>
+  <si>
+    <t>Tata Tea Premium</t>
+  </si>
+  <si>
+    <t>Red Label Natural Care ( 250 gm. )</t>
+  </si>
+  <si>
+    <t>Marvel Tea Yellow</t>
+  </si>
+  <si>
+    <t>Red Label ( 30 gm. )</t>
+  </si>
+  <si>
+    <t>Red Label ( 250 gm. )</t>
+  </si>
+  <si>
+    <t>Roasted Darjeeling Tea</t>
+  </si>
+  <si>
+    <t>Jac Olivol ( 300 gm. )</t>
+  </si>
+  <si>
+    <t>Jac Olivol ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Bajaj Almond Oil</t>
+  </si>
+  <si>
+    <t>Nihar Naturals Oil(jasmine)</t>
+  </si>
+  <si>
+    <t>Nihar Naturals Oil Uttam</t>
+  </si>
+  <si>
+    <t>Shalimar Coconut Oil</t>
+  </si>
+  <si>
+    <t>Parachute Aloevera Oil</t>
+  </si>
+  <si>
+    <t>Keokarpin Olive Oil</t>
+  </si>
+  <si>
+    <t>Lux Jasmine</t>
+  </si>
+  <si>
+    <t>Lux velvet</t>
+  </si>
+  <si>
+    <t>Lux Creamy</t>
+  </si>
+  <si>
+    <t>Cinthol Deo  (100*6)</t>
+  </si>
+  <si>
+    <t>Vivel Aloe Vera</t>
+  </si>
+  <si>
+    <t>Margo</t>
+  </si>
+  <si>
+    <t>Dettol Original ( 75 gm. )</t>
+  </si>
+  <si>
+    <t>Dettol Intense cool (125 gm.)</t>
+  </si>
+  <si>
+    <t>Dove Go Fresh</t>
+  </si>
+  <si>
+    <t>Lifebuoy Lemon Fresh</t>
+  </si>
+  <si>
+    <t>Wheel Active Green Bar</t>
+  </si>
+  <si>
+    <t>Surf Excel ( 800 gm. )</t>
+  </si>
+  <si>
+    <t>Tide Value Pack (1 kg.)</t>
+  </si>
+  <si>
+    <t>Lifebuoy Hand Wash</t>
+  </si>
+  <si>
+    <t>Ujala Supreme</t>
+  </si>
+  <si>
+    <t>Vaseline</t>
+  </si>
+  <si>
+    <t>Himalaya Purfy Neem</t>
+  </si>
+  <si>
+    <t>Himalaya Orange</t>
+  </si>
+  <si>
+    <t>Cookme Turmeric Powder(Halud gunro)</t>
+  </si>
+  <si>
+    <t>JK Dhaniya Powder</t>
+  </si>
+  <si>
+    <t>JK Turmeric Powder(halud Gunro)</t>
+  </si>
+  <si>
+    <t>JK Kala Jeera</t>
+  </si>
+  <si>
+    <t>JK Mustard(Sarisha)</t>
+  </si>
+  <si>
+    <t>JK Fenugreek (Methi)</t>
+  </si>
+  <si>
+    <t>JK Black Pepper(Kalo Marich)</t>
+  </si>
+  <si>
+    <t>JK Panch Foron</t>
+  </si>
+  <si>
+    <t>JK Mouri ( Sounf )</t>
+  </si>
+  <si>
+    <t>JK Chilli Powder</t>
+  </si>
+  <si>
+    <t>Jk Jeera Powder</t>
+  </si>
+  <si>
+    <t>Cookme Chilli Powder ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Satyendra Sattoo</t>
+  </si>
+  <si>
+    <t>Ganesh Sattoo</t>
+  </si>
+  <si>
+    <t>Nari Udyog</t>
+  </si>
+  <si>
+    <t>Nutrella Soyabine</t>
+  </si>
+  <si>
+    <t>Bisk farm Thin Arrowroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          b </t>
+  </si>
+  <si>
+    <t>Britannia nutri Choice(Cracker)</t>
+  </si>
+  <si>
+    <t>Bisk Farm Googly</t>
+  </si>
+  <si>
+    <t>Bisk Farm Ruskit</t>
+  </si>
+  <si>
+    <t>Britannia Nutri choice thin Arrowroot</t>
+  </si>
+  <si>
+    <t>Bisk Farm Cream Cracker</t>
+  </si>
+  <si>
+    <t>Parle Marie</t>
+  </si>
+  <si>
+    <t>Britannia Marie Gold ( 400 gm)</t>
+  </si>
+  <si>
+    <t>Britannia Marie Gold ( 300 gm)</t>
+  </si>
+  <si>
+    <t>Britannia Good day</t>
+  </si>
+  <si>
+    <t>Sunfeast Marie Light</t>
+  </si>
+  <si>
+    <t>Britannia Marie Gold(600*5)</t>
+  </si>
+  <si>
+    <t>bisk farm Top</t>
+  </si>
+  <si>
+    <t>Vita Marrie</t>
+  </si>
+  <si>
+    <t>Mast Jeera</t>
+  </si>
+  <si>
+    <t>Mashal Kachhi Ghani(Bottle)</t>
+  </si>
+  <si>
+    <t>Fortune Kachhi Ghani (Bottle 500)</t>
+  </si>
+  <si>
+    <t>Fortune Kachhi Ghani (Pouch 1 lt.)</t>
+  </si>
+  <si>
+    <t>Emami Refine Oil (500gm)</t>
+  </si>
+  <si>
+    <t>Emami Kachhi Ghani  (Pouch 1 lt.)</t>
+  </si>
+  <si>
+    <t>Fortune Refined Soyabean Oil (Pouch  1 lt.)</t>
+  </si>
+  <si>
+    <t>Himani Soyabean Oil (Pouch)</t>
+  </si>
+  <si>
+    <t>Sona Moong Dal</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Dalia</t>
+  </si>
+  <si>
+    <t>Urad (Beuli Dal)</t>
+  </si>
+  <si>
+    <t>Masoor malka Loose Stand()</t>
+  </si>
+  <si>
+    <t>Rajma</t>
+  </si>
+  <si>
+    <t>Maggi Family Fun pack</t>
+  </si>
+  <si>
+    <t>Suffola Oats</t>
+  </si>
+  <si>
+    <t>Maggi Mashala Noodles</t>
+  </si>
+  <si>
+    <t>Fine Life Fusilli Pasta</t>
+  </si>
+  <si>
+    <t>Fine Life Penne Pasta</t>
+  </si>
+  <si>
+    <t>Panda Treats Veg Hakka Chow</t>
+  </si>
+  <si>
+    <t>Ching's Secret Veg Hakka Noodles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loose Kaju </t>
+  </si>
+  <si>
+    <t>gm.</t>
+  </si>
+  <si>
+    <t>Cloves (Labanga)</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>Elach (Choto)</t>
+  </si>
+  <si>
+    <t>Motor Korai</t>
+  </si>
+  <si>
+    <t>Kabuli Chana</t>
+  </si>
+  <si>
+    <t>kg.</t>
+  </si>
+  <si>
+    <t>Ganesh Whole Wheat Chakki Atta</t>
+  </si>
+  <si>
+    <t>Ashirbad Shudh Chakki Atta</t>
+  </si>
+  <si>
+    <t>Mithun Jhuri vaja ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Mithun Jhuri vaja ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Rani Jhuri vaja ( 500 g. )</t>
+  </si>
+  <si>
+    <t>Soma Jhuri vaja</t>
+  </si>
+  <si>
+    <t>Hat jhur ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Hati jhur ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Dui Vai Muchmuch ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Dui Vai Muchmuch ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Raja Mouchak ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Raja Mouchak ( 165 gm. )</t>
+  </si>
+  <si>
+    <t>Kosturi Chanachur ( Raja )( 165 gm. )</t>
+  </si>
+  <si>
+    <t>Rong Info 160 gm on Groon File</t>
+  </si>
+  <si>
+    <t>Mohashakti Papri chanachur</t>
+  </si>
+  <si>
+    <t>Shree Durga Chanachur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinre vaja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilanjan Mashala Chinre </t>
+  </si>
+  <si>
+    <t>Badam Vaja ( Dui Vay )</t>
+  </si>
+  <si>
+    <t>Mama vujiya</t>
+  </si>
+  <si>
+    <t>Bashkathi chal</t>
+  </si>
+  <si>
+    <t>Minikit Premium</t>
+  </si>
+  <si>
+    <t>Muri</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Mayda</t>
+  </si>
+  <si>
+    <t>Sunlight ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Sunlight ( 125 gm. )</t>
+  </si>
+  <si>
+    <t>Safed ( 800 gm. )</t>
+  </si>
+  <si>
+    <t>Surf Excel ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Bhim Lemons  Soap ( 300 gm. )</t>
+  </si>
+  <si>
+    <t>Bhim Lemons  Soap ( 155 gm. )</t>
+  </si>
+  <si>
+    <t>Exo</t>
+  </si>
+  <si>
+    <t>Surf Excel ( 129 gm. )</t>
+  </si>
+  <si>
+    <t>Exo Round ( 700 gm. )</t>
+  </si>
+  <si>
+    <t>Dettol Original Soap (125 gm.)</t>
+  </si>
+  <si>
+    <t>Dettol Soap Intence Cool</t>
+  </si>
+  <si>
+    <t>Lifebuoy 100% Strong ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Dove Soap Value Pack</t>
+  </si>
+  <si>
+    <t>Lifebuoy Hand wash</t>
+  </si>
+  <si>
+    <t>Dettol Hand wash ( 175 ml )</t>
+  </si>
+  <si>
+    <t>Dove Shampoo &amp; Conditioner</t>
+  </si>
+  <si>
+    <t>Herpic Power Plus</t>
+  </si>
+  <si>
+    <t>Nimail Hurbal</t>
+  </si>
+  <si>
+    <t>Nimail Citro</t>
+  </si>
+  <si>
+    <t>Cholar Dal</t>
+  </si>
+  <si>
+    <t>gk.</t>
+  </si>
+  <si>
+    <t>Sunrise Chilli Powder</t>
+  </si>
+  <si>
+    <t>Sunrise Termaric Powder</t>
+  </si>
+  <si>
+    <t>Lose Atta Simran</t>
+  </si>
+  <si>
+    <t>emami Healthy Testy Soyabean oil(500gm)</t>
+  </si>
+  <si>
+    <t>Tok Jhal Misti Chanachur(500 gm)</t>
+  </si>
+  <si>
+    <t>emami Healthy Testy soyabean oil(1lt)</t>
+  </si>
+  <si>
+    <t>Tata Salt ( 500 gm. )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jk Gota Jeera </t>
+  </si>
+  <si>
+    <t>Jk Poppy Seed(Posto)</t>
+  </si>
+  <si>
+    <t>Tata Gold Tea (100 gm. )</t>
+  </si>
+  <si>
+    <t>Good Night Oil</t>
+  </si>
+  <si>
+    <t>Jharna Ghee ( 250 gm. )</t>
+  </si>
+  <si>
+    <t>Chasme Glycerine Soap</t>
+  </si>
+  <si>
+    <t>Sunrise Hing</t>
+  </si>
+  <si>
+    <t>R.K Gota Gorom Mashala</t>
+  </si>
+  <si>
+    <t>Sunrise Chiken Curry</t>
+  </si>
+  <si>
+    <t>Sunrise Aloo Dum</t>
+  </si>
+  <si>
+    <t>Sunrise Chat Mashala</t>
+  </si>
+  <si>
+    <t>Sunrise Shahi Garam Mashala</t>
+  </si>
+  <si>
+    <t>Sunrise Garam Mashala</t>
+  </si>
+  <si>
+    <t>Sunrise Meat Mashala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everest Shahi Biriyani Mashala </t>
+  </si>
+  <si>
+    <t>Nescafe Classic</t>
+  </si>
+  <si>
+    <t>Lifebouy Soap(sharadiya )(65 gm.)</t>
+  </si>
+  <si>
+    <t>Life Bouy Care Soap</t>
+  </si>
+  <si>
+    <t>Lifebouy  Total (62gm)</t>
+  </si>
+  <si>
+    <t>Sunsilk Sampoo</t>
+  </si>
+  <si>
+    <t>Dove Sampoo</t>
+  </si>
+  <si>
+    <t>Dove Conditionar</t>
+  </si>
+  <si>
+    <t>Mitha  Attor</t>
+  </si>
+  <si>
+    <t>Rose Water</t>
+  </si>
+  <si>
+    <t>Keora Water</t>
+  </si>
+  <si>
+    <t>Anandabazer Dhoop</t>
+  </si>
+  <si>
+    <t>Shree Hari Dhoop</t>
+  </si>
+  <si>
+    <t>Safron Dhoop</t>
+  </si>
+  <si>
+    <t>Pineapple Dhoop</t>
+  </si>
+  <si>
+    <t>Bhagbat Dhoop</t>
+  </si>
+  <si>
+    <t>Geela</t>
+  </si>
+  <si>
+    <t>Asli Chandan</t>
+  </si>
+  <si>
+    <t>Elach(7mm)</t>
+  </si>
+  <si>
+    <t>Poppy Seed ( Loose )</t>
+  </si>
+  <si>
+    <t>Loose Mouri</t>
+  </si>
+  <si>
+    <t>Loose Gota Jeera</t>
+  </si>
+  <si>
+    <t>Dry Chili</t>
+  </si>
+  <si>
+    <t>Jaitry</t>
+  </si>
+  <si>
+    <t>Beaking Powder</t>
+  </si>
+  <si>
+    <t>Cornflower</t>
+  </si>
+  <si>
+    <t>Ginzer</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Panda Treat Hakka Veg Chaw</t>
+  </si>
+  <si>
+    <t>Kheshari Bari ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Beuli Bari ( 500 gm.)</t>
+  </si>
+  <si>
+    <t>Moosoor Bari ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Papad (sunstar)</t>
+  </si>
+  <si>
+    <t>papad(Rangila)</t>
+  </si>
+  <si>
+    <t>Nutrela Soyabean ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Mashala Noodle ( Maeggy )</t>
+  </si>
+  <si>
+    <t>Wheel Surf ( 155 gm. )</t>
+  </si>
+  <si>
+    <t>Wheel Surf ( 800 gm. )</t>
+  </si>
+  <si>
+    <t>Ganesh Beson ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Ganesh Beson ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Kissan Tomatto Ketchup pouch ( 500 gm. )</t>
+  </si>
+  <si>
+    <t>Moog Karai</t>
+  </si>
+  <si>
+    <t>Kamal Moosoor Dal</t>
+  </si>
+  <si>
+    <t>Punjab Moosoor Dal</t>
+  </si>
+  <si>
+    <t>Arhor Dal</t>
+  </si>
+  <si>
+    <t>Moog Dal</t>
+  </si>
+  <si>
+    <t>Badam(Raw)</t>
+  </si>
+  <si>
+    <t>Loose Refine Oil</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Nafish Rice</t>
+  </si>
+  <si>
+    <t>Tejpata</t>
+  </si>
+  <si>
+    <t>Batasa</t>
+  </si>
+  <si>
+    <t>Nokul Dana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshada Bhog Rice </t>
+  </si>
+  <si>
+    <t>Lal Baba Rice</t>
+  </si>
+  <si>
+    <t>Gobinda Bhog Rice</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panda Simai </t>
+  </si>
+  <si>
+    <t>Ganesh Maida ( 1 kg. )</t>
+  </si>
+  <si>
+    <t>Apollo Papri Chanachur</t>
+  </si>
+  <si>
+    <t>Banskathi Rice(Ma laxmi) (bosta 25 kg )</t>
+  </si>
+  <si>
+    <t>Engine Musterd Oil</t>
+  </si>
+  <si>
+    <t>Amul Spray Milk Powder</t>
+  </si>
+  <si>
+    <t>Kashmiri Red Chili</t>
+  </si>
+  <si>
+    <t>muri</t>
+  </si>
+  <si>
+    <t>1.5 kg.</t>
+  </si>
+  <si>
+    <t>3 kg.</t>
+  </si>
+  <si>
+    <t>Elach( choto )</t>
+  </si>
+  <si>
+    <t>10 gm.</t>
+  </si>
+  <si>
+    <t>labango ( loose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafice Rice </t>
+  </si>
+  <si>
+    <t>100 gm.</t>
+  </si>
+  <si>
+    <t>50 gm.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +903,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -229,11 +1100,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -242,24 +1228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -276,6 +1244,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,83 +1625,83 @@
     <row r="1" spans="2:11" ht="15" customHeight="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="18">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -686,11 +1719,11 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -706,12 +1739,14 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1"/>
@@ -726,9 +1761,9 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -738,93 +1773,163 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>42</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="15">
+        <v>27</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="12">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="15">
+        <v>2500</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="12">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="15">
+        <v>2880</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="12">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="15">
+        <v>110</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="12">
+        <v>8</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>241</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="15">
+        <v>70</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="12">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="15">
+        <v>140</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -834,9 +1939,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -846,9 +1951,9 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -858,9 +1963,9 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -870,9 +1975,9 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -882,9 +1987,9 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -894,9 +1999,9 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -906,9 +2011,9 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -918,9 +2023,9 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1191,4 +2296,4183 @@
     <brk id="48" min="1" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I293"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="K168" sqref="K168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14">
+        <v>60</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="11">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="14">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14">
+        <v>6</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="14">
+        <v>6</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14">
+        <v>48</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="14">
+        <v>59</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14">
+        <v>48</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="11">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="14">
+        <v>6</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="11">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="11">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="11">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="11">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="11">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="11">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="11">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="11">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="11">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="11">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="11">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="14">
+        <v>8</v>
+      </c>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="11">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="14">
+        <v>13</v>
+      </c>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="11">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="11">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="14">
+        <v>9</v>
+      </c>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="11">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="14">
+        <v>2</v>
+      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="11">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="14">
+        <v>3</v>
+      </c>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="11">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="14">
+        <v>5</v>
+      </c>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="11">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="14">
+        <v>3</v>
+      </c>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="11">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2</v>
+      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="11">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="14">
+        <v>12</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="11">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="14">
+        <v>5</v>
+      </c>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="11">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="14">
+        <v>12</v>
+      </c>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="11">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="14">
+        <v>4</v>
+      </c>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="11">
+        <v>46</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="11">
+        <v>47</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="14">
+        <v>5</v>
+      </c>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="11">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6</v>
+      </c>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="11">
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="11">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="14">
+        <v>6</v>
+      </c>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="11">
+        <v>51</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="14">
+        <v>20</v>
+      </c>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="11">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="11">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="11">
+        <v>54</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="11">
+        <v>55</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="14">
+        <v>6</v>
+      </c>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="11">
+        <v>56</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="14">
+        <v>7</v>
+      </c>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="11">
+        <v>57</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="11">
+        <v>58</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="14">
+        <v>10</v>
+      </c>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="11">
+        <v>59</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="14">
+        <v>3</v>
+      </c>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="11">
+        <v>60</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="14">
+        <v>2</v>
+      </c>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="11">
+        <v>61</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="14">
+        <v>2</v>
+      </c>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="11">
+        <v>62</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="14">
+        <v>6</v>
+      </c>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="11">
+        <v>63</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="14">
+        <v>10</v>
+      </c>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="11">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="11">
+        <v>65</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="14">
+        <v>9</v>
+      </c>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="11">
+        <v>66</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0</v>
+      </c>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="11">
+        <v>67</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="14">
+        <v>8</v>
+      </c>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="11">
+        <v>68</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="14">
+        <v>6</v>
+      </c>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="11">
+        <v>69</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="11">
+        <v>70</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="14">
+        <v>6</v>
+      </c>
+      <c r="F72" s="20"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="11">
+        <v>71</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="24">
+        <v>10</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="11">
+        <v>72</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="14">
+        <v>10</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="11">
+        <v>73</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="14">
+        <v>2</v>
+      </c>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="11">
+        <v>74</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="14">
+        <v>3</v>
+      </c>
+      <c r="F76" s="20"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="11">
+        <v>75</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="11">
+        <v>76</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="14">
+        <v>9</v>
+      </c>
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="11">
+        <v>77</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="14">
+        <v>1</v>
+      </c>
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="11">
+        <v>78</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1</v>
+      </c>
+      <c r="F80" s="20"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="11">
+        <v>79</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="11">
+        <v>80</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="14">
+        <v>10</v>
+      </c>
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="11">
+        <v>81</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="14">
+        <v>12</v>
+      </c>
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="11">
+        <v>82</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="14">
+        <v>12</v>
+      </c>
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="11">
+        <v>83</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="20"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="11">
+        <v>84</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="14">
+        <v>6</v>
+      </c>
+      <c r="F86" s="20"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="11">
+        <v>85</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="14">
+        <v>2</v>
+      </c>
+      <c r="F87" s="20"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="11">
+        <v>86</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="20"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="11">
+        <v>87</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="14">
+        <v>2</v>
+      </c>
+      <c r="F89" s="20"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="11">
+        <v>88</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="14">
+        <v>19</v>
+      </c>
+      <c r="F90" s="20"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="11">
+        <v>89</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="11">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="11">
+        <v>90</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="14">
+        <v>19</v>
+      </c>
+      <c r="F92" s="20"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="11">
+        <v>91</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="14">
+        <v>14</v>
+      </c>
+      <c r="F93" s="20"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="11">
+        <v>92</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="14">
+        <v>20</v>
+      </c>
+      <c r="F94" s="20"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="11">
+        <v>93</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="14">
+        <v>8</v>
+      </c>
+      <c r="F95" s="20"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="11">
+        <v>94</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="14">
+        <v>13</v>
+      </c>
+      <c r="F96" s="20"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="11">
+        <v>95</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="25">
+        <v>19</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="11">
+        <v>96</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="14">
+        <v>8</v>
+      </c>
+      <c r="F98" s="20"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="11">
+        <v>97</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="14">
+        <v>14</v>
+      </c>
+      <c r="F99" s="20"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="11">
+        <v>98</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="14">
+        <v>2</v>
+      </c>
+      <c r="F100" s="20"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="11">
+        <v>99</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="20"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="11">
+        <v>100</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="14">
+        <v>13</v>
+      </c>
+      <c r="F102" s="20"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="11">
+        <v>101</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="14">
+        <v>9</v>
+      </c>
+      <c r="F103" s="20"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="11">
+        <v>102</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="11">
+        <v>103</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="14">
+        <v>7</v>
+      </c>
+      <c r="F105" s="20"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="11">
+        <v>104</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="14">
+        <v>4</v>
+      </c>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="11">
+        <v>105</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="20"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="11">
+        <v>106</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="14">
+        <v>2</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="I108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="11">
+        <v>107</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="14">
+        <v>2</v>
+      </c>
+      <c r="F109" s="20"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="11">
+        <v>108</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" s="14">
+        <v>25</v>
+      </c>
+      <c r="F110" s="20"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="11">
+        <v>109</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="14">
+        <v>2</v>
+      </c>
+      <c r="F111" s="20"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="11">
+        <v>110</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="25">
+        <v>17</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="11">
+        <v>111</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" s="14">
+        <v>2</v>
+      </c>
+      <c r="F113" s="20"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="11">
+        <v>112</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="14">
+        <v>4</v>
+      </c>
+      <c r="F114" s="20"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="11">
+        <v>113</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="14">
+        <v>3</v>
+      </c>
+      <c r="F115" s="20"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="11">
+        <v>114</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="14">
+        <v>5</v>
+      </c>
+      <c r="F116" s="20"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="11">
+        <v>115</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="14">
+        <v>10</v>
+      </c>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="11">
+        <v>116</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="14">
+        <v>5</v>
+      </c>
+      <c r="F118" s="20"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="11">
+        <v>117</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="14">
+        <v>10</v>
+      </c>
+      <c r="F119" s="20"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="11">
+        <v>118</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="14">
+        <v>2</v>
+      </c>
+      <c r="F120" s="20"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="11">
+        <v>119</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="14">
+        <v>0</v>
+      </c>
+      <c r="F121" s="20"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="11">
+        <v>120</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="14">
+        <v>2</v>
+      </c>
+      <c r="F122" s="20"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="11">
+        <v>121</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="20"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="11">
+        <v>122</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="14">
+        <v>2</v>
+      </c>
+      <c r="F124" s="20"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="11">
+        <v>123</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" s="14">
+        <v>10</v>
+      </c>
+      <c r="F125" s="20"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="11">
+        <v>124</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="20"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="11">
+        <v>125</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="14">
+        <v>4</v>
+      </c>
+      <c r="F127" s="20"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="11">
+        <v>126</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="14">
+        <v>4</v>
+      </c>
+      <c r="F128" s="20"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="11">
+        <v>127</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="20"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="11">
+        <v>128</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="20"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="11">
+        <v>129</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="14">
+        <v>3</v>
+      </c>
+      <c r="F131" s="20"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="11">
+        <v>130</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="14">
+        <v>0</v>
+      </c>
+      <c r="F132" s="20"/>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="11">
+        <v>131</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="20"/>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="11">
+        <v>132</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="14">
+        <v>4</v>
+      </c>
+      <c r="F134" s="20"/>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="11">
+        <v>133</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="14">
+        <v>9</v>
+      </c>
+      <c r="F135" s="20"/>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="11">
+        <v>134</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="26">
+        <v>1.18</v>
+      </c>
+      <c r="F136" s="20"/>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="11">
+        <v>135</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="14">
+        <v>0</v>
+      </c>
+      <c r="F137" s="20"/>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="11">
+        <v>136</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="14">
+        <v>2</v>
+      </c>
+      <c r="F138" s="20"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="11">
+        <v>137</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="20"/>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="11">
+        <v>138</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="14">
+        <v>12</v>
+      </c>
+      <c r="F140" s="20"/>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="11">
+        <v>139</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="14">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20"/>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="11">
+        <v>140</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="14">
+        <v>92</v>
+      </c>
+      <c r="F142" s="20"/>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="11">
+        <v>141</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="14">
+        <v>2</v>
+      </c>
+      <c r="F143" s="20"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="11">
+        <v>142</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="14">
+        <v>0</v>
+      </c>
+      <c r="F144" s="20"/>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="11">
+        <v>143</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="14">
+        <v>0</v>
+      </c>
+      <c r="F145" s="20"/>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="11">
+        <v>144</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="14">
+        <v>2</v>
+      </c>
+      <c r="F146" s="20"/>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="11">
+        <v>145</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E147" s="14">
+        <v>860</v>
+      </c>
+      <c r="F147" s="20"/>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="11">
+        <v>146</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E148" s="14">
+        <v>250</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="11">
+        <v>147</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E149" s="14">
+        <v>250</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="11">
+        <v>148</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150" s="25">
+        <v>5</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="11">
+        <v>149</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151" s="14">
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="F151" s="20"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="11">
+        <v>150</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152" s="14">
+        <v>3</v>
+      </c>
+      <c r="F152" s="20"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="11">
+        <v>151</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" s="14">
+        <v>0</v>
+      </c>
+      <c r="F153" s="20"/>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="11">
+        <v>152</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="20"/>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="11">
+        <v>153</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="14">
+        <v>3</v>
+      </c>
+      <c r="F155" s="20"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="11">
+        <v>154</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="14">
+        <v>5</v>
+      </c>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="11">
+        <v>155</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="14">
+        <v>6</v>
+      </c>
+      <c r="F157" s="20"/>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="11">
+        <v>156</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="14">
+        <v>4</v>
+      </c>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="11">
+        <v>157</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="14">
+        <v>4</v>
+      </c>
+      <c r="F159" s="20"/>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="11">
+        <v>158</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="20"/>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" s="11">
+        <v>159</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="14">
+        <v>4</v>
+      </c>
+      <c r="F161" s="20"/>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" s="11">
+        <v>160</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="14">
+        <v>5</v>
+      </c>
+      <c r="F162" s="20"/>
+    </row>
+    <row r="163" spans="2:9">
+      <c r="B163" s="11">
+        <v>161</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="27">
+        <v>4</v>
+      </c>
+      <c r="F163" s="20"/>
+    </row>
+    <row r="164" spans="2:9">
+      <c r="B164" s="11">
+        <v>162</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="27">
+        <v>1</v>
+      </c>
+      <c r="F164" s="20"/>
+    </row>
+    <row r="165" spans="2:9">
+      <c r="B165" s="11">
+        <v>163</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="27">
+        <v>5</v>
+      </c>
+      <c r="F165" s="20"/>
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" s="11">
+        <v>164</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="30">
+        <v>11</v>
+      </c>
+      <c r="F166" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+    </row>
+    <row r="167" spans="2:9">
+      <c r="B167" s="11">
+        <v>165</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="27">
+        <v>1</v>
+      </c>
+      <c r="F167" s="20"/>
+    </row>
+    <row r="168" spans="2:9">
+      <c r="B168" s="11">
+        <v>166</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="27">
+        <v>6</v>
+      </c>
+      <c r="F168" s="20"/>
+    </row>
+    <row r="169" spans="2:9">
+      <c r="B169" s="11">
+        <v>167</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="27">
+        <v>2</v>
+      </c>
+      <c r="F169" s="20"/>
+    </row>
+    <row r="170" spans="2:9">
+      <c r="B170" s="11">
+        <v>168</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="27">
+        <v>1</v>
+      </c>
+      <c r="F170" s="20"/>
+    </row>
+    <row r="171" spans="2:9">
+      <c r="B171" s="11">
+        <v>169</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="27">
+        <v>1</v>
+      </c>
+      <c r="F171" s="20"/>
+    </row>
+    <row r="172" spans="2:9">
+      <c r="B172" s="11">
+        <v>170</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="27">
+        <v>5</v>
+      </c>
+      <c r="F172" s="20"/>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" s="11">
+        <v>171</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="20"/>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" s="11">
+        <v>172</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="20"/>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" s="11">
+        <v>173</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D175" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" s="33">
+        <v>15.5</v>
+      </c>
+      <c r="F175" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9">
+      <c r="B176" s="11">
+        <v>174</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D176" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E176" s="33">
+        <v>16</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="11">
+        <v>175</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="20"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="11">
+        <v>176</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E178" s="25">
+        <v>28</v>
+      </c>
+      <c r="F178" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" s="11">
+        <v>177</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="20"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="11">
+        <v>178</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="14">
+        <v>44</v>
+      </c>
+      <c r="F180" s="20"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="11">
+        <v>179</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="20"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="11">
+        <v>180</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E182" s="14">
+        <v>62</v>
+      </c>
+      <c r="F182" s="20"/>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="11">
+        <v>181</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="20"/>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="11">
+        <v>182</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="14">
+        <v>2</v>
+      </c>
+      <c r="F184" s="20"/>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="11">
+        <v>183</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="14">
+        <v>21</v>
+      </c>
+      <c r="F185" s="20"/>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="11">
+        <v>184</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="14">
+        <v>1</v>
+      </c>
+      <c r="F186" s="20"/>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" s="11">
+        <v>185</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="14">
+        <v>4</v>
+      </c>
+      <c r="F187" s="20"/>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="11">
+        <v>186</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D188" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="14">
+        <v>7</v>
+      </c>
+      <c r="F188" s="20"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="11">
+        <v>187</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="14">
+        <v>2</v>
+      </c>
+      <c r="F189" s="20"/>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" s="11">
+        <v>188</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="14">
+        <v>20</v>
+      </c>
+      <c r="F190" s="20"/>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" s="11">
+        <v>189</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D191" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="14">
+        <v>144</v>
+      </c>
+      <c r="F191" s="20"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="11">
+        <v>190</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D192" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="14">
+        <v>1</v>
+      </c>
+      <c r="F192" s="20"/>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" s="11">
+        <v>191</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D193" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="25">
+        <v>5</v>
+      </c>
+      <c r="F193" s="20"/>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" s="11">
+        <v>192</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="20"/>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" s="11">
+        <v>193</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E195" s="14">
+        <v>10</v>
+      </c>
+      <c r="F195" s="20"/>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" s="11">
+        <v>194</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="14">
+        <v>3</v>
+      </c>
+      <c r="F196" s="20"/>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" s="11">
+        <v>195</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D197" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="14">
+        <v>2</v>
+      </c>
+      <c r="F197" s="20"/>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" s="11">
+        <v>196</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" s="14">
+        <v>6</v>
+      </c>
+      <c r="F198" s="20"/>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" s="11">
+        <v>197</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" s="14">
+        <v>5</v>
+      </c>
+      <c r="F199" s="20"/>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" s="11">
+        <v>198</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D200" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" s="14">
+        <v>14</v>
+      </c>
+      <c r="F200" s="20"/>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" s="11">
+        <v>199</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" s="14">
+        <v>4</v>
+      </c>
+      <c r="F201" s="20"/>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" s="11">
+        <v>200</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D202" s="19"/>
+      <c r="E202" s="14">
+        <v>5</v>
+      </c>
+      <c r="F202" s="20"/>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" s="11">
+        <v>201</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="14">
+        <v>5</v>
+      </c>
+      <c r="F203" s="20"/>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" s="11">
+        <v>202</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E204" s="14">
+        <v>4</v>
+      </c>
+      <c r="F204" s="20"/>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" s="11">
+        <v>203</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" s="14">
+        <v>12</v>
+      </c>
+      <c r="F205" s="20"/>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="B206" s="11">
+        <v>204</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="14">
+        <v>12</v>
+      </c>
+      <c r="F206" s="20"/>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" s="11">
+        <v>205</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D207" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E207" s="14">
+        <v>0</v>
+      </c>
+      <c r="F207" s="20"/>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" s="11">
+        <v>206</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D208" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E208" s="14">
+        <v>4</v>
+      </c>
+      <c r="F208" s="20"/>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" s="11">
+        <v>207</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209" s="14">
+        <v>0</v>
+      </c>
+      <c r="F209" s="20"/>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="11">
+        <v>208</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E210" s="14">
+        <v>3</v>
+      </c>
+      <c r="F210" s="20"/>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="11">
+        <v>209</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" s="14">
+        <v>59</v>
+      </c>
+      <c r="F211" s="20"/>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="11">
+        <v>210</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D212" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E212" s="14">
+        <v>5</v>
+      </c>
+      <c r="F212" s="20"/>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="11">
+        <v>211</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D213" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E213" s="14">
+        <v>5</v>
+      </c>
+      <c r="F213" s="20"/>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="11">
+        <v>212</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="14">
+        <v>10</v>
+      </c>
+      <c r="F214" s="20"/>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="11">
+        <v>213</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D215" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="14">
+        <v>0</v>
+      </c>
+      <c r="F215" s="20"/>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="B216" s="11">
+        <v>214</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E216" s="14">
+        <v>0</v>
+      </c>
+      <c r="F216" s="20"/>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" s="11">
+        <v>215</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="14">
+        <v>4</v>
+      </c>
+      <c r="F217" s="20"/>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" s="11">
+        <v>216</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="14">
+        <v>10</v>
+      </c>
+      <c r="F218" s="20"/>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="11">
+        <v>217</v>
+      </c>
+      <c r="C219" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="14">
+        <v>21</v>
+      </c>
+      <c r="F219" s="20"/>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="11">
+        <v>218</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E220" s="14">
+        <v>20</v>
+      </c>
+      <c r="F220" s="20"/>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="11">
+        <v>219</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221" s="14">
+        <v>20</v>
+      </c>
+      <c r="F221" s="20"/>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="11">
+        <v>220</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E222" s="14">
+        <v>19</v>
+      </c>
+      <c r="F222" s="20"/>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="B223" s="11">
+        <v>221</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E223" s="14">
+        <v>17</v>
+      </c>
+      <c r="F223" s="20"/>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" s="11">
+        <v>222</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D224" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E224" s="14">
+        <v>20</v>
+      </c>
+      <c r="F224" s="20"/>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" s="11">
+        <v>223</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" s="14">
+        <v>19</v>
+      </c>
+      <c r="F225" s="20"/>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226" s="11">
+        <v>224</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" s="14">
+        <v>20</v>
+      </c>
+      <c r="F226" s="20"/>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="11">
+        <v>225</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D227" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" s="14">
+        <v>35</v>
+      </c>
+      <c r="F227" s="20"/>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" s="11">
+        <v>226</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="14">
+        <v>28</v>
+      </c>
+      <c r="F228" s="20"/>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" s="11">
+        <v>227</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D229" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="14">
+        <v>1</v>
+      </c>
+      <c r="F229" s="20"/>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" s="11">
+        <v>228</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="14">
+        <v>13</v>
+      </c>
+      <c r="F230" s="20"/>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="11">
+        <v>229</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D231" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="14">
+        <v>32</v>
+      </c>
+      <c r="F231" s="20"/>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" s="11">
+        <v>230</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D232" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="14">
+        <v>32</v>
+      </c>
+      <c r="F232" s="20"/>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" s="11">
+        <v>231</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D233" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" s="14">
+        <v>32</v>
+      </c>
+      <c r="F233" s="20"/>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" s="11">
+        <v>232</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="35"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="20"/>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" s="11">
+        <v>233</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D235" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="14">
+        <v>0</v>
+      </c>
+      <c r="F235" s="20"/>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" s="11">
+        <v>234</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D236" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="14">
+        <v>3</v>
+      </c>
+      <c r="F236" s="20"/>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="B237" s="11">
+        <v>235</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D237" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" s="14">
+        <v>3</v>
+      </c>
+      <c r="F237" s="20"/>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238" s="11">
+        <v>236</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D238" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" s="14">
+        <v>12</v>
+      </c>
+      <c r="F238" s="20"/>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" s="11">
+        <v>237</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D239" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" s="14">
+        <v>10</v>
+      </c>
+      <c r="F239" s="20"/>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" s="11">
+        <v>238</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D240" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="14">
+        <v>11</v>
+      </c>
+      <c r="F240" s="20"/>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" s="11">
+        <v>239</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D241" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" s="14">
+        <v>9</v>
+      </c>
+      <c r="F241" s="20"/>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" s="11">
+        <v>240</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D242" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="14">
+        <v>10</v>
+      </c>
+      <c r="F242" s="20"/>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="11">
+        <v>241</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D243" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243" s="14">
+        <v>28</v>
+      </c>
+      <c r="F243" s="20"/>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" s="11">
+        <v>242</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D244" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" s="14">
+        <v>12</v>
+      </c>
+      <c r="F244" s="20"/>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="B245" s="11">
+        <v>243</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D245" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E245" s="14">
+        <v>0</v>
+      </c>
+      <c r="F245" s="20"/>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="11">
+        <v>244</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D246" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E246" s="14">
+        <v>250</v>
+      </c>
+      <c r="F246" s="20"/>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="11">
+        <v>245</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D247" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E247" s="14">
+        <v>250</v>
+      </c>
+      <c r="F247" s="20"/>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" s="11">
+        <v>246</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D248" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E248" s="14">
+        <v>300</v>
+      </c>
+      <c r="F248" s="20"/>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="11">
+        <v>247</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E249" s="14">
+        <v>225</v>
+      </c>
+      <c r="F249" s="20"/>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="11">
+        <v>248</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D250" s="19"/>
+      <c r="E250" s="14">
+        <v>0</v>
+      </c>
+      <c r="F250" s="20"/>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="11">
+        <v>249</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="14">
+        <v>10</v>
+      </c>
+      <c r="F251" s="20"/>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" s="11">
+        <v>250</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E252" s="14">
+        <v>8</v>
+      </c>
+      <c r="F252" s="20"/>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="B253" s="11">
+        <v>251</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E253" s="14">
+        <v>1</v>
+      </c>
+      <c r="F253" s="20"/>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="B254" s="11">
+        <v>252</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E254" s="14">
+        <v>350</v>
+      </c>
+      <c r="F254" s="20"/>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" s="11">
+        <v>253</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" s="14">
+        <v>14</v>
+      </c>
+      <c r="F255" s="20"/>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="B256" s="11">
+        <v>254</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D256" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E256" s="14">
+        <v>2</v>
+      </c>
+      <c r="F256" s="20"/>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="B257" s="11">
+        <v>255</v>
+      </c>
+      <c r="C257" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D257" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E257" s="14">
+        <v>2</v>
+      </c>
+      <c r="F257" s="20"/>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258" s="11">
+        <v>256</v>
+      </c>
+      <c r="C258" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D258" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E258" s="14">
+        <v>2</v>
+      </c>
+      <c r="F258" s="20"/>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="B259" s="11">
+        <v>257</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="14">
+        <v>7</v>
+      </c>
+      <c r="F259" s="20"/>
+    </row>
+    <row r="260" spans="2:6">
+      <c r="B260" s="11">
+        <v>258</v>
+      </c>
+      <c r="C260" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D260" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E260" s="14">
+        <v>6</v>
+      </c>
+      <c r="F260" s="20"/>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="B261" s="11">
+        <v>259</v>
+      </c>
+      <c r="C261" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D261" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E261" s="14">
+        <v>10</v>
+      </c>
+      <c r="F261" s="20"/>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" s="11">
+        <v>260</v>
+      </c>
+      <c r="C262" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D262" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E262" s="14">
+        <v>2</v>
+      </c>
+      <c r="F262" s="20"/>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" s="11">
+        <v>261</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D263" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" s="14">
+        <v>12</v>
+      </c>
+      <c r="F263" s="20"/>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="B264" s="11">
+        <v>262</v>
+      </c>
+      <c r="C264" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D264" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E264" s="14">
+        <v>4</v>
+      </c>
+      <c r="F264" s="20"/>
+    </row>
+    <row r="265" spans="2:6">
+      <c r="B265" s="11">
+        <v>263</v>
+      </c>
+      <c r="C265" s="5"/>
+      <c r="D265" s="19"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="20"/>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266" s="11">
+        <v>264</v>
+      </c>
+      <c r="C266" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E266" s="14">
+        <v>2</v>
+      </c>
+      <c r="F266" s="20"/>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="B267" s="11">
+        <v>265</v>
+      </c>
+      <c r="C267" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E267" s="14">
+        <v>4</v>
+      </c>
+      <c r="F267" s="20"/>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="B268" s="11">
+        <v>266</v>
+      </c>
+      <c r="C268" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E268" s="14">
+        <v>4</v>
+      </c>
+      <c r="F268" s="20"/>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="B269" s="11">
+        <v>267</v>
+      </c>
+      <c r="C269" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E269" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F269" s="20"/>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="B270" s="11">
+        <v>268</v>
+      </c>
+      <c r="C270" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D270" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E270" s="25">
+        <v>28</v>
+      </c>
+      <c r="F270" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="B271" s="11">
+        <v>269</v>
+      </c>
+      <c r="C271" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D271" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E271" s="25">
+        <v>27.5</v>
+      </c>
+      <c r="F271" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6">
+      <c r="B272" s="11">
+        <v>270</v>
+      </c>
+      <c r="C272" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D272" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E272" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="F272" s="20"/>
+    </row>
+    <row r="273" spans="2:6">
+      <c r="B273" s="11">
+        <v>271</v>
+      </c>
+      <c r="C273" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D273" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E273" s="25">
+        <v>28.5</v>
+      </c>
+      <c r="F273" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="B274" s="11">
+        <v>272</v>
+      </c>
+      <c r="C274" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D274" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E274" s="14">
+        <v>750</v>
+      </c>
+      <c r="F274" s="20"/>
+    </row>
+    <row r="275" spans="2:6">
+      <c r="B275" s="11">
+        <v>274</v>
+      </c>
+      <c r="C275" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D275" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E275" s="14">
+        <v>0</v>
+      </c>
+      <c r="F275" s="20"/>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="B276" s="11">
+        <v>275</v>
+      </c>
+      <c r="C276" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D276" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E276" s="14">
+        <v>11.5</v>
+      </c>
+      <c r="F276" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6">
+      <c r="B277" s="11">
+        <v>276</v>
+      </c>
+      <c r="C277" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E277" s="14">
+        <v>19</v>
+      </c>
+      <c r="F277" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6">
+      <c r="B278" s="11">
+        <v>277</v>
+      </c>
+      <c r="C278" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D278" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E278" s="14">
+        <v>0</v>
+      </c>
+      <c r="F278" s="20"/>
+    </row>
+    <row r="279" spans="2:6">
+      <c r="B279" s="11">
+        <v>278</v>
+      </c>
+      <c r="C279" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D279" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E279" s="14">
+        <v>0</v>
+      </c>
+      <c r="F279" s="20"/>
+    </row>
+    <row r="280" spans="2:6">
+      <c r="B280" s="11">
+        <v>279</v>
+      </c>
+      <c r="C280" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D280" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E280" s="14">
+        <v>0</v>
+      </c>
+      <c r="F280" s="20"/>
+    </row>
+    <row r="281" spans="2:6">
+      <c r="B281" s="11">
+        <v>280</v>
+      </c>
+      <c r="C281" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D281" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E281" s="14">
+        <v>0</v>
+      </c>
+      <c r="F281" s="20"/>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="B282" s="11">
+        <v>281</v>
+      </c>
+      <c r="C282" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D282" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E282" s="14">
+        <v>650</v>
+      </c>
+      <c r="F282" s="20"/>
+    </row>
+    <row r="283" spans="2:6">
+      <c r="B283" s="11">
+        <v>282</v>
+      </c>
+      <c r="C283" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D283" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E283" s="14">
+        <v>700</v>
+      </c>
+      <c r="F283" s="20"/>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="B284" s="11">
+        <v>283</v>
+      </c>
+      <c r="C284" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D284" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E284" s="14">
+        <v>0</v>
+      </c>
+      <c r="F284" s="20"/>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="B285" s="11">
+        <v>284</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D285" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E285" s="14">
+        <v>0</v>
+      </c>
+      <c r="F285" s="20"/>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="B286" s="11">
+        <v>287</v>
+      </c>
+      <c r="C286" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D286" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E286" s="14">
+        <v>1</v>
+      </c>
+      <c r="F286" s="20"/>
+    </row>
+    <row r="287" spans="2:6">
+      <c r="B287" s="11">
+        <v>288</v>
+      </c>
+      <c r="C287" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D287" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E287" s="14">
+        <v>0</v>
+      </c>
+      <c r="F287" s="20"/>
+    </row>
+    <row r="288" spans="2:6">
+      <c r="B288" s="11">
+        <v>289</v>
+      </c>
+      <c r="C288" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D288" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E288" s="14">
+        <v>0</v>
+      </c>
+      <c r="F288" s="20"/>
+    </row>
+    <row r="289" spans="2:6">
+      <c r="B289" s="11">
+        <v>290</v>
+      </c>
+      <c r="C289" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D289" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E289" s="14">
+        <v>1</v>
+      </c>
+      <c r="F289" s="20"/>
+    </row>
+    <row r="290" spans="2:6">
+      <c r="B290" s="11">
+        <v>291</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D290" s="38"/>
+      <c r="E290" s="14">
+        <v>0</v>
+      </c>
+      <c r="F290" s="20"/>
+    </row>
+    <row r="291" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="34"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="39"/>
+    </row>
+    <row r="292" spans="2:6">
+      <c r="D292" s="40"/>
+    </row>
+    <row r="293" spans="2:6">
+      <c r="D293" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
     <sheet name="Stock" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$B$3:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$K$48</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="291">
   <si>
     <t>gro on</t>
   </si>
@@ -882,13 +883,22 @@
   </si>
   <si>
     <t>50 gm.</t>
+  </si>
+  <si>
+    <t>Dally Local Shell Entry</t>
+  </si>
+  <si>
+    <t>18/02/2021</t>
+  </si>
+  <si>
+    <t>15/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,8 +928,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,8 +974,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1077,30 +1113,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1215,11 +1227,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1229,34 +1335,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,18 +1366,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1285,12 +1385,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,6 +1409,41 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,523 +1738,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="0.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" customHeight="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:11">
-      <c r="B3" s="41" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="9" customHeight="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A6" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="11" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="61"/>
+      <c r="J7" s="58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="12">
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="51" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="H8" s="51">
         <v>22</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="54">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="12">
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2">
+      <c r="J9" s="55">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="12">
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="52" t="s">
         <v>10</v>
       </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="H10" s="6">
         <v>110</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2">
+      <c r="I10" s="1"/>
+      <c r="J10" s="55">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="12">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="52" t="s">
         <v>279</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H12" s="6">
         <v>42</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2">
+      <c r="I12" s="1"/>
+      <c r="J12" s="55">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="12">
+    <row r="13" spans="1:10">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="52" t="s">
         <v>172</v>
       </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="15">
+      <c r="H13" s="52">
         <v>27</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2">
+      <c r="I13" s="1"/>
+      <c r="J13" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="12">
+    <row r="14" spans="1:10">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="52" t="s">
         <v>282</v>
       </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="15">
+      <c r="H14" s="52">
         <v>2500</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2">
+      <c r="I14" s="1"/>
+      <c r="J14" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="12">
+    <row r="15" spans="1:10">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="52" t="s">
         <v>284</v>
       </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="15">
+      <c r="H15" s="52">
         <v>2880</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2">
+      <c r="I15" s="1"/>
+      <c r="J15" s="55">
         <v>28.8</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="12">
+    <row r="16" spans="1:10">
+      <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="52" t="s">
         <v>285</v>
       </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="15">
+      <c r="H16" s="52">
         <v>110</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="55">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="12">
+    <row r="17" spans="1:10">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="53" t="s">
         <v>241</v>
       </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="15">
+      <c r="H17" s="52">
         <v>70</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2">
+      <c r="I17" s="1"/>
+      <c r="J17" s="55">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="12">
+    <row r="18" spans="1:10">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="53" t="s">
         <v>242</v>
       </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="15">
+      <c r="H18" s="52">
         <v>140</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2">
+      <c r="I18" s="1"/>
+      <c r="J18" s="55">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="J27" s="55"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="6"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="6"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="6"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="6"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="6"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="6"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="6"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2127,11 +2280,11 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="6"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="6"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2139,11 +2292,11 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="6"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="6"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2151,11 +2304,11 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="6"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="6"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2163,11 +2316,11 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="6"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="6"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2175,11 +2328,11 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="6"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2187,11 +2340,11 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="6"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2199,11 +2352,11 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="6"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2211,11 +2364,11 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="6"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2223,11 +2376,11 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="6"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2235,11 +2388,11 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="6"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="6"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2247,11 +2400,11 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="6"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2259,11 +2412,11 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="6"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2271,11 +2424,11 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B48" s="7"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2283,17 +2436,17 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:K6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" min="1" max="9" man="1"/>
+    <brk id="48" max="8" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2302,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="K168" sqref="K168"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2312,4167 +2465,4181 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11">
         <v>60</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="11">
         <v>3</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11">
         <v>5</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="11">
         <v>6</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11">
         <v>6</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="11">
         <v>48</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11">
         <v>59</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="11">
         <v>48</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>21</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="11">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>23</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="11">
         <v>0</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>26</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>29</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="20"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <v>3</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>32</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="11">
         <v>8</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="11">
         <v>13</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>35</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="20"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="11">
         <v>9</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="D40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="D41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="D42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="11">
         <v>3</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="D43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="11">
         <v>2</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="D44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="11">
         <v>12</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="14">
+      <c r="D45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="11">
         <v>5</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="D46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="11">
         <v>12</v>
       </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>46</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="20"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="11">
         <v>5</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="11">
         <v>6</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="11">
         <v>1</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="11">
         <v>6</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="11">
         <v>20</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="11">
         <v>1</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="11">
+      <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="11">
         <v>1</v>
       </c>
-      <c r="F55" s="20"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="20"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="11">
+      <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="14">
+      <c r="D57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="11">
         <v>6</v>
       </c>
-      <c r="F57" s="20"/>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="11">
+      <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="14">
+      <c r="D58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="11">
         <v>7</v>
       </c>
-      <c r="F58" s="20"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="20"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="11">
+      <c r="B60" s="9">
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="D60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="11">
         <v>10</v>
       </c>
-      <c r="F60" s="20"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="11">
+      <c r="B61" s="9">
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="14">
+      <c r="D61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="11">
         <v>3</v>
       </c>
-      <c r="F61" s="20"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="11">
+      <c r="B62" s="9">
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="14">
+      <c r="D62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="11">
         <v>2</v>
       </c>
-      <c r="F62" s="20"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="11">
+      <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="14">
+      <c r="D63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="11">
         <v>2</v>
       </c>
-      <c r="F63" s="20"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="11">
+      <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="14">
+      <c r="D64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="11">
         <v>6</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="14">
+      <c r="D65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="11">
         <v>10</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="11">
+      <c r="B66" s="9">
         <v>64</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="20"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="11">
+      <c r="B67" s="9">
         <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="11">
         <v>9</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="11">
+      <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="11">
         <v>0</v>
       </c>
-      <c r="F68" s="20"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="11">
+      <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="11">
         <v>8</v>
       </c>
-      <c r="F69" s="20"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="11">
+      <c r="B70" s="9">
         <v>68</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="11">
         <v>6</v>
       </c>
-      <c r="F70" s="20"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="11">
+      <c r="B71" s="9">
         <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="11">
         <v>0</v>
       </c>
-      <c r="F71" s="20"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="11">
+      <c r="B72" s="9">
         <v>70</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="11">
         <v>6</v>
       </c>
-      <c r="F72" s="20"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="11">
+      <c r="B73" s="9">
         <v>71</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="20">
         <v>10</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="11">
+      <c r="B74" s="9">
         <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="11">
         <v>10</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="11">
+      <c r="B75" s="9">
         <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="11">
         <v>2</v>
       </c>
-      <c r="F75" s="20"/>
+      <c r="F75" s="16"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="11">
+      <c r="B76" s="9">
         <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="11">
         <v>3</v>
       </c>
-      <c r="F76" s="20"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="11">
+      <c r="B77" s="9">
         <v>75</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="20"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="11">
+      <c r="B78" s="9">
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="11">
         <v>9</v>
       </c>
-      <c r="F78" s="20"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="11">
+      <c r="B79" s="9">
         <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="11">
         <v>1</v>
       </c>
-      <c r="F79" s="20"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="11">
+      <c r="B80" s="9">
         <v>78</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="11">
         <v>1</v>
       </c>
-      <c r="F80" s="20"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="11">
+      <c r="B81" s="9">
         <v>79</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="20"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="11">
+      <c r="B82" s="9">
         <v>80</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="11">
         <v>10</v>
       </c>
-      <c r="F82" s="20"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="11">
+      <c r="B83" s="9">
         <v>81</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="11">
         <v>12</v>
       </c>
-      <c r="F83" s="20"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="11">
+      <c r="B84" s="9">
         <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="11">
         <v>12</v>
       </c>
-      <c r="F84" s="20"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="11">
+      <c r="B85" s="9">
         <v>83</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="20"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="11">
+      <c r="B86" s="9">
         <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="11">
         <v>6</v>
       </c>
-      <c r="F86" s="20"/>
+      <c r="F86" s="16"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="11">
+      <c r="B87" s="9">
         <v>85</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="11">
         <v>2</v>
       </c>
-      <c r="F87" s="20"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="11">
+      <c r="B88" s="9">
         <v>86</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="20"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="16"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="11">
+      <c r="B89" s="9">
         <v>87</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="11">
         <v>2</v>
       </c>
-      <c r="F89" s="20"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="11">
+      <c r="B90" s="9">
         <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="11">
         <v>19</v>
       </c>
-      <c r="F90" s="20"/>
+      <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="11">
+      <c r="B91" s="9">
         <v>89</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="9">
         <v>4</v>
       </c>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="11">
+      <c r="B92" s="9">
         <v>90</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="11">
         <v>19</v>
       </c>
-      <c r="F92" s="20"/>
+      <c r="F92" s="16"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="11">
+      <c r="B93" s="9">
         <v>91</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="11">
         <v>14</v>
       </c>
-      <c r="F93" s="20"/>
+      <c r="F93" s="16"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="11">
+      <c r="B94" s="9">
         <v>92</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="11">
         <v>20</v>
       </c>
-      <c r="F94" s="20"/>
+      <c r="F94" s="16"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="11">
+      <c r="B95" s="9">
         <v>93</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="11">
         <v>8</v>
       </c>
-      <c r="F95" s="20"/>
+      <c r="F95" s="16"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="11">
+      <c r="B96" s="9">
         <v>94</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="11">
         <v>13</v>
       </c>
-      <c r="F96" s="20"/>
+      <c r="F96" s="16"/>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="11">
+      <c r="B97" s="9">
         <v>95</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="25">
+      <c r="E97" s="21">
         <v>19</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="11">
+      <c r="B98" s="9">
         <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="11">
         <v>8</v>
       </c>
-      <c r="F98" s="20"/>
+      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="2:9">
-      <c r="B99" s="11">
+      <c r="B99" s="9">
         <v>97</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="11">
         <v>14</v>
       </c>
-      <c r="F99" s="20"/>
+      <c r="F99" s="16"/>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="11">
+      <c r="B100" s="9">
         <v>98</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="11">
         <v>2</v>
       </c>
-      <c r="F100" s="20"/>
+      <c r="F100" s="16"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="11">
+      <c r="B101" s="9">
         <v>99</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="20"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="16"/>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="11">
+      <c r="B102" s="9">
         <v>100</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="11">
         <v>13</v>
       </c>
-      <c r="F102" s="20"/>
+      <c r="F102" s="16"/>
     </row>
     <row r="103" spans="2:9">
-      <c r="B103" s="11">
+      <c r="B103" s="9">
         <v>101</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="11">
         <v>9</v>
       </c>
-      <c r="F103" s="20"/>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" spans="2:9">
-      <c r="B104" s="11">
+      <c r="B104" s="9">
         <v>102</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="20"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="16"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="11">
+      <c r="B105" s="9">
         <v>103</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="11">
         <v>7</v>
       </c>
-      <c r="F105" s="20"/>
+      <c r="F105" s="16"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="11">
+      <c r="B106" s="9">
         <v>104</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="11">
         <v>4</v>
       </c>
-      <c r="F106" s="20"/>
+      <c r="F106" s="16"/>
     </row>
     <row r="107" spans="2:9">
-      <c r="B107" s="11">
+      <c r="B107" s="9">
         <v>105</v>
       </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="20"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="16"/>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="11">
+      <c r="B108" s="9">
         <v>106</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="11">
         <v>2</v>
       </c>
-      <c r="F108" s="20"/>
+      <c r="F108" s="16"/>
       <c r="I108" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="11">
+      <c r="B109" s="9">
         <v>107</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="11">
         <v>2</v>
       </c>
-      <c r="F109" s="20"/>
+      <c r="F109" s="16"/>
     </row>
     <row r="110" spans="2:9">
-      <c r="B110" s="11">
+      <c r="B110" s="9">
         <v>108</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="11">
         <v>25</v>
       </c>
-      <c r="F110" s="20"/>
+      <c r="F110" s="16"/>
     </row>
     <row r="111" spans="2:9">
-      <c r="B111" s="11">
+      <c r="B111" s="9">
         <v>109</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="11">
         <v>2</v>
       </c>
-      <c r="F111" s="20"/>
+      <c r="F111" s="16"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="11">
+      <c r="B112" s="9">
         <v>110</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="25">
+      <c r="E112" s="21">
         <v>17</v>
       </c>
-      <c r="F112" s="23" t="s">
+      <c r="F112" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="11">
+      <c r="B113" s="9">
         <v>111</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="11">
         <v>2</v>
       </c>
-      <c r="F113" s="20"/>
+      <c r="F113" s="16"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="11">
+      <c r="B114" s="9">
         <v>112</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="11">
         <v>4</v>
       </c>
-      <c r="F114" s="20"/>
+      <c r="F114" s="16"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="11">
+      <c r="B115" s="9">
         <v>113</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D115" s="19" t="s">
+      <c r="D115" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="11">
         <v>3</v>
       </c>
-      <c r="F115" s="20"/>
+      <c r="F115" s="16"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="11">
+      <c r="B116" s="9">
         <v>114</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="11">
         <v>5</v>
       </c>
-      <c r="F116" s="20"/>
+      <c r="F116" s="16"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="11">
+      <c r="B117" s="9">
         <v>115</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="11">
         <v>10</v>
       </c>
-      <c r="F117" s="20"/>
+      <c r="F117" s="16"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="11">
+      <c r="B118" s="9">
         <v>116</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="11">
         <v>5</v>
       </c>
-      <c r="F118" s="20"/>
+      <c r="F118" s="16"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="11">
+      <c r="B119" s="9">
         <v>117</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="11">
         <v>10</v>
       </c>
-      <c r="F119" s="20"/>
+      <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="11">
+      <c r="B120" s="9">
         <v>118</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="20"/>
+      <c r="F120" s="16"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="11">
+      <c r="B121" s="9">
         <v>119</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="14">
+      <c r="D121" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="11">
         <v>0</v>
       </c>
-      <c r="F121" s="20"/>
+      <c r="F121" s="16"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="11">
+      <c r="B122" s="9">
         <v>120</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122" s="11">
         <v>2</v>
       </c>
-      <c r="F122" s="20"/>
+      <c r="F122" s="16"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="11">
+      <c r="B123" s="9">
         <v>121</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="20"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="16"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="11">
+      <c r="B124" s="9">
         <v>122</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="11">
         <v>2</v>
       </c>
-      <c r="F124" s="20"/>
+      <c r="F124" s="16"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="11">
+      <c r="B125" s="9">
         <v>123</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125" s="11">
         <v>10</v>
       </c>
-      <c r="F125" s="20"/>
+      <c r="F125" s="16"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="11">
+      <c r="B126" s="9">
         <v>124</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="11">
         <v>0</v>
       </c>
-      <c r="F126" s="20"/>
+      <c r="F126" s="16"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="11">
+      <c r="B127" s="9">
         <v>125</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E127" s="11">
         <v>4</v>
       </c>
-      <c r="F127" s="20"/>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="11">
+      <c r="B128" s="9">
         <v>126</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E128" s="11">
         <v>4</v>
       </c>
-      <c r="F128" s="20"/>
+      <c r="F128" s="16"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="11">
+      <c r="B129" s="9">
         <v>127</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="20"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="16"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="11">
+      <c r="B130" s="9">
         <v>128</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="20"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="16"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="11">
+      <c r="B131" s="9">
         <v>129</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="11">
         <v>3</v>
       </c>
-      <c r="F131" s="20"/>
+      <c r="F131" s="16"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="11">
+      <c r="B132" s="9">
         <v>130</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132" s="11">
         <v>0</v>
       </c>
-      <c r="F132" s="20"/>
+      <c r="F132" s="16"/>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="11">
+      <c r="B133" s="9">
         <v>131</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="20"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="16"/>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="11">
+      <c r="B134" s="9">
         <v>132</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134" s="11">
         <v>4</v>
       </c>
-      <c r="F134" s="20"/>
+      <c r="F134" s="16"/>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="11">
+      <c r="B135" s="9">
         <v>133</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" s="14">
+      <c r="D135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="11">
         <v>9</v>
       </c>
-      <c r="F135" s="20"/>
+      <c r="F135" s="16"/>
     </row>
     <row r="136" spans="2:6">
-      <c r="B136" s="11">
+      <c r="B136" s="9">
         <v>134</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D136" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E136" s="26">
+      <c r="E136" s="22">
         <v>1.18</v>
       </c>
-      <c r="F136" s="20"/>
+      <c r="F136" s="16"/>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="11">
+      <c r="B137" s="9">
         <v>135</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D137" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E137" s="14">
+      <c r="E137" s="11">
         <v>0</v>
       </c>
-      <c r="F137" s="20"/>
+      <c r="F137" s="16"/>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="11">
+      <c r="B138" s="9">
         <v>136</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" s="14">
+      <c r="D138" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="11">
         <v>2</v>
       </c>
-      <c r="F138" s="20"/>
+      <c r="F138" s="16"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="11">
+      <c r="B139" s="9">
         <v>137</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="20"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="16"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="11">
+      <c r="B140" s="9">
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="14">
+      <c r="D140" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="11">
         <v>12</v>
       </c>
-      <c r="F140" s="20"/>
+      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="11">
+      <c r="B141" s="9">
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D141" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="14">
+      <c r="D141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="11">
         <v>1</v>
       </c>
-      <c r="F141" s="20"/>
+      <c r="F141" s="16"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="11">
+      <c r="B142" s="9">
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D142" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" s="14">
+      <c r="D142" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="11">
         <v>92</v>
       </c>
-      <c r="F142" s="20"/>
+      <c r="F142" s="16"/>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="11">
+      <c r="B143" s="9">
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D143" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="14">
+      <c r="D143" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="11">
         <v>2</v>
       </c>
-      <c r="F143" s="20"/>
+      <c r="F143" s="16"/>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="11">
+      <c r="B144" s="9">
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="14">
+      <c r="D144" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="11">
         <v>0</v>
       </c>
-      <c r="F144" s="20"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="11">
+      <c r="B145" s="9">
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D145" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" s="14">
+      <c r="D145" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="11">
         <v>0</v>
       </c>
-      <c r="F145" s="20"/>
+      <c r="F145" s="16"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="11">
+      <c r="B146" s="9">
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D146" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146" s="14">
+      <c r="D146" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="11">
         <v>2</v>
       </c>
-      <c r="F146" s="20"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="11">
+      <c r="B147" s="9">
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E147" s="11">
         <v>860</v>
       </c>
-      <c r="F147" s="20"/>
+      <c r="F147" s="16"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="11">
+      <c r="B148" s="9">
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E148" s="11">
         <v>250</v>
       </c>
-      <c r="F148" s="23" t="s">
+      <c r="F148" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="11">
+      <c r="B149" s="9">
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D149" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149" s="11">
         <v>250</v>
       </c>
-      <c r="F149" s="23" t="s">
+      <c r="F149" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="11">
+      <c r="B150" s="9">
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E150" s="21">
         <v>5</v>
       </c>
-      <c r="F150" s="23" t="s">
+      <c r="F150" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="11">
+      <c r="B151" s="9">
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="11">
         <v>4.4349999999999996</v>
       </c>
-      <c r="F151" s="20"/>
+      <c r="F151" s="16"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="11">
+      <c r="B152" s="9">
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E152" s="14">
+      <c r="E152" s="11">
         <v>3</v>
       </c>
-      <c r="F152" s="20"/>
+      <c r="F152" s="16"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="11">
+      <c r="B153" s="9">
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D153" s="19" t="s">
+      <c r="D153" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153" s="11">
         <v>0</v>
       </c>
-      <c r="F153" s="20"/>
+      <c r="F153" s="16"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="11">
+      <c r="B154" s="9">
         <v>152</v>
       </c>
       <c r="C154" s="5"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="20"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="16"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="11">
+      <c r="B155" s="9">
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="14">
+      <c r="D155" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="11">
         <v>3</v>
       </c>
-      <c r="F155" s="20"/>
+      <c r="F155" s="16"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="11">
+      <c r="B156" s="9">
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D156" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="14">
+      <c r="D156" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="11">
         <v>5</v>
       </c>
-      <c r="F156" s="20"/>
+      <c r="F156" s="16"/>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="11">
+      <c r="B157" s="9">
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D157" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157" s="14">
+      <c r="D157" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="11">
         <v>6</v>
       </c>
-      <c r="F157" s="20"/>
+      <c r="F157" s="16"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="11">
+      <c r="B158" s="9">
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D158" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" s="14">
+      <c r="D158" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="11">
         <v>4</v>
       </c>
-      <c r="F158" s="20"/>
+      <c r="F158" s="16"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="11">
+      <c r="B159" s="9">
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D159" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" s="14">
+      <c r="D159" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="11">
         <v>4</v>
       </c>
-      <c r="F159" s="20"/>
+      <c r="F159" s="16"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="11">
+      <c r="B160" s="9">
         <v>158</v>
       </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="20"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="16"/>
     </row>
     <row r="161" spans="2:9">
-      <c r="B161" s="11">
+      <c r="B161" s="9">
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D161" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161" s="14">
+      <c r="D161" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="11">
         <v>4</v>
       </c>
-      <c r="F161" s="20"/>
+      <c r="F161" s="16"/>
     </row>
     <row r="162" spans="2:9">
-      <c r="B162" s="11">
+      <c r="B162" s="9">
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D162" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E162" s="14">
+      <c r="D162" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="11">
         <v>5</v>
       </c>
-      <c r="F162" s="20"/>
+      <c r="F162" s="16"/>
     </row>
     <row r="163" spans="2:9">
-      <c r="B163" s="11">
+      <c r="B163" s="9">
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D163" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E163" s="27">
+      <c r="D163" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="23">
         <v>4</v>
       </c>
-      <c r="F163" s="20"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="2:9">
-      <c r="B164" s="11">
+      <c r="B164" s="9">
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D164" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E164" s="27">
+      <c r="D164" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="23">
         <v>1</v>
       </c>
-      <c r="F164" s="20"/>
+      <c r="F164" s="16"/>
     </row>
     <row r="165" spans="2:9">
-      <c r="B165" s="11">
+      <c r="B165" s="9">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D165" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E165" s="27">
+      <c r="D165" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="23">
         <v>5</v>
       </c>
-      <c r="F165" s="20"/>
+      <c r="F165" s="16"/>
     </row>
     <row r="166" spans="2:9">
-      <c r="B166" s="11">
+      <c r="B166" s="9">
         <v>164</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D166" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" s="30">
+      <c r="D166" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="26">
         <v>11</v>
       </c>
-      <c r="F166" s="31" t="s">
+      <c r="F166" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G166" s="32" t="s">
+      <c r="G166" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="H166" s="32"/>
-      <c r="I166" s="32"/>
+      <c r="H166" s="28"/>
+      <c r="I166" s="28"/>
     </row>
     <row r="167" spans="2:9">
-      <c r="B167" s="11">
+      <c r="B167" s="9">
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="27">
+      <c r="D167" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="23">
         <v>1</v>
       </c>
-      <c r="F167" s="20"/>
+      <c r="F167" s="16"/>
     </row>
     <row r="168" spans="2:9">
-      <c r="B168" s="11">
+      <c r="B168" s="9">
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D168" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" s="27">
+      <c r="D168" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="23">
         <v>6</v>
       </c>
-      <c r="F168" s="20"/>
+      <c r="F168" s="16"/>
     </row>
     <row r="169" spans="2:9">
-      <c r="B169" s="11">
+      <c r="B169" s="9">
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D169" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" s="27">
+      <c r="D169" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="23">
         <v>2</v>
       </c>
-      <c r="F169" s="20"/>
+      <c r="F169" s="16"/>
     </row>
     <row r="170" spans="2:9">
-      <c r="B170" s="11">
+      <c r="B170" s="9">
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D170" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E170" s="27">
+      <c r="D170" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="23">
         <v>1</v>
       </c>
-      <c r="F170" s="20"/>
+      <c r="F170" s="16"/>
     </row>
     <row r="171" spans="2:9">
-      <c r="B171" s="11">
+      <c r="B171" s="9">
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D171" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E171" s="27">
+      <c r="D171" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="23">
         <v>1</v>
       </c>
-      <c r="F171" s="20"/>
+      <c r="F171" s="16"/>
     </row>
     <row r="172" spans="2:9">
-      <c r="B172" s="11">
+      <c r="B172" s="9">
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E172" s="27">
+      <c r="D172" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="23">
         <v>5</v>
       </c>
-      <c r="F172" s="20"/>
+      <c r="F172" s="16"/>
     </row>
     <row r="173" spans="2:9">
-      <c r="B173" s="11">
+      <c r="B173" s="9">
         <v>171</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="20"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="16"/>
     </row>
     <row r="174" spans="2:9">
-      <c r="B174" s="11">
+      <c r="B174" s="9">
         <v>172</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="20"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="16"/>
     </row>
     <row r="175" spans="2:9">
-      <c r="B175" s="11">
+      <c r="B175" s="9">
         <v>173</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D175" s="19" t="s">
+      <c r="D175" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E175" s="33">
+      <c r="E175" s="29">
         <v>15.5</v>
       </c>
-      <c r="F175" s="23" t="s">
+      <c r="F175" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="176" spans="2:9">
-      <c r="B176" s="11">
+      <c r="B176" s="9">
         <v>174</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E176" s="33">
-        <v>16</v>
-      </c>
-      <c r="F176" s="23" t="s">
+      <c r="E176" s="29">
+        <v>16</v>
+      </c>
+      <c r="F176" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="11">
+      <c r="B177" s="9">
         <v>175</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="20"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="16"/>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="11">
+      <c r="B178" s="9">
         <v>176</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D178" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E178" s="25">
+      <c r="E178" s="21">
         <v>28</v>
       </c>
-      <c r="F178" s="23" t="s">
+      <c r="F178" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="179" spans="2:6">
-      <c r="B179" s="11">
+      <c r="B179" s="9">
         <v>177</v>
       </c>
       <c r="C179" s="5"/>
-      <c r="D179" s="19"/>
+      <c r="D179" s="15"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="20"/>
+      <c r="F179" s="16"/>
     </row>
     <row r="180" spans="2:6">
-      <c r="B180" s="11">
+      <c r="B180" s="9">
         <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D180" s="19" t="s">
+      <c r="D180" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180" s="11">
         <v>44</v>
       </c>
-      <c r="F180" s="20"/>
+      <c r="F180" s="16"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="11">
+      <c r="B181" s="9">
         <v>179</v>
       </c>
       <c r="C181" s="5"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="20"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="16"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="11">
+      <c r="B182" s="9">
         <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182" s="11">
         <v>62</v>
       </c>
-      <c r="F182" s="20"/>
+      <c r="F182" s="16"/>
     </row>
     <row r="183" spans="2:6">
-      <c r="B183" s="11">
+      <c r="B183" s="9">
         <v>181</v>
       </c>
       <c r="C183" s="5"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="20"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="16"/>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="11">
+      <c r="B184" s="9">
         <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D184" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E184" s="14">
+      <c r="D184" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="11">
         <v>2</v>
       </c>
-      <c r="F184" s="20"/>
+      <c r="F184" s="16"/>
     </row>
     <row r="185" spans="2:6">
-      <c r="B185" s="11">
+      <c r="B185" s="9">
         <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D185" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E185" s="14">
+      <c r="D185" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="11">
         <v>21</v>
       </c>
-      <c r="F185" s="20"/>
+      <c r="F185" s="16"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="11">
+      <c r="B186" s="9">
         <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D186" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E186" s="14">
+      <c r="D186" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="11">
         <v>1</v>
       </c>
-      <c r="F186" s="20"/>
+      <c r="F186" s="16"/>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="11">
+      <c r="B187" s="9">
         <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D187" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E187" s="14">
+      <c r="D187" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="11">
         <v>4</v>
       </c>
-      <c r="F187" s="20"/>
+      <c r="F187" s="16"/>
     </row>
     <row r="188" spans="2:6">
-      <c r="B188" s="11">
+      <c r="B188" s="9">
         <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D188" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E188" s="14">
+      <c r="D188" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="11">
         <v>7</v>
       </c>
-      <c r="F188" s="20"/>
+      <c r="F188" s="16"/>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="11">
+      <c r="B189" s="9">
         <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D189" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E189" s="14">
+      <c r="D189" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="11">
         <v>2</v>
       </c>
-      <c r="F189" s="20"/>
+      <c r="F189" s="16"/>
     </row>
     <row r="190" spans="2:6">
-      <c r="B190" s="11">
+      <c r="B190" s="9">
         <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D190" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E190" s="14">
+      <c r="D190" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="11">
         <v>20</v>
       </c>
-      <c r="F190" s="20"/>
+      <c r="F190" s="16"/>
     </row>
     <row r="191" spans="2:6">
-      <c r="B191" s="11">
+      <c r="B191" s="9">
         <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D191" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E191" s="14">
+      <c r="D191" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="11">
         <v>144</v>
       </c>
-      <c r="F191" s="20"/>
+      <c r="F191" s="16"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="11">
+      <c r="B192" s="9">
         <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D192" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E192" s="14">
+      <c r="D192" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="11">
         <v>1</v>
       </c>
-      <c r="F192" s="20"/>
+      <c r="F192" s="16"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="11">
+      <c r="B193" s="9">
         <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D193" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E193" s="25">
+      <c r="D193" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="21">
         <v>5</v>
       </c>
-      <c r="F193" s="20"/>
+      <c r="F193" s="16"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="11">
+      <c r="B194" s="9">
         <v>192</v>
       </c>
       <c r="C194" s="5"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="20"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="16"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="11">
+      <c r="B195" s="9">
         <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D195" s="19" t="s">
+      <c r="D195" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195" s="11">
         <v>10</v>
       </c>
-      <c r="F195" s="20"/>
+      <c r="F195" s="16"/>
     </row>
     <row r="196" spans="2:6">
-      <c r="B196" s="11">
+      <c r="B196" s="9">
         <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D196" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E196" s="14">
+      <c r="D196" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="11">
         <v>3</v>
       </c>
-      <c r="F196" s="20"/>
+      <c r="F196" s="16"/>
     </row>
     <row r="197" spans="2:6">
-      <c r="B197" s="11">
+      <c r="B197" s="9">
         <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D197" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E197" s="14">
+      <c r="D197" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="11">
         <v>2</v>
       </c>
-      <c r="F197" s="20"/>
+      <c r="F197" s="16"/>
     </row>
     <row r="198" spans="2:6">
-      <c r="B198" s="11">
+      <c r="B198" s="9">
         <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D198" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198" s="14">
+      <c r="D198" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" s="11">
         <v>6</v>
       </c>
-      <c r="F198" s="20"/>
+      <c r="F198" s="16"/>
     </row>
     <row r="199" spans="2:6">
-      <c r="B199" s="11">
+      <c r="B199" s="9">
         <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D199" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E199" s="14">
+      <c r="D199" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" s="11">
         <v>5</v>
       </c>
-      <c r="F199" s="20"/>
+      <c r="F199" s="16"/>
     </row>
     <row r="200" spans="2:6">
-      <c r="B200" s="11">
+      <c r="B200" s="9">
         <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D200" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E200" s="14">
+      <c r="D200" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" s="11">
         <v>14</v>
       </c>
-      <c r="F200" s="20"/>
+      <c r="F200" s="16"/>
     </row>
     <row r="201" spans="2:6">
-      <c r="B201" s="11">
+      <c r="B201" s="9">
         <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D201" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E201" s="14">
+      <c r="D201" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" s="11">
         <v>4</v>
       </c>
-      <c r="F201" s="20"/>
+      <c r="F201" s="16"/>
     </row>
     <row r="202" spans="2:6">
-      <c r="B202" s="11">
+      <c r="B202" s="9">
         <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="14">
+      <c r="D202" s="15"/>
+      <c r="E202" s="11">
         <v>5</v>
       </c>
-      <c r="F202" s="20"/>
+      <c r="F202" s="16"/>
     </row>
     <row r="203" spans="2:6">
-      <c r="B203" s="11">
+      <c r="B203" s="9">
         <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D203" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E203" s="14">
+      <c r="D203" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="11">
         <v>5</v>
       </c>
-      <c r="F203" s="20"/>
+      <c r="F203" s="16"/>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="11">
+      <c r="B204" s="9">
         <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D204" s="19" t="s">
+      <c r="D204" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E204" s="14">
+      <c r="E204" s="11">
         <v>4</v>
       </c>
-      <c r="F204" s="20"/>
+      <c r="F204" s="16"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="11">
+      <c r="B205" s="9">
         <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D205" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E205" s="14">
+      <c r="D205" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" s="11">
         <v>12</v>
       </c>
-      <c r="F205" s="20"/>
+      <c r="F205" s="16"/>
     </row>
     <row r="206" spans="2:6">
-      <c r="B206" s="11">
+      <c r="B206" s="9">
         <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D206" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E206" s="14">
+      <c r="D206" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="11">
         <v>12</v>
       </c>
-      <c r="F206" s="20"/>
+      <c r="F206" s="16"/>
     </row>
     <row r="207" spans="2:6">
-      <c r="B207" s="11">
+      <c r="B207" s="9">
         <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D207" s="19" t="s">
+      <c r="D207" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E207" s="11">
         <v>0</v>
       </c>
-      <c r="F207" s="20"/>
+      <c r="F207" s="16"/>
     </row>
     <row r="208" spans="2:6">
-      <c r="B208" s="11">
+      <c r="B208" s="9">
         <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D208" s="19" t="s">
+      <c r="D208" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E208" s="14">
+      <c r="E208" s="11">
         <v>4</v>
       </c>
-      <c r="F208" s="20"/>
+      <c r="F208" s="16"/>
     </row>
     <row r="209" spans="2:6">
-      <c r="B209" s="11">
+      <c r="B209" s="9">
         <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D209" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E209" s="14">
+      <c r="D209" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209" s="11">
         <v>0</v>
       </c>
-      <c r="F209" s="20"/>
+      <c r="F209" s="16"/>
     </row>
     <row r="210" spans="2:6">
-      <c r="B210" s="11">
+      <c r="B210" s="9">
         <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D210" s="19" t="s">
+      <c r="D210" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E210" s="14">
+      <c r="E210" s="11">
         <v>3</v>
       </c>
-      <c r="F210" s="20"/>
+      <c r="F210" s="16"/>
     </row>
     <row r="211" spans="2:6">
-      <c r="B211" s="11">
+      <c r="B211" s="9">
         <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D211" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E211" s="14">
+      <c r="D211" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" s="11">
         <v>59</v>
       </c>
-      <c r="F211" s="20"/>
+      <c r="F211" s="16"/>
     </row>
     <row r="212" spans="2:6">
-      <c r="B212" s="11">
+      <c r="B212" s="9">
         <v>210</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D212" s="19" t="s">
+      <c r="D212" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E212" s="14">
+      <c r="E212" s="11">
         <v>5</v>
       </c>
-      <c r="F212" s="20"/>
+      <c r="F212" s="16"/>
     </row>
     <row r="213" spans="2:6">
-      <c r="B213" s="11">
+      <c r="B213" s="9">
         <v>211</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D213" s="19" t="s">
+      <c r="D213" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E213" s="14">
+      <c r="E213" s="11">
         <v>5</v>
       </c>
-      <c r="F213" s="20"/>
+      <c r="F213" s="16"/>
     </row>
     <row r="214" spans="2:6">
-      <c r="B214" s="11">
+      <c r="B214" s="9">
         <v>212</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D214" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E214" s="14">
+      <c r="D214" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="11">
         <v>10</v>
       </c>
-      <c r="F214" s="20"/>
+      <c r="F214" s="16"/>
     </row>
     <row r="215" spans="2:6">
-      <c r="B215" s="11">
+      <c r="B215" s="9">
         <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D215" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E215" s="14">
+      <c r="D215" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="11">
         <v>0</v>
       </c>
-      <c r="F215" s="20"/>
+      <c r="F215" s="16"/>
     </row>
     <row r="216" spans="2:6">
-      <c r="B216" s="11">
+      <c r="B216" s="9">
         <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D216" s="19" t="s">
+      <c r="D216" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E216" s="14">
+      <c r="E216" s="11">
         <v>0</v>
       </c>
-      <c r="F216" s="20"/>
+      <c r="F216" s="16"/>
     </row>
     <row r="217" spans="2:6">
-      <c r="B217" s="11">
+      <c r="B217" s="9">
         <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D217" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E217" s="14">
+      <c r="D217" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="11">
         <v>4</v>
       </c>
-      <c r="F217" s="20"/>
+      <c r="F217" s="16"/>
     </row>
     <row r="218" spans="2:6">
-      <c r="B218" s="11">
+      <c r="B218" s="9">
         <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D218" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E218" s="14">
+      <c r="D218" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="11">
         <v>10</v>
       </c>
-      <c r="F218" s="20"/>
+      <c r="F218" s="16"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="11">
+      <c r="B219" s="9">
         <v>217</v>
       </c>
-      <c r="C219" s="34" t="s">
+      <c r="C219" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D219" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E219" s="14">
+      <c r="D219" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="11">
         <v>21</v>
       </c>
-      <c r="F219" s="20"/>
+      <c r="F219" s="16"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="11">
+      <c r="B220" s="9">
         <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D220" s="19" t="s">
+      <c r="D220" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E220" s="14">
+      <c r="E220" s="11">
         <v>20</v>
       </c>
-      <c r="F220" s="20"/>
+      <c r="F220" s="16"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="11">
+      <c r="B221" s="9">
         <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D221" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E221" s="14">
+      <c r="E221" s="11">
         <v>20</v>
       </c>
-      <c r="F221" s="20"/>
+      <c r="F221" s="16"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="11">
+      <c r="B222" s="9">
         <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="D222" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E222" s="14">
+      <c r="E222" s="11">
         <v>19</v>
       </c>
-      <c r="F222" s="20"/>
+      <c r="F222" s="16"/>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="11">
+      <c r="B223" s="9">
         <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="D223" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E223" s="14">
+      <c r="E223" s="11">
         <v>17</v>
       </c>
-      <c r="F223" s="20"/>
+      <c r="F223" s="16"/>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="11">
+      <c r="B224" s="9">
         <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="D224" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E224" s="14">
+      <c r="E224" s="11">
         <v>20</v>
       </c>
-      <c r="F224" s="20"/>
+      <c r="F224" s="16"/>
     </row>
     <row r="225" spans="2:6">
-      <c r="B225" s="11">
+      <c r="B225" s="9">
         <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D225" s="19" t="s">
+      <c r="D225" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E225" s="14">
+      <c r="E225" s="11">
         <v>19</v>
       </c>
-      <c r="F225" s="20"/>
+      <c r="F225" s="16"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="11">
+      <c r="B226" s="9">
         <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D226" s="19" t="s">
+      <c r="D226" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E226" s="14">
+      <c r="E226" s="11">
         <v>20</v>
       </c>
-      <c r="F226" s="20"/>
+      <c r="F226" s="16"/>
     </row>
     <row r="227" spans="2:6">
-      <c r="B227" s="11">
+      <c r="B227" s="9">
         <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D227" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E227" s="14">
+      <c r="E227" s="11">
         <v>35</v>
       </c>
-      <c r="F227" s="20"/>
+      <c r="F227" s="16"/>
     </row>
     <row r="228" spans="2:6">
-      <c r="B228" s="11">
+      <c r="B228" s="9">
         <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D228" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E228" s="14">
+      <c r="D228" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="11">
         <v>28</v>
       </c>
-      <c r="F228" s="20"/>
+      <c r="F228" s="16"/>
     </row>
     <row r="229" spans="2:6">
-      <c r="B229" s="11">
+      <c r="B229" s="9">
         <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D229" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E229" s="14">
+      <c r="D229" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="11">
         <v>1</v>
       </c>
-      <c r="F229" s="20"/>
+      <c r="F229" s="16"/>
     </row>
     <row r="230" spans="2:6">
-      <c r="B230" s="11">
+      <c r="B230" s="9">
         <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D230" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E230" s="14">
+      <c r="D230" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="11">
         <v>13</v>
       </c>
-      <c r="F230" s="20"/>
+      <c r="F230" s="16"/>
     </row>
     <row r="231" spans="2:6">
-      <c r="B231" s="11">
+      <c r="B231" s="9">
         <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D231" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E231" s="14">
+      <c r="D231" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="11">
         <v>32</v>
       </c>
-      <c r="F231" s="20"/>
+      <c r="F231" s="16"/>
     </row>
     <row r="232" spans="2:6">
-      <c r="B232" s="11">
+      <c r="B232" s="9">
         <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D232" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E232" s="14">
+      <c r="D232" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="11">
         <v>32</v>
       </c>
-      <c r="F232" s="20"/>
+      <c r="F232" s="16"/>
     </row>
     <row r="233" spans="2:6">
-      <c r="B233" s="11">
+      <c r="B233" s="9">
         <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D233" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E233" s="14">
+      <c r="D233" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" s="11">
         <v>32</v>
       </c>
-      <c r="F233" s="20"/>
+      <c r="F233" s="16"/>
     </row>
     <row r="234" spans="2:6">
-      <c r="B234" s="11">
+      <c r="B234" s="9">
         <v>232</v>
       </c>
       <c r="C234" s="5"/>
-      <c r="D234" s="35"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="20"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="16"/>
     </row>
     <row r="235" spans="2:6">
-      <c r="B235" s="11">
+      <c r="B235" s="9">
         <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D235" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E235" s="14">
+      <c r="D235" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="11">
         <v>0</v>
       </c>
-      <c r="F235" s="20"/>
+      <c r="F235" s="16"/>
     </row>
     <row r="236" spans="2:6">
-      <c r="B236" s="11">
+      <c r="B236" s="9">
         <v>234</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D236" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E236" s="14">
+      <c r="D236" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="11">
         <v>3</v>
       </c>
-      <c r="F236" s="20"/>
+      <c r="F236" s="16"/>
     </row>
     <row r="237" spans="2:6">
-      <c r="B237" s="11">
+      <c r="B237" s="9">
         <v>235</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D237" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E237" s="14">
+      <c r="D237" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" s="11">
         <v>3</v>
       </c>
-      <c r="F237" s="20"/>
+      <c r="F237" s="16"/>
     </row>
     <row r="238" spans="2:6">
-      <c r="B238" s="11">
+      <c r="B238" s="9">
         <v>236</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D238" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E238" s="14">
+      <c r="D238" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" s="11">
         <v>12</v>
       </c>
-      <c r="F238" s="20"/>
+      <c r="F238" s="16"/>
     </row>
     <row r="239" spans="2:6">
-      <c r="B239" s="11">
+      <c r="B239" s="9">
         <v>237</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D239" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E239" s="14">
+      <c r="D239" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" s="11">
         <v>10</v>
       </c>
-      <c r="F239" s="20"/>
+      <c r="F239" s="16"/>
     </row>
     <row r="240" spans="2:6">
-      <c r="B240" s="11">
+      <c r="B240" s="9">
         <v>238</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D240" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E240" s="14">
+      <c r="D240" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="11">
         <v>11</v>
       </c>
-      <c r="F240" s="20"/>
+      <c r="F240" s="16"/>
     </row>
     <row r="241" spans="2:6">
-      <c r="B241" s="11">
+      <c r="B241" s="9">
         <v>239</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D241" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E241" s="14">
+      <c r="D241" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" s="11">
         <v>9</v>
       </c>
-      <c r="F241" s="20"/>
+      <c r="F241" s="16"/>
     </row>
     <row r="242" spans="2:6">
-      <c r="B242" s="11">
+      <c r="B242" s="9">
         <v>240</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D242" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E242" s="14">
+      <c r="D242" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="11">
         <v>10</v>
       </c>
-      <c r="F242" s="20"/>
+      <c r="F242" s="16"/>
     </row>
     <row r="243" spans="2:6">
-      <c r="B243" s="11">
+      <c r="B243" s="9">
         <v>241</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D243" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E243" s="14">
+      <c r="D243" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243" s="11">
         <v>28</v>
       </c>
-      <c r="F243" s="20"/>
+      <c r="F243" s="16"/>
     </row>
     <row r="244" spans="2:6">
-      <c r="B244" s="11">
+      <c r="B244" s="9">
         <v>242</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D244" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E244" s="14">
+      <c r="D244" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" s="11">
         <v>12</v>
       </c>
-      <c r="F244" s="20"/>
+      <c r="F244" s="16"/>
     </row>
     <row r="245" spans="2:6">
-      <c r="B245" s="11">
+      <c r="B245" s="9">
         <v>243</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D245" s="35" t="s">
+      <c r="D245" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E245" s="14">
+      <c r="E245" s="11">
         <v>0</v>
       </c>
-      <c r="F245" s="20"/>
+      <c r="F245" s="16"/>
     </row>
     <row r="246" spans="2:6">
-      <c r="B246" s="11">
+      <c r="B246" s="9">
         <v>244</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D246" s="35" t="s">
+      <c r="D246" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E246" s="14">
+      <c r="E246" s="11">
         <v>250</v>
       </c>
-      <c r="F246" s="20"/>
+      <c r="F246" s="16"/>
     </row>
     <row r="247" spans="2:6">
-      <c r="B247" s="11">
+      <c r="B247" s="9">
         <v>245</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D247" s="35" t="s">
+      <c r="D247" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E247" s="14">
+      <c r="E247" s="11">
         <v>250</v>
       </c>
-      <c r="F247" s="20"/>
+      <c r="F247" s="16"/>
     </row>
     <row r="248" spans="2:6">
-      <c r="B248" s="11">
+      <c r="B248" s="9">
         <v>246</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D248" s="19" t="s">
+      <c r="D248" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E248" s="14">
+      <c r="E248" s="11">
         <v>300</v>
       </c>
-      <c r="F248" s="20"/>
+      <c r="F248" s="16"/>
     </row>
     <row r="249" spans="2:6">
-      <c r="B249" s="11">
+      <c r="B249" s="9">
         <v>247</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D249" s="19" t="s">
+      <c r="D249" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E249" s="14">
+      <c r="E249" s="11">
         <v>225</v>
       </c>
-      <c r="F249" s="20"/>
+      <c r="F249" s="16"/>
     </row>
     <row r="250" spans="2:6">
-      <c r="B250" s="11">
+      <c r="B250" s="9">
         <v>248</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D250" s="19"/>
-      <c r="E250" s="14">
+      <c r="D250" s="15"/>
+      <c r="E250" s="11">
         <v>0</v>
       </c>
-      <c r="F250" s="20"/>
+      <c r="F250" s="16"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="11">
+      <c r="B251" s="9">
         <v>249</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D251" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E251" s="14">
+      <c r="D251" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="11">
         <v>10</v>
       </c>
-      <c r="F251" s="20"/>
+      <c r="F251" s="16"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="11">
+      <c r="B252" s="9">
         <v>250</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D252" s="19" t="s">
+      <c r="D252" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E252" s="14">
+      <c r="E252" s="11">
         <v>8</v>
       </c>
-      <c r="F252" s="20"/>
+      <c r="F252" s="16"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="11">
+      <c r="B253" s="9">
         <v>251</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D253" s="19" t="s">
+      <c r="D253" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E253" s="14">
+      <c r="E253" s="11">
         <v>1</v>
       </c>
-      <c r="F253" s="20"/>
+      <c r="F253" s="16"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="11">
+      <c r="B254" s="9">
         <v>252</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D254" s="19" t="s">
+      <c r="D254" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E254" s="14">
+      <c r="E254" s="11">
         <v>350</v>
       </c>
-      <c r="F254" s="20"/>
+      <c r="F254" s="16"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="11">
+      <c r="B255" s="9">
         <v>253</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D255" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E255" s="14">
+      <c r="D255" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" s="11">
         <v>14</v>
       </c>
-      <c r="F255" s="20"/>
+      <c r="F255" s="16"/>
     </row>
     <row r="256" spans="2:6">
-      <c r="B256" s="11">
+      <c r="B256" s="9">
         <v>254</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D256" s="19" t="s">
+      <c r="D256" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E256" s="14">
+      <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="20"/>
+      <c r="F256" s="16"/>
     </row>
     <row r="257" spans="2:6">
-      <c r="B257" s="11">
+      <c r="B257" s="9">
         <v>255</v>
       </c>
-      <c r="C257" s="34" t="s">
+      <c r="C257" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D257" s="19" t="s">
+      <c r="D257" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E257" s="14">
+      <c r="E257" s="11">
         <v>2</v>
       </c>
-      <c r="F257" s="20"/>
+      <c r="F257" s="16"/>
     </row>
     <row r="258" spans="2:6">
-      <c r="B258" s="11">
+      <c r="B258" s="9">
         <v>256</v>
       </c>
-      <c r="C258" s="34" t="s">
+      <c r="C258" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="D258" s="19" t="s">
+      <c r="D258" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E258" s="11">
         <v>2</v>
       </c>
-      <c r="F258" s="20"/>
+      <c r="F258" s="16"/>
     </row>
     <row r="259" spans="2:6">
-      <c r="B259" s="11">
+      <c r="B259" s="9">
         <v>257</v>
       </c>
-      <c r="C259" s="34" t="s">
+      <c r="C259" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D259" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E259" s="14">
+      <c r="D259" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="11">
         <v>7</v>
       </c>
-      <c r="F259" s="20"/>
+      <c r="F259" s="16"/>
     </row>
     <row r="260" spans="2:6">
-      <c r="B260" s="11">
+      <c r="B260" s="9">
         <v>258</v>
       </c>
-      <c r="C260" s="34" t="s">
+      <c r="C260" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D260" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E260" s="14">
+      <c r="D260" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E260" s="11">
         <v>6</v>
       </c>
-      <c r="F260" s="20"/>
+      <c r="F260" s="16"/>
     </row>
     <row r="261" spans="2:6">
-      <c r="B261" s="11">
+      <c r="B261" s="9">
         <v>259</v>
       </c>
-      <c r="C261" s="34" t="s">
+      <c r="C261" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D261" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E261" s="14">
+      <c r="D261" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E261" s="11">
         <v>10</v>
       </c>
-      <c r="F261" s="20"/>
+      <c r="F261" s="16"/>
     </row>
     <row r="262" spans="2:6">
-      <c r="B262" s="11">
+      <c r="B262" s="9">
         <v>260</v>
       </c>
-      <c r="C262" s="34" t="s">
+      <c r="C262" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D262" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E262" s="14">
+      <c r="D262" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E262" s="11">
         <v>2</v>
       </c>
-      <c r="F262" s="20"/>
+      <c r="F262" s="16"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="11">
+      <c r="B263" s="9">
         <v>261</v>
       </c>
-      <c r="C263" s="34" t="s">
+      <c r="C263" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D263" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E263" s="14">
+      <c r="D263" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" s="11">
         <v>12</v>
       </c>
-      <c r="F263" s="20"/>
+      <c r="F263" s="16"/>
     </row>
     <row r="264" spans="2:6">
-      <c r="B264" s="11">
+      <c r="B264" s="9">
         <v>262</v>
       </c>
-      <c r="C264" s="34" t="s">
+      <c r="C264" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D264" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E264" s="14">
+      <c r="D264" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E264" s="11">
         <v>4</v>
       </c>
-      <c r="F264" s="20"/>
+      <c r="F264" s="16"/>
     </row>
     <row r="265" spans="2:6">
-      <c r="B265" s="11">
+      <c r="B265" s="9">
         <v>263</v>
       </c>
       <c r="C265" s="5"/>
-      <c r="D265" s="19"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="20"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="16"/>
     </row>
     <row r="266" spans="2:6">
-      <c r="B266" s="11">
+      <c r="B266" s="9">
         <v>264</v>
       </c>
-      <c r="C266" s="34" t="s">
+      <c r="C266" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D266" s="19" t="s">
+      <c r="D266" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E266" s="14">
+      <c r="E266" s="11">
         <v>2</v>
       </c>
-      <c r="F266" s="20"/>
+      <c r="F266" s="16"/>
     </row>
     <row r="267" spans="2:6">
-      <c r="B267" s="11">
+      <c r="B267" s="9">
         <v>265</v>
       </c>
-      <c r="C267" s="34" t="s">
+      <c r="C267" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D267" s="19" t="s">
+      <c r="D267" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E267" s="14">
+      <c r="E267" s="11">
         <v>4</v>
       </c>
-      <c r="F267" s="20"/>
+      <c r="F267" s="16"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="11">
+      <c r="B268" s="9">
         <v>266</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="D268" s="19" t="s">
+      <c r="D268" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E268" s="14">
+      <c r="E268" s="11">
         <v>4</v>
       </c>
-      <c r="F268" s="20"/>
+      <c r="F268" s="16"/>
     </row>
     <row r="269" spans="2:6">
-      <c r="B269" s="11">
+      <c r="B269" s="9">
         <v>267</v>
       </c>
-      <c r="C269" s="34" t="s">
+      <c r="C269" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D269" s="19" t="s">
+      <c r="D269" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E269" s="14">
+      <c r="E269" s="11">
         <v>2.5</v>
       </c>
-      <c r="F269" s="20"/>
+      <c r="F269" s="16"/>
     </row>
     <row r="270" spans="2:6">
-      <c r="B270" s="11">
+      <c r="B270" s="9">
         <v>268</v>
       </c>
-      <c r="C270" s="34" t="s">
+      <c r="C270" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D270" s="36" t="s">
+      <c r="D270" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E270" s="25">
+      <c r="E270" s="21">
         <v>28</v>
       </c>
-      <c r="F270" s="23" t="s">
+      <c r="F270" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="271" spans="2:6">
-      <c r="B271" s="11">
+      <c r="B271" s="9">
         <v>269</v>
       </c>
-      <c r="C271" s="34" t="s">
+      <c r="C271" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D271" s="35" t="s">
+      <c r="D271" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E271" s="25">
+      <c r="E271" s="21">
         <v>27.5</v>
       </c>
-      <c r="F271" s="23" t="s">
+      <c r="F271" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="272" spans="2:6">
-      <c r="B272" s="11">
+      <c r="B272" s="9">
         <v>270</v>
       </c>
-      <c r="C272" s="34" t="s">
+      <c r="C272" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D272" s="35" t="s">
+      <c r="D272" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E272" s="14">
+      <c r="E272" s="11">
         <v>2.4</v>
       </c>
-      <c r="F272" s="20"/>
+      <c r="F272" s="16"/>
     </row>
     <row r="273" spans="2:6">
-      <c r="B273" s="11">
+      <c r="B273" s="9">
         <v>271</v>
       </c>
-      <c r="C273" s="34" t="s">
+      <c r="C273" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="D273" s="35" t="s">
+      <c r="D273" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E273" s="25">
+      <c r="E273" s="21">
         <v>28.5</v>
       </c>
-      <c r="F273" s="23" t="s">
+      <c r="F273" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="274" spans="2:6">
-      <c r="B274" s="11">
+      <c r="B274" s="9">
         <v>272</v>
       </c>
-      <c r="C274" s="34" t="s">
+      <c r="C274" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D274" s="35" t="s">
+      <c r="D274" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E274" s="14">
+      <c r="E274" s="11">
         <v>750</v>
       </c>
-      <c r="F274" s="20"/>
+      <c r="F274" s="16"/>
     </row>
     <row r="275" spans="2:6">
-      <c r="B275" s="11">
+      <c r="B275" s="9">
         <v>274</v>
       </c>
-      <c r="C275" s="34" t="s">
+      <c r="C275" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D275" s="35" t="s">
+      <c r="D275" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="E275" s="14">
+      <c r="E275" s="11">
         <v>0</v>
       </c>
-      <c r="F275" s="20"/>
+      <c r="F275" s="16"/>
     </row>
     <row r="276" spans="2:6">
-      <c r="B276" s="11">
+      <c r="B276" s="9">
         <v>275</v>
       </c>
-      <c r="C276" s="34" t="s">
+      <c r="C276" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D276" s="35" t="s">
+      <c r="D276" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E276" s="14">
+      <c r="E276" s="11">
         <v>11.5</v>
       </c>
-      <c r="F276" s="23" t="s">
+      <c r="F276" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="277" spans="2:6">
-      <c r="B277" s="11">
+      <c r="B277" s="9">
         <v>276</v>
       </c>
-      <c r="C277" s="34" t="s">
+      <c r="C277" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="D277" s="19" t="s">
+      <c r="D277" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E277" s="14">
+      <c r="E277" s="11">
         <v>19</v>
       </c>
-      <c r="F277" s="23" t="s">
+      <c r="F277" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="278" spans="2:6">
-      <c r="B278" s="11">
+      <c r="B278" s="9">
         <v>277</v>
       </c>
-      <c r="C278" s="34" t="s">
+      <c r="C278" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D278" s="35" t="s">
+      <c r="D278" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E278" s="14">
+      <c r="E278" s="11">
         <v>0</v>
       </c>
-      <c r="F278" s="20"/>
+      <c r="F278" s="16"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="11">
+      <c r="B279" s="9">
         <v>278</v>
       </c>
-      <c r="C279" s="34" t="s">
+      <c r="C279" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="D279" s="35" t="s">
+      <c r="D279" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E279" s="14">
+      <c r="E279" s="11">
         <v>0</v>
       </c>
-      <c r="F279" s="20"/>
+      <c r="F279" s="16"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="11">
+      <c r="B280" s="9">
         <v>279</v>
       </c>
-      <c r="C280" s="34" t="s">
+      <c r="C280" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D280" s="35" t="s">
+      <c r="D280" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E280" s="14">
+      <c r="E280" s="11">
         <v>0</v>
       </c>
-      <c r="F280" s="20"/>
+      <c r="F280" s="16"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="11">
+      <c r="B281" s="9">
         <v>280</v>
       </c>
-      <c r="C281" s="34" t="s">
+      <c r="C281" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D281" s="35" t="s">
+      <c r="D281" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E281" s="14">
+      <c r="E281" s="11">
         <v>0</v>
       </c>
-      <c r="F281" s="20"/>
+      <c r="F281" s="16"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="11">
+      <c r="B282" s="9">
         <v>281</v>
       </c>
-      <c r="C282" s="37" t="s">
+      <c r="C282" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D282" s="35" t="s">
+      <c r="D282" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E282" s="14">
+      <c r="E282" s="11">
         <v>650</v>
       </c>
-      <c r="F282" s="20"/>
+      <c r="F282" s="16"/>
     </row>
     <row r="283" spans="2:6">
-      <c r="B283" s="11">
+      <c r="B283" s="9">
         <v>282</v>
       </c>
-      <c r="C283" s="37" t="s">
+      <c r="C283" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D283" s="35" t="s">
+      <c r="D283" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E283" s="14">
+      <c r="E283" s="11">
         <v>700</v>
       </c>
-      <c r="F283" s="20"/>
+      <c r="F283" s="16"/>
     </row>
     <row r="284" spans="2:6">
-      <c r="B284" s="11">
+      <c r="B284" s="9">
         <v>283</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="C284" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D284" s="35" t="s">
+      <c r="D284" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E284" s="14">
+      <c r="E284" s="11">
         <v>0</v>
       </c>
-      <c r="F284" s="20"/>
+      <c r="F284" s="16"/>
     </row>
     <row r="285" spans="2:6">
-      <c r="B285" s="11">
+      <c r="B285" s="9">
         <v>284</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D285" s="35" t="s">
+      <c r="D285" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E285" s="14">
+      <c r="E285" s="11">
         <v>0</v>
       </c>
-      <c r="F285" s="20"/>
+      <c r="F285" s="16"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="B286" s="11">
+      <c r="B286" s="9">
         <v>287</v>
       </c>
-      <c r="C286" s="34" t="s">
+      <c r="C286" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D286" s="35" t="s">
+      <c r="D286" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E286" s="14">
+      <c r="E286" s="11">
         <v>1</v>
       </c>
-      <c r="F286" s="20"/>
+      <c r="F286" s="16"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="11">
+      <c r="B287" s="9">
         <v>288</v>
       </c>
-      <c r="C287" s="34" t="s">
+      <c r="C287" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="D287" s="35" t="s">
+      <c r="D287" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E287" s="14">
+      <c r="E287" s="11">
         <v>0</v>
       </c>
-      <c r="F287" s="20"/>
+      <c r="F287" s="16"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="11">
+      <c r="B288" s="9">
         <v>289</v>
       </c>
-      <c r="C288" s="34" t="s">
+      <c r="C288" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="D288" s="35" t="s">
+      <c r="D288" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E288" s="14">
+      <c r="E288" s="11">
         <v>0</v>
       </c>
-      <c r="F288" s="20"/>
+      <c r="F288" s="16"/>
     </row>
     <row r="289" spans="2:6">
-      <c r="B289" s="11">
+      <c r="B289" s="9">
         <v>290</v>
       </c>
-      <c r="C289" s="34" t="s">
+      <c r="C289" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="D289" s="35" t="s">
+      <c r="D289" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E289" s="14">
+      <c r="E289" s="11">
         <v>1</v>
       </c>
-      <c r="F289" s="20"/>
+      <c r="F289" s="16"/>
     </row>
     <row r="290" spans="2:6">
-      <c r="B290" s="11">
+      <c r="B290" s="9">
         <v>291</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D290" s="38"/>
-      <c r="E290" s="14">
+      <c r="D290" s="34"/>
+      <c r="E290" s="11">
         <v>0</v>
       </c>
-      <c r="F290" s="20"/>
+      <c r="F290" s="16"/>
     </row>
     <row r="291" spans="2:6" ht="15.75" thickBot="1">
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
-      <c r="D291" s="34"/>
-      <c r="E291" s="14"/>
-      <c r="F291" s="39"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="35"/>
     </row>
     <row r="292" spans="2:6">
-      <c r="D292" s="40"/>
+      <c r="D292" s="36"/>
     </row>
     <row r="293" spans="2:6">
-      <c r="D293" s="19"/>
+      <c r="D293" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
     <sheet name="Stock" sheetId="2" r:id="rId2"/>
     <sheet name="purchese" sheetId="3" r:id="rId3"/>
+    <sheet name="Purchase" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$L$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">purchese!$C$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="339">
   <si>
     <t>gro on</t>
   </si>
@@ -43,12 +44,6 @@
     <t xml:space="preserve">bisk Fram Googly </t>
   </si>
   <si>
-    <t>1 pkt.</t>
-  </si>
-  <si>
-    <t>1 pc.</t>
-  </si>
-  <si>
     <t>kissam Mango jam</t>
   </si>
   <si>
@@ -844,30 +839,15 @@
     <t>muri</t>
   </si>
   <si>
-    <t>1.5 kg.</t>
-  </si>
-  <si>
-    <t>3 kg.</t>
-  </si>
-  <si>
     <t>Elach( choto )</t>
   </si>
   <si>
-    <t>10 gm.</t>
-  </si>
-  <si>
     <t>labango ( loose)</t>
   </si>
   <si>
     <t xml:space="preserve">Nafice Rice </t>
   </si>
   <si>
-    <t>100 gm.</t>
-  </si>
-  <si>
-    <t>50 gm.</t>
-  </si>
-  <si>
     <t>Dally Local Shell Entry</t>
   </si>
   <si>
@@ -1028,13 +1008,43 @@
   </si>
   <si>
     <t>Place =  Charial Bazar</t>
+  </si>
+  <si>
+    <t>R.k Gota Gorom Mashala</t>
+  </si>
+  <si>
+    <t>20/02/2021</t>
+  </si>
+  <si>
+    <t>Amul Spray ( 13.5 gm.)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Kissan Mango jam ( 188 gm. )</t>
+  </si>
+  <si>
+    <t>Amul Spray (13.5 gm)( Rs 5 )</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>19/2/2021</t>
+  </si>
+  <si>
+    <t>23/12/2021</t>
+  </si>
+  <si>
+    <t>kissan Mango Jam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1102,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1137,7 +1161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1519,11 +1543,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1657,6 +1729,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,56 +1834,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2038,591 +2149,736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A12" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:10">
-      <c r="A2" s="77" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:10" ht="9" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+    </row>
+    <row r="4" spans="1:11" ht="9" customHeight="1">
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
+    </row>
+    <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A6" s="114" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="45" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" ht="15.75" thickTop="1">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="38">
+      <c r="H8" s="1"/>
+      <c r="I8" s="38">
         <v>22</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="41">
+      <c r="J8" s="1"/>
+      <c r="K8" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="35"/>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="42">
+      <c r="H9" s="1"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="42">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="35"/>
-      <c r="C10" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="6">
+      <c r="H10" s="1"/>
+      <c r="I10" s="6">
         <v>110</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="42">
+      <c r="J10" s="1"/>
+      <c r="K10" s="42">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="10"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>3</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>271</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="6">
+      <c r="H12" s="1"/>
+      <c r="I12" s="6">
         <v>42</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="42">
+      <c r="J12" s="1"/>
+      <c r="K12" s="42">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>4</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="C13" s="35">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="39">
+      <c r="H13" s="1"/>
+      <c r="I13" s="39">
         <v>27</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="42">
+      <c r="J13" s="1"/>
+      <c r="K13" s="42">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>5</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="C14" s="35">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>272</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="39">
+      <c r="H14" s="1"/>
+      <c r="I14" s="39">
         <v>2500</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="42">
+      <c r="J14" s="1"/>
+      <c r="K14" s="42">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>6</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="C15" s="35">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>273</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="39">
+      <c r="H15" s="1"/>
+      <c r="I15" s="39">
         <v>2880</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="42">
+      <c r="J15" s="1"/>
+      <c r="K15" s="42">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>7</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="39">
+      <c r="H16" s="1"/>
+      <c r="I16" s="39">
         <v>110</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="42">
+      <c r="J16" s="1"/>
+      <c r="K16" s="42">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>8</v>
       </c>
       <c r="B17" s="35"/>
-      <c r="C17" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="C17" s="35">
+        <v>100</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>233</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="39">
+      <c r="H17" s="1"/>
+      <c r="I17" s="39">
         <v>70</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="42">
+      <c r="J17" s="1"/>
+      <c r="K17" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>9</v>
       </c>
       <c r="B18" s="35"/>
-      <c r="C18" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="C18" s="35">
+        <v>50</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>234</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="39">
+      <c r="H18" s="1"/>
+      <c r="I18" s="39">
         <v>140</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="42">
+      <c r="J18" s="1"/>
+      <c r="K18" s="42">
         <v>7</v>
       </c>
-      <c r="L18">
-        <f>SUM(J12:J18)</f>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="10"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="10"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10">
+        <v>10</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="92">
+        <v>250</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6">
+        <v>70</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="10">
+        <v>11</v>
+      </c>
       <c r="B21" s="35"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="35">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6">
+        <v>140</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10">
+        <v>12</v>
+      </c>
       <c r="B22" s="35"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>329</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="10">
+        <v>13</v>
+      </c>
       <c r="B23" s="35"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="10">
+        <v>14</v>
+      </c>
       <c r="B24" s="35"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="35">
+        <v>250</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>263</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="H24" s="1"/>
+      <c r="I24" s="6">
+        <v>45</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="42">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="10"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="10"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="42"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10">
+        <v>15</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="92">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="H26" s="1"/>
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="10"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="35">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="H27" s="1"/>
+      <c r="I27" s="6">
+        <v>75</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="6"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="H28" s="1"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="6"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="H29" s="1"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="6"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="H30" s="1"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="6"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="H31" s="1"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="6"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="H32" s="1"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="6"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="H33" s="1"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="6"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="H34" s="1"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="6"/>
       <c r="B35" s="33"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="6"/>
       <c r="B36" s="33"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="6"/>
       <c r="B37" s="33"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="6"/>
       <c r="B38" s="33"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2632,9 +2888,10 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="6"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2644,9 +2901,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2656,9 +2914,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2668,9 +2927,10 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2680,9 +2940,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2692,9 +2953,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="6"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2704,9 +2966,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="1"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="6"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2716,9 +2979,10 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="J46" s="1"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="6"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2728,9 +2992,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J47" s="1"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2740,12 +3005,13 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:J5"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A2:K5"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
@@ -2757,41 +3023,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J318"/>
+  <dimension ref="B2:J325"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="53"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="58"/>
       <c r="C3" s="58" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
@@ -2804,10 +3070,10 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="57">
         <v>5</v>
@@ -2820,10 +3086,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
@@ -2836,10 +3102,10 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="14" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="11">
         <v>60</v>
@@ -2851,7 +3117,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12"/>
@@ -2864,10 +3130,10 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -2879,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="12"/>
@@ -2892,10 +3158,10 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
@@ -2907,7 +3173,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -2920,10 +3186,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -2936,10 +3202,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
@@ -2952,10 +3218,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -2967,7 +3233,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="12"/>
@@ -2980,10 +3246,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="11">
         <v>3</v>
@@ -2996,10 +3262,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -3012,10 +3278,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
@@ -3028,10 +3294,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="11">
         <v>6</v>
@@ -3044,10 +3310,10 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="11">
         <v>6</v>
@@ -3060,10 +3326,10 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="11">
         <v>48</v>
@@ -3076,10 +3342,10 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="11">
         <v>59</v>
@@ -3092,10 +3358,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="11">
         <v>48</v>
@@ -3106,10 +3372,10 @@
       <c r="B24" s="9"/>
       <c r="C24" s="61"/>
       <c r="D24" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="11">
         <v>14</v>
@@ -3129,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="12"/>
@@ -3142,10 +3408,10 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="11">
         <v>6</v>
@@ -3157,7 +3423,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="12"/>
@@ -3170,10 +3436,10 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -3186,10 +3452,10 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -3201,7 +3467,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
@@ -3214,10 +3480,10 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="11">
         <v>4</v>
@@ -3230,10 +3496,10 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
@@ -3245,7 +3511,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="12"/>
@@ -3258,16 +3524,16 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="G35" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3276,10 +3542,10 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" s="11">
         <v>3</v>
@@ -3291,7 +3557,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="12"/>
@@ -3304,10 +3570,10 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="11">
         <v>8</v>
@@ -3320,10 +3586,10 @@
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="11">
         <v>13</v>
@@ -3335,7 +3601,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="12"/>
@@ -3348,10 +3614,10 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="11">
         <v>9</v>
@@ -3364,10 +3630,10 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="11">
         <v>2</v>
@@ -3380,10 +3646,10 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" s="11">
         <v>3</v>
@@ -3396,10 +3662,10 @@
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="11">
         <v>5</v>
@@ -3412,10 +3678,10 @@
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="11">
         <v>3</v>
@@ -3428,10 +3694,10 @@
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" s="11">
         <v>2</v>
@@ -3444,10 +3710,10 @@
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" s="11">
         <v>12</v>
@@ -3460,10 +3726,10 @@
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" s="11">
         <v>5</v>
@@ -3476,10 +3742,10 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="11">
         <v>12</v>
@@ -3492,10 +3758,10 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" s="11">
         <v>4</v>
@@ -3507,7 +3773,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="12"/>
@@ -3520,10 +3786,10 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F52" s="11">
         <v>5</v>
@@ -3536,10 +3802,10 @@
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F53" s="11">
         <v>6</v>
@@ -3552,10 +3818,10 @@
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F54" s="11">
         <v>1</v>
@@ -3568,10 +3834,10 @@
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F55" s="11">
         <v>6</v>
@@ -3584,10 +3850,10 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F56" s="11">
         <v>20</v>
@@ -3600,10 +3866,10 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F57" s="11">
         <v>1</v>
@@ -3616,10 +3882,10 @@
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F58" s="11">
         <v>1</v>
@@ -3627,258 +3893,248 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="9">
-        <v>54</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="11">
+        <v>10</v>
+      </c>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="9">
-        <v>55</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="11">
-        <v>6</v>
-      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="9">
-        <v>56</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="11">
-        <v>7</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="9">
-        <v>57</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="F62" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="11">
+        <v>6</v>
+      </c>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F63" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G63" s="13"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="9">
-        <v>59</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="11">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F65" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F66" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="9">
-        <v>64</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="11">
+        <v>6</v>
+      </c>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F70" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="9">
-        <v>66</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="11">
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F72" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F73" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F74" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F75" s="11">
         <v>6</v>
@@ -3887,97 +4143,101 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="17">
-        <v>10</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F77" s="11">
-        <v>10</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G77" s="13"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="11">
-        <v>2</v>
-      </c>
-      <c r="G78" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F78" s="17">
+        <v>10</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F79" s="11">
-        <v>3</v>
-      </c>
-      <c r="G79" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="9"/>
+      <c r="B80" s="9">
+        <v>73</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="5" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="18">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="F80" s="11">
+        <v>2</v>
       </c>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="9"/>
+      <c r="B81" s="9">
+        <v>74</v>
+      </c>
       <c r="C81" s="9"/>
       <c r="D81" s="5" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F81" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -3985,13 +4245,13 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="11">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="F82" s="18">
+        <v>5</v>
       </c>
       <c r="G82" s="13"/>
     </row>
@@ -3999,117 +4259,123 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F83" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="11"/>
+      <c r="D84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="11">
+        <v>2</v>
+      </c>
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11"/>
+      <c r="D85" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="11">
+        <v>3</v>
+      </c>
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="9">
-        <v>75</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="11">
+        <v>4</v>
+      </c>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="9">
-        <v>76</v>
-      </c>
+      <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="11">
-        <v>9</v>
-      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="11"/>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="9">
-        <v>77</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="11">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="11">
+        <v>9</v>
+      </c>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="9">
+        <v>77</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="9">
         <v>78</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="11">
+      <c r="C91" s="9"/>
+      <c r="D91" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="11">
         <v>1</v>
-      </c>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="9"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="11">
-        <v>20</v>
-      </c>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="9"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="11">
-        <v>2</v>
       </c>
       <c r="G91" s="13"/>
     </row>
@@ -4120,10 +4386,10 @@
         <v>172</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F92" s="11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G92" s="13"/>
     </row>
@@ -4131,13 +4397,13 @@
       <c r="B93" s="9"/>
       <c r="C93" s="61"/>
       <c r="D93" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F93" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="13"/>
     </row>
@@ -4145,13 +4411,13 @@
       <c r="B94" s="9"/>
       <c r="C94" s="61"/>
       <c r="D94" s="5" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F94" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G94" s="13"/>
     </row>
@@ -4159,11 +4425,13 @@
       <c r="B95" s="9"/>
       <c r="C95" s="61"/>
       <c r="D95" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F95" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G95" s="13"/>
     </row>
@@ -4171,178 +4439,176 @@
       <c r="B96" s="9"/>
       <c r="C96" s="61"/>
       <c r="D96" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F96" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="9"/>
       <c r="C97" s="61"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="E97" s="12"/>
-      <c r="F97" s="11"/>
+      <c r="F97" s="11">
+        <v>5</v>
+      </c>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="9">
-        <v>79</v>
-      </c>
-      <c r="C98" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="11"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="11">
+        <v>5</v>
+      </c>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="9">
-        <v>80</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" s="11">
-        <v>10</v>
-      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="9">
-        <v>81</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100" s="11">
-        <v>12</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="11">
+        <v>10</v>
+      </c>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="9">
         <v>81</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" s="11">
+      <c r="C102" s="9"/>
+      <c r="D102" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="11">
         <v>12</v>
       </c>
-      <c r="G101" s="13"/>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="9"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="11">
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="9">
+        <v>82</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="11">
+        <v>12</v>
+      </c>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="9"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="11">
         <v>6</v>
       </c>
-      <c r="G102" s="13"/>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="9"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="11">
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="9"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="11">
         <v>5</v>
-      </c>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104" s="9">
-        <v>83</v>
-      </c>
-      <c r="C104" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="13"/>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="9">
-        <v>84</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="11">
-        <v>6</v>
       </c>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="9">
-        <v>85</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E106" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F106" s="11">
-        <v>2</v>
-      </c>
+      <c r="C106" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="9">
-        <v>86</v>
-      </c>
-      <c r="C107" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="11">
+        <v>6</v>
+      </c>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F108" s="11">
         <v>2</v>
@@ -4351,46 +4617,42 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="9">
-        <v>88</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" s="11">
-        <v>19</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110" s="9">
-        <v>4</v>
-      </c>
-      <c r="G110" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F110" s="11">
+        <v>2</v>
+      </c>
+      <c r="G110" s="13"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F111" s="11">
         <v>19</v>
@@ -4399,273 +4661,281 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112" s="11">
-        <v>14</v>
-      </c>
-      <c r="G112" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F112" s="9">
+        <v>4</v>
+      </c>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F113" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F114" s="11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F115" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" s="18">
-        <v>19</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F116" s="11">
+        <v>8</v>
+      </c>
+      <c r="G116" s="13"/>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F117" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" s="11">
-        <v>14</v>
-      </c>
-      <c r="G118" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F118" s="18">
+        <v>19</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F119" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="9"/>
-      <c r="C120" s="61"/>
+      <c r="B120" s="9">
+        <v>97</v>
+      </c>
+      <c r="C120" s="9"/>
       <c r="D120" s="5" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F120" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="9"/>
-      <c r="C121" s="61"/>
+      <c r="C121" s="9"/>
       <c r="D121" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F121" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="9"/>
-      <c r="C122" s="61"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="11">
+        <v>5</v>
+      </c>
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="9"/>
-      <c r="C123" s="61"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="11"/>
+      <c r="B123" s="9">
+        <v>98</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="11">
+        <v>2</v>
+      </c>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="9">
-        <v>99</v>
-      </c>
-      <c r="C124" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="11"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="11">
+        <v>12</v>
+      </c>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="9">
-        <v>100</v>
-      </c>
-      <c r="C125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="61"/>
       <c r="D125" s="5" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F125" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="9">
-        <v>101</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="5" t="s">
-        <v>97</v>
+      <c r="B126" s="9"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F126" s="11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="9">
-        <v>102</v>
-      </c>
-      <c r="C127" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="11"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" s="11">
+        <v>20</v>
+      </c>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="9">
-        <v>103</v>
-      </c>
-      <c r="C128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="61"/>
       <c r="D128" s="5" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F128" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="9">
-        <v>104</v>
-      </c>
-      <c r="C129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="61"/>
       <c r="D129" s="5" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F129" s="11">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="9">
-        <v>105</v>
-      </c>
-      <c r="C130" s="59" t="s">
-        <v>309</v>
-      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="61"/>
       <c r="D130" s="5"/>
       <c r="E130" s="12"/>
       <c r="F130" s="11"/>
@@ -4673,211 +4943,199 @@
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="9">
-        <v>106</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="11">
-        <v>2</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C131" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="11"/>
       <c r="G131" s="13"/>
-      <c r="J131" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="9">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F132" s="11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="9">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F133" s="11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="9">
-        <v>109</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="11">
-        <v>2</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C134" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="9">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F135" s="18">
-        <v>17</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F135" s="11">
+        <v>7</v>
+      </c>
+      <c r="G135" s="13"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="9">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F136" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="9">
-        <v>112</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137" s="11">
-        <v>4</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C137" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="11"/>
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="9">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F138" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G138" s="13"/>
+      <c r="J138" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="9">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F139" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="9">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F140" s="11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="9">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F141" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="2:10">
       <c r="B142" s="9">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F142" s="11">
-        <v>10</v>
-      </c>
-      <c r="G142" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F142" s="18">
+        <v>17</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="9">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F143" s="11">
         <v>2</v>
@@ -4886,144 +5144,154 @@
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="9">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F144" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="9">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F145" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="9">
-        <v>121</v>
-      </c>
-      <c r="C146" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F146" s="11">
+        <v>5</v>
+      </c>
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="9">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F147" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="2:7">
       <c r="B148" s="9">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F148" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="9">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F149" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="2:7">
       <c r="B150" s="9">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F150" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="9">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F151" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="2:7">
       <c r="B152" s="9">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C152" s="9"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="11"/>
+      <c r="D152" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="11">
+        <v>2</v>
+      </c>
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="9">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C153" s="59" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="12"/>
@@ -5032,134 +5300,132 @@
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="9">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F154" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="9">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F155" s="11">
+        <v>10</v>
+      </c>
+      <c r="G155" s="13"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="9">
+        <v>124</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" s="11">
         <v>0</v>
       </c>
-      <c r="G155" s="13"/>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156" s="9"/>
-      <c r="C156" s="61"/>
-      <c r="D156" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F156" s="11">
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="9">
+        <v>125</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" s="11">
         <v>4</v>
-      </c>
-      <c r="G156" s="13"/>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="9"/>
-      <c r="C157" s="61"/>
-      <c r="D157" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F157" s="11">
-        <v>3</v>
       </c>
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="2:7">
       <c r="B158" s="9">
-        <v>131</v>
-      </c>
-      <c r="C158" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="11">
+        <v>4</v>
+      </c>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="9">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C159" s="9"/>
-      <c r="D159" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F159" s="11">
-        <v>4</v>
-      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="11"/>
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="2:7">
       <c r="B160" s="9">
-        <v>133</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="11">
-        <v>9</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C160" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="11"/>
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="9">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F161" s="19">
-        <v>1.18</v>
+        <v>33</v>
+      </c>
+      <c r="F161" s="11">
+        <v>3</v>
       </c>
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="9">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="F162" s="11">
         <v>0</v>
@@ -5167,107 +5433,103 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="9">
-        <v>136</v>
-      </c>
-      <c r="C163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="61"/>
       <c r="D163" s="5" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F163" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="9">
-        <v>137</v>
-      </c>
-      <c r="C164" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="11"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="61"/>
+      <c r="D164" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" s="11">
+        <v>3</v>
+      </c>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="9">
-        <v>138</v>
-      </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" s="11">
-        <v>12</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C165" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="11"/>
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="9">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F166" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="9">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F167" s="11">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="9">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F168" s="11">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1.18</v>
       </c>
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="9">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F169" s="11">
         <v>0</v>
@@ -5276,2064 +5538,1991 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="9">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F170" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="9">
-        <v>144</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" s="11">
-        <v>2</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C171" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="11"/>
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="9">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F172" s="11">
-        <v>860</v>
+        <v>12</v>
       </c>
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="2:7">
       <c r="B173" s="9">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="F173" s="11">
-        <v>250</v>
-      </c>
-      <c r="G173" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G173" s="13"/>
     </row>
     <row r="174" spans="2:7">
       <c r="B174" s="9">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F174" s="11">
-        <v>250</v>
-      </c>
-      <c r="G174" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G174" s="13"/>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="9">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F175" s="18">
-        <v>5</v>
-      </c>
-      <c r="G175" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F175" s="11">
+        <v>2</v>
+      </c>
+      <c r="G175" s="13"/>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="9">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E176" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="11">
+        <v>0</v>
+      </c>
+      <c r="G176" s="13"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="9">
         <v>143</v>
-      </c>
-      <c r="F176" s="11">
-        <v>4.4349999999999996</v>
-      </c>
-      <c r="G176" s="13"/>
-    </row>
-    <row r="177" spans="2:10">
-      <c r="B177" s="9">
-        <v>150</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="11">
+        <v>0</v>
+      </c>
+      <c r="G177" s="13"/>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="9">
         <v>144</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F177" s="11">
-        <v>3</v>
-      </c>
-      <c r="G177" s="13"/>
-    </row>
-    <row r="178" spans="2:10">
-      <c r="B178" s="9">
-        <v>151</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="11">
+        <v>2</v>
+      </c>
+      <c r="G178" s="13"/>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="9">
         <v>145</v>
       </c>
-      <c r="E178" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F178" s="11">
-        <v>0</v>
-      </c>
-      <c r="G178" s="13"/>
-    </row>
-    <row r="179" spans="2:10">
-      <c r="B179" s="9">
-        <v>152</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="11"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F179" s="11">
+        <v>860</v>
+      </c>
       <c r="G179" s="13"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:7">
       <c r="B180" s="9">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="F180" s="11">
-        <v>3</v>
-      </c>
-      <c r="G180" s="13"/>
-    </row>
-    <row r="181" spans="2:10">
+        <v>250</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
       <c r="B181" s="9">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="F181" s="11">
-        <v>5</v>
-      </c>
-      <c r="G181" s="13"/>
-    </row>
-    <row r="182" spans="2:10">
+        <v>250</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
       <c r="B182" s="9">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" s="11">
-        <v>6</v>
-      </c>
-      <c r="G182" s="13"/>
-    </row>
-    <row r="183" spans="2:10">
+        <v>122</v>
+      </c>
+      <c r="F182" s="18">
+        <v>5</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
       <c r="B183" s="9">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F183" s="11">
-        <v>4</v>
+        <v>4.4349999999999996</v>
       </c>
       <c r="G183" s="13"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:7">
       <c r="B184" s="9">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F184" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G184" s="13"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:7">
       <c r="B185" s="9">
-        <v>158</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F185" s="11">
+        <v>0</v>
+      </c>
       <c r="G185" s="13"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:7">
       <c r="B186" s="9">
-        <v>159</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E186" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F186" s="11">
-        <v>4</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="11"/>
       <c r="G186" s="13"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:7">
       <c r="B187" s="9">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F187" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G187" s="13"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:7">
       <c r="B188" s="9">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F188" s="20">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="F188" s="11">
+        <v>5</v>
       </c>
       <c r="G188" s="13"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:7">
       <c r="B189" s="9">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" s="20">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F189" s="11">
+        <v>6</v>
       </c>
       <c r="G189" s="13"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:7">
       <c r="B190" s="9">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190" s="20">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="F190" s="11">
+        <v>4</v>
       </c>
       <c r="G190" s="13"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:7">
       <c r="B191" s="9">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C191" s="9"/>
-      <c r="D191" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F191" s="23">
-        <v>11</v>
-      </c>
-      <c r="G191" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H191" s="62"/>
-      <c r="I191" s="62"/>
-      <c r="J191" s="62"/>
-    </row>
-    <row r="192" spans="2:10">
+      <c r="D191" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="11">
+        <v>4</v>
+      </c>
+      <c r="G191" s="13"/>
+    </row>
+    <row r="192" spans="2:7">
       <c r="B192" s="9">
-        <v>165</v>
-      </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192" s="20">
-        <v>1</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="11"/>
       <c r="G192" s="13"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:10">
       <c r="B193" s="9">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F193" s="20">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="F193" s="11">
+        <v>4</v>
       </c>
       <c r="G193" s="13"/>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:10">
       <c r="B194" s="9">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F194" s="20">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="F194" s="11">
+        <v>5</v>
       </c>
       <c r="G194" s="13"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:10">
       <c r="B195" s="9">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F195" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G195" s="13"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:10">
       <c r="B196" s="9">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F196" s="20">
         <v>1</v>
       </c>
       <c r="G196" s="13"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:10">
       <c r="B197" s="9">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F197" s="20">
         <v>5</v>
       </c>
       <c r="G197" s="13"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:10">
       <c r="B198" s="9">
-        <v>171</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E198" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F198" s="11">
-        <v>0</v>
-      </c>
-      <c r="G198" s="13"/>
-    </row>
-    <row r="199" spans="2:7">
+        <v>164</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="D198" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E198" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="23">
+        <v>11</v>
+      </c>
+      <c r="G198" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" s="62"/>
+      <c r="I198" s="62"/>
+      <c r="J198" s="62"/>
+    </row>
+    <row r="199" spans="2:10">
       <c r="B199" s="9">
-        <v>172</v>
-      </c>
-      <c r="C199" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="20"/>
+        <v>165</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="20">
+        <v>1</v>
+      </c>
       <c r="G199" s="13"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:10">
       <c r="B200" s="9">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F200" s="25">
-        <v>15.5</v>
-      </c>
-      <c r="G200" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
+        <v>14</v>
+      </c>
+      <c r="F200" s="20">
+        <v>6</v>
+      </c>
+      <c r="G200" s="13"/>
+    </row>
+    <row r="201" spans="2:10">
       <c r="B201" s="9">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F201" s="25">
-        <v>16</v>
-      </c>
-      <c r="G201" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7">
+        <v>14</v>
+      </c>
+      <c r="F201" s="20">
+        <v>2</v>
+      </c>
+      <c r="G201" s="13"/>
+    </row>
+    <row r="202" spans="2:10">
       <c r="B202" s="9">
-        <v>175</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="C202" s="9"/>
+      <c r="D202" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="20">
+        <v>1</v>
+      </c>
       <c r="G202" s="13"/>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:10">
       <c r="B203" s="9">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F203" s="18">
-        <v>28</v>
-      </c>
-      <c r="G203" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
+        <v>14</v>
+      </c>
+      <c r="F203" s="20">
+        <v>1</v>
+      </c>
+      <c r="G203" s="13"/>
+    </row>
+    <row r="204" spans="2:10">
       <c r="B204" s="9">
-        <v>177</v>
-      </c>
-      <c r="C204" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="D204" s="5"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="D204" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="20">
+        <v>5</v>
+      </c>
       <c r="G204" s="13"/>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:10">
       <c r="B205" s="9">
-        <v>178</v>
-      </c>
-      <c r="C205" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="D205" s="5" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F205" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G205" s="13"/>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:10">
       <c r="B206" s="9">
-        <v>179</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="C206" s="59" t="s">
+        <v>309</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="12"/>
-      <c r="F206" s="11"/>
+      <c r="F206" s="20"/>
       <c r="G206" s="13"/>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:10">
       <c r="B207" s="9">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F207" s="11">
-        <v>62</v>
-      </c>
-      <c r="G207" s="13"/>
-    </row>
-    <row r="208" spans="2:7">
+        <v>122</v>
+      </c>
+      <c r="F207" s="25">
+        <v>15.5</v>
+      </c>
+      <c r="G207" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10">
       <c r="B208" s="9">
-        <v>181</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="13"/>
+        <v>174</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F208" s="25">
+        <v>16</v>
+      </c>
+      <c r="G208" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="9">
-        <v>182</v>
-      </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F209" s="11">
-        <v>2</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="20"/>
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="2:7">
       <c r="B210" s="9">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F210" s="11">
-        <v>21</v>
-      </c>
-      <c r="G210" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="F210" s="18">
+        <v>28</v>
+      </c>
+      <c r="G210" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="211" spans="2:7">
       <c r="B211" s="9">
-        <v>184</v>
-      </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F211" s="11">
-        <v>1</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C211" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="8"/>
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="2:7">
       <c r="B212" s="9">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F212" s="11">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="2:7">
       <c r="B213" s="9">
-        <v>186</v>
-      </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E213" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F213" s="11">
-        <v>144</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="11"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="2:7">
       <c r="B214" s="9">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C214" s="9"/>
+      <c r="D214" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F214" s="11">
+        <v>62</v>
+      </c>
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="2:7">
       <c r="B215" s="9">
-        <v>188</v>
-      </c>
-      <c r="C215" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D215" s="5"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="11"/>
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="2:7">
       <c r="B216" s="9">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C216" s="9"/>
+      <c r="D216" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="11">
+        <v>2</v>
+      </c>
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="2:7">
       <c r="B217" s="9">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C217" s="9"/>
+      <c r="D217" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="11">
+        <v>21</v>
+      </c>
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="2:7">
       <c r="B218" s="9">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C218" s="9"/>
+      <c r="D218" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="11">
+        <v>1</v>
+      </c>
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="2:7">
       <c r="B219" s="9">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C219" s="9"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="11"/>
+      <c r="D219" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="11">
+        <v>4</v>
+      </c>
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="2:7">
       <c r="B220" s="9">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C220" s="9"/>
+      <c r="D220" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="11">
+        <v>144</v>
+      </c>
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="2:7">
       <c r="B221" s="9">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C221" s="9"/>
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="2:7">
       <c r="B222" s="9">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C222" s="9"/>
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="2:7">
       <c r="B223" s="9">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C223" s="9"/>
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="2:7">
       <c r="B224" s="9">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C224" s="9"/>
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="2:7">
       <c r="B225" s="9">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C225" s="9"/>
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="2:7">
       <c r="B226" s="9">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C226" s="9"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="11"/>
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="2:7">
       <c r="B227" s="9">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C227" s="9"/>
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="2:7">
       <c r="B228" s="9">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C228" s="9"/>
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="2:7">
       <c r="B229" s="9">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C229" s="9"/>
-      <c r="D229" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E229" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F229" s="11">
-        <v>4</v>
-      </c>
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="2:7">
       <c r="B230" s="9">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C230" s="9"/>
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="2:7">
       <c r="B231" s="9">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C231" s="9"/>
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="2:7">
       <c r="B232" s="9">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C232" s="9"/>
-      <c r="D232" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E232" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F232" s="11">
-        <v>0</v>
-      </c>
       <c r="G232" s="13"/>
     </row>
     <row r="233" spans="2:7">
       <c r="B233" s="9">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C233" s="9"/>
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="2:7">
       <c r="B234" s="9">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C234" s="9"/>
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="2:7">
       <c r="B235" s="9">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C235" s="9"/>
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="2:7">
       <c r="B236" s="9">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F236" s="11">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="2:7">
       <c r="B237" s="9">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C237" s="9"/>
-      <c r="D237" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F237" s="11">
-        <v>5</v>
-      </c>
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="2:7">
       <c r="B238" s="9">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C238" s="9"/>
-      <c r="D238" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F238" s="11">
-        <v>5</v>
-      </c>
       <c r="G238" s="13"/>
     </row>
     <row r="239" spans="2:7">
       <c r="B239" s="9">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F239" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="2:7">
       <c r="B240" s="9">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C240" s="9"/>
-      <c r="D240" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E240" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" s="11">
-        <v>0</v>
-      </c>
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="2:7">
       <c r="B241" s="9">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C241" s="9"/>
-      <c r="D241" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E241" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F241" s="11">
-        <v>0</v>
-      </c>
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="2:7">
       <c r="B242" s="9">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C242" s="9"/>
-      <c r="D242" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E242" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F242" s="11">
-        <v>4</v>
-      </c>
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="2:7">
       <c r="B243" s="9">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F243" s="11">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="2:7">
       <c r="B244" s="9">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C244" s="9"/>
-      <c r="D244" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E244" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F244" s="11">
-        <v>21</v>
-      </c>
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="2:7">
       <c r="B245" s="9">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C245" s="9"/>
-      <c r="D245" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E245" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F245" s="11">
-        <v>20</v>
-      </c>
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="2:7">
       <c r="B246" s="9">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C246" s="9"/>
-      <c r="D246" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E246" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F246" s="11">
-        <v>20</v>
-      </c>
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="2:7">
       <c r="B247" s="9">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F247" s="11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="2:7">
       <c r="B248" s="9">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F248" s="11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="2:7">
       <c r="B249" s="9">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C249" s="9"/>
-      <c r="D249" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F249" s="11">
-        <v>20</v>
-      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="11"/>
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="2:7">
       <c r="B250" s="9">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C250" s="9"/>
-      <c r="D250" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F250" s="11">
-        <v>19</v>
-      </c>
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="2:7">
       <c r="B251" s="9">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C251" s="9"/>
-      <c r="D251" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F251" s="11">
-        <v>20</v>
-      </c>
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="2:7">
       <c r="B252" s="9">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C252" s="9"/>
-      <c r="D252" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E252" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F252" s="11">
-        <v>35</v>
-      </c>
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="2:7">
       <c r="B253" s="9">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C253" s="9"/>
-      <c r="D253" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E253" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="11">
-        <v>28</v>
-      </c>
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="2:7">
       <c r="B254" s="9">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F254" s="11">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G254" s="13"/>
     </row>
     <row r="255" spans="2:7">
       <c r="B255" s="9">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F255" s="11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G255" s="13"/>
     </row>
     <row r="256" spans="2:7">
       <c r="B256" s="9">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F256" s="11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G256" s="13"/>
     </row>
     <row r="257" spans="2:7">
       <c r="B257" s="9">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E257" s="27" t="s">
-        <v>16</v>
+        <v>206</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F257" s="11">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="2:7">
       <c r="B258" s="9">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E258" s="27" t="s">
-        <v>16</v>
+        <v>207</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F258" s="11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="2:7">
       <c r="B259" s="9">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C259" s="9"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="27"/>
-      <c r="F259" s="11"/>
+      <c r="D259" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F259" s="11">
+        <v>35</v>
+      </c>
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="2:7">
       <c r="B260" s="9">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E260" s="27" t="s">
-        <v>16</v>
+        <v>209</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F260" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="2:7">
       <c r="B261" s="9">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E261" s="27" t="s">
-        <v>16</v>
+        <v>210</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F261" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="2:7">
       <c r="B262" s="9">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E262" s="27" t="s">
-        <v>16</v>
+        <v>211</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F262" s="11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="9">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E263" s="27" t="s">
-        <v>16</v>
+        <v>212</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F263" s="11">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="2:7">
       <c r="B264" s="9">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F264" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="9">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F265" s="11">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="2:7">
       <c r="B266" s="9">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C266" s="9"/>
-      <c r="D266" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E266" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F266" s="11">
-        <v>9</v>
-      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="27"/>
+      <c r="F266" s="11"/>
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="9">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F267" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="2:7">
       <c r="B268" s="9">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F268" s="11">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="2:7">
       <c r="B269" s="9">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F269" s="11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G269" s="13"/>
     </row>
     <row r="270" spans="2:7">
       <c r="B270" s="9">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F270" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="2:7">
       <c r="B271" s="9">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F271" s="11">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="2:7">
       <c r="B272" s="9">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E272" s="27" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F272" s="11">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="2:7">
       <c r="B273" s="9">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E273" s="12" t="s">
-        <v>137</v>
+        <v>221</v>
+      </c>
+      <c r="E273" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F273" s="11">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="2:7">
       <c r="B274" s="9">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E274" s="12" t="s">
-        <v>137</v>
+        <v>222</v>
+      </c>
+      <c r="E274" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F274" s="11">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="2:7">
       <c r="B275" s="9">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E275" s="12"/>
+        <v>223</v>
+      </c>
+      <c r="E275" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="F275" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="2:7">
       <c r="B276" s="9">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E276" s="12" t="s">
-        <v>16</v>
+        <v>224</v>
+      </c>
+      <c r="E276" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F276" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="2:7">
       <c r="B277" s="9">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>35</v>
+        <v>225</v>
+      </c>
+      <c r="E277" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="F277" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="2:7">
       <c r="B278" s="9">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>143</v>
+        <v>226</v>
+      </c>
+      <c r="E278" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="F278" s="11">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="2:7">
       <c r="B279" s="9">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E279" s="12" t="s">
-        <v>137</v>
+        <v>227</v>
+      </c>
+      <c r="E279" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="F279" s="11">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="2:7">
       <c r="B280" s="9">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="F280" s="11">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="2:7">
       <c r="B281" s="9">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F281" s="11">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="2:7">
       <c r="B282" s="9">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C282" s="9"/>
-      <c r="D282" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E282" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="D282" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E282" s="12"/>
       <c r="F282" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="2:7">
       <c r="B283" s="9">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C283" s="9"/>
-      <c r="D283" s="26" t="s">
-        <v>240</v>
+      <c r="D283" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F283" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="2:7">
       <c r="B284" s="9">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C284" s="9"/>
-      <c r="D284" s="26" t="s">
-        <v>241</v>
+      <c r="D284" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F284" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="2:7">
       <c r="B285" s="9">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C285" s="9"/>
-      <c r="D285" s="26" t="s">
-        <v>242</v>
+      <c r="D285" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F285" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="2:7">
       <c r="B286" s="9">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C286" s="9"/>
-      <c r="D286" s="26" t="s">
-        <v>243</v>
+      <c r="D286" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="F286" s="11">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="2:7">
       <c r="B287" s="9">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C287" s="9"/>
-      <c r="D287" s="26" t="s">
-        <v>244</v>
+      <c r="D287" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F287" s="11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="2:7">
       <c r="B288" s="9">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C288" s="9"/>
-      <c r="D288" s="26" t="s">
-        <v>245</v>
+      <c r="D288" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F288" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G288" s="13"/>
     </row>
     <row r="289" spans="2:7">
       <c r="B289" s="9">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F289" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G289" s="13"/>
     </row>
     <row r="290" spans="2:7">
       <c r="B290" s="9">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C290" s="9"/>
-      <c r="D290" s="5"/>
-      <c r="E290" s="12"/>
-      <c r="F290" s="11"/>
+      <c r="D290" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F290" s="11">
+        <v>2</v>
+      </c>
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="2:7">
       <c r="B291" s="9">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C291" s="9"/>
       <c r="D291" s="26" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F291" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="2:7">
       <c r="B292" s="9">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="26" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F292" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="2:7">
       <c r="B293" s="9">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F293" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="2:7">
       <c r="B294" s="9">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="26" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="F294" s="11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="2:7">
       <c r="B295" s="9">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E295" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F295" s="18">
-        <v>28</v>
-      </c>
-      <c r="G295" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" s="11">
+        <v>12</v>
+      </c>
+      <c r="G295" s="13"/>
     </row>
     <row r="296" spans="2:7">
       <c r="B296" s="9">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="E296" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F296" s="18">
-        <v>27.5</v>
-      </c>
-      <c r="G296" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" s="11">
+        <v>4</v>
+      </c>
+      <c r="G296" s="13"/>
     </row>
     <row r="297" spans="2:7">
       <c r="B297" s="9">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C297" s="9"/>
-      <c r="D297" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E297" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F297" s="11">
-        <v>2.4</v>
-      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="12"/>
+      <c r="F297" s="11"/>
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="2:7">
       <c r="B298" s="9">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="E298" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F298" s="18">
-        <v>28.5</v>
-      </c>
-      <c r="G298" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F298" s="11">
+        <v>2</v>
+      </c>
+      <c r="G298" s="13"/>
     </row>
     <row r="299" spans="2:7">
       <c r="B299" s="9">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="E299" s="27" t="s">
-        <v>137</v>
+        <v>246</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F299" s="11">
-        <v>750</v>
+        <v>4</v>
       </c>
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="2:7">
       <c r="B300" s="9">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="E300" s="27" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F300" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="2:7">
       <c r="B301" s="9">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E301" s="27" t="s">
-        <v>143</v>
+        <v>248</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="F301" s="11">
-        <v>11.5</v>
-      </c>
-      <c r="G301" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="G301" s="13"/>
     </row>
     <row r="302" spans="2:7">
       <c r="B302" s="9">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="E302" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E302" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F302" s="18">
+        <v>28</v>
+      </c>
+      <c r="G302" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="F302" s="11">
-        <v>19</v>
-      </c>
-      <c r="G302" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="303" spans="2:7">
       <c r="B303" s="9">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="26" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F303" s="11">
-        <v>0</v>
-      </c>
-      <c r="G303" s="13"/>
+        <v>141</v>
+      </c>
+      <c r="F303" s="18">
+        <v>27.5</v>
+      </c>
+      <c r="G303" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="304" spans="2:7">
       <c r="B304" s="9">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="26" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F304" s="11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="2:7">
       <c r="B305" s="9">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="26" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F305" s="11">
-        <v>0</v>
-      </c>
-      <c r="G305" s="13"/>
+        <v>141</v>
+      </c>
+      <c r="F305" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="G305" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="306" spans="2:7">
       <c r="B306" s="9">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="26" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E306" s="27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F306" s="11">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="2:7">
       <c r="B307" s="9">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C307" s="9"/>
-      <c r="D307" s="29" t="s">
-        <v>264</v>
+      <c r="D307" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="F307" s="11">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="2:7">
       <c r="B308" s="9">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C308" s="9"/>
-      <c r="D308" s="29" t="s">
-        <v>265</v>
+      <c r="D308" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="E308" s="27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F308" s="11">
-        <v>700</v>
-      </c>
-      <c r="G308" s="13"/>
+        <v>11.5</v>
+      </c>
+      <c r="G308" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="309" spans="2:7">
       <c r="B309" s="9">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C309" s="9"/>
-      <c r="D309" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="E309" s="27" t="s">
+      <c r="D309" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F309" s="11">
+        <v>19</v>
+      </c>
+      <c r="G309" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F309" s="11">
-        <v>0</v>
-      </c>
-      <c r="G309" s="13"/>
     </row>
     <row r="310" spans="2:7">
       <c r="B310" s="9">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C310" s="9"/>
-      <c r="D310" s="5" t="s">
-        <v>267</v>
+      <c r="D310" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="F310" s="11">
         <v>0</v>
@@ -7342,30 +7531,30 @@
     </row>
     <row r="311" spans="2:7">
       <c r="B311" s="9">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="F311" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="2:7">
       <c r="B312" s="9">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="26" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F312" s="11">
         <v>0</v>
@@ -7374,14 +7563,14 @@
     </row>
     <row r="313" spans="2:7">
       <c r="B313" s="9">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="26" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="F313" s="11">
         <v>0</v>
@@ -7390,47 +7579,159 @@
     </row>
     <row r="314" spans="2:7">
       <c r="B314" s="9">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C314" s="9"/>
-      <c r="D314" s="26" t="s">
-        <v>271</v>
+      <c r="D314" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F314" s="11">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="G314" s="13"/>
     </row>
     <row r="315" spans="2:7">
       <c r="B315" s="9">
+        <v>282</v>
+      </c>
+      <c r="C315" s="9"/>
+      <c r="D315" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E315" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F315" s="11">
+        <v>700</v>
+      </c>
+      <c r="G315" s="13"/>
+    </row>
+    <row r="316" spans="2:7">
+      <c r="B316" s="9">
+        <v>283</v>
+      </c>
+      <c r="C316" s="9"/>
+      <c r="D316" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E316" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F316" s="11">
+        <v>0</v>
+      </c>
+      <c r="G316" s="13"/>
+    </row>
+    <row r="317" spans="2:7">
+      <c r="B317" s="9">
+        <v>284</v>
+      </c>
+      <c r="C317" s="9"/>
+      <c r="D317" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E317" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F317" s="11">
+        <v>0</v>
+      </c>
+      <c r="G317" s="13"/>
+    </row>
+    <row r="318" spans="2:7">
+      <c r="B318" s="9">
+        <v>287</v>
+      </c>
+      <c r="C318" s="9"/>
+      <c r="D318" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E318" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F318" s="11">
+        <v>1</v>
+      </c>
+      <c r="G318" s="13"/>
+    </row>
+    <row r="319" spans="2:7">
+      <c r="B319" s="9">
+        <v>288</v>
+      </c>
+      <c r="C319" s="9"/>
+      <c r="D319" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E319" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F319" s="11">
+        <v>0</v>
+      </c>
+      <c r="G319" s="13"/>
+    </row>
+    <row r="320" spans="2:7">
+      <c r="B320" s="9">
+        <v>289</v>
+      </c>
+      <c r="C320" s="9"/>
+      <c r="D320" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E320" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F320" s="11">
+        <v>0</v>
+      </c>
+      <c r="G320" s="13"/>
+    </row>
+    <row r="321" spans="2:7">
+      <c r="B321" s="9">
+        <v>290</v>
+      </c>
+      <c r="C321" s="9"/>
+      <c r="D321" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E321" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F321" s="11">
+        <v>1</v>
+      </c>
+      <c r="G321" s="13"/>
+    </row>
+    <row r="322" spans="2:7">
+      <c r="B322" s="9">
         <v>291</v>
       </c>
-      <c r="C315" s="9"/>
-      <c r="D315" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E315" s="30"/>
-      <c r="F315" s="11">
+      <c r="C322" s="9"/>
+      <c r="D322" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E322" s="30"/>
+      <c r="F322" s="11">
         <v>0</v>
       </c>
-      <c r="G315" s="13"/>
-    </row>
-    <row r="316" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B316" s="5"/>
-      <c r="C316" s="5"/>
-      <c r="D316" s="5"/>
-      <c r="E316" s="26"/>
-      <c r="F316" s="11"/>
-      <c r="G316" s="31"/>
-    </row>
-    <row r="317" spans="2:7">
-      <c r="E317" s="32"/>
-    </row>
-    <row r="318" spans="2:7">
-      <c r="E318" s="12"/>
+      <c r="G322" s="13"/>
+    </row>
+    <row r="323" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="26"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="31"/>
+    </row>
+    <row r="324" spans="2:7">
+      <c r="E324" s="32"/>
+    </row>
+    <row r="325" spans="2:7">
+      <c r="E325" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7441,8 +7742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7462,27 +7763,27 @@
     <row r="3" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:14">
       <c r="C4" s="68"/>
-      <c r="D4" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="D4" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K4" s="69"/>
-      <c r="L4" s="92"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="3:14" ht="17.25" customHeight="1">
       <c r="C5" s="70"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
@@ -7492,9 +7793,9 @@
     </row>
     <row r="6" spans="3:14" ht="8.25" customHeight="1">
       <c r="C6" s="70"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
@@ -7508,7 +7809,7 @@
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
@@ -7522,7 +7823,7 @@
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -7557,30 +7858,30 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" thickBot="1">
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="89"/>
+      <c r="G11" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="86"/>
+      <c r="I11" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="105" t="s">
-        <v>326</v>
-      </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="108" t="s">
-        <v>325</v>
-      </c>
-      <c r="J11" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="K11" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="79"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
@@ -7588,225 +7889,225 @@
       <c r="C12" s="76">
         <v>1</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="80">
         <v>4</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="74">
         <v>44208</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J12" s="93">
+        <v>322</v>
+      </c>
+      <c r="J12" s="80">
         <v>80</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="80">
         <v>75</v>
       </c>
-      <c r="L12" s="94"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="75"/>
-      <c r="D13" s="93"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="3:14">
       <c r="C14" s="75"/>
-      <c r="D14" s="93"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14">
       <c r="C15" s="75"/>
-      <c r="D15" s="93"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="3:14">
       <c r="C16" s="75"/>
-      <c r="D16" s="93"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="63"/>
-      <c r="D17" s="93"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="94"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="63"/>
-      <c r="D18" s="93"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="63"/>
-      <c r="D19" s="93"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="94"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="63"/>
-      <c r="D20" s="93"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="91"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="78"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="63"/>
-      <c r="D21" s="93"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="94"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="63"/>
-      <c r="D22" s="93"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="63"/>
-      <c r="D23" s="93"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:14" ht="15.75" thickBot="1">
       <c r="C24" s="64"/>
-      <c r="D24" s="97"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="98"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
+      <c r="C25" s="123" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="67"/>
       <c r="G25" s="67"/>
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
-      <c r="J25" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="K25" s="89"/>
+      <c r="J25" s="122" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="122"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
-      <c r="I26" s="90"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
       <c r="L26" s="4"/>
@@ -7822,4 +8123,533 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B3" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickTop="1">
+      <c r="B4" s="76">
+        <v>1</v>
+      </c>
+      <c r="C4" s="100">
+        <v>4</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="102">
+        <v>44208</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="100">
+        <v>80</v>
+      </c>
+      <c r="H4" s="104">
+        <v>75</v>
+      </c>
+      <c r="I4" s="100">
+        <v>300</v>
+      </c>
+      <c r="J4" s="100">
+        <v>300</v>
+      </c>
+      <c r="K4" s="106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="97"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="107"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="97">
+        <v>2</v>
+      </c>
+      <c r="C6" s="82">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="82">
+        <v>75</v>
+      </c>
+      <c r="H6" s="96">
+        <v>70</v>
+      </c>
+      <c r="I6" s="82">
+        <v>210</v>
+      </c>
+      <c r="J6" s="82"/>
+      <c r="K6" s="107"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="97">
+        <v>3</v>
+      </c>
+      <c r="C7" s="82">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="82">
+        <v>5</v>
+      </c>
+      <c r="H7" s="96">
+        <v>4.75</v>
+      </c>
+      <c r="I7" s="82">
+        <v>57</v>
+      </c>
+      <c r="J7" s="82">
+        <f>I6+I7</f>
+        <v>267</v>
+      </c>
+      <c r="K7" s="107" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="97"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="107"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="97"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="107"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="97"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="107"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="97"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="107"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="97"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="107"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="97"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="97"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="97"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="97"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="63"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="63"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="63"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="63"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="63"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="63"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="42"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="63"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="63"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="63"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="63"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="63"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="63"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="63"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="63"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="63"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="63"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="63"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="63"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="63"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="63"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="63"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B38" s="64"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="344">
   <si>
     <t>gro on</t>
   </si>
@@ -1038,6 +1038,21 @@
   </si>
   <si>
     <t>kissan Mango Jam</t>
+  </si>
+  <si>
+    <t>emami refinr Oil (500 )</t>
+  </si>
+  <si>
+    <t>Kakima</t>
+  </si>
+  <si>
+    <t>Mashal Kachi Ghabi (buttol)(500 )</t>
+  </si>
+  <si>
+    <t>Googly Biskut</t>
+  </si>
+  <si>
+    <t>jk Masterd (Sarsay) ( 50 gm. )</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1798,6 +1813,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2172,73 +2188,73 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="114"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="43" t="s">
@@ -2749,11 +2765,21 @@
       <c r="K28" s="42"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="6">
+        <v>16</v>
+      </c>
+      <c r="B29" s="108">
+        <v>44229</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2762,43 +2788,71 @@
       <c r="K29" s="42"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="6">
+        <v>17</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="6">
+        <v>87</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="42"/>
+      <c r="K30" s="42">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="6"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6">
+        <v>22</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="42"/>
+      <c r="K31" s="42">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="6"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>343</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>11</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="42"/>
+      <c r="K32" s="42">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="6"/>
@@ -3025,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7763,11 +7817,11 @@
     <row r="3" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:14">
       <c r="C4" s="68"/>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69" t="s">
@@ -7781,9 +7835,9 @@
     </row>
     <row r="5" spans="3:14" ht="17.25" customHeight="1">
       <c r="C5" s="70"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
@@ -7793,9 +7847,9 @@
     </row>
     <row r="6" spans="3:14" ht="8.25" customHeight="1">
       <c r="C6" s="70"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
@@ -8022,8 +8076,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="80"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
       <c r="M20" s="78"/>
       <c r="N20" s="1"/>
     </row>
@@ -8084,26 +8138,26 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="67"/>
       <c r="G25" s="67"/>
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
-      <c r="J25" s="122" t="s">
+      <c r="J25" s="123" t="s">
         <v>320</v>
       </c>
-      <c r="K25" s="122"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
@@ -8129,8 +8183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8651,5 +8705,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="355">
   <si>
     <t>gro on</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Rajma</t>
   </si>
   <si>
-    <t>Maggi Family Fun pack</t>
-  </si>
-  <si>
     <t>Suffola Oats</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>Mama vujiya</t>
   </si>
   <si>
-    <t>Bashkathi chal</t>
-  </si>
-  <si>
     <t>Minikit Premium</t>
   </si>
   <si>
@@ -830,9 +824,6 @@
     <t>Engine Musterd Oil</t>
   </si>
   <si>
-    <t>Amul Spray Milk Powder</t>
-  </si>
-  <si>
     <t>Kashmiri Red Chili</t>
   </si>
   <si>
@@ -1043,16 +1034,58 @@
     <t>emami refinr Oil (500 )</t>
   </si>
   <si>
-    <t>Kakima</t>
-  </si>
-  <si>
     <t>Mashal Kachi Ghabi (buttol)(500 )</t>
   </si>
   <si>
-    <t>Googly Biskut</t>
-  </si>
-  <si>
     <t>jk Masterd (Sarsay) ( 50 gm. )</t>
+  </si>
+  <si>
+    <t>50 kg Mokther Da</t>
+  </si>
+  <si>
+    <t>Bashkathi chal rice</t>
+  </si>
+  <si>
+    <t>Maggi Family Fun pack ( 560 gm. )</t>
+  </si>
+  <si>
+    <t>Amul Spray Milk Powder ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Amul Spray (500 gm.)</t>
+  </si>
+  <si>
+    <t>22/2/2021</t>
+  </si>
+  <si>
+    <t>23/02/2021</t>
+  </si>
+  <si>
+    <t>Amul sprey (13.5 gm.)</t>
+  </si>
+  <si>
+    <t>24/02/2021</t>
+  </si>
+  <si>
+    <t>Emami Healthy Testy Masterd oil(1 li.)</t>
+  </si>
+  <si>
+    <t>Emami Healthy Testy Soyabean oil(1 lt.)</t>
+  </si>
+  <si>
+    <t>Sunrise Dhaniya Powder(50 gm.)</t>
+  </si>
+  <si>
+    <t>sunrise Jeera Powder(50 gm.)</t>
+  </si>
+  <si>
+    <t>Manufacturing Date</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1391,19 +1424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -1570,19 +1590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1606,11 +1613,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1664,8 +1717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1679,19 +1730,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,16 +1752,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,7 +1776,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1762,29 +1813,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1793,27 +1844,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1832,7 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,12 +1925,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2165,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A16" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2188,98 +2266,98 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="114"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="115" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="A6" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="94" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="92" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="45" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="45" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="43" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2287,26 +2365,26 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="B8" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="38">
+      <c r="I8" s="36">
         <v>22</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="41">
+      <c r="K8" s="39">
         <v>21</v>
       </c>
     </row>
@@ -2314,8 +2392,8 @@
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2329,7 +2407,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>75</v>
       </c>
     </row>
@@ -2337,14 +2415,14 @@
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1"/>
@@ -2354,14 +2432,14 @@
         <v>110</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -2369,23 +2447,23 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="42"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="35">
+      <c r="B12" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="33">
         <v>1.5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>271</v>
+        <v>140</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>268</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2394,7 +2472,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="42">
+      <c r="K12" s="40">
         <v>40</v>
       </c>
     </row>
@@ -2402,24 +2480,24 @@
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33">
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="39">
+      <c r="I13" s="37">
         <v>27</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <v>25</v>
       </c>
     </row>
@@ -2427,24 +2505,24 @@
       <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33">
         <v>10</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>272</v>
+        <v>134</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>2500</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="42">
+      <c r="K14" s="40">
         <v>25</v>
       </c>
     </row>
@@ -2452,24 +2530,24 @@
       <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
         <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>273</v>
+        <v>134</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>270</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="39">
+      <c r="I15" s="37">
         <v>2880</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="42">
+      <c r="K15" s="40">
         <v>29</v>
       </c>
     </row>
@@ -2477,81 +2555,81 @@
       <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
         <v>1.5</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>274</v>
+        <v>140</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>271</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="39">
+      <c r="I16" s="37">
         <v>110</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="42">
+      <c r="K16" s="40">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33">
         <v>100</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>233</v>
+        <v>134</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>231</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="39">
+      <c r="I17" s="37">
         <v>70</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="42">
+      <c r="K17" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33">
         <v>50</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>234</v>
+        <v>134</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="39">
+      <c r="I18" s="37">
         <v>140</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="42">
+      <c r="K18" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="10"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="10"/>
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
@@ -2559,23 +2637,23 @@
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="42"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="92">
+      <c r="B20" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="90">
         <v>250</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2584,23 +2662,23 @@
         <v>70</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="42">
+      <c r="K20" s="40">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33">
         <v>50</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2609,23 +2687,23 @@
         <v>140</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="42">
+      <c r="K21" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="93" t="s">
-        <v>329</v>
+      <c r="E22" s="91" t="s">
+        <v>326</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2634,23 +2712,23 @@
         <v>10</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="42">
+      <c r="K22" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="10">
         <v>13</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2659,23 +2737,23 @@
         <v>5</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="42">
+      <c r="K23" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="10">
         <v>14</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33">
         <v>250</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>263</v>
+        <v>134</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>261</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2684,14 +2762,14 @@
         <v>45</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="42">
+      <c r="K24" s="40">
         <v>11.25</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="10"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
@@ -2699,23 +2777,23 @@
       <c r="H25" s="1"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="10">
         <v>15</v>
       </c>
-      <c r="B26" s="92" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" s="92">
+      <c r="B26" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="90">
         <v>1</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2724,21 +2802,21 @@
         <v>5</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="42">
+      <c r="K26" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="10"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2747,14 +2825,14 @@
         <v>75</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="42">
+      <c r="K27" s="40">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -2762,46 +2840,47 @@
       <c r="H28" s="1"/>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="42"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="6">
         <v>16</v>
       </c>
-      <c r="B29" s="108">
-        <v>44229</v>
-      </c>
-      <c r="C29" s="36">
+      <c r="B29" s="104" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="34">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6">
+        <v>83</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="42"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="K29" s="40"/>
+      <c r="L29" s="109"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="6">
         <v>17</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="36">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34">
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2810,17 +2889,22 @@
         <v>87</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="42">
+      <c r="K30" s="40">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="109"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="6"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>342</v>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2829,19 +2913,22 @@
         <v>22</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="42">
+      <c r="K31" s="40">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="109"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="6"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34">
+        <v>1</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2850,14 +2937,14 @@
         <v>11</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="42">
+      <c r="K32" s="40">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="109"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="6"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="1"/>
@@ -2865,25 +2952,45 @@
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="42"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="40"/>
+      <c r="L33" s="109"/>
+      <c r="O33">
+        <v>1138</v>
+      </c>
+      <c r="P33">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="6"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="6">
+        <v>5</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="42"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="40">
+        <v>5</v>
+      </c>
+      <c r="L34" s="109"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="6"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2892,24 +2999,40 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="109"/>
+      <c r="O35">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="6"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1</v>
+      </c>
+      <c r="D36" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="111">
+        <v>5</v>
+      </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="6"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2918,11 +3041,15 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="O37">
+        <f>O33-O35</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="6"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2932,7 +3059,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:16">
       <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2945,7 +3072,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:16">
       <c r="A40" s="6"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2958,7 +3085,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:16">
       <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2971,7 +3098,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:16">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2984,7 +3111,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:16">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2997,7 +3124,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:16">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3010,7 +3137,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:16">
       <c r="A45" s="6"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3023,7 +3150,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:16">
       <c r="A46" s="6"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3036,7 +3163,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:16">
       <c r="A47" s="6"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3049,7 +3176,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
+    <row r="48" spans="1:16" ht="15.75" thickBot="1">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3079,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J325"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3091,45 +3218,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="54">
+      <c r="B4" s="52">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="57">
+      <c r="E4" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="55">
         <v>5</v>
       </c>
       <c r="G4" s="13"/>
@@ -3140,7 +3267,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>14</v>
@@ -3156,7 +3283,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>14</v>
@@ -3170,7 +3297,7 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5"/>
@@ -3184,7 +3311,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>14</v>
@@ -3198,7 +3325,7 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="5"/>
@@ -3212,7 +3339,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>14</v>
@@ -3226,8 +3353,8 @@
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>285</v>
+      <c r="C11" s="57" t="s">
+        <v>282</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -3272,7 +3399,7 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
@@ -3287,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="12"/>
@@ -3424,9 +3551,9 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="9"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>14</v>
@@ -3438,7 +3565,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="9"/>
-      <c r="C25" s="61"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="5"/>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
@@ -3448,8 +3575,8 @@
       <c r="B26" s="9">
         <v>21</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>287</v>
+      <c r="C26" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="12"/>
@@ -3476,8 +3603,8 @@
       <c r="B28" s="9">
         <v>23</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>288</v>
+      <c r="C28" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="12"/>
@@ -3520,8 +3647,8 @@
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="59" t="s">
-        <v>289</v>
+      <c r="C31" s="57" t="s">
+        <v>286</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
@@ -3564,8 +3691,8 @@
       <c r="B34" s="9">
         <v>29</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>290</v>
+      <c r="C34" s="57" t="s">
+        <v>287</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="12"/>
@@ -3610,8 +3737,8 @@
       <c r="B37" s="9">
         <v>32</v>
       </c>
-      <c r="C37" s="59" t="s">
-        <v>291</v>
+      <c r="C37" s="57" t="s">
+        <v>288</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="12"/>
@@ -3654,8 +3781,8 @@
       <c r="B40" s="9">
         <v>35</v>
       </c>
-      <c r="C40" s="59" t="s">
-        <v>292</v>
+      <c r="C40" s="57" t="s">
+        <v>289</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="12"/>
@@ -3700,13 +3827,13 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13"/>
     </row>
@@ -3826,8 +3953,8 @@
       <c r="B51" s="9">
         <v>46</v>
       </c>
-      <c r="C51" s="59" t="s">
-        <v>293</v>
+      <c r="C51" s="57" t="s">
+        <v>290</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="12"/>
@@ -3948,21 +4075,21 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="9"/>
-      <c r="C59" s="61"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="9"/>
-      <c r="C60" s="61"/>
+      <c r="C60" s="59"/>
       <c r="D60" s="5"/>
       <c r="E60" s="12"/>
       <c r="F60" s="11"/>
@@ -3972,8 +4099,8 @@
       <c r="B61" s="9">
         <v>54</v>
       </c>
-      <c r="C61" s="59" t="s">
-        <v>294</v>
+      <c r="C61" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="12"/>
@@ -4016,8 +4143,8 @@
       <c r="B64" s="9">
         <v>57</v>
       </c>
-      <c r="C64" s="59" t="s">
-        <v>295</v>
+      <c r="C64" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="D64" s="5"/>
       <c r="F64" s="11"/>
@@ -4123,8 +4250,8 @@
       <c r="B71" s="9">
         <v>64</v>
       </c>
-      <c r="C71" s="59" t="s">
-        <v>296</v>
+      <c r="C71" s="57" t="s">
+        <v>293</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="12"/>
@@ -4299,7 +4426,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>14</v>
@@ -4313,7 +4440,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>40</v>
@@ -4327,7 +4454,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>14</v>
@@ -4341,7 +4468,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>14</v>
@@ -4355,7 +4482,7 @@
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>14</v>
@@ -4378,7 +4505,7 @@
         <v>75</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="12"/>
@@ -4435,9 +4562,9 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="9"/>
-      <c r="C92" s="61"/>
+      <c r="C92" s="59"/>
       <c r="D92" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>14</v>
@@ -4449,9 +4576,9 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="9"/>
-      <c r="C93" s="61"/>
+      <c r="C93" s="59"/>
       <c r="D93" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>14</v>
@@ -4463,9 +4590,9 @@
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="9"/>
-      <c r="C94" s="61"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>14</v>
@@ -4477,9 +4604,9 @@
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="9"/>
-      <c r="C95" s="61"/>
+      <c r="C95" s="59"/>
       <c r="D95" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>14</v>
@@ -4491,9 +4618,9 @@
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="9"/>
-      <c r="C96" s="61"/>
+      <c r="C96" s="59"/>
       <c r="D96" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>14</v>
@@ -4505,9 +4632,9 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="9"/>
-      <c r="C97" s="61"/>
+      <c r="C97" s="59"/>
       <c r="D97" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="11">
@@ -4517,9 +4644,9 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="9"/>
-      <c r="C98" s="61"/>
+      <c r="C98" s="59"/>
       <c r="D98" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>14</v>
@@ -4531,7 +4658,7 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="9"/>
-      <c r="C99" s="61"/>
+      <c r="C99" s="59"/>
       <c r="D99" s="5"/>
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
@@ -4541,8 +4668,8 @@
       <c r="B100" s="9">
         <v>79</v>
       </c>
-      <c r="C100" s="59" t="s">
-        <v>297</v>
+      <c r="C100" s="57" t="s">
+        <v>294</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="12"/>
@@ -4599,9 +4726,9 @@
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="9"/>
-      <c r="C104" s="61"/>
+      <c r="C104" s="59"/>
       <c r="D104" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>14</v>
@@ -4613,9 +4740,9 @@
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="9"/>
-      <c r="C105" s="61"/>
+      <c r="C105" s="59"/>
       <c r="D105" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>14</v>
@@ -4629,8 +4756,8 @@
       <c r="B106" s="9">
         <v>83</v>
       </c>
-      <c r="C106" s="59" t="s">
-        <v>298</v>
+      <c r="C106" s="57" t="s">
+        <v>295</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="12"/>
@@ -4673,8 +4800,8 @@
       <c r="B109" s="9">
         <v>86</v>
       </c>
-      <c r="C109" s="59" t="s">
-        <v>299</v>
+      <c r="C109" s="57" t="s">
+        <v>296</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="12"/>
@@ -4855,7 +4982,7 @@
         <v>40</v>
       </c>
       <c r="F120" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G120" s="13"/>
     </row>
@@ -4863,7 +4990,7 @@
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>33</v>
@@ -4877,7 +5004,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>33</v>
@@ -4905,37 +5032,37 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="9"/>
-      <c r="C124" s="61"/>
+      <c r="C124" s="59"/>
       <c r="D124" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="9"/>
-      <c r="C125" s="61"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="9"/>
-      <c r="C126" s="61"/>
+      <c r="C126" s="59"/>
       <c r="D126" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>14</v>
@@ -4947,9 +5074,9 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="9"/>
-      <c r="C127" s="61"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>33</v>
@@ -4961,9 +5088,9 @@
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="9"/>
-      <c r="C128" s="61"/>
+      <c r="C128" s="59"/>
       <c r="D128" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>14</v>
@@ -4975,9 +5102,9 @@
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="9"/>
-      <c r="C129" s="61"/>
+      <c r="C129" s="59"/>
       <c r="D129" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>33</v>
@@ -4989,7 +5116,7 @@
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="9"/>
-      <c r="C130" s="61"/>
+      <c r="C130" s="59"/>
       <c r="D130" s="5"/>
       <c r="E130" s="12"/>
       <c r="F130" s="11"/>
@@ -4999,8 +5126,8 @@
       <c r="B131" s="9">
         <v>99</v>
       </c>
-      <c r="C131" s="59" t="s">
-        <v>300</v>
+      <c r="C131" s="57" t="s">
+        <v>297</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="12"/>
@@ -5043,8 +5170,8 @@
       <c r="B134" s="9">
         <v>102</v>
       </c>
-      <c r="C134" s="59" t="s">
-        <v>301</v>
+      <c r="C134" s="57" t="s">
+        <v>298</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="12"/>
@@ -5087,8 +5214,8 @@
       <c r="B137" s="9">
         <v>105</v>
       </c>
-      <c r="C137" s="59" t="s">
-        <v>302</v>
+      <c r="C137" s="57" t="s">
+        <v>299</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="12"/>
@@ -5344,8 +5471,8 @@
       <c r="B153" s="9">
         <v>121</v>
       </c>
-      <c r="C153" s="59" t="s">
-        <v>303</v>
+      <c r="C153" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="12"/>
@@ -5428,7 +5555,7 @@
         <v>40</v>
       </c>
       <c r="F158" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G158" s="13"/>
     </row>
@@ -5446,8 +5573,8 @@
       <c r="B160" s="9">
         <v>128</v>
       </c>
-      <c r="C160" s="59" t="s">
-        <v>304</v>
+      <c r="C160" s="57" t="s">
+        <v>301</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="12"/>
@@ -5488,29 +5615,29 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="9"/>
-      <c r="C163" s="61"/>
+      <c r="C163" s="59"/>
       <c r="D163" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F163" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="9"/>
-      <c r="C164" s="61"/>
+      <c r="C164" s="59"/>
       <c r="D164" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F164" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G164" s="13"/>
     </row>
@@ -5518,8 +5645,8 @@
       <c r="B165" s="9">
         <v>131</v>
       </c>
-      <c r="C165" s="59" t="s">
-        <v>305</v>
+      <c r="C165" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="12"/>
@@ -5610,8 +5737,8 @@
       <c r="B171" s="9">
         <v>137</v>
       </c>
-      <c r="C171" s="59" t="s">
-        <v>306</v>
+      <c r="C171" s="57" t="s">
+        <v>303</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="12"/>
@@ -5624,13 +5751,13 @@
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="5" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G172" s="13"/>
     </row>
@@ -5640,7 +5767,7 @@
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>14</v>
@@ -5656,7 +5783,7 @@
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>14</v>
@@ -5672,7 +5799,7 @@
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>14</v>
@@ -5688,7 +5815,7 @@
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>14</v>
@@ -5704,7 +5831,7 @@
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>14</v>
@@ -5720,7 +5847,7 @@
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>14</v>
@@ -5736,10 +5863,10 @@
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="F179" s="11">
         <v>860</v>
@@ -5752,10 +5879,10 @@
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E180" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="F180" s="11">
         <v>250</v>
@@ -5770,10 +5897,10 @@
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F181" s="11">
         <v>250</v>
@@ -5788,7 +5915,7 @@
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>122</v>
@@ -5806,10 +5933,10 @@
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E183" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="F183" s="11">
         <v>4.4349999999999996</v>
@@ -5822,10 +5949,10 @@
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F184" s="11">
         <v>3</v>
@@ -5838,10 +5965,10 @@
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F185" s="11">
         <v>0</v>
@@ -5853,7 +5980,7 @@
         <v>152</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="12"/>
@@ -5866,7 +5993,7 @@
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>14</v>
@@ -5882,7 +6009,7 @@
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>14</v>
@@ -5898,7 +6025,7 @@
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>14</v>
@@ -5914,7 +6041,7 @@
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>14</v>
@@ -5930,7 +6057,7 @@
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>14</v>
@@ -5945,7 +6072,7 @@
         <v>158</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="12"/>
@@ -5958,7 +6085,7 @@
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>14</v>
@@ -5974,7 +6101,7 @@
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>14</v>
@@ -5990,7 +6117,7 @@
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>14</v>
@@ -6006,7 +6133,7 @@
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>14</v>
@@ -6022,7 +6149,7 @@
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>14</v>
@@ -6038,7 +6165,7 @@
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E198" s="22" t="s">
         <v>14</v>
@@ -6049,9 +6176,9 @@
       <c r="G198" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H198" s="62"/>
-      <c r="I198" s="62"/>
-      <c r="J198" s="62"/>
+      <c r="H198" s="60"/>
+      <c r="I198" s="60"/>
+      <c r="J198" s="60"/>
     </row>
     <row r="199" spans="2:10">
       <c r="B199" s="9">
@@ -6059,7 +6186,7 @@
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>14</v>
@@ -6075,7 +6202,7 @@
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>14</v>
@@ -6091,7 +6218,7 @@
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>14</v>
@@ -6107,7 +6234,7 @@
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>14</v>
@@ -6123,7 +6250,7 @@
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>14</v>
@@ -6139,7 +6266,7 @@
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E204" s="12" t="s">
         <v>14</v>
@@ -6154,10 +6281,10 @@
         <v>171</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E205" s="12" t="s">
         <v>14</v>
@@ -6171,8 +6298,8 @@
       <c r="B206" s="9">
         <v>172</v>
       </c>
-      <c r="C206" s="59" t="s">
-        <v>309</v>
+      <c r="C206" s="57" t="s">
+        <v>306</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="12"/>
@@ -6185,7 +6312,7 @@
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="5" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="E207" s="12" t="s">
         <v>122</v>
@@ -6203,37 +6330,37 @@
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E208" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F208" s="25">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:10">
       <c r="B209" s="9">
         <v>175</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="12"/>
       <c r="F209" s="20"/>
       <c r="G209" s="13"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:10">
       <c r="B210" s="9">
         <v>176</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E210" s="12" t="s">
         <v>122</v>
@@ -6245,97 +6372,100 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:10">
       <c r="B211" s="9">
         <v>177</v>
       </c>
-      <c r="C211" s="60" t="s">
-        <v>164</v>
+      <c r="C211" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="12"/>
       <c r="F211" s="8"/>
       <c r="G211" s="13"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:10">
       <c r="B212" s="9">
         <v>178</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E212" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F212" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G212" s="13"/>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:10">
       <c r="B213" s="9">
         <v>179</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="12"/>
       <c r="F213" s="11"/>
       <c r="G213" s="13"/>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:10">
       <c r="B214" s="9">
         <v>180</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E214" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F214" s="11">
-        <v>62</v>
+        <v>7.5</v>
       </c>
       <c r="G214" s="13"/>
-    </row>
-    <row r="215" spans="2:7">
+      <c r="J214" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10">
       <c r="B215" s="9">
         <v>181</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="12"/>
       <c r="F215" s="11"/>
       <c r="G215" s="13"/>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:10">
       <c r="B216" s="9">
         <v>182</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G216" s="13"/>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:10">
       <c r="B217" s="9">
         <v>183</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>14</v>
@@ -6345,13 +6475,13 @@
       </c>
       <c r="G217" s="13"/>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:10">
       <c r="B218" s="9">
         <v>184</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>14</v>
@@ -6361,13 +6491,13 @@
       </c>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:10">
       <c r="B219" s="9">
         <v>185</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E219" s="12" t="s">
         <v>14</v>
@@ -6377,13 +6507,13 @@
       </c>
       <c r="G219" s="13"/>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:10">
       <c r="B220" s="9">
         <v>186</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E220" s="12" t="s">
         <v>14</v>
@@ -6393,28 +6523,28 @@
       </c>
       <c r="G220" s="13"/>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:10">
       <c r="B221" s="9">
         <v>187</v>
       </c>
       <c r="C221" s="9"/>
       <c r="G221" s="13"/>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:10">
       <c r="B222" s="9">
         <v>188</v>
       </c>
       <c r="C222" s="9"/>
       <c r="G222" s="13"/>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:10">
       <c r="B223" s="9">
         <v>189</v>
       </c>
       <c r="C223" s="9"/>
       <c r="G223" s="13"/>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:10">
       <c r="B224" s="9">
         <v>190</v>
       </c>
@@ -6507,10 +6637,10 @@
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F236" s="11">
         <v>4</v>
@@ -6537,10 +6667,10 @@
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F239" s="11">
         <v>0</v>
@@ -6574,7 +6704,7 @@
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E243" s="12" t="s">
         <v>14</v>
@@ -6611,7 +6741,7 @@
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>14</v>
@@ -6627,7 +6757,7 @@
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>40</v>
@@ -6681,7 +6811,7 @@
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>33</v>
@@ -6697,7 +6827,7 @@
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>33</v>
@@ -6713,7 +6843,7 @@
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>33</v>
@@ -6729,7 +6859,7 @@
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>33</v>
@@ -6745,7 +6875,7 @@
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>33</v>
@@ -6761,7 +6891,7 @@
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>33</v>
@@ -6777,7 +6907,7 @@
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>14</v>
@@ -6793,7 +6923,7 @@
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>14</v>
@@ -6809,7 +6939,7 @@
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>14</v>
@@ -6825,7 +6955,7 @@
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>14</v>
@@ -6841,7 +6971,7 @@
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E264" s="27" t="s">
         <v>14</v>
@@ -6857,7 +6987,7 @@
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E265" s="27" t="s">
         <v>14</v>
@@ -6883,7 +7013,7 @@
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E267" s="27" t="s">
         <v>14</v>
@@ -6899,7 +7029,7 @@
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E268" s="27" t="s">
         <v>14</v>
@@ -6915,7 +7045,7 @@
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E269" s="27" t="s">
         <v>14</v>
@@ -6931,7 +7061,7 @@
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E270" s="27" t="s">
         <v>14</v>
@@ -6947,7 +7077,7 @@
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E271" s="27" t="s">
         <v>14</v>
@@ -6963,7 +7093,7 @@
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E272" s="27" t="s">
         <v>14</v>
@@ -6979,7 +7109,7 @@
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E273" s="27" t="s">
         <v>14</v>
@@ -6995,7 +7125,7 @@
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E274" s="27" t="s">
         <v>14</v>
@@ -7011,7 +7141,7 @@
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E275" s="27" t="s">
         <v>14</v>
@@ -7027,7 +7157,7 @@
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E276" s="27" t="s">
         <v>14</v>
@@ -7043,7 +7173,7 @@
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E277" s="27" t="s">
         <v>33</v>
@@ -7059,10 +7189,10 @@
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E278" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F278" s="11">
         <v>250</v>
@@ -7075,10 +7205,10 @@
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E279" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F279" s="11">
         <v>250</v>
@@ -7091,10 +7221,10 @@
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F280" s="11">
         <v>300</v>
@@ -7107,10 +7237,10 @@
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F281" s="11">
         <v>225</v>
@@ -7123,7 +7253,7 @@
       </c>
       <c r="C282" s="9"/>
       <c r="D282" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E282" s="12"/>
       <c r="F282" s="11">
@@ -7137,7 +7267,7 @@
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>14</v>
@@ -7153,7 +7283,7 @@
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>33</v>
@@ -7169,10 +7299,10 @@
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F285" s="11">
         <v>1</v>
@@ -7185,10 +7315,10 @@
       </c>
       <c r="C286" s="9"/>
       <c r="D286" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F286" s="11">
         <v>350</v>
@@ -7201,7 +7331,7 @@
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>14</v>
@@ -7217,7 +7347,7 @@
       </c>
       <c r="C288" s="9"/>
       <c r="D288" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E288" s="12" t="s">
         <v>33</v>
@@ -7233,7 +7363,7 @@
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>33</v>
@@ -7249,7 +7379,7 @@
       </c>
       <c r="C290" s="9"/>
       <c r="D290" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E290" s="12" t="s">
         <v>33</v>
@@ -7265,7 +7395,7 @@
       </c>
       <c r="C291" s="9"/>
       <c r="D291" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E291" s="12" t="s">
         <v>14</v>
@@ -7281,7 +7411,7 @@
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E292" s="12" t="s">
         <v>14</v>
@@ -7297,7 +7427,7 @@
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E293" s="12" t="s">
         <v>14</v>
@@ -7313,7 +7443,7 @@
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E294" s="12" t="s">
         <v>14</v>
@@ -7329,7 +7459,7 @@
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E295" s="12" t="s">
         <v>14</v>
@@ -7345,7 +7475,7 @@
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>14</v>
@@ -7371,7 +7501,7 @@
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E298" s="12" t="s">
         <v>33</v>
@@ -7387,7 +7517,7 @@
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E299" s="12" t="s">
         <v>33</v>
@@ -7403,7 +7533,7 @@
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E300" s="12" t="s">
         <v>33</v>
@@ -7419,10 +7549,10 @@
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F301" s="11">
         <v>2.5</v>
@@ -7435,10 +7565,10 @@
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E302" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F302" s="18">
         <v>28</v>
@@ -7453,13 +7583,13 @@
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F303" s="18">
-        <v>27.5</v>
+        <v>26.75</v>
       </c>
       <c r="G303" s="16" t="s">
         <v>35</v>
@@ -7471,10 +7601,10 @@
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F304" s="11">
         <v>2.4</v>
@@ -7487,13 +7617,13 @@
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F305" s="18">
-        <v>28.5</v>
+        <v>27.75</v>
       </c>
       <c r="G305" s="16" t="s">
         <v>35</v>
@@ -7505,10 +7635,10 @@
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E306" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F306" s="11">
         <v>750</v>
@@ -7521,10 +7651,10 @@
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F307" s="11">
         <v>0</v>
@@ -7537,10 +7667,10 @@
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E308" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F308" s="11">
         <v>11.5</v>
@@ -7555,7 +7685,7 @@
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E309" s="12" t="s">
         <v>33</v>
@@ -7573,10 +7703,10 @@
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F310" s="11">
         <v>0</v>
@@ -7589,10 +7719,10 @@
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F311" s="11">
         <v>0</v>
@@ -7605,10 +7735,10 @@
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F312" s="11">
         <v>0</v>
@@ -7621,10 +7751,10 @@
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F313" s="11">
         <v>0</v>
@@ -7637,10 +7767,10 @@
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F314" s="11">
         <v>650</v>
@@ -7653,10 +7783,10 @@
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F315" s="11">
         <v>700</v>
@@ -7669,7 +7799,7 @@
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E316" s="27" t="s">
         <v>33</v>
@@ -7685,7 +7815,7 @@
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E317" s="27" t="s">
         <v>33</v>
@@ -7701,7 +7831,7 @@
       </c>
       <c r="C318" s="9"/>
       <c r="D318" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E318" s="27" t="s">
         <v>33</v>
@@ -7717,10 +7847,10 @@
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F319" s="11">
         <v>0</v>
@@ -7733,7 +7863,7 @@
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E320" s="27" t="s">
         <v>33</v>
@@ -7749,13 +7879,13 @@
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="26" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="E321" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F321" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G321" s="13"/>
     </row>
@@ -7765,7 +7895,7 @@
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E322" s="30"/>
       <c r="F322" s="11">
@@ -7773,19 +7903,36 @@
       </c>
       <c r="G322" s="13"/>
     </row>
-    <row r="323" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B323" s="5"/>
-      <c r="C323" s="5"/>
-      <c r="D323" s="5"/>
-      <c r="E323" s="26"/>
-      <c r="F323" s="11"/>
-      <c r="G323" s="31"/>
+    <row r="323" spans="2:7">
+      <c r="B323" s="105"/>
+      <c r="C323" s="105"/>
+      <c r="D323" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="E323" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F323" s="107">
+        <v>1</v>
+      </c>
+      <c r="G323" s="13"/>
     </row>
     <row r="324" spans="2:7">
-      <c r="E324" s="32"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E324" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F324" s="108">
+        <v>11</v>
+      </c>
+      <c r="G324" s="5"/>
     </row>
     <row r="325" spans="2:7">
-      <c r="E325" s="12"/>
+      <c r="E325" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7797,7 +7944,7 @@
   <dimension ref="C3:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7816,354 +7963,354 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:14">
-      <c r="C4" s="68"/>
-      <c r="D4" s="118" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="79"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="3:14" ht="17.25" customHeight="1">
-      <c r="C5" s="70"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="3:14" ht="8.25" customHeight="1">
-      <c r="C6" s="70"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="3:14" ht="12" customHeight="1">
-      <c r="C7" s="70"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="3:14" ht="14.25" customHeight="1">
-      <c r="C8" s="70"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="3:14" ht="15" customHeight="1">
-      <c r="C9" s="71"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="3:14" ht="3" customHeight="1" thickBot="1">
-      <c r="C10" s="71"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" thickBot="1">
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="88" t="s">
-        <v>317</v>
-      </c>
-      <c r="E11" s="88" t="s">
+      <c r="D11" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="90" t="s">
-        <v>318</v>
-      </c>
-      <c r="J11" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="K11" s="91" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" s="79"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="84"/>
+      <c r="I11" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="L11" s="77"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="3:14" ht="15.75" thickTop="1">
-      <c r="C12" s="76">
+      <c r="C12" s="74">
         <v>1</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="78">
         <v>4</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="74">
+      <c r="G12" s="72">
         <v>44208</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="J12" s="80">
+        <v>319</v>
+      </c>
+      <c r="J12" s="78">
         <v>80</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="78">
         <v>75</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="75"/>
-      <c r="D13" s="80"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="75"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="75"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="75"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="63"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="63"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="63"/>
-      <c r="D19" s="80"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="63"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="63"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="81"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="63"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="63"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C24" s="64"/>
-      <c r="D24" s="83"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="124" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="123" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="123"/>
+      <c r="C25" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="126" t="s">
+        <v>317</v>
+      </c>
+      <c r="K25" s="126"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="4"/>
     </row>
   </sheetData>
@@ -8181,267 +8328,350 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K38"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:11" ht="16.5" thickBot="1">
-      <c r="B3" s="85" t="s">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="88" t="s">
+      <c r="C3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="F3" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="K3" s="131" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickTop="1">
+      <c r="B4" s="74">
+        <v>1</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="96">
+        <v>4</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="98">
+        <v>44208</v>
+      </c>
+      <c r="G4" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="90" t="s">
-        <v>318</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="J3" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="K3" s="99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1">
-      <c r="B4" s="76">
-        <v>1</v>
-      </c>
-      <c r="C4" s="100">
-        <v>4</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="102">
-        <v>44208</v>
-      </c>
-      <c r="F4" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="100">
+      <c r="H4" s="96">
         <v>80</v>
       </c>
-      <c r="H4" s="104">
+      <c r="I4" s="100">
         <v>75</v>
       </c>
-      <c r="I4" s="100">
+      <c r="J4" s="96">
         <v>300</v>
       </c>
-      <c r="J4" s="100">
+      <c r="K4" s="132">
         <v>300</v>
       </c>
-      <c r="K4" s="106" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="97"/>
-      <c r="C5" s="6"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="95"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="107"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="97">
+      <c r="G5" s="6"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="133"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="95">
         <v>2</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="80">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="82">
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="80">
         <v>75</v>
       </c>
-      <c r="H6" s="96">
+      <c r="I6" s="94">
         <v>70</v>
       </c>
-      <c r="I6" s="82">
+      <c r="J6" s="80">
         <v>210</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="107"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="97">
+      <c r="K6" s="133"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="95">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="59"/>
+      <c r="D7" s="80">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="80">
         <v>5</v>
       </c>
-      <c r="H7" s="96">
+      <c r="I7" s="94">
         <v>4.75</v>
       </c>
-      <c r="I7" s="82">
+      <c r="J7" s="80">
         <v>57</v>
       </c>
-      <c r="J7" s="82">
-        <f>I6+I7</f>
+      <c r="K7" s="133">
+        <f>J6+J7</f>
         <v>267</v>
       </c>
-      <c r="K7" s="107" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="97"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="6"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="95"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="107"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="97"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="134"/>
+      <c r="M8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="95">
+        <v>4</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="80">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="97"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="G9" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" s="80">
+        <v>180</v>
+      </c>
+      <c r="I9" s="80">
+        <v>140</v>
+      </c>
+      <c r="J9" s="110">
+        <v>560</v>
+      </c>
+      <c r="K9" s="134"/>
+      <c r="M9" s="136">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="95">
+        <v>5</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="80">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="107"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="97"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="107"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="97"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="107"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="97"/>
-      <c r="C13" s="6"/>
+      <c r="G10" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="80">
+        <v>160</v>
+      </c>
+      <c r="I10" s="80">
+        <v>126</v>
+      </c>
+      <c r="J10" s="10">
+        <v>504</v>
+      </c>
+      <c r="K10" s="134"/>
+      <c r="M10" s="137" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="95">
+        <v>6</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="80">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="80">
+        <v>25</v>
+      </c>
+      <c r="I11" s="80">
+        <v>18</v>
+      </c>
+      <c r="J11" s="10">
+        <v>36</v>
+      </c>
+      <c r="K11" s="134"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="95">
+        <v>7</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="80">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="138">
+        <v>44267</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="80">
+        <v>16</v>
+      </c>
+      <c r="I12" s="80">
+        <v>14</v>
+      </c>
+      <c r="J12" s="10">
+        <v>28</v>
+      </c>
+      <c r="K12" s="134">
+        <f>SUM(J9:J12)</f>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="95">
+        <v>8</v>
+      </c>
+      <c r="C13" s="59"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="107"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="97"/>
-      <c r="C14" s="6"/>
+      <c r="K13" s="134"/>
+      <c r="M13">
+        <f>14*2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="95"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="42"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="97"/>
-      <c r="C15" s="6"/>
+      <c r="K14" s="134"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="95"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="42"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="97"/>
-      <c r="C16" s="6"/>
+      <c r="K15" s="134"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="95"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="134"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="63"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -8449,11 +8679,11 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="42"/>
+      <c r="K17" s="134"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="63"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -8461,11 +8691,11 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="42"/>
+      <c r="K18" s="134"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="63"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -8473,11 +8703,11 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="134"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="63"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -8485,11 +8715,11 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="134"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="63"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -8497,11 +8727,11 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="42"/>
+      <c r="K21" s="134"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="63"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -8509,11 +8739,11 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="42"/>
+      <c r="K22" s="134"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="63"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -8521,11 +8751,11 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="42"/>
+      <c r="K23" s="134"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="63"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -8533,10 +8763,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="134"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="63"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8545,10 +8775,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="135"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="63"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8557,10 +8787,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="135"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="63"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8569,10 +8799,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="135"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="63"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8581,10 +8811,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="135"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="63"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -8593,10 +8823,10 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="63"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8605,10 +8835,10 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="63"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8617,10 +8847,10 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="63"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8629,10 +8859,10 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="63"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8641,10 +8871,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="63"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8653,10 +8883,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="63"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -8665,10 +8895,10 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="63"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -8677,10 +8907,10 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="63"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -8689,10 +8919,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B38" s="64"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -8701,7 +8931,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
     <sheet name="Stock" sheetId="2" r:id="rId2"/>
     <sheet name="purchese" sheetId="3" r:id="rId3"/>
     <sheet name="Purchase" sheetId="4" r:id="rId4"/>
+    <sheet name="demo" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$L$48</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="361">
   <si>
     <t>gro on</t>
   </si>
@@ -1086,6 +1087,24 @@
   </si>
   <si>
     <t>15/11/2021</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t>25/02.2021</t>
+  </si>
+  <si>
+    <t>Colgate Strong Teeeth(200 gm.)</t>
+  </si>
+  <si>
+    <t>Complite Bill</t>
+  </si>
+  <si>
+    <t>Amul sprey (13.5 gm.)(rs 5)</t>
+  </si>
+  <si>
+    <t>Colgate Strong Teetg</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1874,6 +1893,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1931,24 +1972,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A18" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2266,73 +2289,73 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="127"/>
     </row>
     <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="128" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="120"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="41" t="s">
@@ -2903,7 +2926,7 @@
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F31" s="1"/>
@@ -3048,29 +3071,51 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="6"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="6"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="121">
+        <v>1</v>
+      </c>
+      <c r="D39" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="111">
+        <v>15</v>
+      </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="6"/>
@@ -3206,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J325"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3217,7 +3262,7 @@
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
@@ -3235,7 +3280,7 @@
       </c>
       <c r="G2" s="51"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:9">
       <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
         <v>281</v>
@@ -3244,8 +3289,11 @@
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
       <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="I3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="52">
         <v>1</v>
       </c>
@@ -3260,8 +3308,11 @@
         <v>5</v>
       </c>
       <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="I4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -3277,7 +3328,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -3293,7 +3344,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -3305,7 +3356,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -3321,7 +3372,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -3333,7 +3384,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:9">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -3349,7 +3400,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -3361,7 +3412,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -3377,7 +3428,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -3393,7 +3444,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -3409,7 +3460,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:9">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -3421,7 +3472,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:9">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -7964,11 +8015,11 @@
     <row r="3" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:14">
       <c r="C4" s="66"/>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
       <c r="I4" s="67" t="s">
@@ -7982,9 +8033,9 @@
     </row>
     <row r="5" spans="3:14" ht="17.25" customHeight="1">
       <c r="C5" s="68"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
@@ -7994,9 +8045,9 @@
     </row>
     <row r="6" spans="3:14" ht="8.25" customHeight="1">
       <c r="C6" s="68"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
@@ -8223,8 +8274,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
       <c r="M20" s="76"/>
       <c r="N20" s="1"/>
     </row>
@@ -8285,26 +8336,26 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="137" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
-      <c r="J25" s="126" t="s">
+      <c r="J25" s="136" t="s">
         <v>317</v>
       </c>
-      <c r="K25" s="126"/>
+      <c r="K25" s="136"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
       <c r="F26" s="70"/>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
@@ -8330,8 +8381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8374,7 +8425,7 @@
       <c r="J3" s="84" t="s">
         <v>332</v>
       </c>
-      <c r="K3" s="131" t="s">
+      <c r="K3" s="113" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8406,7 +8457,7 @@
       <c r="J4" s="96">
         <v>300</v>
       </c>
-      <c r="K4" s="132">
+      <c r="K4" s="114">
         <v>300</v>
       </c>
     </row>
@@ -8420,7 +8471,7 @@
       <c r="H5" s="80"/>
       <c r="I5" s="101"/>
       <c r="J5" s="80"/>
-      <c r="K5" s="133"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="95">
@@ -8448,7 +8499,7 @@
       <c r="J6" s="80">
         <v>210</v>
       </c>
-      <c r="K6" s="133"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="95">
@@ -8476,7 +8527,7 @@
       <c r="J7" s="80">
         <v>57</v>
       </c>
-      <c r="K7" s="133">
+      <c r="K7" s="115">
         <f>J6+J7</f>
         <v>267</v>
       </c>
@@ -8491,7 +8542,7 @@
       <c r="H8" s="80"/>
       <c r="I8" s="94"/>
       <c r="J8" s="80"/>
-      <c r="K8" s="134"/>
+      <c r="K8" s="116"/>
       <c r="M8" t="s">
         <v>352</v>
       </c>
@@ -8522,8 +8573,8 @@
       <c r="J9" s="110">
         <v>560</v>
       </c>
-      <c r="K9" s="134"/>
-      <c r="M9" s="136">
+      <c r="K9" s="116"/>
+      <c r="M9" s="118">
         <v>44318</v>
       </c>
     </row>
@@ -8551,8 +8602,8 @@
       <c r="J10" s="10">
         <v>504</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="M10" s="137" t="s">
+      <c r="K10" s="116"/>
+      <c r="M10" s="119" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8582,7 +8633,7 @@
       <c r="J11" s="10">
         <v>36</v>
       </c>
-      <c r="K11" s="134"/>
+      <c r="K11" s="116"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="95">
@@ -8595,7 +8646,7 @@
       <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="138">
+      <c r="F12" s="120">
         <v>44267</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -8610,7 +8661,7 @@
       <c r="J12" s="10">
         <v>28</v>
       </c>
-      <c r="K12" s="134">
+      <c r="K12" s="116">
         <f>SUM(J9:J12)</f>
         <v>1128</v>
       </c>
@@ -8627,7 +8678,7 @@
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="134"/>
+      <c r="K13" s="116"/>
       <c r="M13">
         <f>14*2</f>
         <v>28</v>
@@ -8635,15 +8686,33 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="95"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="134"/>
+      <c r="C14" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="112">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="120">
+        <v>44897</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" s="80">
+        <v>95</v>
+      </c>
+      <c r="I14" s="112">
+        <v>92</v>
+      </c>
+      <c r="J14" s="112">
+        <v>92</v>
+      </c>
+      <c r="K14" s="115">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="95"/>
@@ -8655,7 +8724,7 @@
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="134"/>
+      <c r="K15" s="116"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="95"/>
@@ -8667,7 +8736,7 @@
       <c r="H16" s="80"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="134"/>
+      <c r="K16" s="116"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="61"/>
@@ -8679,7 +8748,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="134"/>
+      <c r="K17" s="116"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="61"/>
@@ -8691,7 +8760,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="134"/>
+      <c r="K18" s="116"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="61"/>
@@ -8703,7 +8772,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="134"/>
+      <c r="K19" s="116"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="61"/>
@@ -8715,7 +8784,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="134"/>
+      <c r="K20" s="116"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="61"/>
@@ -8727,7 +8796,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="134"/>
+      <c r="K21" s="116"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="61"/>
@@ -8739,7 +8808,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="134"/>
+      <c r="K22" s="116"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="61"/>
@@ -8751,7 +8820,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="134"/>
+      <c r="K23" s="116"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="61"/>
@@ -8763,7 +8832,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="134"/>
+      <c r="K24" s="116"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="61"/>
@@ -8775,7 +8844,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="135"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="61"/>
@@ -8787,7 +8856,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="135"/>
+      <c r="K26" s="117"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="61"/>
@@ -8799,7 +8868,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="135"/>
+      <c r="K27" s="117"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="61"/>
@@ -8811,7 +8880,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="135"/>
+      <c r="K28" s="117"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="61"/>
@@ -8937,4 +9006,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="374">
   <si>
     <t>gro on</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Kissan Mix Fruit</t>
   </si>
   <si>
-    <t>Kissan Mango Jam</t>
-  </si>
-  <si>
     <t>Jharna Ghee ( 100 gm. )</t>
   </si>
   <si>
@@ -132,27 +129,9 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Every Day</t>
-  </si>
-  <si>
-    <t>Shyam's Sooji</t>
-  </si>
-  <si>
-    <t>Ganesh Sooji</t>
-  </si>
-  <si>
-    <t>Dabur Babool Ayurvedic</t>
-  </si>
-  <si>
     <t>pc</t>
   </si>
   <si>
-    <t>Dabur Dant Rakshak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensodyne </t>
-  </si>
-  <si>
     <t>Colgate Herbal ( 100 gm. )</t>
   </si>
   <si>
@@ -171,18 +150,9 @@
     <t>Colgate Active Salt ( 200 gm. )</t>
   </si>
   <si>
-    <t>Marvel Tea Premium</t>
-  </si>
-  <si>
-    <t>Tata Tea Premium</t>
-  </si>
-  <si>
     <t>Red Label Natural Care ( 250 gm. )</t>
   </si>
   <si>
-    <t>Marvel Tea Yellow</t>
-  </si>
-  <si>
     <t>Red Label ( 30 gm. )</t>
   </si>
   <si>
@@ -198,54 +168,12 @@
     <t>Jac Olivol ( 100 gm. )</t>
   </si>
   <si>
-    <t>Bajaj Almond Oil</t>
-  </si>
-  <si>
-    <t>Nihar Naturals Oil(jasmine)</t>
-  </si>
-  <si>
-    <t>Nihar Naturals Oil Uttam</t>
-  </si>
-  <si>
-    <t>Shalimar Coconut Oil</t>
-  </si>
-  <si>
-    <t>Parachute Aloevera Oil</t>
-  </si>
-  <si>
-    <t>Keokarpin Olive Oil</t>
-  </si>
-  <si>
-    <t>Lux Jasmine</t>
-  </si>
-  <si>
-    <t>Lux velvet</t>
-  </si>
-  <si>
-    <t>Lux Creamy</t>
-  </si>
-  <si>
-    <t>Cinthol Deo  (100*6)</t>
-  </si>
-  <si>
-    <t>Vivel Aloe Vera</t>
-  </si>
-  <si>
-    <t>Margo</t>
-  </si>
-  <si>
     <t>Dettol Original ( 75 gm. )</t>
   </si>
   <si>
     <t>Dettol Intense cool (125 gm.)</t>
   </si>
   <si>
-    <t>Dove Go Fresh</t>
-  </si>
-  <si>
-    <t>Lifebuoy Lemon Fresh</t>
-  </si>
-  <si>
     <t>Wheel Active Green Bar</t>
   </si>
   <si>
@@ -255,51 +183,9 @@
     <t>Tide Value Pack (1 kg.)</t>
   </si>
   <si>
-    <t>Lifebuoy Hand Wash</t>
-  </si>
-  <si>
-    <t>Ujala Supreme</t>
-  </si>
-  <si>
-    <t>Vaseline</t>
-  </si>
-  <si>
-    <t>Himalaya Purfy Neem</t>
-  </si>
-  <si>
-    <t>Himalaya Orange</t>
-  </si>
-  <si>
-    <t>Cookme Turmeric Powder(Halud gunro)</t>
-  </si>
-  <si>
-    <t>JK Dhaniya Powder</t>
-  </si>
-  <si>
-    <t>JK Turmeric Powder(halud Gunro)</t>
-  </si>
-  <si>
-    <t>JK Kala Jeera</t>
-  </si>
-  <si>
-    <t>JK Mustard(Sarisha)</t>
-  </si>
-  <si>
-    <t>JK Fenugreek (Methi)</t>
-  </si>
-  <si>
-    <t>JK Black Pepper(Kalo Marich)</t>
-  </si>
-  <si>
-    <t>JK Panch Foron</t>
-  </si>
-  <si>
     <t>JK Mouri ( Sounf )</t>
   </si>
   <si>
-    <t>JK Chilli Powder</t>
-  </si>
-  <si>
     <t>Jk Jeera Powder</t>
   </si>
   <si>
@@ -321,9 +207,6 @@
     <t>Bisk farm Thin Arrowroot</t>
   </si>
   <si>
-    <t xml:space="preserve">          b </t>
-  </si>
-  <si>
     <t>Britannia nutri Choice(Cracker)</t>
   </si>
   <si>
@@ -534,9 +417,6 @@
     <t>Bhim Lemons  Soap ( 155 gm. )</t>
   </si>
   <si>
-    <t>Exo</t>
-  </si>
-  <si>
     <t>Surf Excel ( 129 gm. )</t>
   </si>
   <si>
@@ -561,15 +441,6 @@
     <t>Dove Shampoo &amp; Conditioner</t>
   </si>
   <si>
-    <t>Herpic Power Plus</t>
-  </si>
-  <si>
-    <t>Nimail Hurbal</t>
-  </si>
-  <si>
-    <t>Nimail Citro</t>
-  </si>
-  <si>
     <t>Cholar Dal</t>
   </si>
   <si>
@@ -1104,7 +975,175 @@
     <t>Amul sprey (13.5 gm.)(rs 5)</t>
   </si>
   <si>
-    <t>Colgate Strong Teetg</t>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Colgate Strong Teetg ( 200 gm.)</t>
+  </si>
+  <si>
+    <t>Miniket premium Rice</t>
+  </si>
+  <si>
+    <t>Boronazer</t>
+  </si>
+  <si>
+    <t>Kissan Mango Jam ( Rs 20)</t>
+  </si>
+  <si>
+    <t>27/02/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ghansh Jooge</t>
+  </si>
+  <si>
+    <t>Loose Poppy Sceed</t>
+  </si>
+  <si>
+    <t>Sunlight(125 gm.)</t>
+  </si>
+  <si>
+    <t>Ujala Suppriam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion </t>
+  </si>
+  <si>
+    <t>R.K Gota Gaeam Mashala</t>
+  </si>
+  <si>
+    <t>Dhoop</t>
+  </si>
+  <si>
+    <t>papad</t>
+  </si>
+  <si>
+    <t>Kissan Mix Fruit(100 gm.)</t>
+  </si>
+  <si>
+    <t>Kissan Mango Jam(188 gm.)</t>
+  </si>
+  <si>
+    <t>Every Day(400 gm.</t>
+  </si>
+  <si>
+    <t>Shyam's Sooji(200 gm.)</t>
+  </si>
+  <si>
+    <t>Ganesh Sooji(200 gm.)</t>
+  </si>
+  <si>
+    <t>Dabur Babool Ayurvedic(100 gm.)</t>
+  </si>
+  <si>
+    <t>Dabur Dant Rakshak(80 gm.)</t>
+  </si>
+  <si>
+    <t>Sensodyne (70 gm.)</t>
+  </si>
+  <si>
+    <t>Marvel Tea Premium(250 gm.)</t>
+  </si>
+  <si>
+    <t>Tata Tea Premium(100 gm.)</t>
+  </si>
+  <si>
+    <t>Marvel Tea Yellow(250 gm.)</t>
+  </si>
+  <si>
+    <t>Bajaj Almond Oil(100 ml.)</t>
+  </si>
+  <si>
+    <t>Nihar Naturals Oil(jasmine)(400 ml.)</t>
+  </si>
+  <si>
+    <t>Nihar Naturals Oil Uttam(175 ml.)</t>
+  </si>
+  <si>
+    <t>Shalimar Coconut Oil (175 ml.)</t>
+  </si>
+  <si>
+    <t>Parachute Aloevera Oil (75 ml.)</t>
+  </si>
+  <si>
+    <t>Keokarpin Olive Oil (100 ml.)</t>
+  </si>
+  <si>
+    <t>Lux velvet (69 gm.)</t>
+  </si>
+  <si>
+    <t>Lux Creamy (75 gm.)</t>
+  </si>
+  <si>
+    <t>Lux Jasmine (100 gm.)</t>
+  </si>
+  <si>
+    <t>Margo (100 gm.)</t>
+  </si>
+  <si>
+    <t>Cinthol Deo  (100*6)  ( 600 gm.)</t>
+  </si>
+  <si>
+    <t>Vivel Aloe Vera (55 gm.)</t>
+  </si>
+  <si>
+    <t>Dove Go Fresh (75 gm.)</t>
+  </si>
+  <si>
+    <t>Lifebuoy Lemon Fresh (59 gm.)</t>
+  </si>
+  <si>
+    <t>Exo (90 gm.)</t>
+  </si>
+  <si>
+    <t>Herpic Power Plus (200 ml.)</t>
+  </si>
+  <si>
+    <t>Nimail Hurbal(450 ml.)</t>
+  </si>
+  <si>
+    <t>Nimail Citro (500 ml.)</t>
+  </si>
+  <si>
+    <t>Lifebuoy Hand Wash (80ml.)</t>
+  </si>
+  <si>
+    <t>Ujala Supreme (75 ml.)</t>
+  </si>
+  <si>
+    <t>Vaseline ( 21 gm.)</t>
+  </si>
+  <si>
+    <t>Himalaya Purfy Neem (50 ml.)</t>
+  </si>
+  <si>
+    <t>Himalaya Orange (50 gm.)</t>
+  </si>
+  <si>
+    <t>Cookme Turmeric Powder(Halud gunro)(100 gm.)</t>
+  </si>
+  <si>
+    <t>JK Dhaniya Powder (50 gm.)</t>
+  </si>
+  <si>
+    <t>JK Turmeric Powder (halud Gunro) (100 gm.)</t>
+  </si>
+  <si>
+    <t>JK Mustard (Sarisha) (50 gm.)</t>
+  </si>
+  <si>
+    <t>JK Kala Jeera (50 gm.)</t>
+  </si>
+  <si>
+    <t>JK Fenugreek (Methi) ( 50gm.)</t>
+  </si>
+  <si>
+    <t>JK Black Pepper(Kalo Marich) (50 gm.)</t>
+  </si>
+  <si>
+    <t>JK Panch Foron (100 gm.)</t>
+  </si>
+  <si>
+    <t>JK Chilli Powder (100 gm.)</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1678,11 +1717,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1915,6 +2021,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1971,6 +2084,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2268,14 +2384,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A28" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
@@ -2289,73 +2405,73 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="127"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="128" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130"/>
+      <c r="A6" s="133" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="41" t="s">
@@ -2365,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>11</v>
@@ -2389,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="C8" s="32">
         <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>6</v>
@@ -2443,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>8</v>
@@ -2477,16 +2593,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="C12" s="33">
         <v>1.5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2508,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2533,10 +2649,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2558,10 +2674,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2583,10 +2699,10 @@
         <v>1.5</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2608,10 +2724,10 @@
         <v>100</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2633,10 +2749,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2667,16 +2783,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C20" s="90">
         <v>250</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2698,10 +2814,10 @@
         <v>50</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2723,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2748,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2773,10 +2889,10 @@
         <v>250</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2807,16 +2923,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="C26" s="90">
         <v>1</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2839,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2870,16 +2986,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C29" s="34">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2903,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2927,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2948,10 +3064,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2987,16 +3103,16 @@
     <row r="34" spans="1:16">
       <c r="A34" s="6"/>
       <c r="B34" s="34" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="C34" s="34">
         <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3030,16 +3146,16 @@
     <row r="36" spans="1:16">
       <c r="A36" s="6"/>
       <c r="B36" s="31" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C36" s="31">
         <v>1</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3072,16 +3188,16 @@
     <row r="38" spans="1:16">
       <c r="A38" s="6"/>
       <c r="B38" s="31" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="C38" s="31">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3101,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3132,107 +3248,183 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="6"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="121">
+        <v>1</v>
+      </c>
+      <c r="D41" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>323</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="111">
+        <v>11</v>
+      </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="121">
+        <v>8</v>
+      </c>
+      <c r="D42" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>324</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="121">
+        <v>1</v>
+      </c>
+      <c r="D43" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="111" t="s">
+        <v>325</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="121">
+        <v>1</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>326</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>25</v>
+      </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="6"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="121">
+        <v>50</v>
+      </c>
+      <c r="D45" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="6"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="121">
+        <v>50</v>
+      </c>
+      <c r="D46" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="6"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="121">
+        <v>200</v>
+      </c>
+      <c r="D47" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="111" t="s">
+        <v>327</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3">
+        <v>10</v>
+      </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3249,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J325"/>
+  <dimension ref="B2:J324"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="K14" sqref="K13:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3267,7 +3459,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>10</v>
@@ -3283,14 +3475,14 @@
     <row r="3" spans="2:9">
       <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
       <c r="G3" s="14"/>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -3318,7 +3510,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>14</v>
@@ -3329,12 +3521,12 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="9">
+      <c r="B6" s="52">
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="14" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>14</v>
@@ -3357,12 +3549,12 @@
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="9">
+      <c r="B8" s="52">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>14</v>
@@ -3385,12 +3577,12 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="9">
+      <c r="B10" s="52">
         <v>7</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>14</v>
@@ -3405,7 +3597,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -3413,7 +3605,7 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="9">
+      <c r="B12" s="52">
         <v>9</v>
       </c>
       <c r="C12" s="9"/>
@@ -3445,12 +3637,12 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="9">
+      <c r="B14" s="52">
         <v>11</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="5" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
@@ -3465,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="12"/>
@@ -3473,7 +3665,7 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="9">
+      <c r="B16" s="52">
         <v>13</v>
       </c>
       <c r="C16" s="9"/>
@@ -3505,7 +3697,7 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="9">
+      <c r="B18" s="52">
         <v>15</v>
       </c>
       <c r="C18" s="9"/>
@@ -3537,7 +3729,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="9">
+      <c r="B20" s="52">
         <v>17</v>
       </c>
       <c r="C20" s="9"/>
@@ -3569,7 +3761,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="9">
+      <c r="B22" s="52">
         <v>19</v>
       </c>
       <c r="C22" s="9"/>
@@ -3601,10 +3793,12 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="9"/>
+      <c r="B24" s="52">
+        <v>21</v>
+      </c>
       <c r="C24" s="59"/>
       <c r="D24" s="5" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>14</v>
@@ -3615,48 +3809,58 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="9"/>
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
       <c r="C25" s="59"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
+      <c r="D25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11">
+        <v>32</v>
+      </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="9">
-        <v>21</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="52">
+        <v>23</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="11">
+        <v>32</v>
+      </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="9">
-        <v>22</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="59"/>
       <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="11">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="9">
-        <v>23</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>285</v>
-      </c>
+      <c r="B28" s="52">
+        <v>25</v>
+      </c>
+      <c r="C28" s="59"/>
       <c r="D28" s="5"/>
       <c r="E28" s="12"/>
       <c r="F28" s="11"/>
@@ -3664,630 +3868,614 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="9">
-        <v>24</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="9">
-        <v>25</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
+      <c r="B30" s="52">
+        <v>27</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="9">
-        <v>27</v>
+      <c r="B32" s="52">
+        <v>29</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="9">
-        <v>28</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="52">
         <v>31</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="9">
-        <v>29</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="5" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="52">
         <v>33</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="9">
-        <v>31</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="11">
-        <v>3</v>
-      </c>
+      <c r="C36" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="9">
-        <v>32</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="11">
+        <v>4</v>
+      </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="9">
-        <v>33</v>
+      <c r="B38" s="52">
+        <v>35</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F38" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="9">
+        <v>36</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="52">
+        <v>37</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="11">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="9">
-        <v>35</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="11">
+        <v>3</v>
+      </c>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="52">
         <v>39</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="11">
-        <v>9</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="9">
-        <v>37</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="11">
-        <v>2</v>
-      </c>
+      <c r="C42" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="5" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F43" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="9">
-        <v>39</v>
+      <c r="B44" s="52">
+        <v>41</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="5" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F44" s="11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="9">
-        <v>40</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="52">
         <v>43</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="11">
-        <v>3</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="9">
-        <v>41</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="5" t="s">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F46" s="11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2</v>
+      </c>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="52">
         <v>45</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="11">
-        <v>12</v>
-      </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="9">
-        <v>43</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="5" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="11">
+        <v>5</v>
+      </c>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="52">
         <v>47</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="11">
-        <v>12</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="9">
-        <v>45</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="9">
-        <v>46</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="11">
+        <v>2</v>
+      </c>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="9">
-        <v>47</v>
+      <c r="B52" s="52">
+        <v>49</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F52" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F53" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="9">
-        <v>49</v>
+      <c r="B54" s="52">
+        <v>51</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F54" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F55" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="9">
-        <v>51</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="5" t="s">
+      <c r="B56" s="52">
         <v>53</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="11">
-        <v>20</v>
-      </c>
+      <c r="C56" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="5" t="s">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="9">
-        <v>53</v>
+      <c r="B58" s="52">
+        <v>55</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="5" t="s">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" s="11">
+        <v>6</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="9">
+        <v>56</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="11">
         <v>1</v>
       </c>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="9"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="11">
-        <v>9</v>
-      </c>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="9"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="11"/>
+      <c r="B60" s="52">
+        <v>57</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="11">
+        <v>6</v>
+      </c>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="9">
-        <v>54</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="11">
+        <v>20</v>
+      </c>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="9">
-        <v>55</v>
+      <c r="B62" s="52">
+        <v>59</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F62" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F63" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="9">
-        <v>57</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="F64" s="11"/>
+      <c r="B64" s="52">
+        <v>61</v>
+      </c>
+      <c r="C64" s="59"/>
+      <c r="D64" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="11">
+        <v>9</v>
+      </c>
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="9">
-        <v>58</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="11">
-        <v>10</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C65" s="59"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="9">
-        <v>59</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="11">
-        <v>3</v>
-      </c>
+      <c r="B66" s="52">
+        <v>63</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="9">
-        <v>61</v>
+      <c r="B68" s="52">
+        <v>65</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="9">
-        <v>62</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="11">
-        <v>6</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="9">
-        <v>63</v>
+      <c r="B70" s="52">
+        <v>67</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="5" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>14</v>
@@ -4299,1561 +4487,1628 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="9">
-        <v>64</v>
-      </c>
-      <c r="C71" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="11">
+        <v>3</v>
+      </c>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="9">
-        <v>65</v>
+      <c r="B72" s="52">
+        <v>69</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="5" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F72" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="5" t="s">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F73" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="9">
-        <v>67</v>
+      <c r="B74" s="52">
+        <v>71</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="5" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F74" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="9">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="5" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F75" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="9">
-        <v>69</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
+      <c r="B76" s="52">
+        <v>73</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="5" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F77" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="9">
-        <v>71</v>
+      <c r="B78" s="52">
+        <v>75</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="5" t="s">
-        <v>70</v>
+        <v>348</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="17">
-        <v>10</v>
-      </c>
-      <c r="G78" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="5" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F79" s="11">
-        <v>10</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="9">
-        <v>73</v>
+      <c r="B80" s="52">
+        <v>77</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="5" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F80" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="9">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="5" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F81" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="9"/>
+      <c r="B82" s="52">
+        <v>79</v>
+      </c>
       <c r="C82" s="9"/>
       <c r="D82" s="5" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="18">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="F82" s="11">
+        <v>6</v>
       </c>
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="9"/>
+      <c r="B83" s="9">
+        <v>80</v>
+      </c>
       <c r="C83" s="9"/>
       <c r="D83" s="5" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="11">
+        <v>35</v>
+      </c>
+      <c r="F83" s="17">
         <v>10</v>
       </c>
-      <c r="G83" s="13"/>
+      <c r="G83" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="9"/>
+      <c r="B84" s="52">
+        <v>81</v>
+      </c>
       <c r="C84" s="9"/>
       <c r="D84" s="5" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F84" s="11">
-        <v>2</v>
-      </c>
-      <c r="G84" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="9"/>
+      <c r="B85" s="9">
+        <v>82</v>
+      </c>
       <c r="C85" s="9"/>
       <c r="D85" s="5" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F85" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="9"/>
+      <c r="B86" s="52">
+        <v>83</v>
+      </c>
       <c r="C86" s="9"/>
       <c r="D86" s="5" t="s">
-        <v>196</v>
+        <v>355</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F86" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="9"/>
+      <c r="B87" s="9">
+        <v>84</v>
+      </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="11"/>
+      <c r="D87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="18">
+        <v>5</v>
+      </c>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="9">
-        <v>75</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="11"/>
+      <c r="B88" s="52">
+        <v>85</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="11">
+        <v>10</v>
+      </c>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="9">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="5" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F89" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="9">
-        <v>77</v>
+      <c r="B90" s="52">
+        <v>87</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="5" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F90" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="9">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="5" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F91" s="11">
+        <v>4</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="52">
+        <v>89</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="11">
+        <v>28</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="9">
+        <v>90</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="11">
         <v>1</v>
       </c>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="9"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="11">
-        <v>20</v>
-      </c>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="9"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="11">
-        <v>2</v>
-      </c>
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="9"/>
-      <c r="C94" s="59"/>
+      <c r="B94" s="52">
+        <v>91</v>
+      </c>
+      <c r="C94" s="9"/>
       <c r="D94" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="9"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="11">
+      <c r="B95" s="9">
+        <v>92</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="52">
+        <v>93</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="9">
+        <v>94</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="52">
+        <v>95</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="9">
+        <v>96</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="11">
+        <v>9</v>
+      </c>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="52">
+        <v>97</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="9"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="11">
-        <v>4</v>
-      </c>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="9"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="11">
-        <v>5</v>
-      </c>
-      <c r="G97" s="13"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="9"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="11">
-        <v>5</v>
-      </c>
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="9"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="13"/>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="9">
-        <v>79</v>
-      </c>
-      <c r="C100" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="11"/>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="9">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="9">
-        <v>81</v>
-      </c>
-      <c r="C102" s="9"/>
+      <c r="B102" s="52">
+        <v>99</v>
+      </c>
+      <c r="C102" s="59"/>
       <c r="D102" s="5" t="s">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F102" s="11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="9">
-        <v>82</v>
-      </c>
-      <c r="C103" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="C103" s="59"/>
       <c r="D103" s="5" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F103" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="9"/>
+      <c r="B104" s="52">
+        <v>101</v>
+      </c>
       <c r="C104" s="59"/>
       <c r="D104" s="5" t="s">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="9"/>
+      <c r="B105" s="9">
+        <v>102</v>
+      </c>
       <c r="C105" s="59"/>
       <c r="D105" s="5" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="9">
-        <v>83</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="11"/>
+      <c r="B106" s="52">
+        <v>103</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="11">
+        <v>4</v>
+      </c>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="9">
-        <v>84</v>
-      </c>
-      <c r="C107" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="C107" s="59"/>
       <c r="D107" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="E107" s="12"/>
       <c r="F107" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="9">
-        <v>85</v>
-      </c>
-      <c r="C108" s="9"/>
+      <c r="B108" s="52">
+        <v>105</v>
+      </c>
+      <c r="C108" s="59"/>
       <c r="D108" s="5" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F108" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="9">
-        <v>86</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>296</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C109" s="59"/>
       <c r="D109" s="5"/>
       <c r="E109" s="12"/>
       <c r="F109" s="11"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="9">
-        <v>87</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="11">
-        <v>2</v>
-      </c>
+      <c r="B110" s="52">
+        <v>107</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="9">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="5" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F111" s="11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="9">
-        <v>89</v>
+      <c r="B112" s="52">
+        <v>109</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="5" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F112" s="9">
-        <v>4</v>
-      </c>
-      <c r="G112" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F112" s="11">
+        <v>12</v>
+      </c>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="9">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="5" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F113" s="11">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="9">
-        <v>91</v>
-      </c>
-      <c r="C114" s="9"/>
+      <c r="B114" s="52">
+        <v>111</v>
+      </c>
+      <c r="C114" s="59"/>
       <c r="D114" s="5" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F114" s="11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="9">
-        <v>92</v>
-      </c>
-      <c r="C115" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="C115" s="59"/>
       <c r="D115" s="5" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F115" s="11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="9">
-        <v>93</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="11">
-        <v>8</v>
-      </c>
+      <c r="B116" s="52">
+        <v>113</v>
+      </c>
+      <c r="C116" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="9">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="5" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F117" s="11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="9">
-        <v>95</v>
+      <c r="B118" s="52">
+        <v>115</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="5" t="s">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="18">
-        <v>19</v>
-      </c>
-      <c r="G118" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="F118" s="11">
+        <v>2</v>
+      </c>
+      <c r="G118" s="13"/>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="9">
-        <v>96</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F119" s="11">
-        <v>8</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C119" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="9">
-        <v>97</v>
+      <c r="B120" s="52">
+        <v>117</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="5" t="s">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F120" s="11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="9"/>
+      <c r="B121" s="9">
+        <v>118</v>
+      </c>
       <c r="C121" s="9"/>
       <c r="D121" s="5" t="s">
-        <v>191</v>
+        <v>366</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F121" s="11">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="9"/>
+      <c r="B122" s="52">
+        <v>119</v>
+      </c>
       <c r="C122" s="9"/>
       <c r="D122" s="5" t="s">
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F122" s="11">
-        <v>5</v>
-      </c>
-      <c r="G122" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="F122" s="9">
+        <v>4</v>
+      </c>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="9">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="5" t="s">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F123" s="11">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="9"/>
-      <c r="C124" s="59"/>
+      <c r="B124" s="52">
+        <v>121</v>
+      </c>
+      <c r="C124" s="9"/>
       <c r="D124" s="5" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F124" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="9"/>
-      <c r="C125" s="59"/>
+      <c r="B125" s="9">
+        <v>122</v>
+      </c>
+      <c r="C125" s="9"/>
       <c r="D125" s="5" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F125" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="9"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="26" t="s">
-        <v>198</v>
+      <c r="B126" s="52">
+        <v>123</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F126" s="11">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="9"/>
-      <c r="C127" s="59"/>
+      <c r="B127" s="9">
+        <v>124</v>
+      </c>
+      <c r="C127" s="9"/>
       <c r="D127" s="5" t="s">
-        <v>199</v>
+        <v>372</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F127" s="11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="9"/>
-      <c r="C128" s="59"/>
+      <c r="B128" s="52">
+        <v>125</v>
+      </c>
+      <c r="C128" s="9"/>
       <c r="D128" s="5" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="11">
-        <v>10</v>
-      </c>
-      <c r="G128" s="13"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="9"/>
-      <c r="C129" s="59"/>
+        <v>35</v>
+      </c>
+      <c r="F128" s="18">
+        <v>19</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="9">
+        <v>126</v>
+      </c>
+      <c r="C129" s="9"/>
       <c r="D129" s="5" t="s">
-        <v>200</v>
+        <v>373</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F129" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="9"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="11"/>
+    <row r="130" spans="2:7">
+      <c r="B130" s="52">
+        <v>127</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="11">
+        <v>13</v>
+      </c>
       <c r="G130" s="13"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:7">
       <c r="B131" s="9">
-        <v>99</v>
-      </c>
-      <c r="C131" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" s="11">
+        <v>5</v>
+      </c>
       <c r="G131" s="13"/>
     </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="9">
-        <v>100</v>
+    <row r="132" spans="2:7">
+      <c r="B132" s="52">
+        <v>129</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="5" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F132" s="11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G132" s="13"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:7">
       <c r="B133" s="9">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="5" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F133" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G133" s="13"/>
     </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="9">
-        <v>102</v>
-      </c>
-      <c r="C134" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="11"/>
+    <row r="134" spans="2:7">
+      <c r="B134" s="52">
+        <v>131</v>
+      </c>
+      <c r="C134" s="59"/>
+      <c r="D134" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="11">
+        <v>10</v>
+      </c>
       <c r="G134" s="13"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:7">
       <c r="B135" s="9">
-        <v>103</v>
-      </c>
-      <c r="C135" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="C135" s="59"/>
       <c r="D135" s="5" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F135" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G135" s="13"/>
     </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="9">
-        <v>104</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="5" t="s">
-        <v>97</v>
+    <row r="136" spans="2:7">
+      <c r="B136" s="52">
+        <v>133</v>
+      </c>
+      <c r="C136" s="59"/>
+      <c r="D136" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F136" s="11">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:7">
       <c r="B137" s="9">
-        <v>105</v>
-      </c>
-      <c r="C137" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="C137" s="59"/>
+      <c r="D137" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="11">
+        <v>20</v>
+      </c>
       <c r="G137" s="13"/>
     </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="9">
-        <v>106</v>
-      </c>
-      <c r="C138" s="9"/>
+    <row r="138" spans="2:7">
+      <c r="B138" s="52">
+        <v>135</v>
+      </c>
+      <c r="C138" s="59"/>
       <c r="D138" s="5" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F138" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G138" s="13"/>
-      <c r="J138" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10">
+    </row>
+    <row r="139" spans="2:7">
       <c r="B139" s="9">
-        <v>107</v>
-      </c>
-      <c r="C139" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="C139" s="59"/>
       <c r="D139" s="5" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F139" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G139" s="13"/>
     </row>
-    <row r="140" spans="2:10">
-      <c r="B140" s="9">
-        <v>108</v>
-      </c>
-      <c r="C140" s="9"/>
+    <row r="140" spans="2:7">
+      <c r="B140" s="52">
+        <v>137</v>
+      </c>
+      <c r="C140" s="59"/>
       <c r="D140" s="5" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F140" s="11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G140" s="13"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:7">
       <c r="B141" s="9">
-        <v>109</v>
-      </c>
-      <c r="C141" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="C141" s="59"/>
       <c r="D141" s="5" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F141" s="11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G141" s="13"/>
     </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="9">
-        <v>110</v>
-      </c>
-      <c r="C142" s="9"/>
+    <row r="142" spans="2:7">
+      <c r="B142" s="52">
+        <v>139</v>
+      </c>
+      <c r="C142" s="59"/>
       <c r="D142" s="5" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F142" s="18">
-        <v>17</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10">
+        <v>32</v>
+      </c>
+      <c r="F142" s="11">
+        <v>20</v>
+      </c>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="2:7">
       <c r="B143" s="9">
-        <v>111</v>
-      </c>
-      <c r="C143" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="C143" s="59"/>
       <c r="D143" s="5" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F143" s="11">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G143" s="13"/>
     </row>
-    <row r="144" spans="2:10">
-      <c r="B144" s="9">
-        <v>112</v>
-      </c>
-      <c r="C144" s="9"/>
+    <row r="144" spans="2:7">
+      <c r="B144" s="52">
+        <v>141</v>
+      </c>
+      <c r="C144" s="59"/>
       <c r="D144" s="5" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F144" s="11">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="9">
-        <v>113</v>
-      </c>
-      <c r="C145" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="C145" s="59"/>
       <c r="D145" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>40</v>
+        <v>180</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="F145" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="9">
-        <v>114</v>
-      </c>
-      <c r="C146" s="9"/>
+      <c r="B146" s="52">
+        <v>143</v>
+      </c>
+      <c r="C146" s="59"/>
       <c r="D146" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F146" s="11">
-        <v>5</v>
-      </c>
-      <c r="G146" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="9">
-        <v>115</v>
-      </c>
-      <c r="C147" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="C147" s="59"/>
       <c r="D147" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>40</v>
+        <v>181</v>
+      </c>
+      <c r="E147" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="F147" s="11">
-        <v>10</v>
-      </c>
-      <c r="G147" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="G147" s="16"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="9">
-        <v>116</v>
-      </c>
-      <c r="C148" s="9"/>
+      <c r="B148" s="52">
+        <v>145</v>
+      </c>
+      <c r="C148" s="59"/>
       <c r="D148" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>40</v>
+        <v>182</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="F148" s="11">
-        <v>5</v>
-      </c>
-      <c r="G148" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="G148" s="16"/>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="9">
-        <v>117</v>
-      </c>
-      <c r="C149" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="C149" s="59"/>
       <c r="D149" s="5" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F149" s="11">
-        <v>10</v>
-      </c>
-      <c r="G149" s="13"/>
+        <v>300</v>
+      </c>
+      <c r="G149" s="146"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="9">
-        <v>118</v>
-      </c>
-      <c r="C150" s="9"/>
+      <c r="B150" s="52">
+        <v>147</v>
+      </c>
+      <c r="C150" s="59"/>
       <c r="D150" s="5" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F150" s="11">
-        <v>2</v>
-      </c>
-      <c r="G150" s="13"/>
+        <v>225</v>
+      </c>
+      <c r="G150" s="146"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="9">
-        <v>119</v>
-      </c>
-      <c r="C151" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="C151" s="59"/>
       <c r="D151" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>14</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E151" s="12"/>
       <c r="F151" s="11">
         <v>0</v>
       </c>
-      <c r="G151" s="13"/>
+      <c r="G151" s="146"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="9">
-        <v>120</v>
-      </c>
-      <c r="C152" s="9"/>
+      <c r="B152" s="52">
+        <v>149</v>
+      </c>
+      <c r="C152" s="59"/>
       <c r="D152" s="5" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F152" s="11">
-        <v>2</v>
-      </c>
-      <c r="G152" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G152" s="146"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="9">
-        <v>121</v>
-      </c>
-      <c r="C153" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="C153" s="59"/>
+      <c r="D153" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="11">
+        <v>8</v>
+      </c>
+      <c r="G153" s="146"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="9">
-        <v>122</v>
-      </c>
-      <c r="C154" s="9"/>
+      <c r="B154" s="52">
+        <v>151</v>
+      </c>
+      <c r="C154" s="59"/>
       <c r="D154" s="5" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F154" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="9">
-        <v>123</v>
-      </c>
-      <c r="C155" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="C155" s="59"/>
       <c r="D155" s="5" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F155" s="11">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="9">
-        <v>124</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" s="11">
-        <v>0</v>
-      </c>
+      <c r="B156" s="52">
+        <v>153</v>
+      </c>
+      <c r="C156" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="11"/>
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="9">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F157" s="11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="9">
-        <v>126</v>
+      <c r="B158" s="52">
+        <v>155</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="5" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F158" s="11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="9">
-        <v>127</v>
-      </c>
-      <c r="C159" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="C159" s="57" t="s">
+        <v>255</v>
+      </c>
       <c r="D159" s="5"/>
       <c r="E159" s="12"/>
       <c r="F159" s="11"/>
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="9">
-        <v>128</v>
-      </c>
-      <c r="C160" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="11"/>
+      <c r="B160" s="52">
+        <v>157</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F160" s="11">
+        <v>7</v>
+      </c>
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="9">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="5" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F161" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="9">
-        <v>130</v>
-      </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F162" s="11">
-        <v>0</v>
-      </c>
+      <c r="B162" s="52">
+        <v>159</v>
+      </c>
+      <c r="C162" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="11"/>
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="9"/>
-      <c r="C163" s="59"/>
+      <c r="B163" s="9">
+        <v>160</v>
+      </c>
+      <c r="C163" s="9"/>
       <c r="D163" s="5" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F163" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="9"/>
-      <c r="C164" s="59"/>
+      <c r="B164" s="52">
+        <v>161</v>
+      </c>
+      <c r="C164" s="9"/>
       <c r="D164" s="5" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F164" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="9">
-        <v>131</v>
-      </c>
-      <c r="C165" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" s="11">
+        <v>25</v>
+      </c>
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="9">
-        <v>132</v>
+      <c r="B166" s="52">
+        <v>163</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="5" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="F166" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="9">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="5" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F167" s="11">
-        <v>9</v>
-      </c>
-      <c r="G167" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="F167" s="18">
+        <v>17</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="9">
-        <v>134</v>
+      <c r="B168" s="52">
+        <v>165</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="5" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F168" s="19">
-        <v>1.18</v>
+        <v>35</v>
+      </c>
+      <c r="F168" s="11">
+        <v>2</v>
       </c>
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="9">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="5" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="F169" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="9">
-        <v>136</v>
+      <c r="B170" s="52">
+        <v>167</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="5" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F170" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="9">
-        <v>137</v>
-      </c>
-      <c r="C171" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" s="11">
+        <v>5</v>
+      </c>
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="9">
-        <v>138</v>
+      <c r="B172" s="52">
+        <v>169</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="5" t="s">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F172" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="2:7">
       <c r="B173" s="9">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="5" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F173" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="9">
-        <v>140</v>
+      <c r="B174" s="52">
+        <v>171</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="5" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F174" s="11">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="9">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="5" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F175" s="11">
         <v>2</v>
@@ -5861,12 +6116,12 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="9">
-        <v>142</v>
+      <c r="B176" s="52">
+        <v>173</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="5" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>14</v>
@@ -5878,677 +6133,652 @@
     </row>
     <row r="177" spans="2:7">
       <c r="B177" s="9">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="5" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F177" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="9">
-        <v>144</v>
-      </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178" s="11">
-        <v>2</v>
-      </c>
+      <c r="B178" s="52">
+        <v>175</v>
+      </c>
+      <c r="C178" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="11"/>
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="2:7">
       <c r="B179" s="9">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="5" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="F179" s="11">
-        <v>860</v>
+        <v>2</v>
       </c>
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="9">
-        <v>146</v>
+      <c r="B180" s="52">
+        <v>177</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="5" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="F180" s="11">
-        <v>250</v>
-      </c>
-      <c r="G180" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G180" s="13"/>
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="9">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="5" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="F181" s="11">
-        <v>250</v>
-      </c>
-      <c r="G181" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G181" s="13"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="9">
-        <v>148</v>
+      <c r="B182" s="52">
+        <v>179</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="5" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F182" s="18">
-        <v>5</v>
-      </c>
-      <c r="G182" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F182" s="11">
+        <v>4</v>
+      </c>
+      <c r="G182" s="13"/>
     </row>
     <row r="183" spans="2:7">
       <c r="B183" s="9">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="5" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F183" s="11">
-        <v>4.4349999999999996</v>
+        <v>3</v>
       </c>
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="9">
-        <v>150</v>
+      <c r="B184" s="52">
+        <v>181</v>
       </c>
       <c r="C184" s="9"/>
-      <c r="D184" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F184" s="11">
-        <v>3</v>
-      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="11"/>
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="9">
-        <v>151</v>
-      </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E185" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F185" s="11">
-        <v>0</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C185" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="11"/>
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="9">
-        <v>152</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="11"/>
+      <c r="B186" s="52">
+        <v>183</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="11">
+        <v>3</v>
+      </c>
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="9">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="5" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F187" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="9">
-        <v>154</v>
-      </c>
-      <c r="C188" s="9"/>
+      <c r="B188" s="52">
+        <v>185</v>
+      </c>
+      <c r="C188" s="59"/>
       <c r="D188" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F188" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="2:7">
       <c r="B189" s="9">
-        <v>155</v>
-      </c>
-      <c r="C189" s="9"/>
+        <v>186</v>
+      </c>
+      <c r="C189" s="59"/>
       <c r="D189" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F189" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="9">
-        <v>156</v>
-      </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>14</v>
+      <c r="B190" s="52">
+        <v>187</v>
+      </c>
+      <c r="C190" s="59"/>
+      <c r="D190" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E190" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="F190" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="2:7">
       <c r="B191" s="9">
-        <v>157</v>
-      </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F191" s="11">
+        <v>188</v>
+      </c>
+      <c r="C191" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="13"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="52">
+        <v>189</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F192" s="11">
         <v>4</v>
       </c>
-      <c r="G191" s="13"/>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192" s="9">
-        <v>158</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="11"/>
       <c r="G192" s="13"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:7">
       <c r="B193" s="9">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="5" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G193" s="13"/>
     </row>
-    <row r="194" spans="2:10">
-      <c r="B194" s="9">
-        <v>160</v>
+    <row r="194" spans="2:7">
+      <c r="B194" s="52">
+        <v>191</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="5" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F194" s="11">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="F194" s="19">
+        <v>1.18</v>
       </c>
       <c r="G194" s="13"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:7">
       <c r="B195" s="9">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="5" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F195" s="20">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="F195" s="11">
+        <v>0</v>
       </c>
       <c r="G195" s="13"/>
     </row>
-    <row r="196" spans="2:10">
-      <c r="B196" s="9">
-        <v>162</v>
+    <row r="196" spans="2:7">
+      <c r="B196" s="52">
+        <v>193</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="5" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F196" s="20">
-        <v>1</v>
+      <c r="F196" s="11">
+        <v>2</v>
       </c>
       <c r="G196" s="13"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:7">
       <c r="B197" s="9">
-        <v>163</v>
-      </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F197" s="20">
-        <v>5</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C197" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="11"/>
       <c r="G197" s="13"/>
     </row>
-    <row r="198" spans="2:10">
-      <c r="B198" s="9">
-        <v>164</v>
+    <row r="198" spans="2:7">
+      <c r="B198" s="52">
+        <v>195</v>
       </c>
       <c r="C198" s="9"/>
-      <c r="D198" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F198" s="23">
+      <c r="D198" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="11">
         <v>11</v>
       </c>
-      <c r="G198" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H198" s="60"/>
-      <c r="I198" s="60"/>
-      <c r="J198" s="60"/>
-    </row>
-    <row r="199" spans="2:10">
+      <c r="G198" s="13"/>
+    </row>
+    <row r="199" spans="2:7">
       <c r="B199" s="9">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="5" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F199" s="20">
+      <c r="F199" s="11">
         <v>1</v>
       </c>
       <c r="G199" s="13"/>
     </row>
-    <row r="200" spans="2:10">
-      <c r="B200" s="9">
-        <v>166</v>
+    <row r="200" spans="2:7">
+      <c r="B200" s="52">
+        <v>197</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="5" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F200" s="20">
-        <v>6</v>
+      <c r="F200" s="11">
+        <v>92</v>
       </c>
       <c r="G200" s="13"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:7">
       <c r="B201" s="9">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="5" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F201" s="20">
+      <c r="F201" s="11">
         <v>2</v>
       </c>
       <c r="G201" s="13"/>
     </row>
-    <row r="202" spans="2:10">
-      <c r="B202" s="9">
-        <v>168</v>
+    <row r="202" spans="2:7">
+      <c r="B202" s="52">
+        <v>199</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="5" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="20">
-        <v>1</v>
+      <c r="F202" s="11">
+        <v>0</v>
       </c>
       <c r="G202" s="13"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:7">
       <c r="B203" s="9">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="5" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F203" s="20">
-        <v>1</v>
+      <c r="F203" s="11">
+        <v>0</v>
       </c>
       <c r="G203" s="13"/>
     </row>
-    <row r="204" spans="2:10">
-      <c r="B204" s="9">
-        <v>170</v>
+    <row r="204" spans="2:7">
+      <c r="B204" s="52">
+        <v>201</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="5" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E204" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F204" s="20">
-        <v>5</v>
+      <c r="F204" s="11">
+        <v>2</v>
       </c>
       <c r="G204" s="13"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:7">
       <c r="B205" s="9">
-        <v>171</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>310</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C205" s="9"/>
       <c r="D205" s="5" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F205" s="11">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="G205" s="13"/>
     </row>
-    <row r="206" spans="2:10">
-      <c r="B206" s="9">
-        <v>172</v>
-      </c>
-      <c r="C206" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="13"/>
-    </row>
-    <row r="207" spans="2:10">
+    <row r="206" spans="2:7">
+      <c r="B206" s="52">
+        <v>203</v>
+      </c>
+      <c r="C206" s="9"/>
+      <c r="D206" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F206" s="11">
+        <v>250</v>
+      </c>
+      <c r="G206" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
       <c r="B207" s="9">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="5" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F207" s="25">
-        <v>15.5</v>
-      </c>
-      <c r="G207" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10">
-      <c r="B208" s="9">
-        <v>174</v>
+        <v>14</v>
+      </c>
+      <c r="F207" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="52">
+        <v>205</v>
       </c>
       <c r="C208" s="9"/>
-      <c r="D208" s="5" t="s">
-        <v>160</v>
+      <c r="D208" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F208" s="25">
-        <v>11</v>
-      </c>
-      <c r="G208" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10">
+        <v>14</v>
+      </c>
+      <c r="F208" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
       <c r="B209" s="9">
-        <v>175</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D209" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="26"/>
       <c r="E209" s="12"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="13"/>
-    </row>
-    <row r="210" spans="2:10">
-      <c r="B210" s="9">
-        <v>176</v>
+      <c r="F209" s="11"/>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="52">
+        <v>207</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="5" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="F210" s="18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
       <c r="B211" s="9">
-        <v>177</v>
-      </c>
-      <c r="C211" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D211" s="5"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F211" s="11">
+        <v>4.4349999999999996</v>
+      </c>
       <c r="G211" s="13"/>
     </row>
-    <row r="212" spans="2:10">
-      <c r="B212" s="9">
-        <v>178</v>
+    <row r="212" spans="2:7">
+      <c r="B212" s="52">
+        <v>209</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="5" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F212" s="11">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G212" s="13"/>
     </row>
-    <row r="213" spans="2:10">
+    <row r="213" spans="2:7">
       <c r="B213" s="9">
-        <v>179</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F213" s="11">
+        <v>0</v>
+      </c>
       <c r="G213" s="13"/>
     </row>
-    <row r="214" spans="2:10">
-      <c r="B214" s="9">
-        <v>180</v>
-      </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E214" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F214" s="11">
-        <v>7.5</v>
-      </c>
+    <row r="214" spans="2:7">
+      <c r="B214" s="52">
+        <v>211</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="11"/>
       <c r="G214" s="13"/>
-      <c r="J214" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10">
+    </row>
+    <row r="215" spans="2:7">
       <c r="B215" s="9">
-        <v>181</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D215" s="5"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="11">
+        <v>3</v>
+      </c>
       <c r="G215" s="13"/>
     </row>
-    <row r="216" spans="2:10">
-      <c r="B216" s="9">
-        <v>182</v>
+    <row r="216" spans="2:7">
+      <c r="B216" s="52">
+        <v>213</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="5" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G216" s="13"/>
     </row>
-    <row r="217" spans="2:10">
+    <row r="217" spans="2:7">
       <c r="B217" s="9">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="5" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="11">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G217" s="13"/>
     </row>
-    <row r="218" spans="2:10">
-      <c r="B218" s="9">
-        <v>184</v>
+    <row r="218" spans="2:7">
+      <c r="B218" s="52">
+        <v>215</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="5" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" spans="2:10">
+    <row r="219" spans="2:7">
       <c r="B219" s="9">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="5" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="E219" s="12" t="s">
         <v>14</v>
@@ -6558,676 +6788,810 @@
       </c>
       <c r="G219" s="13"/>
     </row>
-    <row r="220" spans="2:10">
-      <c r="B220" s="9">
-        <v>186</v>
-      </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E220" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F220" s="11">
-        <v>144</v>
-      </c>
+    <row r="220" spans="2:7">
+      <c r="B220" s="52">
+        <v>217</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D220" s="5"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="11"/>
       <c r="G220" s="13"/>
     </row>
-    <row r="221" spans="2:10">
+    <row r="221" spans="2:7">
       <c r="B221" s="9">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C221" s="9"/>
+      <c r="D221" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" s="11">
+        <v>4</v>
+      </c>
       <c r="G221" s="13"/>
     </row>
-    <row r="222" spans="2:10">
-      <c r="B222" s="9">
-        <v>188</v>
+    <row r="222" spans="2:7">
+      <c r="B222" s="52">
+        <v>219</v>
       </c>
       <c r="C222" s="9"/>
+      <c r="D222" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="11">
+        <v>5</v>
+      </c>
       <c r="G222" s="13"/>
     </row>
-    <row r="223" spans="2:10">
+    <row r="223" spans="2:7">
       <c r="B223" s="9">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C223" s="9"/>
+      <c r="D223" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" s="20">
+        <v>4</v>
+      </c>
       <c r="G223" s="13"/>
     </row>
-    <row r="224" spans="2:10">
-      <c r="B224" s="9">
-        <v>190</v>
+    <row r="224" spans="2:7">
+      <c r="B224" s="52">
+        <v>221</v>
       </c>
       <c r="C224" s="9"/>
+      <c r="D224" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="20">
+        <v>1</v>
+      </c>
       <c r="G224" s="13"/>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="2:10">
       <c r="B225" s="9">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C225" s="9"/>
+      <c r="D225" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="20">
+        <v>5</v>
+      </c>
       <c r="G225" s="13"/>
     </row>
-    <row r="226" spans="2:7">
-      <c r="B226" s="9">
-        <v>192</v>
+    <row r="226" spans="2:10">
+      <c r="B226" s="52">
+        <v>223</v>
       </c>
       <c r="C226" s="9"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="13"/>
-    </row>
-    <row r="227" spans="2:7">
+      <c r="D226" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="23">
+        <v>11</v>
+      </c>
+      <c r="G226" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H226" s="60"/>
+      <c r="I226" s="60"/>
+      <c r="J226" s="60"/>
+    </row>
+    <row r="227" spans="2:10">
       <c r="B227" s="9">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C227" s="9"/>
+      <c r="D227" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" s="20">
+        <v>1</v>
+      </c>
       <c r="G227" s="13"/>
     </row>
-    <row r="228" spans="2:7">
-      <c r="B228" s="9">
-        <v>194</v>
+    <row r="228" spans="2:10">
+      <c r="B228" s="52">
+        <v>225</v>
       </c>
       <c r="C228" s="9"/>
+      <c r="D228" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" s="20">
+        <v>6</v>
+      </c>
       <c r="G228" s="13"/>
     </row>
-    <row r="229" spans="2:7">
+    <row r="229" spans="2:10">
       <c r="B229" s="9">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C229" s="9"/>
+      <c r="D229" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="20">
+        <v>2</v>
+      </c>
       <c r="G229" s="13"/>
     </row>
-    <row r="230" spans="2:7">
-      <c r="B230" s="9">
-        <v>196</v>
+    <row r="230" spans="2:10">
+      <c r="B230" s="52">
+        <v>227</v>
       </c>
       <c r="C230" s="9"/>
+      <c r="D230" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="20">
+        <v>1</v>
+      </c>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="2:10">
       <c r="B231" s="9">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C231" s="9"/>
+      <c r="D231" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" s="20">
+        <v>1</v>
+      </c>
       <c r="G231" s="13"/>
     </row>
-    <row r="232" spans="2:7">
-      <c r="B232" s="9">
-        <v>198</v>
+    <row r="232" spans="2:10">
+      <c r="B232" s="52">
+        <v>229</v>
       </c>
       <c r="C232" s="9"/>
+      <c r="D232" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="20">
+        <v>5</v>
+      </c>
       <c r="G232" s="13"/>
     </row>
-    <row r="233" spans="2:7">
+    <row r="233" spans="2:10">
       <c r="B233" s="9">
-        <v>199</v>
-      </c>
-      <c r="C233" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="11">
+        <v>0</v>
+      </c>
       <c r="G233" s="13"/>
     </row>
-    <row r="234" spans="2:7">
-      <c r="B234" s="9">
-        <v>200</v>
-      </c>
-      <c r="C234" s="9"/>
+    <row r="234" spans="2:10">
+      <c r="B234" s="52">
+        <v>231</v>
+      </c>
+      <c r="C234" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="20"/>
       <c r="G234" s="13"/>
     </row>
-    <row r="235" spans="2:7">
+    <row r="235" spans="2:10">
       <c r="B235" s="9">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C235" s="9"/>
-      <c r="G235" s="13"/>
-    </row>
-    <row r="236" spans="2:7">
-      <c r="B236" s="9">
-        <v>202</v>
+      <c r="D235" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F235" s="25">
+        <v>15.5</v>
+      </c>
+      <c r="G235" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="B236" s="52">
+        <v>233</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="5" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F236" s="11">
-        <v>4</v>
-      </c>
-      <c r="G236" s="13"/>
-    </row>
-    <row r="237" spans="2:7">
+        <v>83</v>
+      </c>
+      <c r="F236" s="25">
+        <v>11</v>
+      </c>
+      <c r="G236" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10">
       <c r="B237" s="9">
-        <v>203</v>
-      </c>
-      <c r="C237" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="20"/>
       <c r="G237" s="13"/>
     </row>
-    <row r="238" spans="2:7">
-      <c r="B238" s="9">
-        <v>204</v>
+    <row r="238" spans="2:10">
+      <c r="B238" s="52">
+        <v>235</v>
       </c>
       <c r="C238" s="9"/>
-      <c r="G238" s="13"/>
-    </row>
-    <row r="239" spans="2:7">
+      <c r="D238" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F238" s="18">
+        <v>28</v>
+      </c>
+      <c r="G238" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10">
       <c r="B239" s="9">
-        <v>205</v>
-      </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E239" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F239" s="11">
-        <v>0</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C239" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="8"/>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="2:7">
-      <c r="B240" s="9">
-        <v>206</v>
+    <row r="240" spans="2:10">
+      <c r="B240" s="52">
+        <v>237</v>
       </c>
       <c r="C240" s="9"/>
+      <c r="D240" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F240" s="11">
+        <v>42</v>
+      </c>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:10">
       <c r="B241" s="9">
-        <v>207</v>
-      </c>
-      <c r="C241" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="11"/>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="2:7">
-      <c r="B242" s="9">
-        <v>208</v>
+    <row r="242" spans="2:10">
+      <c r="B242" s="52">
+        <v>239</v>
       </c>
       <c r="C242" s="9"/>
+      <c r="D242" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F242" s="11">
+        <v>7.5</v>
+      </c>
       <c r="G242" s="13"/>
-    </row>
-    <row r="243" spans="2:7">
+      <c r="J242" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10">
       <c r="B243" s="9">
-        <v>209</v>
-      </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E243" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F243" s="11">
-        <v>59</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D243" s="5"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="11"/>
       <c r="G243" s="13"/>
     </row>
-    <row r="244" spans="2:7">
-      <c r="B244" s="9">
-        <v>210</v>
+    <row r="244" spans="2:10">
+      <c r="B244" s="52">
+        <v>241</v>
       </c>
       <c r="C244" s="9"/>
+      <c r="D244" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="11">
+        <v>1</v>
+      </c>
       <c r="G244" s="13"/>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:10">
       <c r="B245" s="9">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C245" s="9"/>
+      <c r="D245" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="11">
+        <v>21</v>
+      </c>
       <c r="G245" s="13"/>
     </row>
-    <row r="246" spans="2:7">
-      <c r="B246" s="9">
-        <v>212</v>
+    <row r="246" spans="2:10">
+      <c r="B246" s="52">
+        <v>243</v>
       </c>
       <c r="C246" s="9"/>
+      <c r="D246" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="11">
+        <v>1</v>
+      </c>
       <c r="G246" s="13"/>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:10">
       <c r="B247" s="9">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="5" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F247" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G247" s="13"/>
     </row>
-    <row r="248" spans="2:7">
-      <c r="B248" s="9">
-        <v>214</v>
+    <row r="248" spans="2:10">
+      <c r="B248" s="52">
+        <v>245</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="5" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F248" s="11">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G248" s="13"/>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:10">
       <c r="B249" s="9">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C249" s="9"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="11"/>
+      <c r="D249" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="11">
+        <v>12</v>
+      </c>
       <c r="G249" s="13"/>
     </row>
-    <row r="250" spans="2:7">
-      <c r="B250" s="9">
-        <v>216</v>
+    <row r="250" spans="2:10">
+      <c r="B250" s="52">
+        <v>247</v>
       </c>
       <c r="C250" s="9"/>
+      <c r="D250" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="11">
+        <v>4</v>
+      </c>
       <c r="G250" s="13"/>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:10">
       <c r="B251" s="9">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C251" s="9"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="59"/>
       <c r="G251" s="13"/>
     </row>
-    <row r="252" spans="2:7">
-      <c r="B252" s="9">
-        <v>218</v>
+    <row r="252" spans="2:10">
+      <c r="B252" s="52">
+        <v>249</v>
       </c>
       <c r="C252" s="9"/>
       <c r="G252" s="13"/>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:10">
       <c r="B253" s="9">
-        <v>219</v>
-      </c>
-      <c r="C253" s="9"/>
+        <v>250</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E253" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="11">
+        <v>12</v>
+      </c>
       <c r="G253" s="13"/>
     </row>
-    <row r="254" spans="2:7">
-      <c r="B254" s="9">
-        <v>220</v>
+    <row r="254" spans="2:10">
+      <c r="B254" s="52">
+        <v>251</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E254" s="12" t="s">
-        <v>33</v>
+        <v>174</v>
+      </c>
+      <c r="E254" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F254" s="11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G254" s="13"/>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:10">
       <c r="B255" s="9">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E255" s="12" t="s">
-        <v>33</v>
+        <v>175</v>
+      </c>
+      <c r="E255" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F255" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G255" s="13"/>
     </row>
-    <row r="256" spans="2:7">
-      <c r="B256" s="9">
-        <v>222</v>
+    <row r="256" spans="2:10">
+      <c r="B256" s="52">
+        <v>253</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E256" s="12" t="s">
-        <v>33</v>
+        <v>176</v>
+      </c>
+      <c r="E256" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F256" s="11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G256" s="13"/>
     </row>
     <row r="257" spans="2:7">
       <c r="B257" s="9">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E257" s="12" t="s">
-        <v>33</v>
+        <v>177</v>
+      </c>
+      <c r="E257" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F257" s="11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="2:7">
-      <c r="B258" s="9">
-        <v>224</v>
+      <c r="B258" s="52">
+        <v>255</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E258" s="12" t="s">
-        <v>33</v>
+        <v>178</v>
+      </c>
+      <c r="E258" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F258" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="2:7">
       <c r="B259" s="9">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E259" s="12" t="s">
-        <v>33</v>
+        <v>179</v>
+      </c>
+      <c r="E259" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F259" s="11">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="2:7">
-      <c r="B260" s="9">
-        <v>226</v>
+      <c r="B260" s="52">
+        <v>257</v>
       </c>
       <c r="C260" s="9"/>
-      <c r="D260" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" s="11">
-        <v>28</v>
-      </c>
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="2:7">
       <c r="B261" s="9">
-        <v>227</v>
-      </c>
-      <c r="C261" s="9"/>
-      <c r="D261" s="5" t="s">
-        <v>208</v>
+        <v>258</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D261" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F261" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="2:7">
-      <c r="B262" s="9">
-        <v>228</v>
+      <c r="B262" s="52">
+        <v>259</v>
       </c>
       <c r="C262" s="9"/>
-      <c r="D262" s="5" t="s">
-        <v>209</v>
+      <c r="D262" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F262" s="11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="9">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C263" s="9"/>
-      <c r="D263" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E263" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F263" s="11">
-        <v>32</v>
-      </c>
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="2:7">
-      <c r="B264" s="9">
-        <v>230</v>
+      <c r="B264" s="52">
+        <v>261</v>
       </c>
       <c r="C264" s="9"/>
-      <c r="D264" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E264" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F264" s="11">
-        <v>32</v>
-      </c>
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="9">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E265" s="27" t="s">
-        <v>14</v>
+        <v>139</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="F265" s="11">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="2:7">
-      <c r="B266" s="9">
-        <v>232</v>
+      <c r="B266" s="52">
+        <v>263</v>
       </c>
       <c r="C266" s="9"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="27"/>
-      <c r="F266" s="11"/>
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="9">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C267" s="9"/>
-      <c r="D267" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E267" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F267" s="11">
-        <v>0</v>
-      </c>
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="2:7">
-      <c r="B268" s="9">
-        <v>234</v>
+      <c r="B268" s="52">
+        <v>265</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E268" s="27" t="s">
-        <v>14</v>
+        <v>143</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="F268" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="2:7">
       <c r="B269" s="9">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C269" s="9"/>
-      <c r="D269" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E269" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F269" s="11">
-        <v>3</v>
-      </c>
       <c r="G269" s="13"/>
     </row>
     <row r="270" spans="2:7">
-      <c r="B270" s="9">
-        <v>236</v>
+      <c r="B270" s="52">
+        <v>267</v>
       </c>
       <c r="C270" s="9"/>
-      <c r="D270" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E270" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F270" s="11">
-        <v>12</v>
-      </c>
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="2:7">
       <c r="B271" s="9">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C271" s="9"/>
-      <c r="D271" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E271" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F271" s="11">
-        <v>10</v>
-      </c>
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="2:7">
-      <c r="B272" s="9">
-        <v>238</v>
+      <c r="B272" s="52">
+        <v>269</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E272" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E272" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F272" s="11">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="2:7">
       <c r="B273" s="9">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C273" s="9"/>
-      <c r="D273" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E273" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F273" s="11">
-        <v>9</v>
-      </c>
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="2:7">
-      <c r="B274" s="9">
-        <v>240</v>
+      <c r="B274" s="52">
+        <v>271</v>
       </c>
       <c r="C274" s="9"/>
-      <c r="D274" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E274" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F274" s="11">
-        <v>10</v>
-      </c>
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="2:7">
       <c r="B275" s="9">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C275" s="9"/>
-      <c r="D275" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E275" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F275" s="11">
-        <v>28</v>
-      </c>
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="2:7">
-      <c r="B276" s="9">
-        <v>242</v>
+      <c r="B276" s="52">
+        <v>273</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E276" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E276" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F276" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="2:7">
       <c r="B277" s="9">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E277" s="27" t="s">
-        <v>33</v>
+        <v>152</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F277" s="11">
         <v>0</v>
@@ -7235,173 +7599,136 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="2:7">
-      <c r="B278" s="9">
-        <v>244</v>
+      <c r="B278" s="52">
+        <v>275</v>
       </c>
       <c r="C278" s="9"/>
-      <c r="D278" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E278" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F278" s="11">
-        <v>250</v>
-      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="11"/>
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="2:7">
       <c r="B279" s="9">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C279" s="9"/>
-      <c r="D279" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E279" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F279" s="11">
-        <v>250</v>
-      </c>
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="2:7">
-      <c r="B280" s="9">
-        <v>246</v>
+      <c r="B280" s="52">
+        <v>277</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="5" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="F280" s="11">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="2:7">
       <c r="B281" s="9">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C281" s="9"/>
-      <c r="D281" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E281" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F281" s="11">
-        <v>225</v>
-      </c>
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="2:7">
-      <c r="B282" s="9">
-        <v>248</v>
+      <c r="B282" s="52">
+        <v>279</v>
       </c>
       <c r="C282" s="9"/>
-      <c r="D282" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E282" s="12"/>
-      <c r="F282" s="11">
-        <v>0</v>
-      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="27"/>
+      <c r="F282" s="11"/>
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="2:7">
       <c r="B283" s="9">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E283" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E283" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F283" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="2:7">
-      <c r="B284" s="9">
-        <v>250</v>
+      <c r="B284" s="52">
+        <v>281</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E284" s="12" t="s">
-        <v>33</v>
+        <v>171</v>
+      </c>
+      <c r="E284" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F284" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="2:7">
       <c r="B285" s="9">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E285" s="12" t="s">
-        <v>140</v>
+        <v>172</v>
+      </c>
+      <c r="E285" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F285" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="2:7">
-      <c r="B286" s="9">
-        <v>252</v>
+      <c r="B286" s="52">
+        <v>283</v>
       </c>
       <c r="C286" s="9"/>
-      <c r="D286" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E286" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F286" s="11">
-        <v>350</v>
-      </c>
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="2:7">
       <c r="B287" s="9">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="5" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F287" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="2:7">
-      <c r="B288" s="9">
-        <v>254</v>
+      <c r="B288" s="52">
+        <v>285</v>
       </c>
       <c r="C288" s="9"/>
-      <c r="D288" s="5" t="s">
-        <v>234</v>
+      <c r="D288" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F288" s="11">
         <v>2</v>
@@ -7410,14 +7737,14 @@
     </row>
     <row r="289" spans="2:7">
       <c r="B289" s="9">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="26" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F289" s="11">
         <v>2</v>
@@ -7425,153 +7752,108 @@
       <c r="G289" s="13"/>
     </row>
     <row r="290" spans="2:7">
-      <c r="B290" s="9">
-        <v>256</v>
+      <c r="B290" s="52">
+        <v>287</v>
       </c>
       <c r="C290" s="9"/>
-      <c r="D290" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E290" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F290" s="11">
-        <v>2</v>
-      </c>
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="2:7">
       <c r="B291" s="9">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C291" s="9"/>
-      <c r="D291" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E291" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F291" s="11">
-        <v>7</v>
-      </c>
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="2:7">
-      <c r="B292" s="9">
-        <v>258</v>
+      <c r="B292" s="52">
+        <v>289</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="26" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="E292" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F292" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="2:7">
       <c r="B293" s="9">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C293" s="9"/>
-      <c r="D293" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E293" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F293" s="11">
-        <v>10</v>
-      </c>
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="2:7">
-      <c r="B294" s="9">
-        <v>260</v>
+      <c r="B294" s="52">
+        <v>291</v>
       </c>
       <c r="C294" s="9"/>
-      <c r="D294" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E294" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F294" s="11">
-        <v>2</v>
-      </c>
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="2:7">
       <c r="B295" s="9">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C295" s="9"/>
-      <c r="D295" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E295" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F295" s="11">
-        <v>12</v>
-      </c>
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="2:7">
-      <c r="B296" s="9">
-        <v>262</v>
+      <c r="B296" s="52">
+        <v>293</v>
       </c>
       <c r="C296" s="9"/>
-      <c r="D296" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E296" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F296" s="11">
-        <v>4</v>
-      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="11"/>
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="2:7">
       <c r="B297" s="9">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C297" s="9"/>
-      <c r="D297" s="5"/>
-      <c r="E297" s="12"/>
-      <c r="F297" s="11"/>
+      <c r="D297" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F297" s="11">
+        <v>2</v>
+      </c>
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="2:7">
-      <c r="B298" s="9">
-        <v>264</v>
+      <c r="B298" s="52">
+        <v>295</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="26" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F298" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="2:7">
       <c r="B299" s="9">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="26" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F299" s="11">
         <v>4</v>
@@ -7579,185 +7861,176 @@
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="2:7">
-      <c r="B300" s="9">
-        <v>266</v>
+      <c r="B300" s="52">
+        <v>297</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="26" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F300" s="11">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="2:7">
       <c r="B301" s="9">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E301" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F301" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G301" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E301" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F301" s="18">
+        <v>28</v>
+      </c>
+      <c r="G301" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="302" spans="2:7">
-      <c r="B302" s="9">
-        <v>268</v>
+      <c r="B302" s="52">
+        <v>299</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="E302" s="28" t="s">
-        <v>140</v>
+        <v>205</v>
+      </c>
+      <c r="E302" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="F302" s="18">
-        <v>28</v>
+        <v>26.75</v>
       </c>
       <c r="G302" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="303" spans="2:7">
       <c r="B303" s="9">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="26" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F303" s="18">
-        <v>26.75</v>
-      </c>
-      <c r="G303" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F303" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="G303" s="13"/>
     </row>
     <row r="304" spans="2:7">
-      <c r="B304" s="9">
-        <v>270</v>
+      <c r="B304" s="52">
+        <v>301</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="26" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F304" s="11">
-        <v>2.4</v>
-      </c>
-      <c r="G304" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="F304" s="18">
+        <v>27.75</v>
+      </c>
+      <c r="G304" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="305" spans="2:7">
       <c r="B305" s="9">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="26" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F305" s="18">
-        <v>27.75</v>
-      </c>
-      <c r="G305" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F305" s="11">
+        <v>750</v>
+      </c>
+      <c r="G305" s="13"/>
     </row>
     <row r="306" spans="2:7">
-      <c r="B306" s="9">
-        <v>272</v>
+      <c r="B306" s="52">
+        <v>303</v>
       </c>
       <c r="C306" s="9"/>
-      <c r="D306" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E306" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F306" s="11">
-        <v>750</v>
-      </c>
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="2:7">
       <c r="B307" s="9">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="26" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="F307" s="11">
-        <v>0</v>
-      </c>
-      <c r="G307" s="13"/>
+        <v>11.5</v>
+      </c>
+      <c r="G307" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="9">
-        <v>275</v>
+      <c r="B308" s="52">
+        <v>305</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="E308" s="27" t="s">
-        <v>140</v>
+        <v>212</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F308" s="11">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="G308" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="2:7">
       <c r="B309" s="9">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>33</v>
+        <v>213</v>
+      </c>
+      <c r="E309" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="F309" s="11">
-        <v>19</v>
-      </c>
-      <c r="G309" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G309" s="13"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="9">
-        <v>277</v>
+      <c r="B310" s="52">
+        <v>307</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="26" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F310" s="11">
         <v>0</v>
@@ -7766,14 +8039,14 @@
     </row>
     <row r="311" spans="2:7">
       <c r="B311" s="9">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="26" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F311" s="11">
         <v>0</v>
@@ -7781,15 +8054,15 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="9">
-        <v>279</v>
+      <c r="B312" s="52">
+        <v>309</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="26" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F312" s="11">
         <v>0</v>
@@ -7798,62 +8071,62 @@
     </row>
     <row r="313" spans="2:7">
       <c r="B313" s="9">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C313" s="9"/>
-      <c r="D313" s="26" t="s">
-        <v>259</v>
+      <c r="D313" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F313" s="11">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="9">
-        <v>281</v>
+      <c r="B314" s="52">
+        <v>311</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="29" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="F314" s="11">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="G314" s="13"/>
     </row>
     <row r="315" spans="2:7">
       <c r="B315" s="9">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="29" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="F315" s="11">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="2:7">
-      <c r="B316" s="9">
-        <v>283</v>
+      <c r="B316" s="52">
+        <v>313</v>
       </c>
       <c r="C316" s="9"/>
-      <c r="D316" s="29" t="s">
-        <v>262</v>
+      <c r="D316" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E316" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F316" s="11">
         <v>0</v>
@@ -7862,46 +8135,46 @@
     </row>
     <row r="317" spans="2:7">
       <c r="B317" s="9">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C317" s="9"/>
-      <c r="D317" s="5" t="s">
-        <v>263</v>
+      <c r="D317" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="E317" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F317" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="9">
-        <v>287</v>
+      <c r="B318" s="52">
+        <v>315</v>
       </c>
       <c r="C318" s="9"/>
       <c r="D318" s="26" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="E318" s="27" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F318" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="2:7">
       <c r="B319" s="9">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="26" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F319" s="11">
         <v>0</v>
@@ -7909,81 +8182,69 @@
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="9">
-        <v>289</v>
+      <c r="B320" s="52">
+        <v>317</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="26" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="E320" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F320" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G320" s="13"/>
     </row>
     <row r="321" spans="2:7">
       <c r="B321" s="9">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C321" s="9"/>
-      <c r="D321" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E321" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="D321" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E321" s="30"/>
       <c r="F321" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="2:7">
-      <c r="B322" s="9">
-        <v>291</v>
-      </c>
-      <c r="C322" s="9"/>
-      <c r="D322" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E322" s="30"/>
-      <c r="F322" s="11">
-        <v>0</v>
+      <c r="B322" s="52">
+        <v>319</v>
+      </c>
+      <c r="C322" s="105"/>
+      <c r="D322" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="E322" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F322" s="107">
+        <v>1</v>
       </c>
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="2:7">
-      <c r="B323" s="105"/>
-      <c r="C323" s="105"/>
-      <c r="D323" s="105" t="s">
-        <v>343</v>
-      </c>
-      <c r="E323" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="F323" s="107">
-        <v>1</v>
-      </c>
-      <c r="G323" s="13"/>
+      <c r="B323" s="9">
+        <v>320</v>
+      </c>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E323" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F323" s="108">
+        <v>11</v>
+      </c>
+      <c r="G323" s="5"/>
     </row>
     <row r="324" spans="2:7">
-      <c r="B324" s="5"/>
-      <c r="C324" s="5"/>
-      <c r="D324" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E324" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F324" s="108">
-        <v>11</v>
-      </c>
-      <c r="G324" s="5"/>
-    </row>
-    <row r="325" spans="2:7">
-      <c r="E325" s="54"/>
+      <c r="E324" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8015,27 +8276,27 @@
     <row r="3" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:14">
       <c r="C4" s="66"/>
-      <c r="D4" s="131" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="D4" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
       <c r="I4" s="67" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="J4" s="67" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="K4" s="67"/>
       <c r="L4" s="77"/>
     </row>
     <row r="5" spans="3:14" ht="17.25" customHeight="1">
       <c r="C5" s="68"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
@@ -8045,9 +8306,9 @@
     </row>
     <row r="6" spans="3:14" ht="8.25" customHeight="1">
       <c r="C6" s="68"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
@@ -8061,7 +8322,7 @@
       <c r="E7" s="63"/>
       <c r="F7" s="63"/>
       <c r="G7" s="63" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
@@ -8075,7 +8336,7 @@
       <c r="E8" s="63"/>
       <c r="F8" s="63"/>
       <c r="G8" s="64" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
@@ -8114,24 +8375,24 @@
         <v>1</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="85" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="88" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="J11" s="89" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="K11" s="89" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="L11" s="77"/>
       <c r="M11" s="1"/>
@@ -8145,17 +8406,17 @@
         <v>4</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="72">
         <v>44208</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="J12" s="78">
         <v>80</v>
@@ -8274,8 +8535,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="140"/>
       <c r="M20" s="76"/>
       <c r="N20" s="1"/>
     </row>
@@ -8336,26 +8597,26 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="137" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
+      <c r="C25" s="142" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
-      <c r="J25" s="136" t="s">
-        <v>317</v>
-      </c>
-      <c r="K25" s="136"/>
+      <c r="J25" s="141" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="141"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="70"/>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
@@ -8382,7 +8643,7 @@
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8405,28 +8666,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I3" s="93" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="J3" s="84" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="K3" s="113" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickTop="1">
@@ -8434,19 +8695,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="D4" s="96">
         <v>4</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="98">
         <v>44208</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="H4" s="96">
         <v>80</v>
@@ -8478,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="D6" s="80">
         <v>3</v>
@@ -8488,7 +8749,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="H6" s="80">
         <v>75</v>
@@ -8510,13 +8771,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="H7" s="80">
         <v>5</v>
@@ -8544,7 +8805,7 @@
       <c r="J8" s="80"/>
       <c r="K8" s="116"/>
       <c r="M8" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -8552,17 +8813,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="D9" s="80">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="12" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="H9" s="80">
         <v>180</v>
@@ -8587,11 +8848,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="12" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="H10" s="80">
         <v>160</v>
@@ -8604,7 +8865,7 @@
       </c>
       <c r="K10" s="116"/>
       <c r="M10" s="119" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -8616,13 +8877,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="H11" s="80">
         <v>25</v>
@@ -8644,13 +8905,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="120">
         <v>44267</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="H12" s="80">
         <v>16</v>
@@ -8687,19 +8948,19 @@
     <row r="14" spans="2:13">
       <c r="B14" s="95"/>
       <c r="C14" s="59" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="D14" s="112">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="120">
         <v>44897</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="H14" s="80">
         <v>95</v>
@@ -9010,17 +9271,237 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>360</v>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="109"/>
+      <c r="B4" s="116"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="109">
+        <v>1</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="109">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="109">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="109">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="109">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="109">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="109">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="109">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="109">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="109">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="109">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="109">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="109">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="109">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="109">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="109">
+        <v>17</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="109">
+        <v>18</v>
+      </c>
+      <c r="B22" s="116"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="109">
+        <v>19</v>
+      </c>
+      <c r="B23" s="116"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="109">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="109">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="109">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="109">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="686" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="demo" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$K$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">purchese!$C$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="389">
   <si>
     <t>gro on</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Mrp.rate</t>
   </si>
   <si>
-    <t>Shal.rate</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t xml:space="preserve">Nafice Rice </t>
   </si>
   <si>
-    <t>Dally Local Shell Entry</t>
-  </si>
-  <si>
     <t>18/02/2021</t>
   </si>
   <si>
@@ -1144,6 +1138,57 @@
   </si>
   <si>
     <t>JK Chilli Powder (100 gm.)</t>
+  </si>
+  <si>
+    <t>Dally Local Sell Entry</t>
+  </si>
+  <si>
+    <t>Sell.rate</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Lacha Simui</t>
+  </si>
+  <si>
+    <t>Simui Classic</t>
+  </si>
+  <si>
+    <t>Annapurna Ghee ( 250 gm.)</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Bisk farm Top</t>
+  </si>
+  <si>
+    <t>Emami Healthy Testy Soyabean oil(500gm)</t>
+  </si>
+  <si>
+    <t>Emami Healthy Testy soyabean oil(1lt)</t>
+  </si>
+  <si>
+    <t>Emami Master / Refine Oil</t>
+  </si>
+  <si>
+    <t>Fortune Master / Refine Oil</t>
+  </si>
+  <si>
+    <t>Hamini Master / Refine Oil</t>
+  </si>
+  <si>
+    <t>Engine Master Oil</t>
+  </si>
+  <si>
+    <t>Sunrise Termaric Powder ( 100 gm.)</t>
+  </si>
+  <si>
+    <t>Sunrise Red Chili Powder ( 100 gm.)</t>
+  </si>
+  <si>
+    <t>Cookme Red Chili Powder(Halud gunro)(100 gm.)</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1519,26 +1564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1547,34 +1572,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1634,17 +1631,6 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1721,8 +1707,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1731,9 +1749,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1742,11 +1764,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1764,31 +1788,14 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1842,32 +1849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1877,7 +1859,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1901,7 +1883,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1938,29 +1920,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1969,21 +1944,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1998,21 +1972,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2020,14 +1993,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2046,13 +2045,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,15 +2078,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2382,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2405,694 +2406,695 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="132"/>
-    </row>
-    <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="133" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+    </row>
+    <row r="6" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="102"/>
+      <c r="K7" s="112" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="41" t="s">
+      <c r="C8" s="106">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="D8" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="92" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="113">
+        <v>2</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106">
+        <v>1</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="114">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="113">
+        <v>3</v>
+      </c>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106">
+        <v>1</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>110</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="113"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="114"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="113">
+        <v>3</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="106">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>42</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="113">
+        <v>4</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106">
+        <v>3</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="26">
+        <v>27</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="113">
+        <v>5</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106">
+        <v>10</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="26">
+        <v>2500</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="113">
+        <v>6</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106">
+        <v>10</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="26">
+        <v>2880</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="114">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="113">
+        <v>7</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="26">
+        <v>110</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="114">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="113">
+        <v>8</v>
+      </c>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106">
+        <v>100</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="26">
+        <v>70</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="113">
+        <v>9</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106">
+        <v>50</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="26">
+        <v>140</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="113"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="114"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="113">
+        <v>10</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="107">
+        <v>250</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>70</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="113">
         <v>11</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A8" s="10">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106">
+        <v>50</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <v>140</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="113">
+        <v>12</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="D22" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="113">
+        <v>13</v>
+      </c>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106">
         <v>1</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="36">
+      <c r="D23" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="113">
+        <v>14</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106">
+        <v>250</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>45</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="114">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="113"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="114"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="113">
+        <v>15</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="107">
+        <v>1</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="113"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106">
+        <v>1</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>75</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="114">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="115"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="114"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="115">
+        <v>16</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="108">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>83</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="90"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="115">
+        <v>17</v>
+      </c>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
+        <v>87</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="114">
+        <v>75</v>
+      </c>
+      <c r="L30" s="90"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="115"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
         <v>22</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39">
+      <c r="J31" s="5"/>
+      <c r="K31" s="114">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33">
+      <c r="L31" s="90"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="115"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6">
-        <v>110</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="6">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="10">
-        <v>4</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33">
-        <v>3</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="37">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="10">
-        <v>5</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33">
+      <c r="D32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5">
+        <v>11</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="114">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="37">
-        <v>2500</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="37">
-        <v>2880</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="40">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="10">
-        <v>7</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="37">
-        <v>110</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="40">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="10">
-        <v>8</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33">
-        <v>100</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="37">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33">
-        <v>50</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="37">
-        <v>140</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="10"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="10">
-        <v>10</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="90">
-        <v>250</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="6">
-        <v>70</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="10">
-        <v>11</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33">
-        <v>50</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6">
-        <v>140</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="10">
-        <v>12</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="6">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="10">
-        <v>13</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6">
-        <v>5</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="10">
-        <v>14</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33">
-        <v>250</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6">
-        <v>45</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="40">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="10"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="10">
-        <v>15</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="90">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="6">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="10"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="6">
-        <v>75</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="40">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6">
-        <v>16</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="34">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="6">
-        <v>83</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="109"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6">
-        <v>17</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="6">
-        <v>87</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="40">
-        <v>75</v>
-      </c>
-      <c r="L30" s="109"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="6">
-        <v>22</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="40">
-        <v>21</v>
-      </c>
-      <c r="L31" s="109"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="6">
-        <v>11</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="40">
-        <v>10</v>
-      </c>
-      <c r="L32" s="109"/>
+      <c r="L32" s="90"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="6"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="109"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="90"/>
       <c r="O33">
         <v>1138</v>
       </c>
@@ -3101,330 +3103,333 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="6"/>
-      <c r="B34" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34" s="34">
+      <c r="A34" s="115"/>
+      <c r="B34" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="108">
         <v>1</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="6">
+      <c r="D34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
         <v>5</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="40">
+      <c r="J34" s="5"/>
+      <c r="K34" s="114">
         <v>5</v>
       </c>
-      <c r="L34" s="109"/>
+      <c r="L34" s="90"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="6"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="109"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="90"/>
       <c r="O35">
         <v>1128</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="6"/>
-      <c r="B36" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" s="31">
+      <c r="A36" s="115"/>
+      <c r="B36" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="108">
         <v>1</v>
       </c>
-      <c r="D36" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="111">
+      <c r="D36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="26">
         <v>5</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2">
+      <c r="J36" s="5"/>
+      <c r="K36" s="114">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="6"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="2"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="114"/>
       <c r="O37">
         <f>O33-O35</f>
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="6"/>
-      <c r="B38" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C38" s="31">
+      <c r="A38" s="115"/>
+      <c r="B38" s="108" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="108">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1">
+      <c r="D38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
         <v>10</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2">
+      <c r="J38" s="5"/>
+      <c r="K38" s="114">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="121">
+      <c r="A39" s="115"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="110">
         <v>1</v>
       </c>
-      <c r="D39" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="111">
+      <c r="D39" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="26">
         <v>15</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2">
+      <c r="J39" s="5"/>
+      <c r="K39" s="114">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="115"/>
+      <c r="B41" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="110">
+        <v>1</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="26">
+        <v>11</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="115"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="110">
+        <v>8</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C41" s="121">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="115"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="110">
         <v>1</v>
       </c>
-      <c r="D41" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="111" t="s">
+      <c r="D43" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="111">
-        <v>11</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="114">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="121">
-        <v>8</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="111" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="115"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="110">
+        <v>1</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5">
+        <v>25</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="114">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="115"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="110">
+        <v>50</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="114">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="115"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="110">
+        <v>50</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="115"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="110">
+        <v>200</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <v>45</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117">
+        <v>1</v>
+      </c>
+      <c r="D48" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="121">
-        <v>1</v>
-      </c>
-      <c r="D43" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="111" t="s">
-        <v>325</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="2">
+      <c r="J48" s="117"/>
+      <c r="K48" s="118">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="121">
-        <v>1</v>
-      </c>
-      <c r="D44" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="111" t="s">
-        <v>326</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1">
-        <v>25</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="6"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="121">
-        <v>50</v>
-      </c>
-      <c r="D45" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="6"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="121">
-        <v>50</v>
-      </c>
-      <c r="D46" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="6"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="121">
-        <v>200</v>
-      </c>
-      <c r="D47" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1">
-        <v>45</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>10</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4">
-        <v>10</v>
-      </c>
+    <row r="49" spans="2:2">
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3432,7 +3437,7 @@
     <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="48" max="8" man="1"/>
   </rowBreaks>
@@ -3443,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230:D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3455,48 +3460,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="F2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="14"/>
       <c r="I3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="52">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="40">
         <v>5</v>
       </c>
       <c r="G4" s="13"/>
@@ -3510,10 +3515,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
@@ -3521,15 +3526,15 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="52">
+      <c r="B6" s="37">
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11">
         <v>60</v>
@@ -3540,8 +3545,8 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>15</v>
+      <c r="C7" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12"/>
@@ -3549,15 +3554,15 @@
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="52">
+      <c r="B8" s="37">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -3568,8 +3573,8 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>16</v>
+      <c r="C9" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="12"/>
@@ -3577,15 +3582,15 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="52">
+      <c r="B10" s="37">
         <v>7</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
@@ -3596,8 +3601,8 @@
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>239</v>
+      <c r="C11" s="42" t="s">
+        <v>237</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -3605,15 +3610,15 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="52">
+      <c r="B12" s="37">
         <v>9</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -3626,10 +3631,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
@@ -3637,15 +3642,15 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="52">
+      <c r="B14" s="37">
         <v>11</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -3657,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="12"/>
@@ -3665,15 +3670,15 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="52">
+      <c r="B16" s="37">
         <v>13</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="11">
         <v>3</v>
@@ -3686,10 +3691,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -3697,15 +3702,15 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="52">
+      <c r="B18" s="37">
         <v>15</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
@@ -3718,10 +3723,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="11">
         <v>6</v>
@@ -3729,15 +3734,15 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="52">
+      <c r="B20" s="37">
         <v>17</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="11">
         <v>6</v>
@@ -3750,10 +3755,10 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="11">
         <v>48</v>
@@ -3761,15 +3766,15 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="52">
+      <c r="B22" s="37">
         <v>19</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="11">
         <v>59</v>
@@ -3782,10 +3787,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="11">
         <v>48</v>
@@ -3793,15 +3798,15 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="52">
+      <c r="B24" s="37">
         <v>21</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="11">
         <v>14</v>
@@ -3812,12 +3817,12 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="11">
         <v>32</v>
@@ -3825,15 +3830,15 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="52">
+      <c r="B26" s="37">
         <v>23</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="11">
         <v>32</v>
@@ -3844,12 +3849,12 @@
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11">
         <v>32</v>
@@ -3857,10 +3862,10 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="52">
+      <c r="B28" s="37">
         <v>25</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="5"/>
       <c r="E28" s="12"/>
       <c r="F28" s="11"/>
@@ -3870,17 +3875,17 @@
       <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="5"/>
       <c r="E29" s="12"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="52">
+      <c r="B30" s="37">
         <v>27</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="5"/>
       <c r="E30" s="12"/>
       <c r="F30" s="11"/>
@@ -3890,8 +3895,8 @@
       <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="57" t="s">
-        <v>241</v>
+      <c r="C31" s="42" t="s">
+        <v>239</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
@@ -3899,15 +3904,15 @@
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="52">
+      <c r="B32" s="37">
         <v>29</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="11">
         <v>6</v>
@@ -3918,8 +3923,8 @@
       <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>242</v>
+      <c r="C33" s="42" t="s">
+        <v>240</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="12"/>
@@ -3927,15 +3932,15 @@
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="52">
+      <c r="B34" s="37">
         <v>31</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -3948,10 +3953,10 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -3959,11 +3964,11 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="52">
+      <c r="B36" s="37">
         <v>33</v>
       </c>
-      <c r="C36" s="57" t="s">
-        <v>243</v>
+      <c r="C36" s="42" t="s">
+        <v>241</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="12"/>
@@ -3976,10 +3981,10 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="11">
         <v>4</v>
@@ -3987,15 +3992,15 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="52">
+      <c r="B38" s="37">
         <v>35</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="11">
         <v>1</v>
@@ -4006,8 +4011,8 @@
       <c r="B39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="57" t="s">
-        <v>244</v>
+      <c r="C39" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="12"/>
@@ -4015,21 +4020,21 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="52">
+      <c r="B40" s="37">
         <v>37</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -4038,10 +4043,10 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="11">
         <v>3</v>
@@ -4049,11 +4054,11 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="52">
+      <c r="B42" s="37">
         <v>39</v>
       </c>
-      <c r="C42" s="57" t="s">
-        <v>245</v>
+      <c r="C42" s="42" t="s">
+        <v>243</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="12"/>
@@ -4066,10 +4071,10 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="11">
         <v>8</v>
@@ -4077,15 +4082,15 @@
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="52">
+      <c r="B44" s="37">
         <v>41</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" s="11">
         <v>13</v>
@@ -4096,8 +4101,8 @@
       <c r="B45" s="9">
         <v>42</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>246</v>
+      <c r="C45" s="42" t="s">
+        <v>244</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="12"/>
@@ -4105,15 +4110,15 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="52">
+      <c r="B46" s="37">
         <v>43</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="11">
         <v>9</v>
@@ -4126,10 +4131,10 @@
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="11">
         <v>2</v>
@@ -4137,15 +4142,15 @@
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="52">
+      <c r="B48" s="37">
         <v>45</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="11">
         <v>1</v>
@@ -4158,10 +4163,10 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="11">
         <v>5</v>
@@ -4169,15 +4174,15 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="52">
+      <c r="B50" s="37">
         <v>47</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="11">
         <v>3</v>
@@ -4190,10 +4195,10 @@
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
@@ -4201,15 +4206,15 @@
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="52">
+      <c r="B52" s="37">
         <v>49</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="11">
         <v>12</v>
@@ -4222,10 +4227,10 @@
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="11">
         <v>5</v>
@@ -4233,15 +4238,15 @@
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="52">
+      <c r="B54" s="37">
         <v>51</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="11">
         <v>12</v>
@@ -4254,10 +4259,10 @@
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="11">
         <v>4</v>
@@ -4265,11 +4270,11 @@
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="52">
+      <c r="B56" s="37">
         <v>53</v>
       </c>
-      <c r="C56" s="57" t="s">
-        <v>247</v>
+      <c r="C56" s="42" t="s">
+        <v>245</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="12"/>
@@ -4282,10 +4287,10 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="11">
         <v>5</v>
@@ -4293,15 +4298,15 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="52">
+      <c r="B58" s="37">
         <v>55</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="11">
         <v>6</v>
@@ -4314,10 +4319,10 @@
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" s="11">
         <v>1</v>
@@ -4325,15 +4330,15 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="52">
+      <c r="B60" s="37">
         <v>57</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" s="11">
         <v>6</v>
@@ -4346,10 +4351,10 @@
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" s="11">
         <v>20</v>
@@ -4357,15 +4362,15 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="52">
+      <c r="B62" s="37">
         <v>59</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="11">
         <v>1</v>
@@ -4378,10 +4383,10 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="11">
         <v>1</v>
@@ -4389,15 +4394,15 @@
       <c r="G63" s="13"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="52">
+      <c r="B64" s="37">
         <v>61</v>
       </c>
-      <c r="C64" s="59"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="11">
         <v>9</v>
@@ -4408,18 +4413,18 @@
       <c r="B65" s="9">
         <v>62</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="5"/>
       <c r="E65" s="12"/>
       <c r="F65" s="11"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="52">
+      <c r="B66" s="37">
         <v>63</v>
       </c>
-      <c r="C66" s="57" t="s">
-        <v>248</v>
+      <c r="C66" s="42" t="s">
+        <v>246</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="12"/>
@@ -4432,10 +4437,10 @@
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="11">
         <v>6</v>
@@ -4443,15 +4448,15 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="52">
+      <c r="B68" s="37">
         <v>65</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="11">
         <v>7</v>
@@ -4462,23 +4467,23 @@
       <c r="B69" s="9">
         <v>66</v>
       </c>
-      <c r="C69" s="57" t="s">
-        <v>249</v>
+      <c r="C69" s="42" t="s">
+        <v>247</v>
       </c>
       <c r="D69" s="5"/>
       <c r="F69" s="11"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="52">
+      <c r="B70" s="37">
         <v>67</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" s="11">
         <v>10</v>
@@ -4491,10 +4496,10 @@
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="11">
         <v>3</v>
@@ -4502,15 +4507,15 @@
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="52">
+      <c r="B72" s="37">
         <v>69</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="11">
         <v>2</v>
@@ -4523,10 +4528,10 @@
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="11">
         <v>2</v>
@@ -4534,15 +4539,15 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="52">
+      <c r="B74" s="37">
         <v>71</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="11">
         <v>6</v>
@@ -4555,10 +4560,10 @@
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="11">
         <v>10</v>
@@ -4566,11 +4571,11 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="52">
+      <c r="B76" s="37">
         <v>73</v>
       </c>
-      <c r="C76" s="57" t="s">
-        <v>250</v>
+      <c r="C76" s="42" t="s">
+        <v>248</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="12"/>
@@ -4583,10 +4588,10 @@
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F77" s="11">
         <v>9</v>
@@ -4594,15 +4599,15 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="52">
+      <c r="B78" s="37">
         <v>75</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F78" s="11">
         <v>0</v>
@@ -4615,10 +4620,10 @@
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F79" s="11">
         <v>8</v>
@@ -4626,15 +4631,15 @@
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="52">
+      <c r="B80" s="37">
         <v>77</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F80" s="11">
         <v>6</v>
@@ -4647,10 +4652,10 @@
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" s="11">
         <v>0</v>
@@ -4658,15 +4663,15 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="52">
+      <c r="B82" s="37">
         <v>79</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" s="11">
         <v>6</v>
@@ -4679,34 +4684,34 @@
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" s="17">
         <v>10</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="52">
+      <c r="B84" s="37">
         <v>81</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" s="11">
         <v>10</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="2:7">
@@ -4715,10 +4720,10 @@
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F85" s="11">
         <v>2</v>
@@ -4726,15 +4731,15 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="52">
+      <c r="B86" s="37">
         <v>83</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F86" s="11">
         <v>3</v>
@@ -4747,10 +4752,10 @@
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" s="18">
         <v>5</v>
@@ -4758,15 +4763,15 @@
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="52">
+      <c r="B88" s="37">
         <v>85</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" s="11">
         <v>10</v>
@@ -4779,10 +4784,10 @@
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -4790,15 +4795,15 @@
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="52">
+      <c r="B90" s="37">
         <v>87</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" s="11">
         <v>3</v>
@@ -4811,10 +4816,10 @@
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" s="11">
         <v>4</v>
@@ -4822,15 +4827,15 @@
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="52">
+      <c r="B92" s="37">
         <v>89</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="11">
         <v>28</v>
@@ -4843,10 +4848,10 @@
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" s="11">
         <v>1</v>
@@ -4854,15 +4859,15 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="52">
+      <c r="B94" s="37">
         <v>91</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" s="11">
         <v>13</v>
@@ -4880,7 +4885,7 @@
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="52">
+      <c r="B96" s="37">
         <v>93</v>
       </c>
       <c r="C96" s="9"/>
@@ -4900,11 +4905,11 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="52">
+      <c r="B98" s="37">
         <v>95</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="12"/>
@@ -4917,10 +4922,10 @@
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" s="11">
         <v>9</v>
@@ -4928,15 +4933,15 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="52">
+      <c r="B100" s="37">
         <v>97</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" s="11">
         <v>1</v>
@@ -4949,10 +4954,10 @@
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" s="11">
         <v>1</v>
@@ -4960,15 +4965,15 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="52">
+      <c r="B102" s="37">
         <v>99</v>
       </c>
-      <c r="C102" s="59"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F102" s="11">
         <v>20</v>
@@ -4979,12 +4984,12 @@
       <c r="B103" s="9">
         <v>100</v>
       </c>
-      <c r="C103" s="59"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103" s="11">
         <v>2</v>
@@ -4992,15 +4997,15 @@
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="52">
+      <c r="B104" s="37">
         <v>101</v>
       </c>
-      <c r="C104" s="59"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104" s="11">
         <v>7</v>
@@ -5011,12 +5016,12 @@
       <c r="B105" s="9">
         <v>102</v>
       </c>
-      <c r="C105" s="59"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105" s="11">
         <v>1</v>
@@ -5024,15 +5029,15 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="52">
+      <c r="B106" s="37">
         <v>103</v>
       </c>
-      <c r="C106" s="59"/>
+      <c r="C106" s="44"/>
       <c r="D106" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106" s="11">
         <v>4</v>
@@ -5043,9 +5048,9 @@
       <c r="B107" s="9">
         <v>104</v>
       </c>
-      <c r="C107" s="59"/>
+      <c r="C107" s="44"/>
       <c r="D107" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="11">
@@ -5054,15 +5059,15 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="52">
+      <c r="B108" s="37">
         <v>105</v>
       </c>
-      <c r="C108" s="59"/>
+      <c r="C108" s="44"/>
       <c r="D108" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108" s="11">
         <v>5</v>
@@ -5073,18 +5078,18 @@
       <c r="B109" s="9">
         <v>106</v>
       </c>
-      <c r="C109" s="59"/>
+      <c r="C109" s="44"/>
       <c r="D109" s="5"/>
       <c r="E109" s="12"/>
       <c r="F109" s="11"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="52">
+      <c r="B110" s="37">
         <v>107</v>
       </c>
-      <c r="C110" s="57" t="s">
-        <v>251</v>
+      <c r="C110" s="42" t="s">
+        <v>249</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="12"/>
@@ -5097,10 +5102,10 @@
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F111" s="11">
         <v>10</v>
@@ -5108,15 +5113,15 @@
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="52">
+      <c r="B112" s="37">
         <v>109</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F112" s="11">
         <v>12</v>
@@ -5129,10 +5134,10 @@
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F113" s="11">
         <v>12</v>
@@ -5140,15 +5145,15 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="52">
+      <c r="B114" s="37">
         <v>111</v>
       </c>
-      <c r="C114" s="59"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114" s="11">
         <v>6</v>
@@ -5159,12 +5164,12 @@
       <c r="B115" s="9">
         <v>112</v>
       </c>
-      <c r="C115" s="59"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115" s="11">
         <v>5</v>
@@ -5172,11 +5177,11 @@
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="52">
+      <c r="B116" s="37">
         <v>113</v>
       </c>
-      <c r="C116" s="57" t="s">
-        <v>252</v>
+      <c r="C116" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="12"/>
@@ -5189,10 +5194,10 @@
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F117" s="11">
         <v>6</v>
@@ -5200,15 +5205,15 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="52">
+      <c r="B118" s="37">
         <v>115</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F118" s="11">
         <v>2</v>
@@ -5219,8 +5224,8 @@
       <c r="B119" s="9">
         <v>116</v>
       </c>
-      <c r="C119" s="57" t="s">
-        <v>253</v>
+      <c r="C119" s="42" t="s">
+        <v>251</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="12"/>
@@ -5228,15 +5233,15 @@
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="52">
+      <c r="B120" s="37">
         <v>117</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F120" s="11">
         <v>2</v>
@@ -5249,10 +5254,10 @@
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F121" s="11">
         <v>19</v>
@@ -5260,15 +5265,15 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="52">
+      <c r="B122" s="37">
         <v>119</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F122" s="9">
         <v>4</v>
@@ -5281,10 +5286,10 @@
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F123" s="11">
         <v>19</v>
@@ -5292,15 +5297,15 @@
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="52">
+      <c r="B124" s="37">
         <v>121</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" s="11">
         <v>14</v>
@@ -5313,10 +5318,10 @@
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" s="11">
         <v>20</v>
@@ -5324,15 +5329,15 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="52">
+      <c r="B126" s="37">
         <v>123</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126" s="11">
         <v>8</v>
@@ -5345,10 +5350,10 @@
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F127" s="11">
         <v>13</v>
@@ -5356,21 +5361,21 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="52">
+      <c r="B128" s="37">
         <v>125</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F128" s="18">
         <v>19</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="2:7">
@@ -5379,10 +5384,10 @@
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F129" s="11">
         <v>8</v>
@@ -5390,15 +5395,15 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="52">
+      <c r="B130" s="37">
         <v>127</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F130" s="11">
         <v>13</v>
@@ -5411,10 +5416,10 @@
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F131" s="11">
         <v>5</v>
@@ -5422,15 +5427,15 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="52">
+      <c r="B132" s="37">
         <v>129</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F132" s="11">
         <v>5</v>
@@ -5443,10 +5448,10 @@
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F133" s="11">
         <v>2</v>
@@ -5454,15 +5459,15 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="52">
+      <c r="B134" s="37">
         <v>131</v>
       </c>
-      <c r="C134" s="59"/>
+      <c r="C134" s="44"/>
       <c r="D134" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F134" s="11">
         <v>10</v>
@@ -5473,12 +5478,12 @@
       <c r="B135" s="9">
         <v>132</v>
       </c>
-      <c r="C135" s="59"/>
+      <c r="C135" s="44"/>
       <c r="D135" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F135" s="11">
         <v>10</v>
@@ -5486,15 +5491,15 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="52">
+      <c r="B136" s="37">
         <v>133</v>
       </c>
-      <c r="C136" s="59"/>
+      <c r="C136" s="44"/>
       <c r="D136" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F136" s="11">
         <v>21</v>
@@ -5505,12 +5510,12 @@
       <c r="B137" s="9">
         <v>134</v>
       </c>
-      <c r="C137" s="59"/>
+      <c r="C137" s="44"/>
       <c r="D137" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" s="11">
         <v>20</v>
@@ -5518,15 +5523,15 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="52">
+      <c r="B138" s="37">
         <v>135</v>
       </c>
-      <c r="C138" s="59"/>
+      <c r="C138" s="44"/>
       <c r="D138" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F138" s="11">
         <v>10</v>
@@ -5537,12 +5542,12 @@
       <c r="B139" s="9">
         <v>136</v>
       </c>
-      <c r="C139" s="59"/>
+      <c r="C139" s="44"/>
       <c r="D139" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F139" s="11">
         <v>20</v>
@@ -5550,15 +5555,15 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="52">
+      <c r="B140" s="37">
         <v>137</v>
       </c>
-      <c r="C140" s="59"/>
+      <c r="C140" s="44"/>
       <c r="D140" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F140" s="11">
         <v>19</v>
@@ -5569,12 +5574,12 @@
       <c r="B141" s="9">
         <v>138</v>
       </c>
-      <c r="C141" s="59"/>
+      <c r="C141" s="44"/>
       <c r="D141" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F141" s="11">
         <v>17</v>
@@ -5582,15 +5587,15 @@
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="52">
+      <c r="B142" s="37">
         <v>139</v>
       </c>
-      <c r="C142" s="59"/>
+      <c r="C142" s="44"/>
       <c r="D142" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F142" s="11">
         <v>20</v>
@@ -5601,12 +5606,12 @@
       <c r="B143" s="9">
         <v>140</v>
       </c>
-      <c r="C143" s="59"/>
+      <c r="C143" s="44"/>
       <c r="D143" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F143" s="11">
         <v>19</v>
@@ -5614,15 +5619,15 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="52">
+      <c r="B144" s="37">
         <v>141</v>
       </c>
-      <c r="C144" s="59"/>
+      <c r="C144" s="44"/>
       <c r="D144" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F144" s="11">
         <v>20</v>
@@ -5633,12 +5638,12 @@
       <c r="B145" s="9">
         <v>142</v>
       </c>
-      <c r="C145" s="59"/>
+      <c r="C145" s="44"/>
       <c r="D145" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F145" s="11">
         <v>0</v>
@@ -5646,143 +5651,143 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="52">
+      <c r="B146" s="37">
         <v>143</v>
       </c>
-      <c r="C146" s="59"/>
+      <c r="C146" s="44"/>
       <c r="D146" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F146" s="11">
         <v>250</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="9">
         <v>144</v>
       </c>
-      <c r="C147" s="59"/>
+      <c r="C147" s="44"/>
       <c r="D147" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F147" s="11">
         <v>250</v>
       </c>
-      <c r="G147" s="16"/>
+      <c r="G147" s="101"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="52">
+      <c r="B148" s="37">
         <v>145</v>
       </c>
-      <c r="C148" s="59"/>
+      <c r="C148" s="44"/>
       <c r="D148" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F148" s="11">
         <v>250</v>
       </c>
-      <c r="G148" s="16"/>
+      <c r="G148" s="101"/>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="9">
         <v>146</v>
       </c>
-      <c r="C149" s="59"/>
+      <c r="C149" s="44"/>
       <c r="D149" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F149" s="11">
         <v>300</v>
       </c>
-      <c r="G149" s="146"/>
+      <c r="G149" s="101"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="52">
+      <c r="B150" s="37">
         <v>147</v>
       </c>
-      <c r="C150" s="59"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F150" s="11">
         <v>225</v>
       </c>
-      <c r="G150" s="146"/>
+      <c r="G150" s="101"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="9">
         <v>148</v>
       </c>
-      <c r="C151" s="59"/>
+      <c r="C151" s="44"/>
       <c r="D151" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="11">
         <v>0</v>
       </c>
-      <c r="G151" s="146"/>
+      <c r="G151" s="101"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="52">
+      <c r="B152" s="37">
         <v>149</v>
       </c>
-      <c r="C152" s="59"/>
+      <c r="C152" s="44"/>
       <c r="D152" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F152" s="11">
         <v>10</v>
       </c>
-      <c r="G152" s="146"/>
+      <c r="G152" s="101"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="9">
         <v>150</v>
       </c>
-      <c r="C153" s="59"/>
+      <c r="C153" s="44"/>
       <c r="D153" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F153" s="11">
         <v>8</v>
       </c>
-      <c r="G153" s="146"/>
+      <c r="G153" s="101"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="52">
+      <c r="B154" s="37">
         <v>151</v>
       </c>
-      <c r="C154" s="59"/>
+      <c r="C154" s="44"/>
       <c r="D154" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F154" s="11">
         <v>1</v>
@@ -5793,12 +5798,12 @@
       <c r="B155" s="9">
         <v>152</v>
       </c>
-      <c r="C155" s="59"/>
+      <c r="C155" s="44"/>
       <c r="D155" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F155" s="11">
         <v>350</v>
@@ -5806,11 +5811,11 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="52">
+      <c r="B156" s="37">
         <v>153</v>
       </c>
-      <c r="C156" s="57" t="s">
-        <v>254</v>
+      <c r="C156" s="42" t="s">
+        <v>252</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="12"/>
@@ -5823,10 +5828,10 @@
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F157" s="11">
         <v>13</v>
@@ -5834,15 +5839,15 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="52">
+      <c r="B158" s="37">
         <v>155</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" s="11">
         <v>9</v>
@@ -5853,8 +5858,8 @@
       <c r="B159" s="9">
         <v>156</v>
       </c>
-      <c r="C159" s="57" t="s">
-        <v>255</v>
+      <c r="C159" s="42" t="s">
+        <v>253</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="12"/>
@@ -5862,15 +5867,15 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="52">
+      <c r="B160" s="37">
         <v>157</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F160" s="11">
         <v>7</v>
@@ -5883,10 +5888,10 @@
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F161" s="11">
         <v>4</v>
@@ -5894,11 +5899,11 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="52">
+      <c r="B162" s="37">
         <v>159</v>
       </c>
-      <c r="C162" s="57" t="s">
-        <v>256</v>
+      <c r="C162" s="42" t="s">
+        <v>254</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="12"/>
@@ -5911,10 +5916,10 @@
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F163" s="11">
         <v>2</v>
@@ -5922,15 +5927,15 @@
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="52">
+      <c r="B164" s="37">
         <v>161</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F164" s="11">
         <v>2</v>
@@ -5943,10 +5948,10 @@
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F165" s="11">
         <v>25</v>
@@ -5954,15 +5959,15 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="52">
+      <c r="B166" s="37">
         <v>163</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F166" s="11">
         <v>2</v>
@@ -5975,28 +5980,28 @@
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167" s="18">
         <v>17</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="52">
+      <c r="B168" s="37">
         <v>165</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F168" s="11">
         <v>2</v>
@@ -6009,10 +6014,10 @@
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F169" s="11">
         <v>4</v>
@@ -6020,15 +6025,15 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="52">
+      <c r="B170" s="37">
         <v>167</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F170" s="11">
         <v>3</v>
@@ -6041,10 +6046,10 @@
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F171" s="11">
         <v>5</v>
@@ -6052,15 +6057,15 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="52">
+      <c r="B172" s="37">
         <v>169</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" s="11">
         <v>10</v>
@@ -6073,10 +6078,10 @@
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F173" s="11">
         <v>5</v>
@@ -6084,15 +6089,15 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="52">
+      <c r="B174" s="37">
         <v>171</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F174" s="11">
         <v>10</v>
@@ -6105,10 +6110,10 @@
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175" s="11">
         <v>2</v>
@@ -6116,15 +6121,15 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="52">
+      <c r="B176" s="37">
         <v>173</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F176" s="11">
         <v>0</v>
@@ -6137,10 +6142,10 @@
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" s="11">
         <v>2</v>
@@ -6148,11 +6153,11 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="52">
+      <c r="B178" s="37">
         <v>175</v>
       </c>
-      <c r="C178" s="57" t="s">
-        <v>257</v>
+      <c r="C178" s="42" t="s">
+        <v>255</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="12"/>
@@ -6165,10 +6170,10 @@
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179" s="11">
         <v>2</v>
@@ -6176,15 +6181,15 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="52">
+      <c r="B180" s="37">
         <v>177</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F180" s="11">
         <v>10</v>
@@ -6197,10 +6202,10 @@
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F181" s="11">
         <v>0</v>
@@ -6208,15 +6213,15 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="52">
+      <c r="B182" s="37">
         <v>179</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F182" s="11">
         <v>4</v>
@@ -6229,10 +6234,10 @@
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F183" s="11">
         <v>3</v>
@@ -6240,7 +6245,7 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="52">
+      <c r="B184" s="37">
         <v>181</v>
       </c>
       <c r="C184" s="9"/>
@@ -6253,8 +6258,8 @@
       <c r="B185" s="9">
         <v>182</v>
       </c>
-      <c r="C185" s="57" t="s">
-        <v>258</v>
+      <c r="C185" s="42" t="s">
+        <v>256</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="12"/>
@@ -6262,15 +6267,15 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="52">
+      <c r="B186" s="37">
         <v>183</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F186" s="11">
         <v>3</v>
@@ -6283,10 +6288,10 @@
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F187" s="11">
         <v>0</v>
@@ -6294,15 +6299,15 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="52">
+      <c r="B188" s="37">
         <v>185</v>
       </c>
-      <c r="C188" s="59"/>
+      <c r="C188" s="44"/>
       <c r="D188" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F188" s="11">
         <v>0</v>
@@ -6313,12 +6318,12 @@
       <c r="B189" s="9">
         <v>186</v>
       </c>
-      <c r="C189" s="59"/>
+      <c r="C189" s="44"/>
       <c r="D189" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F189" s="11">
         <v>1</v>
@@ -6326,15 +6331,15 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="52">
+      <c r="B190" s="37">
         <v>187</v>
       </c>
-      <c r="C190" s="59"/>
+      <c r="C190" s="44"/>
       <c r="D190" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E190" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="E190" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="F190" s="11">
         <v>0</v>
@@ -6345,8 +6350,8 @@
       <c r="B191" s="9">
         <v>188</v>
       </c>
-      <c r="C191" s="57" t="s">
-        <v>259</v>
+      <c r="C191" s="42" t="s">
+        <v>257</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="12"/>
@@ -6354,15 +6359,15 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="52">
+      <c r="B192" s="37">
         <v>189</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E192" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="F192" s="11">
         <v>4</v>
@@ -6375,10 +6380,10 @@
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F193" s="11">
         <v>9</v>
@@ -6386,15 +6391,15 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="52">
+      <c r="B194" s="37">
         <v>191</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F194" s="19">
         <v>1.18</v>
@@ -6407,10 +6412,10 @@
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F195" s="11">
         <v>0</v>
@@ -6418,15 +6423,15 @@
       <c r="G195" s="13"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="52">
+      <c r="B196" s="37">
         <v>193</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F196" s="11">
         <v>2</v>
@@ -6437,8 +6442,8 @@
       <c r="B197" s="9">
         <v>194</v>
       </c>
-      <c r="C197" s="57" t="s">
-        <v>260</v>
+      <c r="C197" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="12"/>
@@ -6446,15 +6451,15 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="52">
+      <c r="B198" s="37">
         <v>195</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F198" s="11">
         <v>11</v>
@@ -6467,10 +6472,10 @@
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F199" s="11">
         <v>1</v>
@@ -6478,15 +6483,15 @@
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="52">
+      <c r="B200" s="37">
         <v>197</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F200" s="11">
         <v>92</v>
@@ -6499,10 +6504,10 @@
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F201" s="11">
         <v>2</v>
@@ -6510,15 +6515,15 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="52">
+      <c r="B202" s="37">
         <v>199</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F202" s="11">
         <v>0</v>
@@ -6531,10 +6536,10 @@
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F203" s="11">
         <v>0</v>
@@ -6542,15 +6547,15 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="52">
+      <c r="B204" s="37">
         <v>201</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F204" s="11">
         <v>2</v>
@@ -6563,10 +6568,10 @@
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E205" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F205" s="11">
         <v>860</v>
@@ -6574,21 +6579,21 @@
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="52">
+      <c r="B206" s="37">
         <v>203</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E206" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="E206" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="F206" s="11">
         <v>250</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="2:7">
@@ -6597,25 +6602,25 @@
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F207" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="52">
+      <c r="B208" s="37">
         <v>205</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F208" s="11">
         <v>2</v>
@@ -6631,21 +6636,21 @@
       <c r="F209" s="11"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="52">
+      <c r="B210" s="37">
         <v>207</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F210" s="18">
         <v>5</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="2:7">
@@ -6654,10 +6659,10 @@
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E211" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="F211" s="11">
         <v>4.4349999999999996</v>
@@ -6665,15 +6670,15 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="52">
+      <c r="B212" s="37">
         <v>209</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F212" s="11">
         <v>3</v>
@@ -6686,10 +6691,10 @@
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F213" s="11">
         <v>0</v>
@@ -6697,11 +6702,11 @@
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="52">
+      <c r="B214" s="37">
         <v>211</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="12"/>
@@ -6714,10 +6719,10 @@
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F215" s="11">
         <v>3</v>
@@ -6725,15 +6730,15 @@
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="52">
+      <c r="B216" s="37">
         <v>213</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F216" s="11">
         <v>5</v>
@@ -6746,10 +6751,10 @@
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F217" s="11">
         <v>6</v>
@@ -6757,15 +6762,15 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="52">
+      <c r="B218" s="37">
         <v>215</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F218" s="11">
         <v>4</v>
@@ -6778,10 +6783,10 @@
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F219" s="11">
         <v>4</v>
@@ -6789,11 +6794,11 @@
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="2:7">
-      <c r="B220" s="52">
+      <c r="B220" s="37">
         <v>217</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="12"/>
@@ -6806,10 +6811,10 @@
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F221" s="11">
         <v>4</v>
@@ -6817,15 +6822,15 @@
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="2:7">
-      <c r="B222" s="52">
+      <c r="B222" s="37">
         <v>219</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F222" s="11">
         <v>5</v>
@@ -6838,10 +6843,10 @@
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F223" s="20">
         <v>4</v>
@@ -6849,15 +6854,15 @@
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="2:7">
-      <c r="B224" s="52">
+      <c r="B224" s="37">
         <v>221</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F224" s="20">
         <v>1</v>
@@ -6870,10 +6875,10 @@
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F225" s="20">
         <v>5</v>
@@ -6881,25 +6886,25 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="2:10">
-      <c r="B226" s="52">
+      <c r="B226" s="37">
         <v>223</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F226" s="23">
         <v>11</v>
       </c>
       <c r="G226" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H226" s="60"/>
-      <c r="I226" s="60"/>
-      <c r="J226" s="60"/>
+        <v>33</v>
+      </c>
+      <c r="H226" s="45"/>
+      <c r="I226" s="45"/>
+      <c r="J226" s="45"/>
     </row>
     <row r="227" spans="2:10">
       <c r="B227" s="9">
@@ -6907,10 +6912,10 @@
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F227" s="20">
         <v>1</v>
@@ -6918,15 +6923,15 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="2:10">
-      <c r="B228" s="52">
+      <c r="B228" s="37">
         <v>225</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F228" s="20">
         <v>6</v>
@@ -6939,10 +6944,10 @@
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F229" s="20">
         <v>2</v>
@@ -6950,15 +6955,15 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="2:10">
-      <c r="B230" s="52">
+      <c r="B230" s="37">
         <v>227</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F230" s="20">
         <v>1</v>
@@ -6971,10 +6976,10 @@
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F231" s="20">
         <v>1</v>
@@ -6982,15 +6987,15 @@
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="2:10">
-      <c r="B232" s="52">
+      <c r="B232" s="37">
         <v>229</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F232" s="20">
         <v>5</v>
@@ -7002,13 +7007,13 @@
         <v>230</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F233" s="11">
         <v>0</v>
@@ -7016,11 +7021,11 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="2:10">
-      <c r="B234" s="52">
+      <c r="B234" s="37">
         <v>231</v>
       </c>
-      <c r="C234" s="57" t="s">
-        <v>263</v>
+      <c r="C234" s="42" t="s">
+        <v>261</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="12"/>
@@ -7033,34 +7038,34 @@
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F235" s="25">
         <v>15.5</v>
       </c>
       <c r="G235" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="2:10">
-      <c r="B236" s="52">
+      <c r="B236" s="37">
         <v>233</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F236" s="25">
         <v>11</v>
       </c>
       <c r="G236" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="2:10">
@@ -7068,7 +7073,7 @@
         <v>234</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="12"/>
@@ -7076,29 +7081,29 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="2:10">
-      <c r="B238" s="52">
+      <c r="B238" s="37">
         <v>235</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F238" s="18">
         <v>28</v>
       </c>
       <c r="G238" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="2:10">
       <c r="B239" s="9">
         <v>236</v>
       </c>
-      <c r="C239" s="58" t="s">
-        <v>123</v>
+      <c r="C239" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="12"/>
@@ -7106,15 +7111,15 @@
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="2:10">
-      <c r="B240" s="52">
+      <c r="B240" s="37">
         <v>237</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F240" s="11">
         <v>42</v>
@@ -7126,7 +7131,7 @@
         <v>238</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="12"/>
@@ -7134,22 +7139,22 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="2:10">
-      <c r="B242" s="52">
+      <c r="B242" s="37">
         <v>239</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F242" s="11">
         <v>7.5</v>
       </c>
       <c r="G242" s="13"/>
       <c r="J242" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="243" spans="2:10">
@@ -7157,7 +7162,7 @@
         <v>240</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="12"/>
@@ -7165,15 +7170,15 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="2:10">
-      <c r="B244" s="52">
+      <c r="B244" s="37">
         <v>241</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F244" s="11">
         <v>1</v>
@@ -7186,10 +7191,10 @@
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F245" s="11">
         <v>21</v>
@@ -7197,15 +7202,15 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="2:10">
-      <c r="B246" s="52">
+      <c r="B246" s="37">
         <v>243</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F246" s="11">
         <v>1</v>
@@ -7218,10 +7223,10 @@
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F247" s="11">
         <v>4</v>
@@ -7229,15 +7234,15 @@
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="2:10">
-      <c r="B248" s="52">
+      <c r="B248" s="37">
         <v>245</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F248" s="11">
         <v>144</v>
@@ -7250,10 +7255,10 @@
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F249" s="11">
         <v>12</v>
@@ -7261,15 +7266,15 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="2:10">
-      <c r="B250" s="52">
+      <c r="B250" s="37">
         <v>247</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F250" s="11">
         <v>4</v>
@@ -7283,11 +7288,11 @@
       <c r="C251" s="9"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="59"/>
+      <c r="F251" s="44"/>
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="2:10">
-      <c r="B252" s="52">
+      <c r="B252" s="37">
         <v>249</v>
       </c>
       <c r="C252" s="9"/>
@@ -7298,13 +7303,13 @@
         <v>250</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F253" s="11">
         <v>12</v>
@@ -7312,15 +7317,15 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="2:10">
-      <c r="B254" s="52">
+      <c r="B254" s="37">
         <v>251</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F254" s="11">
         <v>10</v>
@@ -7333,10 +7338,10 @@
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F255" s="11">
         <v>11</v>
@@ -7344,15 +7349,15 @@
       <c r="G255" s="13"/>
     </row>
     <row r="256" spans="2:10">
-      <c r="B256" s="52">
+      <c r="B256" s="37">
         <v>253</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F256" s="11">
         <v>9</v>
@@ -7365,10 +7370,10 @@
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F257" s="11">
         <v>10</v>
@@ -7376,15 +7381,15 @@
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="2:7">
-      <c r="B258" s="52">
+      <c r="B258" s="37">
         <v>255</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E258" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F258" s="11">
         <v>28</v>
@@ -7397,10 +7402,10 @@
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E259" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F259" s="11">
         <v>12</v>
@@ -7408,7 +7413,7 @@
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="2:7">
-      <c r="B260" s="52">
+      <c r="B260" s="37">
         <v>257</v>
       </c>
       <c r="C260" s="9"/>
@@ -7419,13 +7424,13 @@
         <v>258</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F261" s="11">
         <v>7</v>
@@ -7433,15 +7438,15 @@
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="2:7">
-      <c r="B262" s="52">
+      <c r="B262" s="37">
         <v>259</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F262" s="11">
         <v>6</v>
@@ -7456,7 +7461,7 @@
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="2:7">
-      <c r="B264" s="52">
+      <c r="B264" s="37">
         <v>261</v>
       </c>
       <c r="C264" s="9"/>
@@ -7468,10 +7473,10 @@
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E265" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="F265" s="11">
         <v>4</v>
@@ -7479,7 +7484,7 @@
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="2:7">
-      <c r="B266" s="52">
+      <c r="B266" s="37">
         <v>263</v>
       </c>
       <c r="C266" s="9"/>
@@ -7493,15 +7498,15 @@
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="2:7">
-      <c r="B268" s="52">
+      <c r="B268" s="37">
         <v>265</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F268" s="11">
         <v>0</v>
@@ -7516,7 +7521,7 @@
       <c r="G269" s="13"/>
     </row>
     <row r="270" spans="2:7">
-      <c r="B270" s="52">
+      <c r="B270" s="37">
         <v>267</v>
       </c>
       <c r="C270" s="9"/>
@@ -7530,15 +7535,15 @@
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="2:7">
-      <c r="B272" s="52">
+      <c r="B272" s="37">
         <v>269</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F272" s="11">
         <v>59</v>
@@ -7553,7 +7558,7 @@
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="2:7">
-      <c r="B274" s="52">
+      <c r="B274" s="37">
         <v>271</v>
       </c>
       <c r="C274" s="9"/>
@@ -7567,15 +7572,15 @@
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="2:7">
-      <c r="B276" s="52">
+      <c r="B276" s="37">
         <v>273</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F276" s="11">
         <v>0</v>
@@ -7588,10 +7593,10 @@
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F277" s="11">
         <v>0</v>
@@ -7599,7 +7604,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="2:7">
-      <c r="B278" s="52">
+      <c r="B278" s="37">
         <v>275</v>
       </c>
       <c r="C278" s="9"/>
@@ -7616,15 +7621,15 @@
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="2:7">
-      <c r="B280" s="52">
+      <c r="B280" s="37">
         <v>277</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F280" s="11">
         <v>35</v>
@@ -7639,7 +7644,7 @@
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="2:7">
-      <c r="B282" s="52">
+      <c r="B282" s="37">
         <v>279</v>
       </c>
       <c r="C282" s="9"/>
@@ -7654,10 +7659,10 @@
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E283" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F283" s="11">
         <v>0</v>
@@ -7665,15 +7670,15 @@
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="2:7">
-      <c r="B284" s="52">
+      <c r="B284" s="37">
         <v>281</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F284" s="11">
         <v>3</v>
@@ -7686,10 +7691,10 @@
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E285" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F285" s="11">
         <v>3</v>
@@ -7697,7 +7702,7 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="2:7">
-      <c r="B286" s="52">
+      <c r="B286" s="37">
         <v>283</v>
       </c>
       <c r="C286" s="9"/>
@@ -7709,10 +7714,10 @@
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F287" s="11">
         <v>2</v>
@@ -7720,15 +7725,15 @@
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="2:7">
-      <c r="B288" s="52">
+      <c r="B288" s="37">
         <v>285</v>
       </c>
       <c r="C288" s="9"/>
       <c r="D288" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F288" s="11">
         <v>2</v>
@@ -7741,10 +7746,10 @@
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F289" s="11">
         <v>2</v>
@@ -7752,7 +7757,7 @@
       <c r="G289" s="13"/>
     </row>
     <row r="290" spans="2:7">
-      <c r="B290" s="52">
+      <c r="B290" s="37">
         <v>287</v>
       </c>
       <c r="C290" s="9"/>
@@ -7766,15 +7771,15 @@
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="2:7">
-      <c r="B292" s="52">
+      <c r="B292" s="37">
         <v>289</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F292" s="11">
         <v>10</v>
@@ -7789,7 +7794,7 @@
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="2:7">
-      <c r="B294" s="52">
+      <c r="B294" s="37">
         <v>291</v>
       </c>
       <c r="C294" s="9"/>
@@ -7803,7 +7808,7 @@
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="2:7">
-      <c r="B296" s="52">
+      <c r="B296" s="37">
         <v>293</v>
       </c>
       <c r="C296" s="9"/>
@@ -7818,10 +7823,10 @@
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F297" s="11">
         <v>2</v>
@@ -7829,15 +7834,15 @@
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="2:7">
-      <c r="B298" s="52">
+      <c r="B298" s="37">
         <v>295</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F298" s="11">
         <v>4</v>
@@ -7850,10 +7855,10 @@
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F299" s="11">
         <v>4</v>
@@ -7861,15 +7866,15 @@
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="2:7">
-      <c r="B300" s="52">
+      <c r="B300" s="37">
         <v>297</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F300" s="11">
         <v>2.5</v>
@@ -7882,34 +7887,34 @@
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E301" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F301" s="18">
         <v>28</v>
       </c>
       <c r="G301" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="2:7">
-      <c r="B302" s="52">
+      <c r="B302" s="37">
         <v>299</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E302" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F302" s="18">
         <v>26.75</v>
       </c>
       <c r="G302" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303" spans="2:7">
@@ -7918,10 +7923,10 @@
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F303" s="11">
         <v>2.4</v>
@@ -7929,21 +7934,21 @@
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="2:7">
-      <c r="B304" s="52">
+      <c r="B304" s="37">
         <v>301</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F304" s="18">
         <v>27.75</v>
       </c>
       <c r="G304" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="305" spans="2:7">
@@ -7952,10 +7957,10 @@
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F305" s="11">
         <v>750</v>
@@ -7963,7 +7968,7 @@
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="2:7">
-      <c r="B306" s="52">
+      <c r="B306" s="37">
         <v>303</v>
       </c>
       <c r="C306" s="9"/>
@@ -7975,34 +7980,34 @@
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F307" s="11">
         <v>11.5</v>
       </c>
       <c r="G307" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="52">
+      <c r="B308" s="37">
         <v>305</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F308" s="11">
         <v>19</v>
       </c>
       <c r="G308" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="2:7">
@@ -8011,10 +8016,10 @@
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E309" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F309" s="11">
         <v>0</v>
@@ -8022,15 +8027,15 @@
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="52">
+      <c r="B310" s="37">
         <v>307</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F310" s="11">
         <v>0</v>
@@ -8043,10 +8048,10 @@
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F311" s="11">
         <v>0</v>
@@ -8054,15 +8059,15 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="52">
+      <c r="B312" s="37">
         <v>309</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F312" s="11">
         <v>0</v>
@@ -8075,10 +8080,10 @@
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F313" s="11">
         <v>650</v>
@@ -8086,15 +8091,15 @@
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="52">
+      <c r="B314" s="37">
         <v>311</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F314" s="11">
         <v>700</v>
@@ -8107,10 +8112,10 @@
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F315" s="11">
         <v>0</v>
@@ -8118,15 +8123,15 @@
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="2:7">
-      <c r="B316" s="52">
+      <c r="B316" s="37">
         <v>313</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E316" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F316" s="11">
         <v>0</v>
@@ -8139,10 +8144,10 @@
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E317" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F317" s="11">
         <v>1</v>
@@ -8150,15 +8155,15 @@
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="52">
+      <c r="B318" s="37">
         <v>315</v>
       </c>
       <c r="C318" s="9"/>
       <c r="D318" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E318" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F318" s="11">
         <v>0</v>
@@ -8171,10 +8176,10 @@
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F319" s="11">
         <v>0</v>
@@ -8182,15 +8187,15 @@
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="52">
+      <c r="B320" s="37">
         <v>317</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E320" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F320" s="11">
         <v>3</v>
@@ -8203,7 +8208,7 @@
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E321" s="30"/>
       <c r="F321" s="11">
@@ -8212,17 +8217,17 @@
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="2:7">
-      <c r="B322" s="52">
+      <c r="B322" s="37">
         <v>319</v>
       </c>
-      <c r="C322" s="105"/>
-      <c r="D322" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="E322" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="F322" s="107">
+      <c r="C322" s="86"/>
+      <c r="D322" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="E322" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F322" s="88">
         <v>1</v>
       </c>
       <c r="G322" s="13"/>
@@ -8233,18 +8238,18 @@
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E323" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F323" s="108">
+        <v>31</v>
+      </c>
+      <c r="F323" s="89">
         <v>11</v>
       </c>
       <c r="G323" s="5"/>
     </row>
     <row r="324" spans="2:7">
-      <c r="E324" s="54"/>
+      <c r="E324" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8275,354 +8280,354 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:14">
-      <c r="C4" s="66"/>
-      <c r="D4" s="136" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="128" t="s">
         <v>279</v>
       </c>
-      <c r="J4" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="77"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="3:14" ht="17.25" customHeight="1">
-      <c r="C5" s="68"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="3:14" ht="8.25" customHeight="1">
-      <c r="C6" s="68"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="3:14" ht="12" customHeight="1">
-      <c r="C7" s="68"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="3:14" ht="14.25" customHeight="1">
-      <c r="C8" s="68"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="3:14" ht="15" customHeight="1">
-      <c r="C9" s="69"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="3:14" ht="3" customHeight="1" thickBot="1">
-      <c r="C10" s="69"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" thickBot="1">
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="K11" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="77"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="62"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="3:14" ht="15.75" thickTop="1">
-      <c r="C12" s="74">
+      <c r="C12" s="59">
         <v>1</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="63">
         <v>4</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="72">
+      <c r="G12" s="57">
         <v>44208</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J12" s="78">
+        <v>274</v>
+      </c>
+      <c r="J12" s="63">
         <v>80</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="63">
         <v>75</v>
       </c>
-      <c r="L12" s="79"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="73"/>
-      <c r="D13" s="78"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="73"/>
-      <c r="D14" s="78"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="73"/>
-      <c r="D15" s="78"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="73"/>
-      <c r="D16" s="78"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="61"/>
-      <c r="D17" s="78"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="61"/>
-      <c r="D18" s="78"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="61"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="61"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="76"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="61"/>
-      <c r="D21" s="78"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="61"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="61"/>
-      <c r="D23" s="78"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C24" s="62"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="142" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="141" t="s">
-        <v>274</v>
-      </c>
-      <c r="K25" s="141"/>
+      <c r="C25" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="133" t="s">
+        <v>272</v>
+      </c>
+      <c r="K25" s="133"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="4"/>
     </row>
   </sheetData>
@@ -8642,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8659,348 +8664,348 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="K3" s="113" t="s">
-        <v>286</v>
+      <c r="G3" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickTop="1">
-      <c r="B4" s="74">
+      <c r="B4" s="59">
         <v>1</v>
       </c>
-      <c r="C4" s="102" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="96">
+      <c r="C4" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="78">
         <v>4</v>
       </c>
-      <c r="E4" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="98">
+      <c r="E4" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="80">
         <v>44208</v>
       </c>
-      <c r="G4" s="99" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="96">
+      <c r="G4" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="78">
         <v>80</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="82">
         <v>75</v>
       </c>
-      <c r="J4" s="96">
+      <c r="J4" s="78">
         <v>300</v>
       </c>
-      <c r="K4" s="114">
+      <c r="K4" s="94">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="95"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="115"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="95"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="95">
+      <c r="B6" s="77">
         <v>2</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="80">
+      <c r="C6" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="65">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H6" s="80">
+        <v>285</v>
+      </c>
+      <c r="H6" s="65">
         <v>75</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="76">
         <v>70</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="65">
         <v>210</v>
       </c>
-      <c r="K6" s="115"/>
+      <c r="K6" s="95"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="95">
+      <c r="B7" s="77">
         <v>3</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="80">
+      <c r="C7" s="44"/>
+      <c r="D7" s="65">
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>291</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="80">
+        <v>286</v>
+      </c>
+      <c r="H7" s="65">
         <v>5</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="76">
         <v>4.75</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="65">
         <v>57</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="95">
         <f>J6+J7</f>
         <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="95"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="80"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="116"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="96"/>
       <c r="M8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="95">
+      <c r="B9" s="77">
         <v>4</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="80">
+      <c r="C9" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="65">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" s="80">
+        <v>303</v>
+      </c>
+      <c r="H9" s="65">
         <v>180</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="65">
         <v>140</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="91">
         <v>560</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="M9" s="118">
+      <c r="K9" s="96"/>
+      <c r="M9" s="98">
         <v>44318</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="95">
+      <c r="B10" s="77">
         <v>5</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="80">
+      <c r="C10" s="44"/>
+      <c r="D10" s="65">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H10" s="80">
+        <v>304</v>
+      </c>
+      <c r="H10" s="65">
         <v>160</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="65">
         <v>126</v>
       </c>
       <c r="J10" s="10">
         <v>504</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="M10" s="119" t="s">
-        <v>310</v>
+      <c r="K10" s="96"/>
+      <c r="M10" s="99" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="95">
+      <c r="B11" s="77">
         <v>6</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="80">
+      <c r="C11" s="44"/>
+      <c r="D11" s="65">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H11" s="80">
+        <v>305</v>
+      </c>
+      <c r="H11" s="65">
         <v>25</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="65">
         <v>18</v>
       </c>
       <c r="J11" s="10">
         <v>36</v>
       </c>
-      <c r="K11" s="116"/>
+      <c r="K11" s="96"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="95">
+      <c r="B12" s="77">
         <v>7</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="80">
+      <c r="C12" s="44"/>
+      <c r="D12" s="65">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="120">
+        <v>31</v>
+      </c>
+      <c r="F12" s="100">
         <v>44267</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H12" s="80">
+        <v>306</v>
+      </c>
+      <c r="H12" s="65">
         <v>16</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="65">
         <v>14</v>
       </c>
       <c r="J12" s="10">
         <v>28</v>
       </c>
-      <c r="K12" s="116">
+      <c r="K12" s="96">
         <f>SUM(J9:J12)</f>
         <v>1128</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="95">
+      <c r="B13" s="77">
         <v>8</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="116"/>
+      <c r="K13" s="96"/>
       <c r="M13">
         <f>14*2</f>
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="95"/>
-      <c r="C14" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="112">
+      <c r="B14" s="77"/>
+      <c r="C14" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="92">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="120">
+        <v>31</v>
+      </c>
+      <c r="F14" s="100">
         <v>44897</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="80">
+        <v>312</v>
+      </c>
+      <c r="H14" s="65">
         <v>95</v>
       </c>
-      <c r="I14" s="112">
+      <c r="I14" s="92">
         <v>92</v>
       </c>
-      <c r="J14" s="112">
+      <c r="J14" s="92">
         <v>92</v>
       </c>
-      <c r="K14" s="115">
+      <c r="K14" s="95">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="95"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="116"/>
+      <c r="K15" s="96"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="95"/>
-      <c r="C16" s="59"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="80"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="116"/>
+      <c r="K16" s="96"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="61"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -9009,10 +9014,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="116"/>
+      <c r="K17" s="96"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="61"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -9021,10 +9026,10 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="116"/>
+      <c r="K18" s="96"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="61"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9033,10 +9038,10 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="116"/>
+      <c r="K19" s="96"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="61"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -9045,10 +9050,10 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="116"/>
+      <c r="K20" s="96"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="61"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -9057,10 +9062,10 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="116"/>
+      <c r="K21" s="96"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="61"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -9069,10 +9074,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="116"/>
+      <c r="K22" s="96"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="61"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -9081,10 +9086,10 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="116"/>
+      <c r="K23" s="96"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="61"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -9093,10 +9098,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="116"/>
+      <c r="K24" s="96"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="61"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -9105,10 +9110,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="117"/>
+      <c r="K25" s="97"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="61"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -9117,10 +9122,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="117"/>
+      <c r="K26" s="97"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="61"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -9129,10 +9134,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="117"/>
+      <c r="K27" s="97"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="61"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9141,10 +9146,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="117"/>
+      <c r="K28" s="97"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="61"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -9156,7 +9161,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="61"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -9168,7 +9173,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="61"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -9180,7 +9185,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="61"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -9192,7 +9197,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="61"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -9204,7 +9209,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="61"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -9216,7 +9221,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="61"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -9228,7 +9233,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="61"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9240,7 +9245,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="61"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -9252,7 +9257,7 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B38" s="62"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -9271,10 +9276,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9285,224 +9290,653 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="122" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="125" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124"/>
+      <c r="B3" s="139" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="116" t="s">
-        <v>318</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="109">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>125</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="109">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="109">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="109">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="109">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="109">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="109">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="109">
+      <c r="B13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
         <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="109">
-        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="109">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="109">
+      <c r="B16" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="109">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="109">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="109">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="109">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="109">
-        <v>17</v>
-      </c>
-      <c r="B21" s="126" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="109">
-        <v>18</v>
-      </c>
-      <c r="B22" s="116"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="109">
-        <v>19</v>
-      </c>
-      <c r="B23" s="116"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="109">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="109">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="109">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="109">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="109">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="109">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="109">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="109">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="109">
+      <c r="B33" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="109">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9">
         <v>30</v>
       </c>
+      <c r="B35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9">
+        <v>57</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9">
+        <v>58</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9">
+        <v>59</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="686" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="686"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="demo" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="test" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$K$48</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="465">
   <si>
     <t>gro on</t>
   </si>
@@ -114,9 +115,6 @@
     <t>pkt.</t>
   </si>
   <si>
-    <t>1 pkt. 200 gm Lose</t>
-  </si>
-  <si>
     <t>pc</t>
   </si>
   <si>
@@ -246,9 +244,6 @@
     <t>Fortune Kachhi Ghani (Pouch 1 lt.)</t>
   </si>
   <si>
-    <t>Emami Refine Oil (500gm)</t>
-  </si>
-  <si>
     <t>Emami Kachhi Ghani  (Pouch 1 lt.)</t>
   </si>
   <si>
@@ -318,9 +313,6 @@
     <t>kg.</t>
   </si>
   <si>
-    <t>Ganesh Whole Wheat Chakki Atta</t>
-  </si>
-  <si>
     <t>Ashirbad Shudh Chakki Atta</t>
   </si>
   <si>
@@ -1369,6 +1361,63 @@
   </si>
   <si>
     <t>Dally Local Sell ( Date )</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ganesh Whole Wheat Chakki Atta ( 5kg.)</t>
+  </si>
+  <si>
+    <t>Local ( rs 5 )</t>
+  </si>
+  <si>
+    <t>168 + 5</t>
+  </si>
+  <si>
+    <t>Dove Shampoo &amp; Canditioner</t>
+  </si>
+  <si>
+    <t>Bill - 80 ( 1466 )</t>
+  </si>
+  <si>
+    <t>173+1466</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Stock Ok 12/03/2021</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>Pragent</t>
+  </si>
+  <si>
+    <t>Avalavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Sheel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 pc.  12/3/2021    bill-80</t>
+  </si>
+  <si>
+    <t>1 pkt. 100 gm Lose</t>
+  </si>
+  <si>
+    <t>(-2-1 =  -3) 12/3/2021    bill-80  + local</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Room Vara ( 1300 )</t>
+  </si>
+  <si>
+    <t>1639-1300</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1541,6 +1590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +1996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2147,6 +2202,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,7 +2237,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2471,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C76" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2488,6 +2550,7 @@
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="22.28515625" customWidth="1"/>
@@ -2495,77 +2558,77 @@
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11">
-      <c r="A2" s="101" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
-    </row>
-    <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A6" s="107" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="1:12" ht="9" customHeight="1">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A6" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>8</v>
@@ -2589,15 +2652,18 @@
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>354</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="29">
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -2606,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2619,7 +2685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="29">
         <v>2</v>
       </c>
@@ -2631,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2642,7 +2708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="29">
         <v>3</v>
       </c>
@@ -2651,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>5</v>
@@ -2667,7 +2733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="29"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2680,21 +2746,21 @@
       <c r="J11" s="2"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="29">
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12" s="22">
         <v>1.5</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2707,7 +2773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="29">
         <v>4</v>
       </c>
@@ -2716,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2732,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="29">
         <v>5</v>
       </c>
@@ -2741,10 +2807,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2757,7 +2823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -2766,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2782,7 +2848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -2791,10 +2857,10 @@
         <v>1.5</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2807,7 +2873,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="29">
         <v>8</v>
       </c>
@@ -2816,10 +2882,10 @@
         <v>100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2832,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="29">
         <v>9</v>
       </c>
@@ -2841,10 +2907,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2857,7 +2923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="29"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2870,21 +2936,21 @@
       <c r="J19" s="2"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="29">
         <v>10</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C20" s="23">
         <v>250</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2897,7 +2963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="29">
         <v>11</v>
       </c>
@@ -2906,10 +2972,10 @@
         <v>50</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2922,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="29">
         <v>12</v>
       </c>
@@ -2934,7 +3000,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2947,7 +3013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="29">
         <v>13</v>
       </c>
@@ -2959,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2972,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="29">
         <v>14</v>
       </c>
@@ -2981,10 +3047,10 @@
         <v>250</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2997,7 +3063,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="29"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3010,12 +3076,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="29">
         <v>15</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C26" s="23">
         <v>1</v>
@@ -3024,7 +3090,7 @@
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3037,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="29"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22">
@@ -3047,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3060,7 +3126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="31"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -3073,12 +3139,12 @@
       <c r="J28" s="2"/>
       <c r="K28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="31">
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C29" s="24">
         <v>1</v>
@@ -3087,7 +3153,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3097,9 +3163,11 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="30"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="104" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="31">
         <v>17</v>
       </c>
@@ -3111,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3125,7 +3193,7 @@
       </c>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="31"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24">
@@ -3135,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3149,7 +3217,7 @@
       </c>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="31"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -3159,7 +3227,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3173,7 +3241,7 @@
       </c>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:12">
       <c r="A33" s="31"/>
       <c r="B33" s="2"/>
       <c r="C33" s="24"/>
@@ -3186,17 +3254,11 @@
       <c r="J33" s="2"/>
       <c r="K33" s="30"/>
       <c r="L33" s="14"/>
-      <c r="O33">
-        <v>1138</v>
-      </c>
-      <c r="P33">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="31"/>
       <c r="B34" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C34" s="24">
         <v>1</v>
@@ -3205,7 +3267,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3219,7 +3281,7 @@
       </c>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:12">
       <c r="A35" s="31"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -3232,14 +3294,11 @@
       <c r="J35" s="2"/>
       <c r="K35" s="30"/>
       <c r="L35" s="14"/>
-      <c r="O35">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="31"/>
       <c r="B36" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" s="24">
         <v>1</v>
@@ -3248,7 +3307,7 @@
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3261,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:12">
       <c r="A37" s="31"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3273,15 +3332,11 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="30"/>
-      <c r="O37">
-        <f>O33-O35</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="31"/>
       <c r="B38" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C38" s="24">
         <v>2</v>
@@ -3290,7 +3345,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3303,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:12">
       <c r="A39" s="31"/>
       <c r="B39" s="2"/>
       <c r="C39" s="26">
@@ -3313,7 +3368,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3326,7 +3381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:12">
       <c r="A40" s="31"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3339,10 +3394,10 @@
       <c r="J40" s="2"/>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:12">
       <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C41" s="26">
         <v>1</v>
@@ -3351,7 +3406,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3364,17 +3419,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:12">
       <c r="A42" s="31"/>
       <c r="B42" s="2"/>
       <c r="C42" s="26">
         <v>8</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3385,7 +3440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:12">
       <c r="A43" s="31"/>
       <c r="B43" s="2"/>
       <c r="C43" s="26">
@@ -3395,7 +3450,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3406,7 +3461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:12">
       <c r="A44" s="31"/>
       <c r="B44" s="2"/>
       <c r="C44" s="26">
@@ -3416,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3429,17 +3484,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:12">
       <c r="A45" s="31"/>
       <c r="B45" s="2"/>
       <c r="C45" s="26">
         <v>50</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3450,17 +3505,17 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:12">
       <c r="A46" s="31"/>
       <c r="B46" s="2"/>
       <c r="C46" s="26">
         <v>50</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3471,17 +3526,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:12">
       <c r="A47" s="31"/>
       <c r="B47" s="2"/>
       <c r="C47" s="26">
         <v>200</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3494,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:12">
       <c r="A48" s="82"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12">
@@ -3504,10 +3559,10 @@
         <v>11</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3544,7 +3599,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3567,7 +3622,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3590,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3613,7 +3668,7 @@
         <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3648,10 +3703,10 @@
         <v>500</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3671,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3697,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3720,7 +3775,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3772,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3813,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3836,7 +3891,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3856,10 +3911,10 @@
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3882,7 +3937,7 @@
         <v>29</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3917,10 +3972,10 @@
         <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3938,10 +3993,10 @@
         <v>100</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3964,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3984,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4035,10 +4090,10 @@
         <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="90" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4061,7 +4116,7 @@
         <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4084,7 +4139,7 @@
         <v>29</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4107,7 +4162,7 @@
         <v>29</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4170,10 +4225,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4196,7 +4251,7 @@
         <v>29</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4219,7 +4274,7 @@
         <v>29</v>
       </c>
       <c r="E83" s="91" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4244,6 +4299,10 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
+      <c r="O84">
+        <f>1639-1300</f>
+        <v>339</v>
+      </c>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="2"/>
@@ -4270,7 +4329,7 @@
         <v>29</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4290,13 +4349,13 @@
         <v>250</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E87" s="89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F87" s="89" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -4323,15 +4382,15 @@
         <v>4</v>
       </c>
       <c r="O88" s="93" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P88" s="94"/>
       <c r="Q88" s="94"/>
       <c r="R88" s="92" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="S88" s="94" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -4346,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="E89" s="89" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4371,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4386,15 +4445,18 @@
       <c r="K90" s="2">
         <v>42</v>
       </c>
+      <c r="L90" s="104" t="s">
+        <v>454</v>
+      </c>
       <c r="M90" s="42">
         <v>44472</v>
       </c>
       <c r="O90" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P90" s="95"/>
       <c r="R90" s="95" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S90" s="97">
         <v>81</v>
@@ -4416,11 +4478,11 @@
         <v>44503</v>
       </c>
       <c r="O91" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P91" s="95"/>
       <c r="R91" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="S91" s="97">
         <v>168</v>
@@ -4428,16 +4490,28 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="B92" s="42">
+        <v>44533</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="2">
+        <v>5</v>
+      </c>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="K92" s="2">
+        <v>5</v>
+      </c>
       <c r="M92" s="95"/>
       <c r="P92" s="95"/>
       <c r="R92" s="95"/>
@@ -4455,10 +4529,19 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="M93" s="95"/>
+      <c r="M93" s="102">
+        <v>44533</v>
+      </c>
+      <c r="O93" t="s">
+        <v>448</v>
+      </c>
       <c r="P93" s="95"/>
-      <c r="R93" s="95"/>
-      <c r="S93" s="97"/>
+      <c r="R93" s="95" t="s">
+        <v>449</v>
+      </c>
+      <c r="S93" s="97">
+        <v>173</v>
+      </c>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="2"/>
@@ -4473,9 +4556,16 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="M94" s="95"/>
+      <c r="O94" t="s">
+        <v>451</v>
+      </c>
       <c r="P94" s="95"/>
-      <c r="R94" s="95"/>
-      <c r="S94" s="97"/>
+      <c r="R94" s="95" t="s">
+        <v>452</v>
+      </c>
+      <c r="S94" s="97">
+        <v>1639</v>
+      </c>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="2"/>
@@ -4506,10 +4596,19 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="M96" s="95"/>
+      <c r="M96" s="102">
+        <v>44533</v>
+      </c>
+      <c r="O96" t="s">
+        <v>463</v>
+      </c>
       <c r="P96" s="95"/>
-      <c r="R96" s="95"/>
-      <c r="S96" s="97"/>
+      <c r="R96" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="S96" s="97">
+        <v>339</v>
+      </c>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="2"/>
@@ -5052,7 +5151,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="R136" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -5083,10 +5182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L336"/>
+  <dimension ref="B2:L335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5104,7 +5203,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>7</v>
@@ -5120,18 +5219,18 @@
     <row r="3" spans="2:12">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="4"/>
-      <c r="I3" s="110" t="s">
-        <v>299</v>
-      </c>
-      <c r="J3" s="110"/>
-      <c r="L3" s="110" t="s">
-        <v>448</v>
+      <c r="I3" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="101"/>
+      <c r="L3" s="101" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -5149,11 +5248,11 @@
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="I4" s="110">
+      <c r="I4" s="101">
         <v>79</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="L4" s="110"/>
+      <c r="J4" s="101"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="3">
@@ -5161,7 +5260,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -5177,7 +5276,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -5191,7 +5290,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -5205,7 +5304,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -5241,7 +5340,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -5269,7 +5368,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -5284,7 +5383,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5329,7 +5428,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -5344,7 +5443,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5485,7 +5584,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
@@ -5501,7 +5600,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -5517,7 +5616,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>11</v>
@@ -5533,7 +5632,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>11</v>
@@ -5578,7 +5677,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5606,7 +5705,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5619,7 +5718,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -5635,7 +5734,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -5650,7 +5749,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5694,7 +5793,7 @@
         <v>36</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5713,7 +5812,7 @@
         <v>29</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="G43" s="17"/>
     </row>
@@ -5723,7 +5822,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>29</v>
@@ -5738,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -5751,7 +5850,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>29</v>
@@ -5767,7 +5866,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>29</v>
@@ -5789,7 +5888,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
@@ -5808,7 +5907,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5821,10 +5920,10 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F52" s="3">
         <v>9</v>
@@ -5837,10 +5936,10 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
@@ -5853,7 +5952,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -5867,7 +5966,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -5883,7 +5982,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -5899,7 +5998,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -5915,7 +6014,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -5931,7 +6030,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -5947,7 +6046,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -5961,7 +6060,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -5977,7 +6076,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -5993,7 +6092,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -6008,7 +6107,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -6021,7 +6120,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>29</v>
@@ -6037,13 +6136,13 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2"/>
     </row>
@@ -6053,7 +6152,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>29</v>
@@ -6069,7 +6168,7 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>29</v>
@@ -6085,7 +6184,7 @@
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>29</v>
@@ -6101,7 +6200,7 @@
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>29</v>
@@ -6117,7 +6216,7 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>29</v>
@@ -6133,7 +6232,7 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -6158,7 +6257,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -6171,7 +6270,7 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -6187,7 +6286,7 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -6202,7 +6301,7 @@
         <v>66</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6215,7 +6314,7 @@
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -6231,7 +6330,7 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -6247,7 +6346,7 @@
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -6263,7 +6362,7 @@
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -6279,7 +6378,7 @@
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -6295,7 +6394,7 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -6310,7 +6409,7 @@
         <v>73</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6323,10 +6422,10 @@
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F85" s="3">
         <v>9</v>
@@ -6339,10 +6438,10 @@
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -6355,10 +6454,10 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" s="3">
         <v>8</v>
@@ -6371,10 +6470,10 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F88" s="3">
         <v>6</v>
@@ -6387,10 +6486,10 @@
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -6403,10 +6502,10 @@
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F90" s="3">
         <v>6</v>
@@ -6419,10 +6518,10 @@
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F91" s="59">
         <v>10</v>
@@ -6435,10 +6534,10 @@
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F92" s="3">
         <v>10</v>
@@ -6451,10 +6550,10 @@
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F93" s="3">
         <v>2</v>
@@ -6467,10 +6566,10 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3">
         <v>3</v>
@@ -6483,7 +6582,7 @@
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -6499,10 +6598,10 @@
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F96" s="3">
         <v>10</v>
@@ -6515,7 +6614,7 @@
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -6531,7 +6630,7 @@
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -6547,7 +6646,7 @@
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -6563,7 +6662,7 @@
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -6579,7 +6678,7 @@
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -6595,7 +6694,7 @@
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -6640,7 +6739,7 @@
         <v>95</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6653,10 +6752,10 @@
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F107" s="3">
         <v>9</v>
@@ -6669,7 +6768,7 @@
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>29</v>
@@ -6685,7 +6784,7 @@
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>29</v>
@@ -6701,7 +6800,7 @@
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -6717,7 +6816,7 @@
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -6733,7 +6832,7 @@
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -6749,7 +6848,7 @@
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -6765,7 +6864,7 @@
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -6781,7 +6880,7 @@
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="3">
@@ -6795,7 +6894,7 @@
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -6820,7 +6919,7 @@
         <v>107</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6833,7 +6932,7 @@
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>29</v>
@@ -6849,10 +6948,10 @@
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F120" s="3">
         <v>12</v>
@@ -6865,10 +6964,10 @@
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F121" s="3">
         <v>12</v>
@@ -6881,7 +6980,7 @@
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -6897,7 +6996,7 @@
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -6912,7 +7011,7 @@
         <v>113</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6925,10 +7024,10 @@
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F125" s="3">
         <v>6</v>
@@ -6941,10 +7040,10 @@
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -6956,7 +7055,7 @@
         <v>116</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6969,10 +7068,10 @@
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" s="3">
         <v>2</v>
@@ -6985,10 +7084,10 @@
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F129" s="3">
         <v>19</v>
@@ -7001,10 +7100,10 @@
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F130" s="3">
         <v>2</v>
@@ -7017,10 +7116,10 @@
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F131" s="3">
         <v>19</v>
@@ -7033,10 +7132,10 @@
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F132" s="3">
         <v>9</v>
@@ -7049,10 +7148,10 @@
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" s="3">
         <v>20</v>
@@ -7065,10 +7164,10 @@
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F134" s="3">
         <v>8</v>
@@ -7081,10 +7180,10 @@
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F135" s="3">
         <v>13</v>
@@ -7097,10 +7196,10 @@
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F136" s="17">
         <v>19</v>
@@ -7113,10 +7212,10 @@
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F137" s="3">
         <v>8</v>
@@ -7129,10 +7228,10 @@
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F138" s="3">
         <v>13</v>
@@ -7145,7 +7244,7 @@
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>29</v>
@@ -7161,13 +7260,13 @@
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F140" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2"/>
     </row>
@@ -7177,10 +7276,10 @@
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F141" s="3">
         <v>2</v>
@@ -7193,13 +7292,13 @@
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F142" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G142" s="2"/>
     </row>
@@ -7209,7 +7308,7 @@
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -7225,7 +7324,7 @@
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -7235,13 +7334,13 @@
       </c>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:8">
       <c r="B145" s="3">
         <v>134</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>29</v>
@@ -7251,13 +7350,13 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:8">
       <c r="B146" s="3">
         <v>135</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
@@ -7267,13 +7366,13 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:8">
       <c r="B147" s="3">
         <v>136</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>29</v>
@@ -7283,13 +7382,13 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:8">
       <c r="B148" s="3">
         <v>137</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>29</v>
@@ -7299,13 +7398,13 @@
       </c>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:8">
       <c r="B149" s="3">
         <v>138</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>29</v>
@@ -7315,13 +7414,13 @@
       </c>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:8">
       <c r="B150" s="3">
         <v>139</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>29</v>
@@ -7331,13 +7430,13 @@
       </c>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:8">
       <c r="B151" s="3">
         <v>140</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>29</v>
@@ -7347,11 +7446,11 @@
       </c>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:8">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>29</v>
@@ -7361,11 +7460,11 @@
       </c>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:8">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>29</v>
@@ -7375,13 +7474,13 @@
       </c>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:8">
       <c r="B154" s="3">
         <v>141</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>29</v>
@@ -7391,13 +7490,13 @@
       </c>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:8">
       <c r="B155" s="3">
         <v>142</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>29</v>
@@ -7407,85 +7506,88 @@
       </c>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:8">
       <c r="B156" s="3">
         <v>143</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F156" s="3">
         <v>200</v>
       </c>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:8">
       <c r="B157" s="3">
         <v>144</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F157" s="3">
         <v>250</v>
       </c>
       <c r="G157" s="17"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:8">
       <c r="B158" s="3">
         <v>145</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F158" s="3">
         <v>250</v>
       </c>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:8">
       <c r="B159" s="3">
         <v>146</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F159" s="3">
         <v>300</v>
       </c>
       <c r="G159" s="17"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:8">
       <c r="B160" s="3">
         <v>147</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F160" s="3">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G160" s="17"/>
+      <c r="H160" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="3">
@@ -7493,7 +7595,7 @@
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="3">
@@ -7507,7 +7609,7 @@
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>11</v>
@@ -7523,7 +7625,7 @@
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>29</v>
@@ -7539,10 +7641,10 @@
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -7555,10 +7657,10 @@
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F165" s="3">
         <v>350</v>
@@ -7570,7 +7672,7 @@
         <v>153</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -7583,10 +7685,10 @@
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F167" s="3">
         <v>13</v>
@@ -7599,10 +7701,10 @@
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F168" s="3">
         <v>9</v>
@@ -7614,7 +7716,7 @@
         <v>156</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -7627,10 +7729,10 @@
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F170" s="3">
         <v>7</v>
@@ -7643,10 +7745,10 @@
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F171" s="3">
         <v>4</v>
@@ -7658,7 +7760,7 @@
         <v>159</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7671,10 +7773,10 @@
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" s="3">
         <v>2</v>
@@ -7687,10 +7789,10 @@
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F174" s="3">
         <v>2</v>
@@ -7703,13 +7805,13 @@
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F175" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2"/>
     </row>
@@ -7719,167 +7821,167 @@
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F176" s="3">
         <v>2</v>
       </c>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:8">
       <c r="B177" s="3">
         <v>164</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F177" s="17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G177" s="17"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:8">
       <c r="B178" s="3">
         <v>165</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:8">
       <c r="B179" s="3">
         <v>166</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F179" s="3">
         <v>4</v>
       </c>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:8">
       <c r="B180" s="3">
         <v>167</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F180" s="3">
         <v>3</v>
       </c>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:8">
       <c r="B181" s="3">
         <v>168</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F181" s="3">
         <v>5</v>
       </c>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:8">
       <c r="B182" s="3">
         <v>169</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F182" s="3">
         <v>10</v>
       </c>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:8">
       <c r="B183" s="3">
         <v>170</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F183" s="3">
         <v>5</v>
       </c>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:8">
       <c r="B184" s="3">
         <v>171</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F184" s="3">
         <v>10</v>
       </c>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:8">
       <c r="B185" s="3">
         <v>172</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F185" s="3">
         <v>2</v>
       </c>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:8">
       <c r="B186" s="3">
         <v>173</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>11</v>
@@ -7889,389 +7991,394 @@
       </c>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:8">
       <c r="B187" s="3">
         <v>174</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F187" s="3">
         <v>2</v>
       </c>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:8">
       <c r="B188" s="3">
         <v>175</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="3"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:8">
       <c r="B189" s="3">
         <v>176</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F189" s="3">
         <v>2</v>
       </c>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:8">
       <c r="B190" s="3">
         <v>177</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F190" s="3">
         <v>10</v>
       </c>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:8">
       <c r="B191" s="3">
         <v>178</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F191" s="3">
         <v>0</v>
       </c>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:8">
       <c r="B192" s="3">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F192" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G192" s="2"/>
-    </row>
-    <row r="193" spans="2:7">
+      <c r="H192" s="103" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10">
       <c r="B193" s="3">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C193" s="3"/>
-      <c r="D193" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F193" s="3">
-        <v>1</v>
-      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="3"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:10">
       <c r="B194" s="3">
-        <v>181</v>
-      </c>
-      <c r="C194" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="C194" s="42" t="s">
+        <v>246</v>
+      </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="3"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:10">
       <c r="B195" s="3">
-        <v>182</v>
-      </c>
-      <c r="C195" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:10">
       <c r="B196" s="3">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F196" s="3"/>
+      <c r="F196" s="3">
+        <v>0</v>
+      </c>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:10">
       <c r="B197" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F197" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:10">
       <c r="B198" s="3">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F198" s="3">
+        <v>2</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="I198" s="105"/>
+      <c r="J198" s="105"/>
+    </row>
+    <row r="199" spans="2:10">
+      <c r="B199" s="3">
+        <v>187</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F199" s="3">
         <v>0</v>
       </c>
-      <c r="G198" s="2"/>
-    </row>
-    <row r="199" spans="2:7">
-      <c r="B199" s="3">
-        <v>186</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F199" s="3">
-        <v>3</v>
-      </c>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:10">
       <c r="B200" s="3">
-        <v>187</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F200" s="3">
-        <v>0</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C200" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="3"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:10">
       <c r="B201" s="3">
-        <v>188</v>
-      </c>
-      <c r="C201" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F201" s="3">
+        <v>3.75</v>
+      </c>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:10">
       <c r="B202" s="3">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F202" s="3">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:10">
       <c r="B203" s="3">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F203" s="3">
-        <v>9</v>
+        <v>1.18</v>
       </c>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:10">
       <c r="B204" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F204" s="3">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:10">
       <c r="B205" s="3">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F205" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:10">
       <c r="B206" s="3">
-        <v>193</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C206" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="2:10">
+      <c r="B207" s="3">
+        <v>195</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F206" s="3">
-        <v>2</v>
-      </c>
-      <c r="G206" s="2"/>
-    </row>
-    <row r="207" spans="2:7">
-      <c r="B207" s="3">
-        <v>194</v>
-      </c>
-      <c r="C207" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="3"/>
+      <c r="F207" s="3">
+        <v>11</v>
+      </c>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:10">
       <c r="B208" s="3">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="2" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F208" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F209" s="3">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="G209" s="2"/>
     </row>
     <row r="210" spans="2:7">
       <c r="B210" s="3">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F210" s="3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" spans="2:7">
       <c r="B211" s="3">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F211" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G211" s="2"/>
     </row>
     <row r="212" spans="2:7">
       <c r="B212" s="3">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>11</v>
@@ -8283,39 +8390,39 @@
     </row>
     <row r="213" spans="2:7">
       <c r="B213" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" spans="2:7">
       <c r="B214" s="3">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F214" s="3">
-        <v>2</v>
-      </c>
-      <c r="G214" s="2"/>
+        <v>750</v>
+      </c>
+      <c r="G214" s="4"/>
     </row>
     <row r="215" spans="2:7">
       <c r="B215" s="3">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="2" t="s">
@@ -8325,199 +8432,199 @@
         <v>91</v>
       </c>
       <c r="F215" s="3">
-        <v>750</v>
-      </c>
-      <c r="G215" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="G215" s="17"/>
     </row>
     <row r="216" spans="2:7">
       <c r="B216" s="3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="2" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F216" s="3">
-        <v>250</v>
-      </c>
-      <c r="G216" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="G216" s="4"/>
     </row>
     <row r="217" spans="2:7">
       <c r="B217" s="3">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C217" s="3"/>
-      <c r="D217" s="2" t="s">
-        <v>184</v>
+      <c r="D217" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G217" s="4"/>
     </row>
     <row r="218" spans="2:7">
       <c r="B218" s="3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C218" s="3"/>
-      <c r="D218" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" s="3">
-        <v>2</v>
-      </c>
+      <c r="D218" s="7"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="3"/>
       <c r="G218" s="4"/>
     </row>
     <row r="219" spans="2:7">
       <c r="B219" s="3">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="4"/>
+      <c r="D219" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F219" s="17">
+        <v>5</v>
+      </c>
+      <c r="G219" s="17"/>
     </row>
     <row r="220" spans="2:7">
       <c r="B220" s="3">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F220" s="17">
-        <v>5</v>
-      </c>
-      <c r="G220" s="17"/>
+      <c r="F220" s="3">
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="G220" s="4"/>
     </row>
     <row r="221" spans="2:7">
       <c r="B221" s="3">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="2" t="s">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F221" s="3">
-        <v>4.4349999999999996</v>
+        <v>1</v>
       </c>
       <c r="G221" s="4"/>
     </row>
     <row r="222" spans="2:7">
       <c r="B222" s="3">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F222" s="3">
-        <v>3</v>
-      </c>
-      <c r="G222" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="2:7">
       <c r="B223" s="3">
-        <v>210</v>
-      </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F223" s="3">
-        <v>0</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3"/>
       <c r="G223" s="2"/>
     </row>
     <row r="224" spans="2:7">
       <c r="B224" s="3">
-        <v>211</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="3">
+        <v>3</v>
+      </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="2:10">
       <c r="B225" s="3">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F225" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" spans="2:10">
       <c r="B226" s="3">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F226" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" spans="2:10">
       <c r="B227" s="3">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G227" s="2"/>
     </row>
     <row r="228" spans="2:10">
       <c r="B228" s="3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>11</v>
@@ -8529,186 +8636,186 @@
     </row>
     <row r="229" spans="2:10">
       <c r="B229" s="3">
-        <v>216</v>
-      </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F229" s="3">
-        <v>4</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="3"/>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="2:10">
       <c r="B230" s="3">
-        <v>217</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="3">
+        <v>4</v>
+      </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="2:10">
       <c r="B231" s="3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F231" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G231" s="2"/>
     </row>
     <row r="232" spans="2:10">
       <c r="B232" s="3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F232" s="3">
-        <v>5</v>
+      <c r="F232" s="21">
+        <v>4</v>
       </c>
       <c r="G232" s="2"/>
     </row>
     <row r="233" spans="2:10">
       <c r="B233" s="3">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="2:10">
       <c r="B234" s="3">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F234" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G234" s="2"/>
     </row>
     <row r="235" spans="2:10">
       <c r="B235" s="3">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E235" s="2" t="s">
+      <c r="D235" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F235" s="21">
-        <v>5</v>
-      </c>
-      <c r="G235" s="2"/>
+      <c r="F235" s="85">
+        <v>11</v>
+      </c>
+      <c r="G235" s="17"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
     </row>
     <row r="236" spans="2:10">
       <c r="B236" s="3">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C236" s="3"/>
-      <c r="D236" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E236" s="6" t="s">
+      <c r="D236" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F236" s="85">
-        <v>11</v>
-      </c>
-      <c r="G236" s="17"/>
-      <c r="H236" s="11"/>
-      <c r="I236" s="11"/>
-      <c r="J236" s="11"/>
+      <c r="F236" s="21">
+        <v>1</v>
+      </c>
+      <c r="G236" s="2"/>
     </row>
     <row r="237" spans="2:10">
       <c r="B237" s="3">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F237" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G237" s="2"/>
     </row>
     <row r="238" spans="2:10">
       <c r="B238" s="3">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G238" s="2"/>
     </row>
     <row r="239" spans="2:10">
       <c r="B239" s="3">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G239" s="2"/>
     </row>
     <row r="240" spans="2:10">
       <c r="B240" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>11</v>
@@ -8720,248 +8827,248 @@
     </row>
     <row r="241" spans="2:10">
       <c r="B241" s="3">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F241" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="2:10">
       <c r="B242" s="3">
-        <v>229</v>
-      </c>
-      <c r="C242" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="D242" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F242" s="21">
-        <v>5</v>
+      <c r="F242" s="3">
+        <v>0</v>
       </c>
       <c r="G242" s="2"/>
     </row>
     <row r="243" spans="2:10">
       <c r="B243" s="3">
-        <v>230</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" s="3">
-        <v>0</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C243" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="21"/>
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="2:10">
       <c r="B244" s="3">
-        <v>231</v>
-      </c>
-      <c r="C244" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F244" s="86">
+        <v>15.5</v>
+      </c>
+      <c r="G244" s="17"/>
     </row>
     <row r="245" spans="2:10">
       <c r="B245" s="3">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="2" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F245" s="86">
-        <v>15.5</v>
+        <v>500</v>
       </c>
       <c r="G245" s="17"/>
     </row>
     <row r="246" spans="2:10">
       <c r="B246" s="3">
-        <v>233</v>
-      </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F246" s="86">
-        <v>500</v>
-      </c>
-      <c r="G246" s="17"/>
+        <v>234</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="21"/>
+      <c r="G246" s="4"/>
     </row>
     <row r="247" spans="2:10">
       <c r="B247" s="3">
-        <v>234</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="21"/>
-      <c r="G247" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F247" s="17">
+        <v>28</v>
+      </c>
+      <c r="G247" s="17"/>
     </row>
     <row r="248" spans="2:10">
       <c r="B248" s="3">
-        <v>235</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F248" s="17">
-        <v>28</v>
-      </c>
-      <c r="G248" s="17"/>
+        <v>236</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
     </row>
     <row r="249" spans="2:10">
       <c r="B249" s="3">
-        <v>236</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F249" s="3">
+        <v>27</v>
+      </c>
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="2:10">
       <c r="B250" s="3">
-        <v>237</v>
-      </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F250" s="3">
-        <v>34</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="3"/>
       <c r="G250" s="2"/>
     </row>
     <row r="251" spans="2:10">
       <c r="B251" s="3">
-        <v>238</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F251" s="3">
+        <v>205</v>
+      </c>
       <c r="G251" s="2"/>
+      <c r="J251" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="252" spans="2:10">
       <c r="B252" s="3">
-        <v>239</v>
-      </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F252" s="3">
-        <v>205</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="3"/>
       <c r="G252" s="2"/>
-      <c r="J252" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="253" spans="2:10">
       <c r="B253" s="3">
-        <v>240</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" s="3">
+        <v>5</v>
+      </c>
       <c r="G253" s="2"/>
     </row>
     <row r="254" spans="2:10">
       <c r="B254" s="3">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G254" s="2"/>
     </row>
     <row r="255" spans="2:10">
       <c r="B255" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F255" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G255" s="2"/>
     </row>
     <row r="256" spans="2:10">
       <c r="B256" s="3">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F256" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G256" s="2"/>
     </row>
     <row r="257" spans="2:7">
       <c r="B257" s="3">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="2" t="s">
@@ -8971,239 +9078,233 @@
         <v>11</v>
       </c>
       <c r="F257" s="3">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="G257" s="2"/>
     </row>
     <row r="258" spans="2:7">
       <c r="B258" s="3">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="2" t="s">
-        <v>127</v>
+      <c r="D258" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G258" s="2"/>
     </row>
     <row r="259" spans="2:7">
       <c r="B259" s="3">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="2:7">
       <c r="B260" s="3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C260" s="3"/>
-      <c r="D260" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F260" s="3">
-        <v>4</v>
-      </c>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="3"/>
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="2:7">
       <c r="B261" s="3">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="3"/>
+      <c r="F261" s="2"/>
       <c r="G261" s="2"/>
     </row>
     <row r="262" spans="2:7">
       <c r="B262" s="3">
-        <v>249</v>
-      </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262" s="3">
+        <v>12</v>
+      </c>
       <c r="G262" s="2"/>
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="3">
-        <v>250</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>311</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C263" s="3"/>
       <c r="D263" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E263" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F263" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G263" s="2"/>
     </row>
     <row r="264" spans="2:7">
       <c r="B264" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E264" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G264" s="2"/>
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="3">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G265" s="2"/>
     </row>
     <row r="266" spans="2:7">
       <c r="B266" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F266" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G266" s="2"/>
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="3">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F267" s="3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G267" s="2"/>
     </row>
     <row r="268" spans="2:7">
       <c r="B268" s="3">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F268" s="3">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G268" s="2"/>
     </row>
     <row r="269" spans="2:7">
       <c r="B269" s="3">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C269" s="3"/>
-      <c r="D269" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F269" s="3">
-        <v>12</v>
-      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="2:7">
       <c r="B270" s="3">
-        <v>257</v>
-      </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F270" s="3">
+        <v>7</v>
+      </c>
       <c r="G270" s="2"/>
     </row>
     <row r="271" spans="2:7">
       <c r="B271" s="3">
-        <v>258</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>312</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C271" s="3"/>
       <c r="D271" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G271" s="2"/>
     </row>
     <row r="272" spans="2:7">
       <c r="B272" s="3">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C272" s="3"/>
-      <c r="D272" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F272" s="3">
-        <v>6</v>
-      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
       <c r="G272" s="2"/>
     </row>
     <row r="273" spans="2:7">
       <c r="B273" s="3">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="2"/>
@@ -9213,33 +9314,33 @@
     </row>
     <row r="274" spans="2:7">
       <c r="B274" s="3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C274" s="3"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
+      <c r="D274" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F274" s="3">
+        <v>4</v>
+      </c>
       <c r="G274" s="2"/>
     </row>
     <row r="275" spans="2:7">
       <c r="B275" s="3">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C275" s="3"/>
-      <c r="D275" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F275" s="3">
-        <v>4</v>
-      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
       <c r="G275" s="2"/>
     </row>
     <row r="276" spans="2:7">
       <c r="B276" s="3">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="2"/>
@@ -9249,33 +9350,33 @@
     </row>
     <row r="277" spans="2:7">
       <c r="B277" s="3">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C277" s="3"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
+      <c r="D277" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0</v>
+      </c>
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="2:7">
       <c r="B278" s="3">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C278" s="3"/>
-      <c r="D278" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F278" s="3">
-        <v>0</v>
-      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
       <c r="G278" s="2"/>
     </row>
     <row r="279" spans="2:7">
       <c r="B279" s="3">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="2"/>
@@ -9285,7 +9386,7 @@
     </row>
     <row r="280" spans="2:7">
       <c r="B280" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="2"/>
@@ -9295,33 +9396,33 @@
     </row>
     <row r="281" spans="2:7">
       <c r="B281" s="3">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C281" s="3"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
+      <c r="D281" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" s="3">
+        <v>51</v>
+      </c>
       <c r="G281" s="2"/>
     </row>
     <row r="282" spans="2:7">
       <c r="B282" s="3">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C282" s="3"/>
-      <c r="D282" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F282" s="3">
-        <v>53</v>
-      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
       <c r="G282" s="2"/>
     </row>
     <row r="283" spans="2:7">
       <c r="B283" s="3">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="2"/>
@@ -9331,7 +9432,7 @@
     </row>
     <row r="284" spans="2:7">
       <c r="B284" s="3">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="2"/>
@@ -9341,125 +9442,131 @@
     </row>
     <row r="285" spans="2:7">
       <c r="B285" s="3">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C285" s="3"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
+      <c r="D285" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="3">
+        <v>6</v>
+      </c>
       <c r="G285" s="2"/>
     </row>
     <row r="286" spans="2:7">
       <c r="B286" s="3">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F286" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G286" s="2"/>
     </row>
     <row r="287" spans="2:7">
       <c r="B287" s="3">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C287" s="3"/>
-      <c r="D287" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F287" s="3">
-        <v>0</v>
-      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="3"/>
       <c r="G287" s="2"/>
     </row>
     <row r="288" spans="2:7">
       <c r="B288" s="3">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
-      <c r="F288" s="3"/>
+      <c r="F288" s="2"/>
       <c r="G288" s="2"/>
     </row>
     <row r="289" spans="2:7">
       <c r="B289" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C289" s="3"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
+      <c r="D289" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F289" s="3">
+        <v>35</v>
+      </c>
       <c r="G289" s="2"/>
     </row>
     <row r="290" spans="2:7">
       <c r="B290" s="3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C290" s="3"/>
-      <c r="D290" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F290" s="3">
-        <v>35</v>
-      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
       <c r="G290" s="2"/>
     </row>
     <row r="291" spans="2:7">
       <c r="B291" s="3">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="3"/>
       <c r="G291" s="2"/>
     </row>
     <row r="292" spans="2:7">
       <c r="B292" s="3">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="3"/>
+      <c r="D292" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F292" s="3">
+        <v>0</v>
+      </c>
       <c r="G292" s="2"/>
     </row>
     <row r="293" spans="2:7">
       <c r="B293" s="3">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E293" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F293" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G293" s="2"/>
     </row>
     <row r="294" spans="2:7">
       <c r="B294" s="3">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E294" s="7" t="s">
         <v>11</v>
@@ -9471,37 +9578,37 @@
     </row>
     <row r="295" spans="2:7">
       <c r="B295" s="3">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C295" s="3"/>
-      <c r="D295" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F295" s="3">
-        <v>3</v>
-      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
       <c r="G295" s="2"/>
     </row>
     <row r="296" spans="2:7">
       <c r="B296" s="3">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C296" s="3"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
+      <c r="D296" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F296" s="3">
+        <v>2</v>
+      </c>
       <c r="G296" s="2"/>
     </row>
     <row r="297" spans="2:7">
       <c r="B297" s="3">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C297" s="3"/>
-      <c r="D297" s="2" t="s">
-        <v>185</v>
+      <c r="D297" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>29</v>
@@ -9513,11 +9620,11 @@
     </row>
     <row r="298" spans="2:7">
       <c r="B298" s="3">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>29</v>
@@ -9529,23 +9636,17 @@
     </row>
     <row r="299" spans="2:7">
       <c r="B299" s="3">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F299" s="3">
-        <v>2</v>
-      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
       <c r="G299" s="2"/>
     </row>
     <row r="300" spans="2:7">
       <c r="B300" s="3">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="2"/>
@@ -9555,33 +9656,33 @@
     </row>
     <row r="301" spans="2:7">
       <c r="B301" s="3">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C301" s="3"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="D301" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="3">
+        <v>10</v>
+      </c>
       <c r="G301" s="2"/>
     </row>
     <row r="302" spans="2:7">
       <c r="B302" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F302" s="3">
-        <v>10</v>
-      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
       <c r="G302" s="2"/>
     </row>
     <row r="303" spans="2:7">
       <c r="B303" s="3">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="2"/>
@@ -9591,7 +9692,7 @@
     </row>
     <row r="304" spans="2:7">
       <c r="B304" s="3">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="2"/>
@@ -9601,231 +9702,237 @@
     </row>
     <row r="305" spans="2:7">
       <c r="B305" s="3">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
+      <c r="F305" s="3"/>
       <c r="G305" s="2"/>
     </row>
     <row r="306" spans="2:7">
       <c r="B306" s="3">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C306" s="3"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="3"/>
+      <c r="D306" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F306" s="3">
+        <v>2</v>
+      </c>
       <c r="G306" s="2"/>
     </row>
     <row r="307" spans="2:7">
       <c r="B307" s="3">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F307" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G307" s="2"/>
     </row>
     <row r="308" spans="2:7">
       <c r="B308" s="3">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C308" s="3"/>
-      <c r="D308" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F308" s="3">
-        <v>4</v>
-      </c>
       <c r="G308" s="2"/>
     </row>
     <row r="309" spans="2:7">
       <c r="B309" s="3">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C309" s="3"/>
+      <c r="D309" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F309" s="3">
+        <v>2.5</v>
+      </c>
       <c r="G309" s="2"/>
     </row>
     <row r="310" spans="2:7">
       <c r="B310" s="3">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F310" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G310" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F310" s="17">
+        <v>26.5</v>
+      </c>
+      <c r="G310" s="17"/>
     </row>
     <row r="311" spans="2:7">
       <c r="B311" s="3">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F311" s="17">
-        <v>26.5</v>
+        <v>25.25</v>
       </c>
       <c r="G311" s="17"/>
     </row>
     <row r="312" spans="2:7">
       <c r="B312" s="3">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F312" s="17">
-        <v>26.25</v>
-      </c>
-      <c r="G312" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="F312" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G312" s="2"/>
     </row>
     <row r="313" spans="2:7">
       <c r="B313" s="3">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F313" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G313" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="F313" s="17">
+        <v>26.75</v>
+      </c>
+      <c r="G313" s="17"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="3">
-        <v>301</v>
-      </c>
+      <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="7" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F314" s="17">
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="G314" s="17"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="3"/>
+      <c r="B315" s="3">
+        <v>302</v>
+      </c>
       <c r="C315" s="3"/>
       <c r="D315" s="7" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F315" s="17">
-        <v>0</v>
-      </c>
-      <c r="G315" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="F315" s="3">
+        <v>740</v>
+      </c>
+      <c r="G315" s="2"/>
     </row>
     <row r="316" spans="2:7">
       <c r="B316" s="3">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="7" t="s">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F316" s="3">
-        <v>740</v>
+        <v>11</v>
+      </c>
+      <c r="F316" s="17">
+        <v>0</v>
       </c>
       <c r="G316" s="2"/>
     </row>
     <row r="317" spans="2:7">
       <c r="B317" s="3">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="7" t="s">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F317" s="17">
-        <v>0</v>
-      </c>
-      <c r="G317" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="F317" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G317" s="17"/>
     </row>
     <row r="318" spans="2:7">
       <c r="B318" s="3">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E318" s="7" t="s">
-        <v>97</v>
+        <v>202</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F318" s="3">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="G318" s="17"/>
     </row>
     <row r="319" spans="2:7">
       <c r="B319" s="3">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F319" s="3">
-        <v>19</v>
-      </c>
-      <c r="G319" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="G319" s="2"/>
     </row>
     <row r="320" spans="2:7">
       <c r="B320" s="3">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F320" s="3">
         <v>0</v>
@@ -9834,14 +9941,14 @@
     </row>
     <row r="321" spans="2:7">
       <c r="B321" s="3">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F321" s="3">
         <v>0</v>
@@ -9850,14 +9957,14 @@
     </row>
     <row r="322" spans="2:7">
       <c r="B322" s="3">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F322" s="3">
         <v>0</v>
@@ -9866,59 +9973,59 @@
     </row>
     <row r="323" spans="2:7">
       <c r="B323" s="3">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C323" s="3"/>
-      <c r="D323" s="7" t="s">
-        <v>209</v>
+      <c r="D323" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F323" s="3">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G323" s="2"/>
     </row>
     <row r="324" spans="2:7">
       <c r="B324" s="3">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F324" s="3">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="G324" s="2"/>
     </row>
     <row r="325" spans="2:7">
       <c r="B325" s="3">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E325" s="7" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F325" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G325" s="2"/>
     </row>
     <row r="326" spans="2:7">
       <c r="B326" s="3">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C326" s="3"/>
-      <c r="D326" s="8" t="s">
-        <v>212</v>
+      <c r="D326" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E326" s="7" t="s">
         <v>29</v>
@@ -9930,46 +10037,46 @@
     </row>
     <row r="327" spans="2:7">
       <c r="B327" s="3">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C327" s="3"/>
-      <c r="D327" s="2" t="s">
-        <v>213</v>
+      <c r="D327" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="E327" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F327" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="2"/>
     </row>
     <row r="328" spans="2:7">
       <c r="B328" s="3">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F328" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328" s="2"/>
     </row>
     <row r="329" spans="2:7">
       <c r="B329" s="3">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F329" s="3">
         <v>0</v>
@@ -9978,108 +10085,93 @@
     </row>
     <row r="330" spans="2:7">
       <c r="B330" s="3">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="7" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="E330" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F330" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G330" s="2"/>
     </row>
     <row r="331" spans="2:7">
       <c r="B331" s="3">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E331" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D331" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E331" s="7"/>
       <c r="F331" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G331" s="2"/>
     </row>
     <row r="332" spans="2:7">
       <c r="B332" s="3">
-        <v>318</v>
-      </c>
-      <c r="C332" s="3"/>
+        <v>319</v>
+      </c>
+      <c r="C332" s="2"/>
       <c r="D332" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E332" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F332" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332" s="2"/>
     </row>
     <row r="333" spans="2:7">
       <c r="B333" s="3">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E333" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F333" s="3">
-        <v>1</v>
+      <c r="F333" s="13">
+        <v>11</v>
       </c>
       <c r="G333" s="2"/>
     </row>
     <row r="334" spans="2:7">
       <c r="B334" s="3">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C334" s="2"/>
-      <c r="D334" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E334" s="7" t="s">
-        <v>29</v>
+      <c r="D334" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F334" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G334" s="2"/>
     </row>
     <row r="335" spans="2:7">
-      <c r="B335" s="3">
-        <v>321</v>
-      </c>
+      <c r="B335" s="2"/>
       <c r="C335" s="2"/>
-      <c r="D335" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F335" s="13">
-        <v>0</v>
-      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
       <c r="G335" s="2"/>
-    </row>
-    <row r="336" spans="2:7">
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10087,8 +10179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J43"/>
+    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10111,28 +10203,28 @@
         <v>4</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>266</v>
-      </c>
       <c r="I3" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -10140,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -10152,7 +10244,7 @@
         <v>44208</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H4" s="3">
         <v>80</v>
@@ -10184,7 +10276,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -10194,7 +10286,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H6" s="3">
         <v>75</v>
@@ -10219,10 +10311,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H7" s="3">
         <v>5</v>
@@ -10250,7 +10342,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
       <c r="M8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -10258,7 +10350,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
@@ -10268,7 +10360,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H9" s="3">
         <v>180</v>
@@ -10297,7 +10389,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H10" s="3">
         <v>160</v>
@@ -10310,7 +10402,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -10325,10 +10417,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H11" s="3">
         <v>25</v>
@@ -10356,7 +10448,7 @@
         <v>44267</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H12" s="3">
         <v>16</v>
@@ -10393,7 +10485,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -10405,7 +10497,7 @@
         <v>44897</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H14" s="3">
         <v>95</v>
@@ -10461,7 +10553,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H17" s="2">
         <v>42</v>
@@ -10483,11 +10575,11 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H18" s="2">
         <v>35</v>
@@ -10513,7 +10605,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H19" s="2">
         <v>199</v>
@@ -10539,7 +10631,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H20" s="2">
         <v>94</v>
@@ -10595,7 +10687,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="88">
@@ -10605,7 +10697,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -10647,11 +10739,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H26" s="2">
         <v>160</v>
@@ -10663,7 +10755,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -10675,11 +10767,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="88">
@@ -10703,7 +10795,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H28" s="2">
         <v>102</v>
@@ -10729,7 +10821,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H29" s="2">
         <v>134</v>
@@ -10755,7 +10847,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H30" s="2">
         <v>15</v>
@@ -10781,7 +10873,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H31" s="2">
         <v>95</v>
@@ -10807,7 +10899,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H32" s="2">
         <v>97</v>
@@ -10833,7 +10925,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H33" s="2">
         <v>22</v>
@@ -10855,11 +10947,11 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="89" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H34" s="2">
         <v>14</v>
@@ -10885,7 +10977,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H35" s="2">
         <v>37</v>
@@ -10911,7 +11003,7 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H36" s="2">
         <v>50</v>
@@ -10924,10 +11016,10 @@
       </c>
       <c r="K36" s="2"/>
       <c r="M36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="2:14">
@@ -10943,7 +11035,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H37" s="2">
         <v>15</v>
@@ -10973,7 +11065,7 @@
         <v>9167</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="2:14">
@@ -10987,11 +11079,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="88">
@@ -11013,11 +11105,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="88">
@@ -11039,7 +11131,7 @@
         <v>1580</v>
       </c>
       <c r="M41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -11428,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -11444,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11454,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -11472,7 +11564,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -11482,7 +11574,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -11492,10 +11584,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -11504,7 +11596,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -11512,7 +11604,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11522,7 +11614,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -11532,7 +11624,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11542,7 +11634,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11552,7 +11644,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11572,7 +11664,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11582,7 +11674,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -11592,7 +11684,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11602,7 +11694,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11612,7 +11704,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -11622,7 +11714,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11632,7 +11724,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11642,7 +11734,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11653,7 +11745,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -11662,7 +11754,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -11680,7 +11772,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -11698,7 +11790,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -11716,7 +11808,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11734,7 +11826,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -11744,7 +11836,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -11754,7 +11846,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -11764,7 +11856,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -11774,7 +11866,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -11784,7 +11876,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -11794,7 +11886,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -11804,7 +11896,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -11814,7 +11906,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -11832,7 +11924,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -11842,7 +11934,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -11852,7 +11944,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -11862,7 +11954,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -11872,7 +11964,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -11882,7 +11974,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -11892,7 +11984,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -11902,7 +11994,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -11920,7 +12012,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -11930,7 +12022,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -11940,7 +12032,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -11950,7 +12042,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -12067,7 +12159,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="74"/>
       <c r="B2" s="75" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -12177,7 +12269,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="62"/>
       <c r="B10" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
@@ -12234,7 +12326,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="62"/>
       <c r="B14" s="42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -12363,7 +12455,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="62"/>
       <c r="B23" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
@@ -12390,7 +12482,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="62"/>
       <c r="B25" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
@@ -12432,7 +12524,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="62"/>
       <c r="B28" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
@@ -12474,7 +12566,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="62"/>
       <c r="B31" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
@@ -12516,7 +12608,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="62"/>
       <c r="B34" s="42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
@@ -12558,7 +12650,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="62"/>
       <c r="B37" s="42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
@@ -12720,7 +12812,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="62"/>
       <c r="B48" s="42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2"/>
@@ -12837,7 +12929,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="62"/>
       <c r="B56" s="42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
@@ -12879,7 +12971,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="62"/>
       <c r="B59" s="42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2"/>
@@ -12981,7 +13073,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="62"/>
       <c r="B66" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2"/>
@@ -13142,7 +13234,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="62" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B77" s="42"/>
       <c r="C77" s="3"/>
@@ -13200,7 +13292,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="62"/>
       <c r="B81" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="2"/>
@@ -13257,7 +13349,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="62"/>
       <c r="B85" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="2"/>
@@ -13299,7 +13391,7 @@
     <row r="88" spans="1:8">
       <c r="A88" s="62"/>
       <c r="B88" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="2"/>
@@ -13491,7 +13583,7 @@
     <row r="101" spans="1:8">
       <c r="A101" s="62"/>
       <c r="B101" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="2"/>
@@ -13533,7 +13625,7 @@
     <row r="104" spans="1:8">
       <c r="A104" s="62"/>
       <c r="B104" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="2"/>
@@ -13575,7 +13667,7 @@
     <row r="107" spans="1:8">
       <c r="A107" s="62"/>
       <c r="B107" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
@@ -13767,7 +13859,7 @@
     <row r="120" spans="1:8">
       <c r="A120" s="62"/>
       <c r="B120" s="42" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
@@ -13806,7 +13898,7 @@
     <row r="123" spans="1:8">
       <c r="A123" s="62"/>
       <c r="B123" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="2"/>
@@ -13890,7 +13982,7 @@
     <row r="129" spans="1:8">
       <c r="A129" s="62"/>
       <c r="B129" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="2"/>
@@ -13932,7 +14024,7 @@
     <row r="132" spans="1:8">
       <c r="A132" s="62"/>
       <c r="B132" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="2"/>
@@ -14016,7 +14108,7 @@
     <row r="138" spans="1:8">
       <c r="A138" s="62"/>
       <c r="B138" s="42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="2"/>
@@ -14238,7 +14330,7 @@
     <row r="153" spans="1:8">
       <c r="A153" s="62"/>
       <c r="B153" s="42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="2"/>
@@ -14528,7 +14620,7 @@
     <row r="173" spans="1:8">
       <c r="A173" s="62"/>
       <c r="B173" s="42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="2"/>
@@ -14543,7 +14635,7 @@
         <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="2"/>
@@ -14558,7 +14650,7 @@
         <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="2"/>
@@ -14570,7 +14662,7 @@
     <row r="176" spans="1:8">
       <c r="A176" s="62"/>
       <c r="B176" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="2"/>
@@ -14585,7 +14677,7 @@
         <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="2"/>
@@ -14597,7 +14689,7 @@
     <row r="178" spans="1:8">
       <c r="A178" s="62"/>
       <c r="B178" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="2"/>
@@ -14612,7 +14704,7 @@
         <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="2"/>
@@ -14627,7 +14719,7 @@
         <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="2"/>
@@ -14642,7 +14734,7 @@
         <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="2"/>
@@ -14670,7 +14762,7 @@
         <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="2"/>
@@ -14685,7 +14777,7 @@
         <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="2"/>
@@ -14700,7 +14792,7 @@
         <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="2"/>
@@ -14715,7 +14807,7 @@
         <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="2"/>
@@ -14730,7 +14822,7 @@
         <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="2"/>
@@ -14745,7 +14837,7 @@
         <v>151</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="2"/>
@@ -14760,7 +14852,7 @@
         <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="2"/>
@@ -14775,7 +14867,7 @@
         <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="2"/>
@@ -14790,7 +14882,7 @@
         <v>154</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="2"/>
@@ -14805,7 +14897,7 @@
         <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="2"/>
@@ -14820,7 +14912,7 @@
         <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="2"/>
@@ -14835,7 +14927,7 @@
         <v>157</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="2"/>
@@ -14850,7 +14942,7 @@
         <v>158</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="2"/>
@@ -14874,7 +14966,7 @@
         <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="2"/>
@@ -14888,7 +14980,7 @@
         <v>160</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="2"/>
@@ -14902,7 +14994,7 @@
         <v>161</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="2"/>
@@ -14916,7 +15008,7 @@
         <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="2"/>
@@ -14930,7 +15022,7 @@
         <v>163</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="2"/>
@@ -14944,7 +15036,7 @@
         <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="2"/>
@@ -14958,7 +15050,7 @@
         <v>165</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="2"/>
@@ -14970,7 +15062,7 @@
     <row r="204" spans="1:8">
       <c r="A204" s="62"/>
       <c r="B204" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="2"/>
@@ -14984,7 +15076,7 @@
         <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="2"/>
@@ -14998,7 +15090,7 @@
         <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="2"/>
@@ -15012,7 +15104,7 @@
         <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="2"/>
@@ -15024,7 +15116,7 @@
     <row r="208" spans="1:8">
       <c r="A208" s="62"/>
       <c r="B208" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="2"/>
@@ -15048,7 +15140,7 @@
         <v>169</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="2"/>
@@ -15072,7 +15164,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="2"/>
@@ -15096,7 +15188,7 @@
         <v>171</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="2"/>
@@ -15120,7 +15212,7 @@
         <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="2"/>
@@ -15134,7 +15226,7 @@
         <v>173</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="2"/>
@@ -15464,7 +15556,7 @@
         <v>196</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="2"/>
@@ -16026,7 +16118,7 @@
         <v>241</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="7"/>
@@ -16040,7 +16132,7 @@
         <v>242</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="7"/>
@@ -16179,4 +16271,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:M19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13">
+      <c r="F4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>168</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="91">
+        <v>2</v>
+      </c>
+      <c r="H5" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Sale_Entry.xlsx
+++ b/Daily_Sale_Entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="686" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="686"/>
   </bookViews>
   <sheets>
     <sheet name="Dally Sheles" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dally Sheles'!$A$2:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Stock!$A$1:$G$336</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="507">
   <si>
     <t>gro on</t>
   </si>
@@ -625,9 +626,6 @@
     <t>Loose Refine Oil</t>
   </si>
   <si>
-    <t>Tin</t>
-  </si>
-  <si>
     <t>Nafish Rice</t>
   </si>
   <si>
@@ -1417,13 +1415,136 @@
     <t>1639-1300</t>
   </si>
   <si>
-    <t>13/03/2021</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 pc.  12/3/2021    bill-80</t>
   </si>
   <si>
     <t>(-3-1 =  -4) 12/3/2021    bill-80  + local</t>
+  </si>
+  <si>
+    <t>Soma Juri Vaja ( 250 gm. 500 pkt./50% )</t>
+  </si>
+  <si>
+    <t>14/03/2021</t>
+  </si>
+  <si>
+    <t>Bisk Farm Googly ( 200 gm. )</t>
+  </si>
+  <si>
+    <t>Kacha Badam ( 100 gm. )</t>
+  </si>
+  <si>
+    <t>Emami Healthy Testy Masterd oil(500gm)</t>
+  </si>
+  <si>
+    <t>339-43</t>
+  </si>
+  <si>
+    <t>Kismis</t>
+  </si>
+  <si>
+    <t>Jaitry ( Rs 5 )</t>
+  </si>
+  <si>
+    <t>Sha Morich ( Rs 5 )</t>
+  </si>
+  <si>
+    <t>Jia Fol ( Rs .5 )</t>
+  </si>
+  <si>
+    <t>Suppratvat Dattu ( + 2000 )</t>
+  </si>
+  <si>
+    <t>296 + 2000</t>
+  </si>
+  <si>
+    <t>2296-2250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by  Sathi Refine ( -2250 )</t>
+  </si>
+  <si>
+    <t>Bill 82 Rs ( +2300 )</t>
+  </si>
+  <si>
+    <t>46+2300</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Sathi Refinr Oil ( 15 Kg. )</t>
+  </si>
+  <si>
+    <t>16/03/2021</t>
+  </si>
+  <si>
+    <t>3 pkt.</t>
+  </si>
+  <si>
+    <t>Sathi Refine Oil ( 15 lt. )</t>
+  </si>
+  <si>
+    <t>Local Shell Kakama ( + 98 )</t>
+  </si>
+  <si>
+    <t>2346 + 98</t>
+  </si>
+  <si>
+    <t>Shibnath ( -2000 )</t>
+  </si>
+  <si>
+    <t>2444-2000</t>
+  </si>
+  <si>
+    <t>17/03/2021</t>
+  </si>
+  <si>
+    <t>R.K Gota Gorm Masala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganesh Whole Chakki Atta ( 5 kg. ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Ganesh Atta ( 5 kg. )</t>
+  </si>
+  <si>
+    <t>Raja Chanachur ( 165 gm. )</t>
+  </si>
+  <si>
+    <t>Kissan Tomato Ketchup ( 130 gm . )</t>
+  </si>
+  <si>
+    <t>stock 16 th compleate</t>
+  </si>
+  <si>
+    <t>urche = 160</t>
+  </si>
+  <si>
+    <t>444-160</t>
+  </si>
+  <si>
+    <t>local seel = 20</t>
+  </si>
+  <si>
+    <t>284+20</t>
+  </si>
+  <si>
+    <t>local  seel = 180</t>
+  </si>
+  <si>
+    <t>304+180</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>local seel = 144</t>
+  </si>
+  <si>
+    <t>Local seel =  76</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2011,11 +2132,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2229,6 +2359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2256,6 +2387,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:AH137"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" topLeftCell="Q94" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="AC118" sqref="AC118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2575,77 +2707,83 @@
     <col min="15" max="15" width="22.28515625" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="0.42578125" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" customWidth="1"/>
+    <col min="30" max="30" width="0.28515625" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:12" ht="9" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:12" hidden="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A6" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="A6" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="26" t="s">
@@ -2655,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>8</v>
@@ -2671,10 +2809,10 @@
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2682,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
@@ -2691,7 +2829,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2716,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2770,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="21">
         <v>1.5</v>
@@ -2779,7 +2917,7 @@
         <v>95</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2829,7 +2967,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2854,7 +2992,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2879,7 +3017,7 @@
         <v>95</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2960,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="22">
         <v>250</v>
@@ -3019,7 +3157,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3069,7 +3207,7 @@
         <v>89</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3100,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="22">
         <v>1</v>
@@ -3109,7 +3247,7 @@
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3132,7 +3270,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3163,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="23">
         <v>1</v>
@@ -3172,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3183,7 +3321,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="29"/>
       <c r="M29" s="103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3198,7 +3336,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3246,7 +3384,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3277,7 +3415,7 @@
     <row r="34" spans="1:12">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="23">
         <v>1</v>
@@ -3286,7 +3424,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3317,7 +3455,7 @@
     <row r="36" spans="1:12">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="23">
         <v>1</v>
@@ -3326,7 +3464,7 @@
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3355,7 +3493,7 @@
     <row r="38" spans="1:12">
       <c r="A38" s="30"/>
       <c r="B38" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" s="23">
         <v>2</v>
@@ -3364,7 +3502,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3416,7 +3554,7 @@
     <row r="41" spans="1:12">
       <c r="A41" s="30"/>
       <c r="B41" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" s="25">
         <v>1</v>
@@ -3425,7 +3563,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3448,7 +3586,7 @@
         <v>89</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3469,7 +3607,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3490,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3555,7 +3693,7 @@
         <v>89</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3578,10 +3716,10 @@
         <v>11</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3618,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3641,7 +3779,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3664,7 +3802,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3687,7 +3825,7 @@
         <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3725,7 +3863,7 @@
         <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3794,7 +3932,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3910,7 +4048,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3933,7 +4071,7 @@
         <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3956,7 +4094,7 @@
         <v>29</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3994,7 +4132,7 @@
         <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4092,7 +4230,9 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -4112,7 +4252,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4135,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4158,7 +4298,7 @@
         <v>29</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4181,7 +4321,7 @@
         <v>29</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4235,7 +4375,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:33">
       <c r="A81" s="2"/>
       <c r="B81" s="41">
         <v>44442</v>
@@ -4260,7 +4400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:33">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2">
@@ -4270,7 +4410,7 @@
         <v>29</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4283,7 +4423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:33">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2">
@@ -4293,7 +4433,7 @@
         <v>29</v>
       </c>
       <c r="E83" s="90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4306,7 +4446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:33">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4318,12 +4458,8 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="O84">
-        <f>1639-1300</f>
-        <v>339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4336,7 +4472,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:33">
       <c r="A86" s="2"/>
       <c r="B86" s="41">
         <v>44472</v>
@@ -4348,7 +4484,7 @@
         <v>29</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4361,7 +4497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" thickBot="1">
+    <row r="87" spans="1:33">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3">
@@ -4386,7 +4522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" thickBot="1">
+    <row r="88" spans="1:33">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4397,22 +4533,8 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="M88" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="O88" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="91" t="s">
-        <v>428</v>
-      </c>
-      <c r="S88" s="93" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" s="2"/>
       <c r="B89" s="41">
         <v>44503</v>
@@ -4424,7 +4546,7 @@
         <v>11</v>
       </c>
       <c r="E89" s="88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4436,13 +4558,8 @@
       <c r="K89" s="2">
         <v>45</v>
       </c>
-      <c r="P89" s="97"/>
-      <c r="R89" s="97"/>
-      <c r="S89" s="95">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2">
@@ -4464,24 +4581,9 @@
       <c r="K90" s="2">
         <v>42</v>
       </c>
-      <c r="L90" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="M90" s="41">
-        <v>44472</v>
-      </c>
-      <c r="O90" t="s">
-        <v>430</v>
-      </c>
-      <c r="P90" s="94"/>
-      <c r="R90" s="94" t="s">
-        <v>431</v>
-      </c>
-      <c r="S90" s="96">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="L90" s="103"/>
+    </row>
+    <row r="91" spans="1:33" ht="15.75" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4493,21 +4595,8 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="M91" s="41">
-        <v>44503</v>
-      </c>
-      <c r="O91" t="s">
-        <v>433</v>
-      </c>
-      <c r="P91" s="94"/>
-      <c r="R91" s="94" t="s">
-        <v>434</v>
-      </c>
-      <c r="S91" s="96">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+    </row>
+    <row r="92" spans="1:33" ht="15.75" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="41">
         <v>44533</v>
@@ -4519,7 +4608,7 @@
         <v>29</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -4531,12 +4620,22 @@
       <c r="K92" s="2">
         <v>5</v>
       </c>
-      <c r="M92" s="94"/>
-      <c r="P92" s="94"/>
-      <c r="R92" s="94"/>
-      <c r="S92" s="96"/>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="AA92" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC92" s="92" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD92" s="93"/>
+      <c r="AE92" s="93"/>
+      <c r="AF92" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG92" s="93" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4548,21 +4647,13 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="M93" s="101">
-        <v>44533</v>
-      </c>
-      <c r="O93" t="s">
-        <v>448</v>
-      </c>
-      <c r="P93" s="94"/>
-      <c r="R93" s="94" t="s">
-        <v>449</v>
-      </c>
-      <c r="S93" s="96">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="AD93" s="97"/>
+      <c r="AF93" s="97"/>
+      <c r="AG93" s="95">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4574,62 +4665,82 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="M94" s="94"/>
-      <c r="O94" t="s">
-        <v>451</v>
-      </c>
-      <c r="P94" s="94"/>
-      <c r="R94" s="94" t="s">
-        <v>452</v>
-      </c>
-      <c r="S94" s="96">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="AA94" s="41">
+        <v>44472</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD94" s="94"/>
+      <c r="AF94" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG94" s="96">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+      <c r="I95" s="2">
+        <v>22</v>
+      </c>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="M95" s="94"/>
-      <c r="P95" s="94"/>
-      <c r="R95" s="94"/>
-      <c r="S95" s="96"/>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="K95" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA95" s="41">
+        <v>44503</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD95" s="94"/>
+      <c r="AF95" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG95" s="96">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+      <c r="I96" s="2">
+        <v>13</v>
+      </c>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="M96" s="101">
-        <v>44533</v>
-      </c>
-      <c r="O96" t="s">
-        <v>462</v>
-      </c>
-      <c r="P96" s="94"/>
-      <c r="R96" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="S96" s="96">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="K96" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA96" s="94"/>
+      <c r="AD96" s="94"/>
+      <c r="AF96" s="94"/>
+      <c r="AG96" s="96"/>
+    </row>
+    <row r="97" spans="1:34">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4641,33 +4752,60 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="M97" s="94"/>
-      <c r="P97" s="94"/>
-      <c r="R97" s="94"/>
-      <c r="S97" s="96"/>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="AA97" s="101">
+        <v>44533</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD97" s="94"/>
+      <c r="AF97" s="94" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG97" s="96">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C98" s="2">
+        <v>250</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98" s="88" t="s">
+        <v>79</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="I98" s="2">
+        <v>35</v>
+      </c>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="M98" s="94" t="s">
-        <v>464</v>
-      </c>
-      <c r="P98" s="94"/>
-      <c r="R98" s="94">
-        <v>339</v>
-      </c>
-      <c r="S98" s="96"/>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="K98" s="2">
+        <v>33</v>
+      </c>
+      <c r="L98" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA98" s="94"/>
+      <c r="AC98" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD98" s="94"/>
+      <c r="AF98" s="94" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG98" s="96">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4679,99 +4817,207 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="M99" s="94"/>
-      <c r="P99" s="94"/>
-      <c r="R99" s="94"/>
-      <c r="S99" s="96"/>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="AA99" s="94"/>
+      <c r="AD99" s="94"/>
+      <c r="AF99" s="94"/>
+      <c r="AG99" s="96"/>
+    </row>
+    <row r="100" spans="1:34">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
+      <c r="I100" s="2">
+        <v>10</v>
+      </c>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="M100" s="94"/>
-      <c r="P100" s="94"/>
-      <c r="R100" s="94"/>
-      <c r="S100" s="96"/>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="K100" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA100" s="101">
+        <v>44533</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD100" s="94"/>
+      <c r="AF100" s="96" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG100" s="96">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="88" t="s">
+        <v>131</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="I101" s="2">
+        <v>5</v>
+      </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="M101" s="94"/>
-      <c r="P101" s="94"/>
-      <c r="Q101" s="94"/>
-      <c r="R101" s="94"/>
-      <c r="S101" s="96"/>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="K101" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="94"/>
+      <c r="AD101" s="94"/>
+      <c r="AF101" s="94"/>
+      <c r="AG101" s="96"/>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="88" t="s">
+        <v>152</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+      <c r="I102" s="2">
+        <v>5</v>
+      </c>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="K102" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD102" s="94"/>
+      <c r="AF102" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG102" s="96">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+      <c r="I103" s="2">
+        <v>420</v>
+      </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="K103" s="2">
+        <v>360</v>
+      </c>
+      <c r="AA103" s="94"/>
+      <c r="AD103" s="94"/>
+      <c r="AF103" s="94"/>
+      <c r="AG103" s="96"/>
+    </row>
+    <row r="104" spans="1:34">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="I104" s="2">
+        <v>25</v>
+      </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="K104" s="2">
+        <v>25</v>
+      </c>
+      <c r="O104">
+        <f>36+25+15</f>
+        <v>76</v>
+      </c>
+      <c r="AA104" s="94"/>
+      <c r="AD104" s="94"/>
+      <c r="AF104" s="107"/>
+      <c r="AG104" s="107"/>
+      <c r="AH104" s="107"/>
+    </row>
+    <row r="105" spans="1:34">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>496</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="I105" s="2">
+        <v>15</v>
+      </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="K105" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA105" s="94" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC105" s="107" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD105" s="94"/>
+      <c r="AE105" s="107"/>
+      <c r="AF105" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="AG105" s="107">
+        <v>2296</v>
+      </c>
+      <c r="AH105" s="107"/>
+    </row>
+    <row r="106" spans="1:34">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4783,8 +5029,19 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="AA106" s="107"/>
+      <c r="AC106" s="107" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF106" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG106" s="107">
+        <v>46</v>
+      </c>
+      <c r="AH106" s="107"/>
+    </row>
+    <row r="107" spans="1:34">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4796,8 +5053,19 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="AA107" s="107"/>
+      <c r="AC107" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF107" s="107" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG107" s="107">
+        <v>2346</v>
+      </c>
+      <c r="AH107" s="107"/>
+    </row>
+    <row r="108" spans="1:34">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4809,8 +5077,19 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="AA108" s="107"/>
+      <c r="AC108" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF108" s="107" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG108" s="107">
+        <v>2444</v>
+      </c>
+      <c r="AH108" s="107"/>
+    </row>
+    <row r="109" spans="1:34">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4822,8 +5101,19 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="AA109" s="107"/>
+      <c r="AC109" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF109" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG109" s="107">
+        <v>444</v>
+      </c>
+      <c r="AH109" s="107"/>
+    </row>
+    <row r="110" spans="1:34">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4835,8 +5125,13 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="AA110" s="107"/>
+      <c r="AC110" s="107"/>
+      <c r="AF110" s="107"/>
+      <c r="AG110" s="107"/>
+      <c r="AH110" s="107"/>
+    </row>
+    <row r="111" spans="1:34">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4848,8 +5143,21 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="AA111" s="107" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC111" s="107" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF111" s="107" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG111" s="107">
+        <v>284</v>
+      </c>
+      <c r="AH111" s="107"/>
+    </row>
+    <row r="112" spans="1:34">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4861,8 +5169,19 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="AA112" s="107"/>
+      <c r="AC112" s="107" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF112" s="107" t="s">
+        <v>501</v>
+      </c>
+      <c r="AG112" s="107">
+        <v>304</v>
+      </c>
+      <c r="AH112" s="107"/>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4874,8 +5193,17 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="AC113" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF113" s="117" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG113" s="117">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4887,8 +5215,14 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="AA114" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4900,8 +5234,14 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="AA115" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4914,7 +5254,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:33">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4927,7 +5267,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:33">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4940,7 +5280,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:33">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4953,7 +5293,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:33">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4966,7 +5306,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:33">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4979,7 +5319,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:33">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4992,7 +5332,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:33">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5005,7 +5345,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:33">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5018,7 +5358,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:33">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5031,7 +5371,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:33">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5044,7 +5384,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:33">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5057,7 +5397,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:33">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5174,7 +5514,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="R136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -5205,10 +5545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L335"/>
+  <dimension ref="B2:L336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="H328" sqref="H328"/>
+    <sheetView topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5216,6 +5556,7 @@
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
     <col min="11" max="11" width="2.28515625" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
@@ -5226,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>7</v>
@@ -5242,18 +5583,18 @@
     <row r="3" spans="2:12">
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
       <c r="I3" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J3" s="100"/>
       <c r="L3" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -5283,7 +5624,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -5299,7 +5640,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -5313,7 +5654,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -5327,7 +5668,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -5363,7 +5704,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -5391,7 +5732,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -5406,7 +5747,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5451,7 +5792,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -5466,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5613,7 +5954,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -5700,7 +6041,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5728,7 +6069,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5741,7 +6082,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -5757,7 +6098,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -5772,7 +6113,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5791,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -5816,7 +6157,7 @@
         <v>36</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5835,7 +6176,7 @@
         <v>29</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G43" s="16"/>
     </row>
@@ -5845,7 +6186,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>29</v>
@@ -5860,7 +6201,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -5873,7 +6214,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>29</v>
@@ -5889,7 +6230,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>29</v>
@@ -5911,7 +6252,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
@@ -5930,7 +6271,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5943,7 +6284,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>30</v>
@@ -5959,7 +6300,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>30</v>
@@ -5975,7 +6316,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -5989,7 +6330,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -6005,7 +6346,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -6083,7 +6424,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -6130,7 +6471,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -6143,7 +6484,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>29</v>
@@ -6159,7 +6500,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>29</v>
@@ -6191,7 +6532,7 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>29</v>
@@ -6280,7 +6621,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -6324,7 +6665,7 @@
         <v>66</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6337,7 +6678,7 @@
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -6353,7 +6694,7 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -6369,7 +6710,7 @@
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -6385,7 +6726,7 @@
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -6401,7 +6742,7 @@
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -6417,7 +6758,7 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -6432,7 +6773,7 @@
         <v>73</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6445,7 +6786,7 @@
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>30</v>
@@ -6461,7 +6802,7 @@
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>30</v>
@@ -6477,7 +6818,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>30</v>
@@ -6493,7 +6834,7 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>30</v>
@@ -6509,7 +6850,7 @@
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>30</v>
@@ -6525,7 +6866,7 @@
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>30</v>
@@ -6573,7 +6914,7 @@
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>30</v>
@@ -6589,7 +6930,7 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>30</v>
@@ -6762,7 +7103,7 @@
         <v>95</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6823,7 +7164,7 @@
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -6887,7 +7228,7 @@
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -6903,7 +7244,7 @@
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="3">
@@ -6917,7 +7258,7 @@
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -6942,7 +7283,7 @@
         <v>107</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6955,7 +7296,7 @@
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>29</v>
@@ -6971,7 +7312,7 @@
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>30</v>
@@ -6987,7 +7328,7 @@
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>30</v>
@@ -7003,7 +7344,7 @@
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -7034,7 +7375,7 @@
         <v>113</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7047,7 +7388,7 @@
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>30</v>
@@ -7063,7 +7404,7 @@
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>30</v>
@@ -7078,7 +7419,7 @@
         <v>116</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7091,7 +7432,7 @@
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>30</v>
@@ -7107,7 +7448,7 @@
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>30</v>
@@ -7123,7 +7464,7 @@
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>30</v>
@@ -7139,7 +7480,7 @@
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>30</v>
@@ -7155,7 +7496,7 @@
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>30</v>
@@ -7171,7 +7512,7 @@
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>30</v>
@@ -7187,7 +7528,7 @@
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>30</v>
@@ -7203,7 +7544,7 @@
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>30</v>
@@ -7235,7 +7576,7 @@
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>30</v>
@@ -7315,7 +7656,7 @@
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -7331,7 +7672,7 @@
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -7353,7 +7694,7 @@
         <v>11</v>
       </c>
       <c r="F144" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G144" s="2"/>
     </row>
@@ -7465,7 +7806,7 @@
         <v>29</v>
       </c>
       <c r="F151" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G151" s="2"/>
     </row>
@@ -7473,7 +7814,7 @@
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>29</v>
@@ -7487,7 +7828,7 @@
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>29</v>
@@ -7692,7 +8033,7 @@
         <v>153</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -7736,7 +8077,7 @@
         <v>156</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -7780,7 +8121,7 @@
         <v>159</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7825,13 +8166,13 @@
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="2" t="s">
-        <v>57</v>
+        <v>467</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F175" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2"/>
     </row>
@@ -8032,7 +8373,7 @@
         <v>175</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -8103,7 +8444,7 @@
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="102" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="193" spans="2:10">
@@ -8111,9 +8452,15 @@
         <v>181</v>
       </c>
       <c r="C193" s="3"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="3"/>
+      <c r="D193" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
       <c r="G193" s="2"/>
     </row>
     <row r="194" spans="2:10">
@@ -8121,7 +8468,7 @@
         <v>182</v>
       </c>
       <c r="C194" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -8170,7 +8517,7 @@
         <v>29</v>
       </c>
       <c r="F197" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197" s="2"/>
     </row>
@@ -8201,7 +8548,7 @@
         <v>199</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>200</v>
+        <v>481</v>
       </c>
       <c r="F199" s="3">
         <v>0</v>
@@ -8209,196 +8556,194 @@
       <c r="G199" s="2"/>
     </row>
     <row r="200" spans="2:10">
-      <c r="B200" s="3">
-        <v>188</v>
-      </c>
-      <c r="C200" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="2:10">
       <c r="B201" s="3">
-        <v>189</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F201" s="3">
-        <v>3.75</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C201" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="3"/>
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="2:10">
       <c r="B202" s="3">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F202" s="3">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" spans="2:10">
       <c r="B203" s="3">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F203" s="3">
-        <v>1.18</v>
+        <v>8</v>
       </c>
       <c r="G203" s="2"/>
     </row>
     <row r="204" spans="2:10">
       <c r="B204" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F204" s="3">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="2:10">
       <c r="B205" s="3">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F205" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="2:10">
       <c r="B206" s="3">
-        <v>194</v>
-      </c>
-      <c r="C206" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="3">
+        <v>2</v>
+      </c>
       <c r="G206" s="2"/>
     </row>
     <row r="207" spans="2:10">
       <c r="B207" s="3">
-        <v>195</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="3">
-        <v>11</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C207" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="3"/>
       <c r="G207" s="2"/>
     </row>
     <row r="208" spans="2:10">
       <c r="B208" s="3">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="2" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F208" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="3">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F209" s="3">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="G209" s="2"/>
     </row>
     <row r="210" spans="2:7">
       <c r="B210" s="3">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F210" s="3">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" spans="2:7">
       <c r="B211" s="3">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F211" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G211" s="2"/>
     </row>
     <row r="212" spans="2:7">
       <c r="B212" s="3">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>11</v>
@@ -8410,149 +8755,149 @@
     </row>
     <row r="213" spans="2:7">
       <c r="B213" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" spans="2:7">
       <c r="B214" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F214" s="3">
-        <v>750</v>
-      </c>
-      <c r="G214" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" spans="2:7">
       <c r="B215" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F215" s="3">
-        <v>250</v>
-      </c>
-      <c r="G215" s="16"/>
+        <v>700</v>
+      </c>
+      <c r="G215" s="4"/>
     </row>
     <row r="216" spans="2:7">
       <c r="B216" s="3">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="2" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F216" s="3">
-        <v>14</v>
-      </c>
-      <c r="G216" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="G216" s="16"/>
     </row>
     <row r="217" spans="2:7">
       <c r="B217" s="3">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="3"/>
-      <c r="D217" s="6" t="s">
-        <v>188</v>
+      <c r="D217" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G217" s="4"/>
     </row>
     <row r="218" spans="2:7">
       <c r="B218" s="3">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C218" s="3"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="3"/>
+      <c r="D218" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F218" s="3">
+        <v>2</v>
+      </c>
       <c r="G218" s="4"/>
     </row>
     <row r="219" spans="2:7">
       <c r="B219" s="3">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F219" s="16">
-        <v>5</v>
-      </c>
-      <c r="G219" s="16"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="4"/>
     </row>
     <row r="220" spans="2:7">
       <c r="B220" s="3">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F220" s="3">
-        <v>4.4349999999999996</v>
-      </c>
-      <c r="G220" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F220" s="16">
+        <v>5</v>
+      </c>
+      <c r="G220" s="16"/>
     </row>
     <row r="221" spans="2:7">
       <c r="B221" s="3">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="2" t="s">
-        <v>447</v>
+        <v>94</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F221" s="3">
-        <v>1</v>
+        <v>4.4349999999999996</v>
       </c>
       <c r="G221" s="4"/>
     </row>
     <row r="222" spans="2:7">
       <c r="B222" s="3">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="2" t="s">
-        <v>96</v>
+        <v>446</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>95</v>
@@ -8560,282 +8905,282 @@
       <c r="F222" s="3">
         <v>0</v>
       </c>
-      <c r="G222" s="2"/>
+      <c r="G222" s="4"/>
     </row>
     <row r="223" spans="2:7">
       <c r="B223" s="3">
-        <v>211</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0</v>
+      </c>
       <c r="G223" s="2"/>
     </row>
     <row r="224" spans="2:7">
       <c r="B224" s="3">
-        <v>212</v>
-      </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F224" s="3">
-        <v>3</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="3"/>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="2:10">
       <c r="B225" s="3">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F225" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" spans="2:10">
       <c r="B226" s="3">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F226" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" spans="2:10">
       <c r="B227" s="3">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G227" s="2"/>
     </row>
     <row r="228" spans="2:10">
       <c r="B228" s="3">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" s="3">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="G228" s="2"/>
     </row>
     <row r="229" spans="2:10">
       <c r="B229" s="3">
-        <v>217</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="3">
+        <v>4</v>
+      </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="2:10">
       <c r="B230" s="3">
-        <v>218</v>
-      </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F230" s="3">
-        <v>4</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="3"/>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="2:10">
       <c r="B231" s="3">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F231" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G231" s="2"/>
     </row>
     <row r="232" spans="2:10">
       <c r="B232" s="3">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F232" s="20">
-        <v>4</v>
+      <c r="F232" s="3">
+        <v>5</v>
       </c>
       <c r="G232" s="2"/>
     </row>
     <row r="233" spans="2:10">
       <c r="B233" s="3">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="2:10">
       <c r="B234" s="3">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F234" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G234" s="2"/>
     </row>
     <row r="235" spans="2:10">
       <c r="B235" s="3">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E235" s="5" t="s">
+      <c r="D235" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F235" s="84">
-        <v>11</v>
-      </c>
-      <c r="G235" s="16"/>
-      <c r="H235" s="10"/>
-      <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
+      <c r="F235" s="20">
+        <v>5</v>
+      </c>
+      <c r="G235" s="2"/>
     </row>
     <row r="236" spans="2:10">
       <c r="B236" s="3">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C236" s="3"/>
-      <c r="D236" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E236" s="2" t="s">
+      <c r="D236" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E236" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F236" s="20">
-        <v>1</v>
-      </c>
-      <c r="G236" s="2"/>
+      <c r="F236" s="84">
+        <v>11</v>
+      </c>
+      <c r="G236" s="16"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
     </row>
     <row r="237" spans="2:10">
       <c r="B237" s="3">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F237" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G237" s="2"/>
     </row>
     <row r="238" spans="2:10">
       <c r="B238" s="3">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G238" s="2"/>
     </row>
     <row r="239" spans="2:10">
       <c r="B239" s="3">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239" s="2"/>
     </row>
     <row r="240" spans="2:10">
       <c r="B240" s="3">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>11</v>
@@ -8847,484 +9192,490 @@
     </row>
     <row r="241" spans="2:10">
       <c r="B241" s="3">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F241" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="2:10">
       <c r="B242" s="3">
-        <v>230</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>255</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C242" s="3"/>
       <c r="D242" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F242" s="3">
-        <v>0</v>
+      <c r="F242" s="20">
+        <v>5</v>
       </c>
       <c r="G242" s="2"/>
     </row>
     <row r="243" spans="2:10">
       <c r="B243" s="3">
-        <v>231</v>
-      </c>
-      <c r="C243" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="20"/>
+        <v>230</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0</v>
+      </c>
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="2:10">
       <c r="B244" s="3">
-        <v>232</v>
-      </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F244" s="85">
-        <v>15.5</v>
-      </c>
-      <c r="G244" s="16"/>
+        <v>231</v>
+      </c>
+      <c r="C244" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="2"/>
     </row>
     <row r="245" spans="2:10">
       <c r="B245" s="3">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="2" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F245" s="85">
-        <v>500</v>
+        <v>15.5</v>
       </c>
       <c r="G245" s="16"/>
     </row>
     <row r="246" spans="2:10">
       <c r="B246" s="3">
-        <v>234</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F246" s="85">
+        <v>500</v>
+      </c>
+      <c r="G246" s="16"/>
     </row>
     <row r="247" spans="2:10">
       <c r="B247" s="3">
-        <v>235</v>
-      </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F247" s="16">
-        <v>28</v>
-      </c>
-      <c r="G247" s="16"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="4"/>
     </row>
     <row r="248" spans="2:10">
       <c r="B248" s="3">
-        <v>236</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F248" s="16">
+        <v>28</v>
+      </c>
+      <c r="G248" s="16"/>
     </row>
     <row r="249" spans="2:10">
       <c r="B249" s="3">
-        <v>237</v>
-      </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F249" s="3">
-        <v>27</v>
-      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="2:10">
       <c r="B250" s="3">
-        <v>238</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F250" s="3">
+        <v>26</v>
+      </c>
       <c r="G250" s="2"/>
     </row>
     <row r="251" spans="2:10">
       <c r="B251" s="3">
-        <v>239</v>
-      </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F251" s="3">
-        <v>205</v>
-      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="3"/>
       <c r="G251" s="2"/>
-      <c r="J251" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="252" spans="2:10">
       <c r="B252" s="3">
-        <v>240</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F252" s="3">
+        <v>205</v>
+      </c>
       <c r="G252" s="2"/>
+      <c r="J252" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="253" spans="2:10">
       <c r="B253" s="3">
-        <v>241</v>
-      </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" s="3">
-        <v>5</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="3"/>
       <c r="G253" s="2"/>
     </row>
     <row r="254" spans="2:10">
       <c r="B254" s="3">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G254" s="2"/>
     </row>
     <row r="255" spans="2:10">
       <c r="B255" s="3">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F255" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G255" s="2"/>
     </row>
     <row r="256" spans="2:10">
       <c r="B256" s="3">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F256" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G256" s="2"/>
     </row>
     <row r="257" spans="2:7">
       <c r="B257" s="3">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F257" s="3">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="G257" s="2"/>
     </row>
     <row r="258" spans="2:7">
       <c r="B258" s="3">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="6" t="s">
-        <v>189</v>
+      <c r="D258" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="G258" s="2"/>
     </row>
     <row r="259" spans="2:7">
       <c r="B259" s="3">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="2:7">
       <c r="B260" s="3">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C260" s="3"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="3"/>
+      <c r="D260" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260" s="3">
+        <v>4</v>
+      </c>
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="2:7">
       <c r="B261" s="3">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
+      <c r="F261" s="3"/>
       <c r="G261" s="2"/>
     </row>
     <row r="262" spans="2:7">
       <c r="B262" s="3">
-        <v>250</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F262" s="3">
-        <v>12</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
       <c r="G262" s="2"/>
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="3">
-        <v>251</v>
-      </c>
-      <c r="C263" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="D263" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F263" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G263" s="2"/>
     </row>
     <row r="264" spans="2:7">
       <c r="B264" s="3">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G264" s="2"/>
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="3">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G265" s="2"/>
     </row>
     <row r="266" spans="2:7">
       <c r="B266" s="3">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F266" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G266" s="2"/>
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="3">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F267" s="3">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G267" s="2"/>
     </row>
     <row r="268" spans="2:7">
       <c r="B268" s="3">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F268" s="3">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G268" s="2"/>
     </row>
     <row r="269" spans="2:7">
       <c r="B269" s="3">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C269" s="3"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
+      <c r="D269" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269" s="3">
+        <v>12</v>
+      </c>
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="2:7">
       <c r="B270" s="3">
-        <v>258</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F270" s="3">
-        <v>7</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
     <row r="271" spans="2:7">
       <c r="B271" s="3">
-        <v>259</v>
-      </c>
-      <c r="C271" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="D271" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G271" s="2"/>
     </row>
     <row r="272" spans="2:7">
       <c r="B272" s="3">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C272" s="3"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
+      <c r="D272" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" s="3">
+        <v>6</v>
+      </c>
       <c r="G272" s="2"/>
     </row>
     <row r="273" spans="2:7">
       <c r="B273" s="3">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="2"/>
@@ -9334,33 +9685,33 @@
     </row>
     <row r="274" spans="2:7">
       <c r="B274" s="3">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C274" s="3"/>
-      <c r="D274" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F274" s="3">
-        <v>4</v>
-      </c>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
       <c r="G274" s="2"/>
     </row>
     <row r="275" spans="2:7">
       <c r="B275" s="3">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C275" s="3"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
+      <c r="D275" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F275" s="3">
+        <v>4</v>
+      </c>
       <c r="G275" s="2"/>
     </row>
     <row r="276" spans="2:7">
       <c r="B276" s="3">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="2"/>
@@ -9370,33 +9721,33 @@
     </row>
     <row r="277" spans="2:7">
       <c r="B277" s="3">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C277" s="3"/>
-      <c r="D277" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F277" s="3">
-        <v>0</v>
-      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="2:7">
       <c r="B278" s="3">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C278" s="3"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
+      <c r="D278" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0</v>
+      </c>
       <c r="G278" s="2"/>
     </row>
     <row r="279" spans="2:7">
       <c r="B279" s="3">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="2"/>
@@ -9406,7 +9757,7 @@
     </row>
     <row r="280" spans="2:7">
       <c r="B280" s="3">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="2"/>
@@ -9416,33 +9767,33 @@
     </row>
     <row r="281" spans="2:7">
       <c r="B281" s="3">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C281" s="3"/>
-      <c r="D281" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F281" s="3">
-        <v>51</v>
-      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
       <c r="G281" s="2"/>
     </row>
     <row r="282" spans="2:7">
       <c r="B282" s="3">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C282" s="3"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
+      <c r="D282" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" s="3">
+        <v>51</v>
+      </c>
       <c r="G282" s="2"/>
     </row>
     <row r="283" spans="2:7">
       <c r="B283" s="3">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="2"/>
@@ -9452,7 +9803,7 @@
     </row>
     <row r="284" spans="2:7">
       <c r="B284" s="3">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="2"/>
@@ -9462,131 +9813,125 @@
     </row>
     <row r="285" spans="2:7">
       <c r="B285" s="3">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C285" s="3"/>
-      <c r="D285" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F285" s="3">
-        <v>6</v>
-      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
       <c r="G285" s="2"/>
     </row>
     <row r="286" spans="2:7">
       <c r="B286" s="3">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F286" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G286" s="2"/>
     </row>
     <row r="287" spans="2:7">
       <c r="B287" s="3">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C287" s="3"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="3"/>
+      <c r="D287" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F287" s="3">
+        <v>0</v>
+      </c>
       <c r="G287" s="2"/>
     </row>
     <row r="288" spans="2:7">
       <c r="B288" s="3">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
+      <c r="F288" s="3"/>
       <c r="G288" s="2"/>
     </row>
     <row r="289" spans="2:7">
       <c r="B289" s="3">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C289" s="3"/>
-      <c r="D289" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F289" s="3">
-        <v>35</v>
-      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
       <c r="G289" s="2"/>
     </row>
     <row r="290" spans="2:7">
       <c r="B290" s="3">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C290" s="3"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
+      <c r="D290" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F290" s="3">
+        <v>35</v>
+      </c>
       <c r="G290" s="2"/>
     </row>
     <row r="291" spans="2:7">
       <c r="B291" s="3">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="2"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="3"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
       <c r="G291" s="2"/>
     </row>
     <row r="292" spans="2:7">
       <c r="B292" s="3">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F292" s="3">
-        <v>0</v>
-      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="3"/>
       <c r="G292" s="2"/>
     </row>
     <row r="293" spans="2:7">
       <c r="B293" s="3">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F293" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G293" s="2"/>
     </row>
     <row r="294" spans="2:7">
       <c r="B294" s="3">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>11</v>
@@ -9598,37 +9943,37 @@
     </row>
     <row r="295" spans="2:7">
       <c r="B295" s="3">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C295" s="3"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
+      <c r="D295" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" s="3">
+        <v>3</v>
+      </c>
       <c r="G295" s="2"/>
     </row>
     <row r="296" spans="2:7">
       <c r="B296" s="3">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C296" s="3"/>
-      <c r="D296" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F296" s="3">
-        <v>2</v>
-      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
       <c r="G296" s="2"/>
     </row>
     <row r="297" spans="2:7">
       <c r="B297" s="3">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="3"/>
-      <c r="D297" s="6" t="s">
-        <v>183</v>
+      <c r="D297" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>29</v>
@@ -9640,11 +9985,11 @@
     </row>
     <row r="298" spans="2:7">
       <c r="B298" s="3">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>29</v>
@@ -9656,17 +10001,23 @@
     </row>
     <row r="299" spans="2:7">
       <c r="B299" s="3">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
+      <c r="D299" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F299" s="3">
+        <v>2</v>
+      </c>
       <c r="G299" s="2"/>
     </row>
     <row r="300" spans="2:7">
       <c r="B300" s="3">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="2"/>
@@ -9676,33 +10027,33 @@
     </row>
     <row r="301" spans="2:7">
       <c r="B301" s="3">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C301" s="3"/>
-      <c r="D301" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F301" s="3">
-        <v>10</v>
-      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
       <c r="G301" s="2"/>
     </row>
     <row r="302" spans="2:7">
       <c r="B302" s="3">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
+      <c r="D302" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F302" s="3">
+        <v>10</v>
+      </c>
       <c r="G302" s="2"/>
     </row>
     <row r="303" spans="2:7">
       <c r="B303" s="3">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="2"/>
@@ -9712,7 +10063,7 @@
     </row>
     <row r="304" spans="2:7">
       <c r="B304" s="3">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="2"/>
@@ -9722,37 +10073,31 @@
     </row>
     <row r="305" spans="2:7">
       <c r="B305" s="3">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="3"/>
+      <c r="F305" s="2"/>
       <c r="G305" s="2"/>
     </row>
     <row r="306" spans="2:7">
       <c r="B306" s="3">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C306" s="3"/>
-      <c r="D306" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F306" s="3">
-        <v>2</v>
-      </c>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="3"/>
       <c r="G306" s="2"/>
     </row>
     <row r="307" spans="2:7">
       <c r="B307" s="3">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>29</v>
@@ -9764,192 +10109,192 @@
     </row>
     <row r="308" spans="2:7">
       <c r="B308" s="3">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C308" s="3"/>
+      <c r="D308" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F308" s="3">
+        <v>2</v>
+      </c>
       <c r="G308" s="2"/>
     </row>
     <row r="309" spans="2:7">
       <c r="B309" s="3">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="D309" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F309" s="3">
-        <v>2.5</v>
-      </c>
       <c r="G309" s="2"/>
     </row>
     <row r="310" spans="2:7">
       <c r="B310" s="3">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E310" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F310" s="16">
-        <v>26.5</v>
-      </c>
-      <c r="G310" s="16"/>
+      <c r="F310" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G310" s="2"/>
     </row>
     <row r="311" spans="2:7">
       <c r="B311" s="3">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F311" s="16">
-        <v>25.25</v>
+        <v>26.5</v>
       </c>
       <c r="G311" s="16"/>
     </row>
     <row r="312" spans="2:7">
       <c r="B312" s="3">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F312" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G312" s="2"/>
+      <c r="F312" s="16">
+        <v>25.25</v>
+      </c>
+      <c r="G312" s="16"/>
     </row>
     <row r="313" spans="2:7">
       <c r="B313" s="3">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F313" s="16">
-        <v>26.75</v>
-      </c>
-      <c r="G313" s="16"/>
+      <c r="F313" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G313" s="2"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="3"/>
+      <c r="B314" s="3">
+        <v>301</v>
+      </c>
       <c r="C314" s="3"/>
       <c r="D314" s="6" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
       <c r="E314" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F314" s="16">
-        <v>0</v>
+        <v>26.75</v>
       </c>
       <c r="G314" s="16"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="3">
-        <v>302</v>
-      </c>
+      <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="6" t="s">
-        <v>198</v>
+        <v>392</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F315" s="3">
-        <v>740</v>
-      </c>
-      <c r="G315" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="F315" s="16">
+        <v>0</v>
+      </c>
+      <c r="G315" s="16"/>
     </row>
     <row r="316" spans="2:7">
       <c r="B316" s="3">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="6" t="s">
-        <v>392</v>
+        <v>198</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F316" s="16">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F316" s="3">
+        <v>640</v>
       </c>
       <c r="G316" s="2"/>
     </row>
     <row r="317" spans="2:7">
       <c r="B317" s="3">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="6" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F317" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G317" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="F317" s="16">
+        <v>0</v>
+      </c>
+      <c r="G317" s="2"/>
     </row>
     <row r="318" spans="2:7">
       <c r="B318" s="3">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>29</v>
+        <v>200</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F318" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G318" s="16"/>
     </row>
     <row r="319" spans="2:7">
       <c r="B319" s="3">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>95</v>
+        <v>201</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F319" s="3">
-        <v>0</v>
-      </c>
-      <c r="G319" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G319" s="16"/>
     </row>
     <row r="320" spans="2:7">
       <c r="B320" s="3">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E320" s="6" t="s">
         <v>95</v>
@@ -9961,11 +10306,11 @@
     </row>
     <row r="321" spans="2:7">
       <c r="B321" s="3">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>95</v>
@@ -9977,11 +10322,11 @@
     </row>
     <row r="322" spans="2:7">
       <c r="B322" s="3">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E322" s="6" t="s">
         <v>95</v>
@@ -9993,27 +10338,27 @@
     </row>
     <row r="323" spans="2:7">
       <c r="B323" s="3">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C323" s="3"/>
-      <c r="D323" s="7" t="s">
-        <v>207</v>
+      <c r="D323" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F323" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G323" s="2"/>
     </row>
     <row r="324" spans="2:7">
       <c r="B324" s="3">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E324" s="6" t="s">
         <v>89</v>
@@ -10025,14 +10370,14 @@
     </row>
     <row r="325" spans="2:7">
       <c r="B325" s="3">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F325" s="3">
         <v>0</v>
@@ -10041,11 +10386,11 @@
     </row>
     <row r="326" spans="2:7">
       <c r="B326" s="3">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C326" s="3"/>
-      <c r="D326" s="2" t="s">
-        <v>210</v>
+      <c r="D326" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E326" s="6" t="s">
         <v>29</v>
@@ -10057,11 +10402,11 @@
     </row>
     <row r="327" spans="2:7">
       <c r="B327" s="3">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C327" s="3"/>
-      <c r="D327" s="6" t="s">
-        <v>211</v>
+      <c r="D327" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E327" s="6" t="s">
         <v>29</v>
@@ -10073,14 +10418,14 @@
     </row>
     <row r="328" spans="2:7">
       <c r="B328" s="3">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F328" s="3">
         <v>0</v>
@@ -10089,14 +10434,14 @@
     </row>
     <row r="329" spans="2:7">
       <c r="B329" s="3">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F329" s="3">
         <v>0</v>
@@ -10105,102 +10450,123 @@
     </row>
     <row r="330" spans="2:7">
       <c r="B330" s="3">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="6" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="E330" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F330" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G330" s="2"/>
     </row>
     <row r="331" spans="2:7">
       <c r="B331" s="3">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E331" s="6"/>
+      <c r="D331" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F331" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G331" s="2"/>
     </row>
     <row r="332" spans="2:7">
       <c r="B332" s="3">
-        <v>319</v>
-      </c>
-      <c r="C332" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C332" s="3"/>
       <c r="D332" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E332" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E332" s="6"/>
       <c r="F332" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332" s="2"/>
     </row>
     <row r="333" spans="2:7">
       <c r="B333" s="3">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E333" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F333" s="12">
-        <v>11</v>
+      <c r="F333" s="3">
+        <v>1</v>
       </c>
       <c r="G333" s="2"/>
     </row>
     <row r="334" spans="2:7">
       <c r="B334" s="3">
+        <v>320</v>
+      </c>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F334" s="12">
+        <v>11</v>
+      </c>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="2:7">
+      <c r="B335" s="3">
         <v>321</v>
       </c>
-      <c r="C334" s="2"/>
-      <c r="D334" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E334" s="2" t="s">
+      <c r="C335" s="2"/>
+      <c r="D335" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F334" s="12">
+      <c r="F335" s="12">
         <v>0</v>
       </c>
-      <c r="G334" s="2"/>
-    </row>
-    <row r="335" spans="2:7">
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
       <c r="G335" s="2"/>
+    </row>
+    <row r="336" spans="2:7">
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="124" max="6" man="1"/>
+    <brk id="220" max="6" man="1"/>
+    <brk id="278" max="6" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N71"/>
+  <dimension ref="B2:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10223,28 +10589,28 @@
         <v>4</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>264</v>
-      </c>
       <c r="J3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -10252,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -10264,7 +10630,7 @@
         <v>44208</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4" s="3">
         <v>80</v>
@@ -10296,7 +10662,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -10306,7 +10672,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" s="3">
         <v>75</v>
@@ -10331,10 +10697,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="3">
         <v>5</v>
@@ -10362,7 +10728,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
       <c r="M8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -10370,7 +10736,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
@@ -10380,7 +10746,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H9" s="3">
         <v>180</v>
@@ -10409,7 +10775,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H10" s="3">
         <v>160</v>
@@ -10422,7 +10788,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -10437,10 +10803,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H11" s="3">
         <v>25</v>
@@ -10468,7 +10834,7 @@
         <v>44267</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H12" s="3">
         <v>16</v>
@@ -10505,7 +10871,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -10517,7 +10883,7 @@
         <v>44897</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H14" s="3">
         <v>95</v>
@@ -10573,7 +10939,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H17" s="2">
         <v>42</v>
@@ -10599,7 +10965,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H18" s="2">
         <v>35</v>
@@ -10625,7 +10991,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H19" s="2">
         <v>199</v>
@@ -10651,7 +11017,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H20" s="2">
         <v>94</v>
@@ -10707,7 +11073,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="87">
@@ -10717,7 +11083,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -10763,7 +11129,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H26" s="2">
         <v>160</v>
@@ -10775,7 +11141,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -10787,7 +11153,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -10815,7 +11181,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H28" s="2">
         <v>102</v>
@@ -10841,7 +11207,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H29" s="2">
         <v>134</v>
@@ -10867,7 +11233,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H30" s="2">
         <v>15</v>
@@ -10893,7 +11259,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H31" s="2">
         <v>95</v>
@@ -10919,7 +11285,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H32" s="2">
         <v>97</v>
@@ -10945,7 +11311,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H33" s="2">
         <v>22</v>
@@ -10967,11 +11333,11 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H34" s="2">
         <v>14</v>
@@ -10997,7 +11363,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H35" s="2">
         <v>37</v>
@@ -11023,7 +11389,7 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H36" s="2">
         <v>50</v>
@@ -11036,10 +11402,10 @@
       </c>
       <c r="K36" s="2"/>
       <c r="M36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="2:14">
@@ -11055,7 +11421,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H37" s="2">
         <v>15</v>
@@ -11085,7 +11451,7 @@
         <v>9167</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="2:14">
@@ -11099,11 +11465,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="87">
@@ -11125,11 +11491,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="87">
@@ -11151,16 +11517,12 @@
         <v>1580</v>
       </c>
       <c r="M41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="2"/>
       <c r="C42" s="98"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="87"/>
       <c r="J42" s="2"/>
@@ -11168,14 +11530,28 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="2"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D43" s="3">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H43" s="2">
+        <v>14</v>
+      </c>
+      <c r="I43" s="87">
+        <v>14</v>
+      </c>
+      <c r="J43" s="2">
+        <v>14</v>
+      </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="2:14">
@@ -11184,10 +11560,18 @@
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" s="2">
+        <v>5</v>
+      </c>
+      <c r="I44" s="87">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>5</v>
+      </c>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="2:14">
@@ -11196,40 +11580,72 @@
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H45" s="2">
+        <v>5</v>
+      </c>
+      <c r="I45" s="87">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>5</v>
+      </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="2"/>
       <c r="C46" s="98"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H46" s="2">
+        <v>5</v>
+      </c>
+      <c r="I46" s="87">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" s="2">
+        <v>14</v>
+      </c>
+      <c r="I47" s="87">
+        <v>14</v>
+      </c>
+      <c r="J47" s="2">
+        <v>14</v>
+      </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -11240,14 +11656,28 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2600</v>
+      </c>
+      <c r="I49" s="87">
+        <v>2250</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2250</v>
+      </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="2:11">
@@ -11264,14 +11694,28 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H51" s="2">
+        <v>210</v>
+      </c>
+      <c r="I51" s="87">
+        <v>160</v>
+      </c>
+      <c r="J51" s="2">
+        <v>160</v>
+      </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="2:11">
@@ -11364,7 +11808,9 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="87"/>
       <c r="J59" s="2"/>
@@ -11450,7 +11896,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="87"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
@@ -11514,6 +11960,18 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11524,8 +11982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11540,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -11556,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11607,7 +12065,7 @@
         <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -11654,7 +12112,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11664,7 +12122,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11684,7 +12142,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11694,7 +12152,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -11704,7 +12162,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11724,7 +12182,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -11734,7 +12192,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11744,7 +12202,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11754,7 +12212,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11765,7 +12223,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -11774,7 +12232,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -11792,7 +12250,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -11810,7 +12268,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -11828,7 +12286,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11846,7 +12304,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -11856,7 +12314,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -11866,7 +12324,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -11876,7 +12334,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -11886,7 +12344,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -11896,7 +12354,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -11944,7 +12402,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -11954,7 +12412,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -11984,7 +12442,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -11994,7 +12452,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -12052,7 +12510,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -12062,7 +12520,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -12179,7 +12637,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="73"/>
       <c r="B2" s="74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -12289,7 +12747,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="61"/>
       <c r="B10" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
@@ -12346,7 +12804,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="61"/>
       <c r="B14" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -12475,7 +12933,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="61"/>
       <c r="B23" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
@@ -12502,7 +12960,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="61"/>
       <c r="B25" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
@@ -12544,7 +13002,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="61"/>
       <c r="B28" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
@@ -12586,7 +13044,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="61"/>
       <c r="B31" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
@@ -12628,7 +13086,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="61"/>
       <c r="B34" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
@@ -12670,7 +13128,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="61"/>
       <c r="B37" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
@@ -12832,7 +13290,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="61"/>
       <c r="B48" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2"/>
@@ -12949,7 +13407,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="61"/>
       <c r="B56" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
@@ -12991,7 +13449,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="61"/>
       <c r="B59" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2"/>
@@ -13093,7 +13551,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="61"/>
       <c r="B66" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2"/>
@@ -13254,7 +13712,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="3"/>
@@ -13312,7 +13770,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="61"/>
       <c r="B81" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="2"/>
@@ -13369,7 +13827,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="61"/>
       <c r="B85" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="2"/>
@@ -13411,7 +13869,7 @@
     <row r="88" spans="1:8">
       <c r="A88" s="61"/>
       <c r="B88" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="2"/>
@@ -13603,7 +14061,7 @@
     <row r="101" spans="1:8">
       <c r="A101" s="61"/>
       <c r="B101" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="2"/>
@@ -13645,7 +14103,7 @@
     <row r="104" spans="1:8">
       <c r="A104" s="61"/>
       <c r="B104" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="2"/>
@@ -13687,7 +14145,7 @@
     <row r="107" spans="1:8">
       <c r="A107" s="61"/>
       <c r="B107" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
@@ -13879,7 +14337,7 @@
     <row r="120" spans="1:8">
       <c r="A120" s="61"/>
       <c r="B120" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
@@ -13918,7 +14376,7 @@
     <row r="123" spans="1:8">
       <c r="A123" s="61"/>
       <c r="B123" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="2"/>
@@ -14002,7 +14460,7 @@
     <row r="129" spans="1:8">
       <c r="A129" s="61"/>
       <c r="B129" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="2"/>
@@ -14044,7 +14502,7 @@
     <row r="132" spans="1:8">
       <c r="A132" s="61"/>
       <c r="B132" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="2"/>
@@ -14128,7 +14586,7 @@
     <row r="138" spans="1:8">
       <c r="A138" s="61"/>
       <c r="B138" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="2"/>
@@ -14350,7 +14808,7 @@
     <row r="153" spans="1:8">
       <c r="A153" s="61"/>
       <c r="B153" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="2"/>
@@ -14640,7 +15098,7 @@
     <row r="173" spans="1:8">
       <c r="A173" s="61"/>
       <c r="B173" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="2"/>
@@ -14655,7 +15113,7 @@
         <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="2"/>
@@ -14670,7 +15128,7 @@
         <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="2"/>
@@ -14697,7 +15155,7 @@
         <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="2"/>
@@ -14709,7 +15167,7 @@
     <row r="178" spans="1:8">
       <c r="A178" s="61"/>
       <c r="B178" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="2"/>
@@ -14724,7 +15182,7 @@
         <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="2"/>
@@ -14754,7 +15212,7 @@
         <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="2"/>
@@ -14782,7 +15240,7 @@
         <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="2"/>
@@ -14797,7 +15255,7 @@
         <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="2"/>
@@ -14812,7 +15270,7 @@
         <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="2"/>
@@ -14827,7 +15285,7 @@
         <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="2"/>
@@ -14842,7 +15300,7 @@
         <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="2"/>
@@ -14857,7 +15315,7 @@
         <v>151</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="2"/>
@@ -14872,7 +15330,7 @@
         <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="2"/>
@@ -14887,7 +15345,7 @@
         <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="2"/>
@@ -14902,7 +15360,7 @@
         <v>154</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="2"/>
@@ -14917,7 +15375,7 @@
         <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="2"/>
@@ -14932,7 +15390,7 @@
         <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="2"/>
@@ -14947,7 +15405,7 @@
         <v>157</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="2"/>
@@ -14962,7 +15420,7 @@
         <v>158</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="2"/>
@@ -14986,7 +15444,7 @@
         <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="2"/>
@@ -15000,7 +15458,7 @@
         <v>160</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="2"/>
@@ -15014,7 +15472,7 @@
         <v>161</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="2"/>
@@ -15028,7 +15486,7 @@
         <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="2"/>
@@ -15042,7 +15500,7 @@
         <v>163</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="2"/>
@@ -15056,7 +15514,7 @@
         <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="2"/>
@@ -15070,7 +15528,7 @@
         <v>165</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="2"/>
@@ -15082,7 +15540,7 @@
     <row r="204" spans="1:8">
       <c r="A204" s="61"/>
       <c r="B204" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="2"/>
@@ -15096,7 +15554,7 @@
         <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="2"/>
@@ -15110,7 +15568,7 @@
         <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="2"/>
@@ -15124,7 +15582,7 @@
         <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="2"/>
@@ -15136,7 +15594,7 @@
     <row r="208" spans="1:8">
       <c r="A208" s="61"/>
       <c r="B208" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="2"/>
@@ -15160,7 +15618,7 @@
         <v>169</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="2"/>
@@ -15184,7 +15642,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="2"/>
@@ -15208,7 +15666,7 @@
         <v>171</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="2"/>
@@ -15232,7 +15690,7 @@
         <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="2"/>
@@ -15246,7 +15704,7 @@
         <v>173</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="2"/>
@@ -15576,7 +16034,7 @@
         <v>196</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="2"/>
@@ -16138,7 +16596,7 @@
         <v>241</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C291" s="12"/>
       <c r="D291" s="6"/>
@@ -16152,7 +16610,7 @@
         <v>242</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C292" s="12"/>
       <c r="D292" s="6"/>
@@ -16311,16 +16769,16 @@
     <row r="4" spans="2:13">
       <c r="E4" s="1"/>
       <c r="F4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" t="s">
         <v>455</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>456</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>457</v>
-      </c>
-      <c r="M4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -16351,7 +16809,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -16363,7 +16821,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -16386,7 +16844,7 @@
         <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -16406,7 +16864,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="105" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -16429,7 +16887,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="105" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -16452,7 +16910,7 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="2:13">
